--- a/AAII_Financials/Quarterly/FJTSY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FJTSY_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
   <si>
     <t>FJTSY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,218 +665,231 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8392500</v>
+        <v>10272600</v>
       </c>
       <c r="E8" s="3">
-        <v>8999300</v>
+        <v>8577100</v>
       </c>
       <c r="F8" s="3">
-        <v>7624100</v>
+        <v>9197300</v>
       </c>
       <c r="G8" s="3">
-        <v>10367800</v>
+        <v>7791900</v>
       </c>
       <c r="H8" s="3">
-        <v>8883800</v>
+        <v>10595900</v>
       </c>
       <c r="I8" s="3">
-        <v>8789000</v>
+        <v>9079300</v>
       </c>
       <c r="J8" s="3">
+        <v>8982400</v>
+      </c>
+      <c r="K8" s="3">
         <v>7887000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>10594900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>9068300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>9045400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>8340600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>10682100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>9054700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>8940200</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5974400</v>
+        <v>7191600</v>
       </c>
       <c r="E9" s="3">
-        <v>6397000</v>
+        <v>6105900</v>
       </c>
       <c r="F9" s="3">
-        <v>5575400</v>
+        <v>6537800</v>
       </c>
       <c r="G9" s="3">
-        <v>7238800</v>
+        <v>5698100</v>
       </c>
       <c r="H9" s="3">
-        <v>6561400</v>
+        <v>7398100</v>
       </c>
       <c r="I9" s="3">
-        <v>6477100</v>
+        <v>6705800</v>
       </c>
       <c r="J9" s="3">
+        <v>6619700</v>
+      </c>
+      <c r="K9" s="3">
         <v>5900700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>7434500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>6706300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>6565400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>6111700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>7514400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>6501100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>6406200</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2418100</v>
+        <v>3081000</v>
       </c>
       <c r="E10" s="3">
-        <v>2602300</v>
+        <v>2471300</v>
       </c>
       <c r="F10" s="3">
-        <v>2048700</v>
+        <v>2659600</v>
       </c>
       <c r="G10" s="3">
-        <v>3129000</v>
+        <v>2093800</v>
       </c>
       <c r="H10" s="3">
-        <v>2322400</v>
+        <v>3197800</v>
       </c>
       <c r="I10" s="3">
-        <v>2311900</v>
+        <v>2373500</v>
       </c>
       <c r="J10" s="3">
+        <v>2362700</v>
+      </c>
+      <c r="K10" s="3">
         <v>1986300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3160500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2362000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2480000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2228900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3167600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2553600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2534000</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -894,8 +907,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -941,8 +955,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,8 +1005,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1002,14 +1022,14 @@
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>671700</v>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H14" s="3">
-        <v>396500</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
+        <v>686500</v>
+      </c>
+      <c r="I14" s="3">
+        <v>405200</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
@@ -1035,8 +1055,11 @@
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1082,8 +1105,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,102 +1124,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7934200</v>
+        <v>9436400</v>
       </c>
       <c r="E17" s="3">
-        <v>8384200</v>
+        <v>8108800</v>
       </c>
       <c r="F17" s="3">
-        <v>7593300</v>
+        <v>8568600</v>
       </c>
       <c r="G17" s="3">
-        <v>9788900</v>
+        <v>7760400</v>
       </c>
       <c r="H17" s="3">
-        <v>9145000</v>
+        <v>10004300</v>
       </c>
       <c r="I17" s="3">
-        <v>8646500</v>
+        <v>9346200</v>
       </c>
       <c r="J17" s="3">
+        <v>8836700</v>
+      </c>
+      <c r="K17" s="3">
         <v>7163500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>9293500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8973100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>8837100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>8295900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>10123400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>8749800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>8640300</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>458300</v>
+        <v>836200</v>
       </c>
       <c r="E18" s="3">
-        <v>615200</v>
+        <v>468300</v>
       </c>
       <c r="F18" s="3">
-        <v>30800</v>
+        <v>628700</v>
       </c>
       <c r="G18" s="3">
-        <v>578900</v>
+        <v>31400</v>
       </c>
       <c r="H18" s="3">
-        <v>-261200</v>
+        <v>591600</v>
       </c>
       <c r="I18" s="3">
-        <v>142500</v>
+        <v>-266900</v>
       </c>
       <c r="J18" s="3">
+        <v>145700</v>
+      </c>
+      <c r="K18" s="3">
         <v>723500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1301400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>95200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>208400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>44800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>558700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>304900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>299900</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,243 +1244,259 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>39900</v>
+        <v>36800</v>
       </c>
       <c r="E20" s="3">
-        <v>71800</v>
+        <v>40800</v>
       </c>
       <c r="F20" s="3">
-        <v>35600</v>
+        <v>73400</v>
       </c>
       <c r="G20" s="3">
-        <v>68600</v>
+        <v>36400</v>
       </c>
       <c r="H20" s="3">
-        <v>34000</v>
+        <v>70200</v>
       </c>
       <c r="I20" s="3">
-        <v>48200</v>
+        <v>34700</v>
       </c>
       <c r="J20" s="3">
+        <v>49200</v>
+      </c>
+      <c r="K20" s="3">
         <v>165400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>244600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>32400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>271100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>30400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>27500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>46900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>964600</v>
+        <v>1378900</v>
       </c>
       <c r="E21" s="3">
-        <v>1168500</v>
+        <v>985800</v>
       </c>
       <c r="F21" s="3">
-        <v>568900</v>
+        <v>1194200</v>
       </c>
       <c r="G21" s="3">
-        <v>1025000</v>
+        <v>581400</v>
       </c>
       <c r="H21" s="3">
-        <v>155400</v>
+        <v>1047500</v>
       </c>
       <c r="I21" s="3">
-        <v>536800</v>
+        <v>158900</v>
       </c>
       <c r="J21" s="3">
+        <v>548600</v>
+      </c>
+      <c r="K21" s="3">
         <v>1220000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1952300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>501700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>862300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>446500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1096200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>746400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>721600</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>9200</v>
+      <c r="D22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E22" s="3">
         <v>9400</v>
       </c>
       <c r="F22" s="3">
-        <v>9400</v>
+        <v>9600</v>
       </c>
       <c r="G22" s="3">
-        <v>7400</v>
+        <v>9600</v>
       </c>
       <c r="H22" s="3">
-        <v>7800</v>
+        <v>7500</v>
       </c>
       <c r="I22" s="3">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="J22" s="3">
         <v>7200</v>
       </c>
       <c r="K22" s="3">
+        <v>7200</v>
+      </c>
+      <c r="L22" s="3">
         <v>8400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>9500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>10000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>8300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>10800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>8600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>489000</v>
+        <v>873000</v>
       </c>
       <c r="E23" s="3">
-        <v>677600</v>
+        <v>499700</v>
       </c>
       <c r="F23" s="3">
-        <v>56900</v>
+        <v>692500</v>
       </c>
       <c r="G23" s="3">
-        <v>640200</v>
+        <v>58200</v>
       </c>
       <c r="H23" s="3">
-        <v>-235000</v>
+        <v>654300</v>
       </c>
       <c r="I23" s="3">
-        <v>183700</v>
+        <v>-240200</v>
       </c>
       <c r="J23" s="3">
+        <v>187800</v>
+      </c>
+      <c r="K23" s="3">
         <v>881700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1537600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>118000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>469500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>66900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>575400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>343200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>320900</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>153100</v>
+        <v>302300</v>
       </c>
       <c r="E24" s="3">
-        <v>165100</v>
+        <v>156400</v>
       </c>
       <c r="F24" s="3">
-        <v>6300</v>
+        <v>168700</v>
       </c>
       <c r="G24" s="3">
-        <v>153200</v>
+        <v>6500</v>
       </c>
       <c r="H24" s="3">
-        <v>28500</v>
+        <v>156600</v>
       </c>
       <c r="I24" s="3">
-        <v>91200</v>
+        <v>29100</v>
       </c>
       <c r="J24" s="3">
+        <v>93200</v>
+      </c>
+      <c r="K24" s="3">
         <v>191300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>502900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>37600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>75200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>57500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>39300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>149900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>79400</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1542,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>335900</v>
+        <v>570700</v>
       </c>
       <c r="E26" s="3">
-        <v>512500</v>
+        <v>343300</v>
       </c>
       <c r="F26" s="3">
-        <v>50600</v>
+        <v>523800</v>
       </c>
       <c r="G26" s="3">
-        <v>486900</v>
+        <v>51700</v>
       </c>
       <c r="H26" s="3">
-        <v>-263500</v>
+        <v>497600</v>
       </c>
       <c r="I26" s="3">
-        <v>92500</v>
+        <v>-269300</v>
       </c>
       <c r="J26" s="3">
+        <v>94600</v>
+      </c>
+      <c r="K26" s="3">
         <v>690400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1034700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>80500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>394300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>9400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>536000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>193300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>241500</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>329500</v>
+        <v>558700</v>
       </c>
       <c r="E27" s="3">
-        <v>514200</v>
+        <v>336700</v>
       </c>
       <c r="F27" s="3">
-        <v>64500</v>
+        <v>525500</v>
       </c>
       <c r="G27" s="3">
-        <v>482700</v>
+        <v>65900</v>
       </c>
       <c r="H27" s="3">
-        <v>-269700</v>
+        <v>493300</v>
       </c>
       <c r="I27" s="3">
-        <v>76100</v>
+        <v>-275700</v>
       </c>
       <c r="J27" s="3">
+        <v>77800</v>
+      </c>
+      <c r="K27" s="3">
         <v>661400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1029700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>50100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>380700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-13200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>529200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>159500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>211300</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1660,29 +1721,32 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>58000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-7100</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>32600</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-30200</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>21200</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>18600</v>
       </c>
     </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,102 +1842,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-39900</v>
+        <v>-36800</v>
       </c>
       <c r="E32" s="3">
-        <v>-71800</v>
+        <v>-40800</v>
       </c>
       <c r="F32" s="3">
-        <v>-35600</v>
+        <v>-73400</v>
       </c>
       <c r="G32" s="3">
-        <v>-68600</v>
+        <v>-36400</v>
       </c>
       <c r="H32" s="3">
-        <v>-34000</v>
+        <v>-70200</v>
       </c>
       <c r="I32" s="3">
-        <v>-48200</v>
+        <v>-34700</v>
       </c>
       <c r="J32" s="3">
+        <v>-49200</v>
+      </c>
+      <c r="K32" s="3">
         <v>-165400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-244600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-32400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-271100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-30400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-27500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-46900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-30200</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>329500</v>
+        <v>558700</v>
       </c>
       <c r="E33" s="3">
-        <v>514200</v>
+        <v>336700</v>
       </c>
       <c r="F33" s="3">
-        <v>64500</v>
+        <v>525500</v>
       </c>
       <c r="G33" s="3">
-        <v>482700</v>
+        <v>65900</v>
       </c>
       <c r="H33" s="3">
-        <v>-269700</v>
+        <v>493300</v>
       </c>
       <c r="I33" s="3">
-        <v>76100</v>
+        <v>-275700</v>
       </c>
       <c r="J33" s="3">
+        <v>77800</v>
+      </c>
+      <c r="K33" s="3">
         <v>661400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1029700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>108100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>373600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>19400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>499000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>180700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>229900</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +1992,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>329500</v>
+        <v>558700</v>
       </c>
       <c r="E35" s="3">
-        <v>514200</v>
+        <v>336700</v>
       </c>
       <c r="F35" s="3">
-        <v>64500</v>
+        <v>525500</v>
       </c>
       <c r="G35" s="3">
-        <v>482700</v>
+        <v>65900</v>
       </c>
       <c r="H35" s="3">
-        <v>-269700</v>
+        <v>493300</v>
       </c>
       <c r="I35" s="3">
-        <v>76100</v>
+        <v>-275700</v>
       </c>
       <c r="J35" s="3">
+        <v>77800</v>
+      </c>
+      <c r="K35" s="3">
         <v>661400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1029700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>108100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>373600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>19400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>499000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>180700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>229900</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,55 +2139,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4583500</v>
+        <v>4197800</v>
       </c>
       <c r="E41" s="3">
-        <v>3754200</v>
+        <v>4684400</v>
       </c>
       <c r="F41" s="3">
-        <v>4218500</v>
+        <v>3836800</v>
       </c>
       <c r="G41" s="3">
-        <v>3787700</v>
+        <v>4311300</v>
       </c>
       <c r="H41" s="3">
-        <v>3293200</v>
+        <v>3871000</v>
       </c>
       <c r="I41" s="3">
-        <v>3936000</v>
+        <v>3365700</v>
       </c>
       <c r="J41" s="3">
+        <v>4022600</v>
+      </c>
+      <c r="K41" s="3">
         <v>4852800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4091100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3514500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3640500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3944200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3376800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3378700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2907800</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2147,337 +2237,361 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>8263000</v>
+        <v>9038100</v>
       </c>
       <c r="E43" s="3">
-        <v>8593300</v>
+        <v>8444800</v>
       </c>
       <c r="F43" s="3">
-        <v>5963500</v>
+        <v>8782400</v>
       </c>
       <c r="G43" s="3">
-        <v>10301600</v>
+        <v>6094700</v>
       </c>
       <c r="H43" s="3">
-        <v>8567900</v>
+        <v>10528200</v>
       </c>
       <c r="I43" s="3">
-        <v>8355200</v>
+        <v>8756400</v>
       </c>
       <c r="J43" s="3">
+        <v>8539000</v>
+      </c>
+      <c r="K43" s="3">
         <v>7949100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>9504100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>8140100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>8112800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>7229000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>9456200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>8723500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>8133900</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3018200</v>
+        <v>2211700</v>
       </c>
       <c r="E44" s="3">
-        <v>2644200</v>
+        <v>3084600</v>
       </c>
       <c r="F44" s="3">
-        <v>2510800</v>
+        <v>2702400</v>
       </c>
       <c r="G44" s="3">
-        <v>2054700</v>
+        <v>2566100</v>
       </c>
       <c r="H44" s="3">
-        <v>2679200</v>
+        <v>2100000</v>
       </c>
       <c r="I44" s="3">
-        <v>2512600</v>
+        <v>2738200</v>
       </c>
       <c r="J44" s="3">
+        <v>2567900</v>
+      </c>
+      <c r="K44" s="3">
         <v>2568900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2184100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2619100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2715300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2696200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2600400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3205000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2890300</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1105900</v>
+        <v>2121000</v>
       </c>
       <c r="E45" s="3">
-        <v>1734900</v>
+        <v>1130200</v>
       </c>
       <c r="F45" s="3">
-        <v>3212600</v>
+        <v>1773100</v>
       </c>
       <c r="G45" s="3">
-        <v>1666500</v>
+        <v>3283200</v>
       </c>
       <c r="H45" s="3">
-        <v>2637500</v>
+        <v>1703200</v>
       </c>
       <c r="I45" s="3">
-        <v>2552300</v>
+        <v>2695600</v>
       </c>
       <c r="J45" s="3">
+        <v>2608500</v>
+      </c>
+      <c r="K45" s="3">
         <v>1638200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1101100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1572900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2370700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2509100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>908800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>924000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>838300</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>16970600</v>
+        <v>17568500</v>
       </c>
       <c r="E46" s="3">
-        <v>16726600</v>
+        <v>17344000</v>
       </c>
       <c r="F46" s="3">
-        <v>15905300</v>
+        <v>17094600</v>
       </c>
       <c r="G46" s="3">
-        <v>17810500</v>
+        <v>16255300</v>
       </c>
       <c r="H46" s="3">
-        <v>17177800</v>
+        <v>18202400</v>
       </c>
       <c r="I46" s="3">
-        <v>17356100</v>
+        <v>17555800</v>
       </c>
       <c r="J46" s="3">
+        <v>17738000</v>
+      </c>
+      <c r="K46" s="3">
         <v>17009000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>16880400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>15846500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>16839400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>16378500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>16342100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>16231300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>14770300</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2717200</v>
+        <v>2624300</v>
       </c>
       <c r="E47" s="3">
-        <v>2644800</v>
+        <v>2777000</v>
       </c>
       <c r="F47" s="3">
-        <v>2617500</v>
+        <v>2703000</v>
       </c>
       <c r="G47" s="3">
-        <v>2705100</v>
+        <v>2675100</v>
       </c>
       <c r="H47" s="3">
-        <v>2598900</v>
+        <v>2764600</v>
       </c>
       <c r="I47" s="3">
-        <v>3011300</v>
+        <v>2656100</v>
       </c>
       <c r="J47" s="3">
+        <v>3077600</v>
+      </c>
+      <c r="K47" s="3">
         <v>3008500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2818600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2568300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2387000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2600400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2588500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2502100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2282100</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5293200</v>
+        <v>5296900</v>
       </c>
       <c r="E48" s="3">
-        <v>5379500</v>
+        <v>5409600</v>
       </c>
       <c r="F48" s="3">
-        <v>5415300</v>
+        <v>5497800</v>
       </c>
       <c r="G48" s="3">
-        <v>3991200</v>
+        <v>5534400</v>
       </c>
       <c r="H48" s="3">
-        <v>4046000</v>
+        <v>4079000</v>
       </c>
       <c r="I48" s="3">
-        <v>4133100</v>
+        <v>4135000</v>
       </c>
       <c r="J48" s="3">
+        <v>4224000</v>
+      </c>
+      <c r="K48" s="3">
         <v>4290200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4751300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4833700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4984100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4980900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5292300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5365800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5402900</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1345500</v>
+        <v>1337000</v>
       </c>
       <c r="E49" s="3">
-        <v>1308700</v>
+        <v>1375100</v>
       </c>
       <c r="F49" s="3">
-        <v>1371300</v>
+        <v>1337500</v>
       </c>
       <c r="G49" s="3">
-        <v>1411200</v>
+        <v>1401500</v>
       </c>
       <c r="H49" s="3">
-        <v>1427100</v>
+        <v>1442300</v>
       </c>
       <c r="I49" s="3">
-        <v>1488300</v>
+        <v>1458500</v>
       </c>
       <c r="J49" s="3">
+        <v>1521000</v>
+      </c>
+      <c r="K49" s="3">
         <v>1508100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1565500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1609100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1638400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1634800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1731500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1773700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1761300</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,55 +2687,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1988100</v>
+        <v>2784700</v>
       </c>
       <c r="E52" s="3">
-        <v>2236000</v>
+        <v>2031800</v>
       </c>
       <c r="F52" s="3">
-        <v>2214800</v>
+        <v>2285200</v>
       </c>
       <c r="G52" s="3">
-        <v>2305000</v>
+        <v>2263500</v>
       </c>
       <c r="H52" s="3">
-        <v>1949000</v>
+        <v>2355700</v>
       </c>
       <c r="I52" s="3">
-        <v>1992500</v>
+        <v>1991900</v>
       </c>
       <c r="J52" s="3">
+        <v>2036300</v>
+      </c>
+      <c r="K52" s="3">
         <v>1967800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2202800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2103500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2053100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1898900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2354200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2168000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2425900</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,55 +2787,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>28314600</v>
+        <v>29611400</v>
       </c>
       <c r="E54" s="3">
-        <v>28295600</v>
+        <v>28937500</v>
       </c>
       <c r="F54" s="3">
-        <v>27524200</v>
+        <v>28918200</v>
       </c>
       <c r="G54" s="3">
-        <v>28223000</v>
+        <v>28129800</v>
       </c>
       <c r="H54" s="3">
-        <v>27198900</v>
+        <v>28844000</v>
       </c>
       <c r="I54" s="3">
-        <v>27981300</v>
+        <v>27797300</v>
       </c>
       <c r="J54" s="3">
+        <v>28596900</v>
+      </c>
+      <c r="K54" s="3">
         <v>27783500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>28218600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>26961200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>27902100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>27493600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>28308600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>28040900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>26642400</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,290 +2879,309 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4411300</v>
+        <v>4449600</v>
       </c>
       <c r="E57" s="3">
-        <v>4455000</v>
+        <v>4508400</v>
       </c>
       <c r="F57" s="3">
-        <v>4010800</v>
+        <v>4553100</v>
       </c>
       <c r="G57" s="3">
-        <v>4806300</v>
+        <v>4099000</v>
       </c>
       <c r="H57" s="3">
-        <v>4594000</v>
+        <v>4912000</v>
       </c>
       <c r="I57" s="3">
-        <v>4789600</v>
+        <v>4695100</v>
       </c>
       <c r="J57" s="3">
+        <v>4895000</v>
+      </c>
+      <c r="K57" s="3">
         <v>4925800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4890100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4536100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4442700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4365700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>5479100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>5278500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>4733500</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2165800</v>
+        <v>1852900</v>
       </c>
       <c r="E58" s="3">
-        <v>1853700</v>
+        <v>2213400</v>
       </c>
       <c r="F58" s="3">
-        <v>1434300</v>
+        <v>1894400</v>
       </c>
       <c r="G58" s="3">
-        <v>1189700</v>
+        <v>1465900</v>
       </c>
       <c r="H58" s="3">
-        <v>1097300</v>
+        <v>1215800</v>
       </c>
       <c r="I58" s="3">
-        <v>1341000</v>
+        <v>1121400</v>
       </c>
       <c r="J58" s="3">
+        <v>1370500</v>
+      </c>
+      <c r="K58" s="3">
         <v>1457300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1223900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1843800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1758100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1742400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1160100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2089100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1598500</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5418800</v>
+        <v>6384000</v>
       </c>
       <c r="E59" s="3">
-        <v>5541300</v>
+        <v>5538100</v>
       </c>
       <c r="F59" s="3">
-        <v>5561800</v>
+        <v>5663200</v>
       </c>
       <c r="G59" s="3">
-        <v>6411100</v>
+        <v>5684200</v>
       </c>
       <c r="H59" s="3">
-        <v>5968600</v>
+        <v>6552100</v>
       </c>
       <c r="I59" s="3">
-        <v>5804100</v>
+        <v>6099900</v>
       </c>
       <c r="J59" s="3">
+        <v>5931800</v>
+      </c>
+      <c r="K59" s="3">
         <v>5503600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5842700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5204500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>6069800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>6141100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>6062600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>5314400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>5197200</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>11995900</v>
+        <v>12686500</v>
       </c>
       <c r="E60" s="3">
-        <v>11850000</v>
+        <v>12259900</v>
       </c>
       <c r="F60" s="3">
-        <v>11006900</v>
+        <v>12110700</v>
       </c>
       <c r="G60" s="3">
-        <v>12407000</v>
+        <v>11249100</v>
       </c>
       <c r="H60" s="3">
-        <v>11659900</v>
+        <v>12680000</v>
       </c>
       <c r="I60" s="3">
-        <v>11934700</v>
+        <v>11916500</v>
       </c>
       <c r="J60" s="3">
+        <v>12197300</v>
+      </c>
+      <c r="K60" s="3">
         <v>11886800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>11956700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>11584400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>12270600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>12249300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>12701800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>12682100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>11529200</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2109000</v>
+        <v>1914800</v>
       </c>
       <c r="E61" s="3">
-        <v>2324200</v>
+        <v>2155400</v>
       </c>
       <c r="F61" s="3">
-        <v>2672400</v>
+        <v>2375300</v>
       </c>
       <c r="G61" s="3">
-        <v>1684700</v>
+        <v>2731200</v>
       </c>
       <c r="H61" s="3">
-        <v>2036500</v>
+        <v>1721800</v>
       </c>
       <c r="I61" s="3">
-        <v>2041000</v>
+        <v>2081300</v>
       </c>
       <c r="J61" s="3">
+        <v>2085900</v>
+      </c>
+      <c r="K61" s="3">
         <v>2071600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2409200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2514000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2845600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2850300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3142700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3330600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3416600</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2247100</v>
+        <v>2483100</v>
       </c>
       <c r="E62" s="3">
-        <v>2422000</v>
+        <v>2296500</v>
       </c>
       <c r="F62" s="3">
-        <v>2601900</v>
+        <v>2475200</v>
       </c>
       <c r="G62" s="3">
-        <v>2735800</v>
+        <v>2659200</v>
       </c>
       <c r="H62" s="3">
-        <v>2711500</v>
+        <v>2796000</v>
       </c>
       <c r="I62" s="3">
-        <v>2299000</v>
+        <v>2771200</v>
       </c>
       <c r="J62" s="3">
+        <v>2349600</v>
+      </c>
+      <c r="K62" s="3">
         <v>2433100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2960400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2738600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3007700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3186800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3423800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3635400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>4100300</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3327,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>17325100</v>
+        <v>18082900</v>
       </c>
       <c r="E66" s="3">
-        <v>17659400</v>
+        <v>17706300</v>
       </c>
       <c r="F66" s="3">
-        <v>17349800</v>
+        <v>18048000</v>
       </c>
       <c r="G66" s="3">
-        <v>17932600</v>
+        <v>17731500</v>
       </c>
       <c r="H66" s="3">
-        <v>17505000</v>
+        <v>18327200</v>
       </c>
       <c r="I66" s="3">
-        <v>17374000</v>
+        <v>17890200</v>
       </c>
       <c r="J66" s="3">
+        <v>17756300</v>
+      </c>
+      <c r="K66" s="3">
         <v>17466900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>18384900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>17967300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>19395400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>19535600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>20491500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>20859700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>20204800</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3597,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>5892600</v>
+        <v>6836700</v>
       </c>
       <c r="E72" s="3">
-        <v>5664400</v>
+        <v>6022300</v>
       </c>
       <c r="F72" s="3">
-        <v>5165300</v>
+        <v>5789100</v>
       </c>
       <c r="G72" s="3">
-        <v>5243600</v>
+        <v>5278900</v>
       </c>
       <c r="H72" s="3">
-        <v>4629800</v>
+        <v>5359000</v>
       </c>
       <c r="I72" s="3">
-        <v>5265300</v>
+        <v>4731600</v>
       </c>
       <c r="J72" s="3">
+        <v>5381100</v>
+      </c>
+      <c r="K72" s="3">
         <v>5046900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4337200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3458200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>3040200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2400300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2358500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1640600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1192500</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3797,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>10989500</v>
+        <v>11528500</v>
       </c>
       <c r="E76" s="3">
-        <v>10636200</v>
+        <v>11231200</v>
       </c>
       <c r="F76" s="3">
-        <v>10174400</v>
+        <v>10870200</v>
       </c>
       <c r="G76" s="3">
-        <v>10290400</v>
+        <v>10398300</v>
       </c>
       <c r="H76" s="3">
-        <v>9693900</v>
+        <v>10516800</v>
       </c>
       <c r="I76" s="3">
-        <v>10607200</v>
+        <v>9907200</v>
       </c>
       <c r="J76" s="3">
+        <v>10840600</v>
+      </c>
+      <c r="K76" s="3">
         <v>10316700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>9833700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8993900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>8506700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>7958000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>7817100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>7181100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>6437700</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +3897,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>329500</v>
+        <v>558700</v>
       </c>
       <c r="E81" s="3">
-        <v>514200</v>
+        <v>336700</v>
       </c>
       <c r="F81" s="3">
-        <v>64500</v>
+        <v>525500</v>
       </c>
       <c r="G81" s="3">
-        <v>482700</v>
+        <v>65900</v>
       </c>
       <c r="H81" s="3">
-        <v>-269700</v>
+        <v>493300</v>
       </c>
       <c r="I81" s="3">
-        <v>76100</v>
+        <v>-275700</v>
       </c>
       <c r="J81" s="3">
+        <v>77800</v>
+      </c>
+      <c r="K81" s="3">
         <v>661400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1029700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>108100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>373600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>19400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>499000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>180700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>229900</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,55 +4024,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>466500</v>
+        <v>505900</v>
       </c>
       <c r="E83" s="3">
-        <v>481600</v>
+        <v>476700</v>
       </c>
       <c r="F83" s="3">
-        <v>502500</v>
+        <v>492200</v>
       </c>
       <c r="G83" s="3">
-        <v>377400</v>
+        <v>513600</v>
       </c>
       <c r="H83" s="3">
-        <v>382700</v>
+        <v>385700</v>
       </c>
       <c r="I83" s="3">
-        <v>346000</v>
+        <v>391100</v>
       </c>
       <c r="J83" s="3">
+        <v>353700</v>
+      </c>
+      <c r="K83" s="3">
         <v>331100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>406300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>374200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>382800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>371200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>510100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>394600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>391500</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,55 +4322,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>923100</v>
+        <v>1212300</v>
       </c>
       <c r="E89" s="3">
-        <v>-10500</v>
+        <v>943400</v>
       </c>
       <c r="F89" s="3">
-        <v>1057900</v>
+        <v>-10700</v>
       </c>
       <c r="G89" s="3">
-        <v>755300</v>
+        <v>1081200</v>
       </c>
       <c r="H89" s="3">
-        <v>-272300</v>
+        <v>771900</v>
       </c>
       <c r="I89" s="3">
-        <v>-530600</v>
+        <v>-278300</v>
       </c>
       <c r="J89" s="3">
+        <v>-542300</v>
+      </c>
+      <c r="K89" s="3">
         <v>951300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1170800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>146100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-243400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>738300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1384900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>462200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-176900</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,55 +4394,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-338300</v>
+        <v>-315800</v>
       </c>
       <c r="E91" s="3">
-        <v>-324300</v>
+        <v>-345700</v>
       </c>
       <c r="F91" s="3">
-        <v>-237100</v>
+        <v>-331500</v>
       </c>
       <c r="G91" s="3">
-        <v>-262100</v>
+        <v>-242300</v>
       </c>
       <c r="H91" s="3">
-        <v>-269700</v>
+        <v>-267900</v>
       </c>
       <c r="I91" s="3">
-        <v>-301500</v>
+        <v>-275600</v>
       </c>
       <c r="J91" s="3">
+        <v>-308100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-263300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-328500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-278400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-345300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-268200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>796000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-743100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1114100</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,55 +4542,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>30400</v>
+        <v>-647300</v>
       </c>
       <c r="E94" s="3">
-        <v>-337400</v>
+        <v>31100</v>
       </c>
       <c r="F94" s="3">
-        <v>-97800</v>
+        <v>-344800</v>
       </c>
       <c r="G94" s="3">
-        <v>-118000</v>
+        <v>-99900</v>
       </c>
       <c r="H94" s="3">
-        <v>145900</v>
+        <v>-120600</v>
       </c>
       <c r="I94" s="3">
-        <v>-161600</v>
+        <v>149100</v>
       </c>
       <c r="J94" s="3">
+        <v>-165200</v>
+      </c>
+      <c r="K94" s="3">
         <v>171400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>135400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-19800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-35900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-283900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-128400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-312300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-509000</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,55 +4614,59 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-147400</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-150600</v>
       </c>
       <c r="F96" s="3">
-        <v>-147400</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-150600</v>
       </c>
       <c r="H96" s="3">
-        <v>-130100</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-132900</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-112300</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-92700</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-92700</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-73400</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,145 +4812,157 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-224200</v>
+        <v>-1019200</v>
       </c>
       <c r="E100" s="3">
-        <v>-30600</v>
+        <v>-229100</v>
       </c>
       <c r="F100" s="3">
-        <v>-503700</v>
+        <v>-31300</v>
       </c>
       <c r="G100" s="3">
-        <v>-311100</v>
+        <v>-514800</v>
       </c>
       <c r="H100" s="3">
-        <v>-440000</v>
+        <v>-318000</v>
       </c>
       <c r="I100" s="3">
-        <v>-95900</v>
+        <v>-449600</v>
       </c>
       <c r="J100" s="3">
+        <v>-98000</v>
+      </c>
+      <c r="K100" s="3">
         <v>-394900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-724300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-355700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-24600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>87700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1222900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>222400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-114400</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>8600</v>
+        <v>-29900</v>
       </c>
       <c r="E101" s="3">
-        <v>-8000</v>
+        <v>8700</v>
       </c>
       <c r="F101" s="3">
-        <v>-4000</v>
+        <v>-8200</v>
       </c>
       <c r="G101" s="3">
-        <v>-24500</v>
+        <v>-4100</v>
       </c>
       <c r="H101" s="3">
-        <v>-28800</v>
+        <v>-25100</v>
       </c>
       <c r="I101" s="3">
-        <v>14900</v>
+        <v>-29400</v>
       </c>
       <c r="J101" s="3">
+        <v>15200</v>
+      </c>
+      <c r="K101" s="3">
         <v>12400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-5500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>12600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>15900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>7400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-6500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>98700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-16300</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>737800</v>
+        <v>-484200</v>
       </c>
       <c r="E102" s="3">
-        <v>-386500</v>
+        <v>754000</v>
       </c>
       <c r="F102" s="3">
-        <v>452400</v>
+        <v>-395000</v>
       </c>
       <c r="G102" s="3">
-        <v>301600</v>
+        <v>462400</v>
       </c>
       <c r="H102" s="3">
-        <v>-595100</v>
+        <v>308200</v>
       </c>
       <c r="I102" s="3">
-        <v>-773300</v>
+        <v>-608200</v>
       </c>
       <c r="J102" s="3">
+        <v>-790300</v>
+      </c>
+      <c r="K102" s="3">
         <v>740200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>576400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-216800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-288000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>549500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>27100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>471000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-816700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FJTSY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FJTSY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
   <si>
     <t>FJTSY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>10272600</v>
+        <v>7578400</v>
       </c>
       <c r="E8" s="3">
-        <v>8577100</v>
+        <v>10438500</v>
       </c>
       <c r="F8" s="3">
-        <v>9197300</v>
+        <v>8715600</v>
       </c>
       <c r="G8" s="3">
-        <v>7791900</v>
+        <v>9345800</v>
       </c>
       <c r="H8" s="3">
-        <v>10595900</v>
+        <v>7917700</v>
       </c>
       <c r="I8" s="3">
-        <v>9079300</v>
+        <v>10767000</v>
       </c>
       <c r="J8" s="3">
+        <v>9225900</v>
+      </c>
+      <c r="K8" s="3">
         <v>8982400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7887000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>10594900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>9068300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>9045400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>8340600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>10682100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>9054700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>8940200</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>7191600</v>
+        <v>5465100</v>
       </c>
       <c r="E9" s="3">
-        <v>6105900</v>
+        <v>7307700</v>
       </c>
       <c r="F9" s="3">
-        <v>6537800</v>
+        <v>6204500</v>
       </c>
       <c r="G9" s="3">
-        <v>5698100</v>
+        <v>6643300</v>
       </c>
       <c r="H9" s="3">
-        <v>7398100</v>
+        <v>5790100</v>
       </c>
       <c r="I9" s="3">
-        <v>6705800</v>
+        <v>7517600</v>
       </c>
       <c r="J9" s="3">
+        <v>6814100</v>
+      </c>
+      <c r="K9" s="3">
         <v>6619700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>5900700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>7434500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>6706300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>6565400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>6111700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>7514400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>6501100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>6406200</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3081000</v>
+        <v>2113200</v>
       </c>
       <c r="E10" s="3">
-        <v>2471300</v>
+        <v>3130700</v>
       </c>
       <c r="F10" s="3">
-        <v>2659600</v>
+        <v>2511200</v>
       </c>
       <c r="G10" s="3">
-        <v>2093800</v>
+        <v>2702500</v>
       </c>
       <c r="H10" s="3">
-        <v>3197800</v>
+        <v>2127600</v>
       </c>
       <c r="I10" s="3">
-        <v>2373500</v>
+        <v>3249500</v>
       </c>
       <c r="J10" s="3">
+        <v>2411800</v>
+      </c>
+      <c r="K10" s="3">
         <v>2362700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1986300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3160500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2362000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2480000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2228900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3167600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2553600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2534000</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1025,14 +1045,14 @@
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
-        <v>686500</v>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I14" s="3">
-        <v>405200</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
+        <v>697600</v>
+      </c>
+      <c r="J14" s="3">
+        <v>411800</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -1058,8 +1078,11 @@
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>9436400</v>
+        <v>7368100</v>
       </c>
       <c r="E17" s="3">
-        <v>8108800</v>
+        <v>9588800</v>
       </c>
       <c r="F17" s="3">
-        <v>8568600</v>
+        <v>8239700</v>
       </c>
       <c r="G17" s="3">
-        <v>7760400</v>
+        <v>8707000</v>
       </c>
       <c r="H17" s="3">
-        <v>10004300</v>
+        <v>7885700</v>
       </c>
       <c r="I17" s="3">
-        <v>9346200</v>
+        <v>10165800</v>
       </c>
       <c r="J17" s="3">
+        <v>9497100</v>
+      </c>
+      <c r="K17" s="3">
         <v>8836700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7163500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>9293500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>8973100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>8837100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>8295900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>10123400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>8749800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>8640300</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>836200</v>
+        <v>210300</v>
       </c>
       <c r="E18" s="3">
-        <v>468300</v>
+        <v>849700</v>
       </c>
       <c r="F18" s="3">
-        <v>628700</v>
+        <v>475900</v>
       </c>
       <c r="G18" s="3">
-        <v>31400</v>
+        <v>638900</v>
       </c>
       <c r="H18" s="3">
-        <v>591600</v>
+        <v>32000</v>
       </c>
       <c r="I18" s="3">
-        <v>-266900</v>
+        <v>601200</v>
       </c>
       <c r="J18" s="3">
+        <v>-271200</v>
+      </c>
+      <c r="K18" s="3">
         <v>145700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>723500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1301400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>95200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>208400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>44800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>558700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>304900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>299900</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,258 +1278,274 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>36800</v>
+        <v>42400</v>
       </c>
       <c r="E20" s="3">
-        <v>40800</v>
+        <v>47900</v>
       </c>
       <c r="F20" s="3">
-        <v>73400</v>
+        <v>41400</v>
       </c>
       <c r="G20" s="3">
-        <v>36400</v>
+        <v>74500</v>
       </c>
       <c r="H20" s="3">
-        <v>70200</v>
+        <v>36900</v>
       </c>
       <c r="I20" s="3">
-        <v>34700</v>
+        <v>71300</v>
       </c>
       <c r="J20" s="3">
+        <v>35300</v>
+      </c>
+      <c r="K20" s="3">
         <v>49200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>165400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>244600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>32400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>271100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>30400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>27500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>46900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1378900</v>
+        <v>637800</v>
       </c>
       <c r="E21" s="3">
-        <v>985800</v>
+        <v>1411600</v>
       </c>
       <c r="F21" s="3">
-        <v>1194200</v>
+        <v>1001700</v>
       </c>
       <c r="G21" s="3">
-        <v>581400</v>
+        <v>1213500</v>
       </c>
       <c r="H21" s="3">
-        <v>1047500</v>
+        <v>590800</v>
       </c>
       <c r="I21" s="3">
-        <v>158900</v>
+        <v>1064400</v>
       </c>
       <c r="J21" s="3">
+        <v>161400</v>
+      </c>
+      <c r="K21" s="3">
         <v>548600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1220000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1952300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>501700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>862300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>446500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1096200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>746400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>721600</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>8</v>
+      <c r="D22" s="3">
+        <v>7700</v>
       </c>
       <c r="E22" s="3">
-        <v>9400</v>
+        <v>10500</v>
       </c>
       <c r="F22" s="3">
-        <v>9600</v>
+        <v>9500</v>
       </c>
       <c r="G22" s="3">
-        <v>9600</v>
+        <v>9700</v>
       </c>
       <c r="H22" s="3">
-        <v>7500</v>
+        <v>9800</v>
       </c>
       <c r="I22" s="3">
-        <v>8000</v>
+        <v>7600</v>
       </c>
       <c r="J22" s="3">
-        <v>7200</v>
+        <v>8100</v>
       </c>
       <c r="K22" s="3">
         <v>7200</v>
       </c>
       <c r="L22" s="3">
+        <v>7200</v>
+      </c>
+      <c r="M22" s="3">
         <v>8400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>9500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>10000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>8300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>10800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>8600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>873000</v>
+        <v>245000</v>
       </c>
       <c r="E23" s="3">
-        <v>499700</v>
+        <v>887100</v>
       </c>
       <c r="F23" s="3">
-        <v>692500</v>
+        <v>507800</v>
       </c>
       <c r="G23" s="3">
-        <v>58200</v>
+        <v>703700</v>
       </c>
       <c r="H23" s="3">
-        <v>654300</v>
+        <v>59100</v>
       </c>
       <c r="I23" s="3">
-        <v>-240200</v>
+        <v>664800</v>
       </c>
       <c r="J23" s="3">
+        <v>-244100</v>
+      </c>
+      <c r="K23" s="3">
         <v>187800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>881700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1537600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>118000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>469500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>66900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>575400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>343200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>320900</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>302300</v>
+        <v>64200</v>
       </c>
       <c r="E24" s="3">
-        <v>156400</v>
+        <v>307200</v>
       </c>
       <c r="F24" s="3">
-        <v>168700</v>
+        <v>159000</v>
       </c>
       <c r="G24" s="3">
-        <v>6500</v>
+        <v>171400</v>
       </c>
       <c r="H24" s="3">
-        <v>156600</v>
+        <v>6600</v>
       </c>
       <c r="I24" s="3">
-        <v>29100</v>
+        <v>159100</v>
       </c>
       <c r="J24" s="3">
+        <v>29600</v>
+      </c>
+      <c r="K24" s="3">
         <v>93200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>191300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>502900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>37600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>75200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>57500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>39300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>149900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>79400</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>570700</v>
+        <v>180800</v>
       </c>
       <c r="E26" s="3">
-        <v>343300</v>
+        <v>579900</v>
       </c>
       <c r="F26" s="3">
-        <v>523800</v>
+        <v>348800</v>
       </c>
       <c r="G26" s="3">
-        <v>51700</v>
+        <v>532200</v>
       </c>
       <c r="H26" s="3">
-        <v>497600</v>
+        <v>52600</v>
       </c>
       <c r="I26" s="3">
-        <v>-269300</v>
+        <v>505700</v>
       </c>
       <c r="J26" s="3">
+        <v>-273600</v>
+      </c>
+      <c r="K26" s="3">
         <v>94600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>690400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1034700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>80500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>394300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>9400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>536000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>193300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>241500</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>558700</v>
+        <v>171600</v>
       </c>
       <c r="E27" s="3">
-        <v>336700</v>
+        <v>567700</v>
       </c>
       <c r="F27" s="3">
-        <v>525500</v>
+        <v>342200</v>
       </c>
       <c r="G27" s="3">
-        <v>65900</v>
+        <v>534000</v>
       </c>
       <c r="H27" s="3">
-        <v>493300</v>
+        <v>67000</v>
       </c>
       <c r="I27" s="3">
-        <v>-275700</v>
+        <v>501300</v>
       </c>
       <c r="J27" s="3">
+        <v>-280100</v>
+      </c>
+      <c r="K27" s="3">
         <v>77800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>661400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1029700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>50100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>380700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-13200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>529200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>159500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>211300</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1724,29 +1785,32 @@
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
+      <c r="L29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>58000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-7100</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>32600</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-30200</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>21200</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>18600</v>
       </c>
     </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-36800</v>
+        <v>-42400</v>
       </c>
       <c r="E32" s="3">
-        <v>-40800</v>
+        <v>-47900</v>
       </c>
       <c r="F32" s="3">
-        <v>-73400</v>
+        <v>-41400</v>
       </c>
       <c r="G32" s="3">
-        <v>-36400</v>
+        <v>-74500</v>
       </c>
       <c r="H32" s="3">
-        <v>-70200</v>
+        <v>-36900</v>
       </c>
       <c r="I32" s="3">
-        <v>-34700</v>
+        <v>-71300</v>
       </c>
       <c r="J32" s="3">
+        <v>-35300</v>
+      </c>
+      <c r="K32" s="3">
         <v>-49200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-165400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-244600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-32400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-271100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-30400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-27500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-46900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-30200</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>558700</v>
+        <v>171600</v>
       </c>
       <c r="E33" s="3">
-        <v>336700</v>
+        <v>567700</v>
       </c>
       <c r="F33" s="3">
-        <v>525500</v>
+        <v>342200</v>
       </c>
       <c r="G33" s="3">
-        <v>65900</v>
+        <v>534000</v>
       </c>
       <c r="H33" s="3">
-        <v>493300</v>
+        <v>67000</v>
       </c>
       <c r="I33" s="3">
-        <v>-275700</v>
+        <v>501300</v>
       </c>
       <c r="J33" s="3">
+        <v>-280100</v>
+      </c>
+      <c r="K33" s="3">
         <v>77800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>661400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1029700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>108100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>373600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>19400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>499000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>180700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>229900</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>558700</v>
+        <v>171600</v>
       </c>
       <c r="E35" s="3">
-        <v>336700</v>
+        <v>567700</v>
       </c>
       <c r="F35" s="3">
-        <v>525500</v>
+        <v>342200</v>
       </c>
       <c r="G35" s="3">
-        <v>65900</v>
+        <v>534000</v>
       </c>
       <c r="H35" s="3">
-        <v>493300</v>
+        <v>67000</v>
       </c>
       <c r="I35" s="3">
-        <v>-275700</v>
+        <v>501300</v>
       </c>
       <c r="J35" s="3">
+        <v>-280100</v>
+      </c>
+      <c r="K35" s="3">
         <v>77800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>661400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1029700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>108100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>373600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>19400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>499000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>180700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>229900</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,58 +2226,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4197800</v>
+        <v>5370500</v>
       </c>
       <c r="E41" s="3">
-        <v>4684400</v>
+        <v>4265500</v>
       </c>
       <c r="F41" s="3">
-        <v>3836800</v>
+        <v>4760000</v>
       </c>
       <c r="G41" s="3">
-        <v>4311300</v>
+        <v>3898700</v>
       </c>
       <c r="H41" s="3">
-        <v>3871000</v>
+        <v>4380900</v>
       </c>
       <c r="I41" s="3">
-        <v>3365700</v>
+        <v>3933500</v>
       </c>
       <c r="J41" s="3">
+        <v>3420000</v>
+      </c>
+      <c r="K41" s="3">
         <v>4022600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4852800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4091100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3514500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3640500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3944200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3376800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3378700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2907800</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,358 +2330,382 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>9038100</v>
+        <v>5798000</v>
       </c>
       <c r="E43" s="3">
-        <v>8444800</v>
+        <v>10074600</v>
       </c>
       <c r="F43" s="3">
-        <v>8782400</v>
+        <v>8581200</v>
       </c>
       <c r="G43" s="3">
-        <v>6094700</v>
+        <v>8924200</v>
       </c>
       <c r="H43" s="3">
-        <v>10528200</v>
+        <v>6193100</v>
       </c>
       <c r="I43" s="3">
-        <v>8756400</v>
+        <v>10698200</v>
       </c>
       <c r="J43" s="3">
+        <v>8897700</v>
+      </c>
+      <c r="K43" s="3">
         <v>8539000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>7949100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>9504100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>8140100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>8112800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>7229000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>9456200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>8723500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>8133900</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2211700</v>
+        <v>2356700</v>
       </c>
       <c r="E44" s="3">
-        <v>3084600</v>
+        <v>2247400</v>
       </c>
       <c r="F44" s="3">
-        <v>2702400</v>
+        <v>3134400</v>
       </c>
       <c r="G44" s="3">
-        <v>2566100</v>
+        <v>2746000</v>
       </c>
       <c r="H44" s="3">
-        <v>2100000</v>
+        <v>2607500</v>
       </c>
       <c r="I44" s="3">
-        <v>2738200</v>
+        <v>2133900</v>
       </c>
       <c r="J44" s="3">
+        <v>2782400</v>
+      </c>
+      <c r="K44" s="3">
         <v>2567900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2568900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2184100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2619100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2715300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2696200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2600400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3205000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2890300</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2121000</v>
+        <v>2741700</v>
       </c>
       <c r="E45" s="3">
-        <v>1130200</v>
+        <v>1264700</v>
       </c>
       <c r="F45" s="3">
-        <v>1773100</v>
+        <v>1148400</v>
       </c>
       <c r="G45" s="3">
-        <v>3283200</v>
+        <v>1801700</v>
       </c>
       <c r="H45" s="3">
-        <v>1703200</v>
+        <v>3336300</v>
       </c>
       <c r="I45" s="3">
-        <v>2695600</v>
+        <v>1730700</v>
       </c>
       <c r="J45" s="3">
+        <v>2739100</v>
+      </c>
+      <c r="K45" s="3">
         <v>2608500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1638200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1101100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1572900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2370700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2509100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>908800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>924000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>838300</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>17568500</v>
+        <v>16267000</v>
       </c>
       <c r="E46" s="3">
-        <v>17344000</v>
+        <v>17852200</v>
       </c>
       <c r="F46" s="3">
-        <v>17094600</v>
+        <v>17624100</v>
       </c>
       <c r="G46" s="3">
-        <v>16255300</v>
+        <v>17370600</v>
       </c>
       <c r="H46" s="3">
-        <v>18202400</v>
+        <v>16517800</v>
       </c>
       <c r="I46" s="3">
-        <v>17555800</v>
+        <v>18496300</v>
       </c>
       <c r="J46" s="3">
+        <v>17839300</v>
+      </c>
+      <c r="K46" s="3">
         <v>17738000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>17009000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>16880400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>15846500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>16839400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>16378500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>16342100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>16231300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>14770300</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2624300</v>
+        <v>2795200</v>
       </c>
       <c r="E47" s="3">
-        <v>2777000</v>
+        <v>2666600</v>
       </c>
       <c r="F47" s="3">
-        <v>2703000</v>
+        <v>2821800</v>
       </c>
       <c r="G47" s="3">
-        <v>2675100</v>
+        <v>2746700</v>
       </c>
       <c r="H47" s="3">
-        <v>2764600</v>
+        <v>2718300</v>
       </c>
       <c r="I47" s="3">
-        <v>2656100</v>
+        <v>2809200</v>
       </c>
       <c r="J47" s="3">
+        <v>2699000</v>
+      </c>
+      <c r="K47" s="3">
         <v>3077600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3008500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2818600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2568300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2387000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2600400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2588500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2502100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2282100</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5296900</v>
+        <v>5304900</v>
       </c>
       <c r="E48" s="3">
-        <v>5409600</v>
+        <v>5382400</v>
       </c>
       <c r="F48" s="3">
-        <v>5497800</v>
+        <v>5497000</v>
       </c>
       <c r="G48" s="3">
-        <v>5534400</v>
+        <v>5586600</v>
       </c>
       <c r="H48" s="3">
-        <v>4079000</v>
+        <v>5623800</v>
       </c>
       <c r="I48" s="3">
-        <v>4135000</v>
+        <v>4144900</v>
       </c>
       <c r="J48" s="3">
+        <v>4201800</v>
+      </c>
+      <c r="K48" s="3">
         <v>4224000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4290200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4751300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4833700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4984100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4980900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5292300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5365800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5402900</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1337000</v>
+        <v>1387700</v>
       </c>
       <c r="E49" s="3">
-        <v>1375100</v>
+        <v>1358600</v>
       </c>
       <c r="F49" s="3">
-        <v>1337500</v>
+        <v>1397300</v>
       </c>
       <c r="G49" s="3">
-        <v>1401500</v>
+        <v>1359100</v>
       </c>
       <c r="H49" s="3">
-        <v>1442300</v>
+        <v>1424100</v>
       </c>
       <c r="I49" s="3">
-        <v>1458500</v>
+        <v>1465600</v>
       </c>
       <c r="J49" s="3">
+        <v>1482000</v>
+      </c>
+      <c r="K49" s="3">
         <v>1521000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1508100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1565500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1609100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1638400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1634800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1731500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1773700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1761300</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2784700</v>
+        <v>2424400</v>
       </c>
       <c r="E52" s="3">
-        <v>2031800</v>
+        <v>2829600</v>
       </c>
       <c r="F52" s="3">
-        <v>2285200</v>
+        <v>2064600</v>
       </c>
       <c r="G52" s="3">
-        <v>2263500</v>
+        <v>2322100</v>
       </c>
       <c r="H52" s="3">
-        <v>2355700</v>
+        <v>2300100</v>
       </c>
       <c r="I52" s="3">
-        <v>1991900</v>
+        <v>2393700</v>
       </c>
       <c r="J52" s="3">
+        <v>2024100</v>
+      </c>
+      <c r="K52" s="3">
         <v>2036300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1967800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2202800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2103500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2053100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1898900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2354200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2168000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2425900</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>29611400</v>
+        <v>28179100</v>
       </c>
       <c r="E54" s="3">
-        <v>28937500</v>
+        <v>30089500</v>
       </c>
       <c r="F54" s="3">
-        <v>28918200</v>
+        <v>29404800</v>
       </c>
       <c r="G54" s="3">
-        <v>28129800</v>
+        <v>29385100</v>
       </c>
       <c r="H54" s="3">
-        <v>28844000</v>
+        <v>28584000</v>
       </c>
       <c r="I54" s="3">
-        <v>27797300</v>
+        <v>29309700</v>
       </c>
       <c r="J54" s="3">
+        <v>28246100</v>
+      </c>
+      <c r="K54" s="3">
         <v>28596900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>27783500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>28218600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>26961200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>27902100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>27493600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>28308600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>28040900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>26642400</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,308 +3010,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4449600</v>
+        <v>3745800</v>
       </c>
       <c r="E57" s="3">
-        <v>4508400</v>
+        <v>4521500</v>
       </c>
       <c r="F57" s="3">
-        <v>4553100</v>
+        <v>4581200</v>
       </c>
       <c r="G57" s="3">
-        <v>4099000</v>
+        <v>4626600</v>
       </c>
       <c r="H57" s="3">
-        <v>4912000</v>
+        <v>4165200</v>
       </c>
       <c r="I57" s="3">
-        <v>4695100</v>
+        <v>4991300</v>
       </c>
       <c r="J57" s="3">
+        <v>4770900</v>
+      </c>
+      <c r="K57" s="3">
         <v>4895000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4925800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4890100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4536100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4442700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4365700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>5479100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>5278500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>4733500</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1852900</v>
+        <v>2262100</v>
       </c>
       <c r="E58" s="3">
-        <v>2213400</v>
+        <v>1882800</v>
       </c>
       <c r="F58" s="3">
-        <v>1894400</v>
+        <v>2249200</v>
       </c>
       <c r="G58" s="3">
-        <v>1465900</v>
+        <v>1925000</v>
       </c>
       <c r="H58" s="3">
-        <v>1215800</v>
+        <v>1489600</v>
       </c>
       <c r="I58" s="3">
-        <v>1121400</v>
+        <v>1235500</v>
       </c>
       <c r="J58" s="3">
+        <v>1139500</v>
+      </c>
+      <c r="K58" s="3">
         <v>1370500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1457300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1223900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1843800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1758100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1742400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1160100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2089100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1598500</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>6384000</v>
+        <v>5574600</v>
       </c>
       <c r="E59" s="3">
-        <v>5538100</v>
+        <v>6487100</v>
       </c>
       <c r="F59" s="3">
-        <v>5663200</v>
+        <v>5627500</v>
       </c>
       <c r="G59" s="3">
-        <v>5684200</v>
+        <v>5754600</v>
       </c>
       <c r="H59" s="3">
-        <v>6552100</v>
+        <v>5776000</v>
       </c>
       <c r="I59" s="3">
-        <v>6099900</v>
+        <v>6657900</v>
       </c>
       <c r="J59" s="3">
+        <v>6198400</v>
+      </c>
+      <c r="K59" s="3">
         <v>5931800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5503600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5842700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>5204500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>6069800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>6141100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>6062600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>5314400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>5197200</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>12686500</v>
+        <v>11582500</v>
       </c>
       <c r="E60" s="3">
-        <v>12259900</v>
+        <v>12891300</v>
       </c>
       <c r="F60" s="3">
-        <v>12110700</v>
+        <v>12457800</v>
       </c>
       <c r="G60" s="3">
-        <v>11249100</v>
+        <v>12306200</v>
       </c>
       <c r="H60" s="3">
-        <v>12680000</v>
+        <v>11430700</v>
       </c>
       <c r="I60" s="3">
-        <v>11916500</v>
+        <v>12884700</v>
       </c>
       <c r="J60" s="3">
+        <v>12108900</v>
+      </c>
+      <c r="K60" s="3">
         <v>12197300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>11886800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>11956700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>11584400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>12270600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>12249300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>12701800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>12682100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>11529200</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1914800</v>
+        <v>1601000</v>
       </c>
       <c r="E61" s="3">
-        <v>2155400</v>
+        <v>1945800</v>
       </c>
       <c r="F61" s="3">
-        <v>2375300</v>
+        <v>2190200</v>
       </c>
       <c r="G61" s="3">
-        <v>2731200</v>
+        <v>2413700</v>
       </c>
       <c r="H61" s="3">
-        <v>1721800</v>
+        <v>2775300</v>
       </c>
       <c r="I61" s="3">
-        <v>2081300</v>
+        <v>1749600</v>
       </c>
       <c r="J61" s="3">
+        <v>2114900</v>
+      </c>
+      <c r="K61" s="3">
         <v>2085900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2071600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2409200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2514000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2845600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2850300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3142700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3330600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3416600</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2483100</v>
+        <v>2312400</v>
       </c>
       <c r="E62" s="3">
-        <v>2296500</v>
+        <v>2523200</v>
       </c>
       <c r="F62" s="3">
-        <v>2475200</v>
+        <v>2333600</v>
       </c>
       <c r="G62" s="3">
-        <v>2659200</v>
+        <v>2515200</v>
       </c>
       <c r="H62" s="3">
-        <v>2796000</v>
+        <v>2702100</v>
       </c>
       <c r="I62" s="3">
-        <v>2771200</v>
+        <v>2841100</v>
       </c>
       <c r="J62" s="3">
+        <v>2815900</v>
+      </c>
+      <c r="K62" s="3">
         <v>2349600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2433100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2960400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2738600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3007700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3186800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3423800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3635400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>4100300</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>18082900</v>
+        <v>16521900</v>
       </c>
       <c r="E66" s="3">
-        <v>17706300</v>
+        <v>18374900</v>
       </c>
       <c r="F66" s="3">
-        <v>18048000</v>
+        <v>17992200</v>
       </c>
       <c r="G66" s="3">
-        <v>17731500</v>
+        <v>18339400</v>
       </c>
       <c r="H66" s="3">
-        <v>18327200</v>
+        <v>18017800</v>
       </c>
       <c r="I66" s="3">
-        <v>17890200</v>
+        <v>18623100</v>
       </c>
       <c r="J66" s="3">
+        <v>18179000</v>
+      </c>
+      <c r="K66" s="3">
         <v>17756300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>17466900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>18384900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>17967300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>19395400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>19535600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>20491500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>20859700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>20204800</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>6836700</v>
+        <v>6801400</v>
       </c>
       <c r="E72" s="3">
-        <v>6022300</v>
+        <v>6947100</v>
       </c>
       <c r="F72" s="3">
-        <v>5789100</v>
+        <v>6119500</v>
       </c>
       <c r="G72" s="3">
-        <v>5278900</v>
+        <v>5882500</v>
       </c>
       <c r="H72" s="3">
-        <v>5359000</v>
+        <v>5364200</v>
       </c>
       <c r="I72" s="3">
-        <v>4731600</v>
+        <v>5445500</v>
       </c>
       <c r="J72" s="3">
+        <v>4808000</v>
+      </c>
+      <c r="K72" s="3">
         <v>5381100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>5046900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>4337200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>3458200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>3040200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2400300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2358500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1640600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1192500</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>11528500</v>
+        <v>11657200</v>
       </c>
       <c r="E76" s="3">
-        <v>11231200</v>
+        <v>11714600</v>
       </c>
       <c r="F76" s="3">
-        <v>10870200</v>
+        <v>11412600</v>
       </c>
       <c r="G76" s="3">
-        <v>10398300</v>
+        <v>11045700</v>
       </c>
       <c r="H76" s="3">
-        <v>10516800</v>
+        <v>10566200</v>
       </c>
       <c r="I76" s="3">
-        <v>9907200</v>
+        <v>10686600</v>
       </c>
       <c r="J76" s="3">
+        <v>10067100</v>
+      </c>
+      <c r="K76" s="3">
         <v>10840600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>10316700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>9833700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>8993900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>8506700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>7958000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>7817100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>7181100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>6437700</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>558700</v>
+        <v>171600</v>
       </c>
       <c r="E81" s="3">
-        <v>336700</v>
+        <v>567700</v>
       </c>
       <c r="F81" s="3">
-        <v>525500</v>
+        <v>342200</v>
       </c>
       <c r="G81" s="3">
-        <v>65900</v>
+        <v>534000</v>
       </c>
       <c r="H81" s="3">
-        <v>493300</v>
+        <v>67000</v>
       </c>
       <c r="I81" s="3">
-        <v>-275700</v>
+        <v>501300</v>
       </c>
       <c r="J81" s="3">
+        <v>-280100</v>
+      </c>
+      <c r="K81" s="3">
         <v>77800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>661400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1029700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>108100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>373600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>19400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>499000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>180700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>229900</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,58 +4223,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>505900</v>
+        <v>385100</v>
       </c>
       <c r="E83" s="3">
-        <v>476700</v>
+        <v>514100</v>
       </c>
       <c r="F83" s="3">
-        <v>492200</v>
+        <v>484400</v>
       </c>
       <c r="G83" s="3">
-        <v>513600</v>
+        <v>500100</v>
       </c>
       <c r="H83" s="3">
-        <v>385700</v>
+        <v>521900</v>
       </c>
       <c r="I83" s="3">
-        <v>391100</v>
+        <v>392000</v>
       </c>
       <c r="J83" s="3">
+        <v>397400</v>
+      </c>
+      <c r="K83" s="3">
         <v>353700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>331100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>406300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>374200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>382800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>371200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>510100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>394600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>391500</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1212300</v>
+        <v>1405600</v>
       </c>
       <c r="E89" s="3">
-        <v>943400</v>
+        <v>1231800</v>
       </c>
       <c r="F89" s="3">
-        <v>-10700</v>
+        <v>958600</v>
       </c>
       <c r="G89" s="3">
-        <v>1081200</v>
+        <v>-10900</v>
       </c>
       <c r="H89" s="3">
-        <v>771900</v>
+        <v>1098600</v>
       </c>
       <c r="I89" s="3">
-        <v>-278300</v>
+        <v>784400</v>
       </c>
       <c r="J89" s="3">
+        <v>-282800</v>
+      </c>
+      <c r="K89" s="3">
         <v>-542300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>951300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1170800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>146100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-243400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>738300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1384900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>462200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-176900</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-315800</v>
+        <v>-247600</v>
       </c>
       <c r="E91" s="3">
-        <v>-345700</v>
+        <v>-320900</v>
       </c>
       <c r="F91" s="3">
-        <v>-331500</v>
+        <v>-351300</v>
       </c>
       <c r="G91" s="3">
-        <v>-242300</v>
+        <v>-336800</v>
       </c>
       <c r="H91" s="3">
-        <v>-267900</v>
+        <v>-246200</v>
       </c>
       <c r="I91" s="3">
-        <v>-275600</v>
+        <v>-272200</v>
       </c>
       <c r="J91" s="3">
+        <v>-280100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-308100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-263300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-328500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-278400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-345300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-268200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>796000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-743100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1114100</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-647300</v>
+        <v>-94500</v>
       </c>
       <c r="E94" s="3">
-        <v>31100</v>
+        <v>-657800</v>
       </c>
       <c r="F94" s="3">
-        <v>-344800</v>
+        <v>31600</v>
       </c>
       <c r="G94" s="3">
-        <v>-99900</v>
+        <v>-350400</v>
       </c>
       <c r="H94" s="3">
-        <v>-120600</v>
+        <v>-101500</v>
       </c>
       <c r="I94" s="3">
-        <v>149100</v>
+        <v>-122600</v>
       </c>
       <c r="J94" s="3">
+        <v>151500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-165200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>171400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>135400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-19800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-35900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-283900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-128400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-312300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-509000</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,58 +4848,62 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-189000</v>
       </c>
       <c r="E96" s="3">
-        <v>-150600</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-153100</v>
       </c>
       <c r="G96" s="3">
-        <v>-150600</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-153100</v>
       </c>
       <c r="I96" s="3">
-        <v>-132900</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-135100</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-112300</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-92700</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-92700</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-73400</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,154 +5058,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1019200</v>
+        <v>-225000</v>
       </c>
       <c r="E100" s="3">
-        <v>-229100</v>
+        <v>-1035700</v>
       </c>
       <c r="F100" s="3">
-        <v>-31300</v>
+        <v>-232800</v>
       </c>
       <c r="G100" s="3">
-        <v>-514800</v>
+        <v>-31800</v>
       </c>
       <c r="H100" s="3">
-        <v>-318000</v>
+        <v>-523100</v>
       </c>
       <c r="I100" s="3">
-        <v>-449600</v>
+        <v>-323100</v>
       </c>
       <c r="J100" s="3">
+        <v>-456900</v>
+      </c>
+      <c r="K100" s="3">
         <v>-98000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-394900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-724300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-355700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-24600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>87700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1222900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>222400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-114400</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-30400</v>
+      </c>
+      <c r="F101" s="3">
+        <v>8900</v>
+      </c>
+      <c r="G101" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="H101" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="I101" s="3">
+        <v>-25500</v>
+      </c>
+      <c r="J101" s="3">
         <v>-29900</v>
       </c>
-      <c r="E101" s="3">
-        <v>8700</v>
-      </c>
-      <c r="F101" s="3">
-        <v>-8200</v>
-      </c>
-      <c r="G101" s="3">
-        <v>-4100</v>
-      </c>
-      <c r="H101" s="3">
-        <v>-25100</v>
-      </c>
-      <c r="I101" s="3">
-        <v>-29400</v>
-      </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>15200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>12400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-5500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>12600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>15900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>7400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-6500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>98700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-16300</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-484200</v>
+        <v>1101100</v>
       </c>
       <c r="E102" s="3">
-        <v>754000</v>
+        <v>-492000</v>
       </c>
       <c r="F102" s="3">
-        <v>-395000</v>
+        <v>766200</v>
       </c>
       <c r="G102" s="3">
-        <v>462400</v>
+        <v>-401400</v>
       </c>
       <c r="H102" s="3">
-        <v>308200</v>
+        <v>469800</v>
       </c>
       <c r="I102" s="3">
-        <v>-608200</v>
+        <v>313200</v>
       </c>
       <c r="J102" s="3">
+        <v>-618100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-790300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>740200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>576400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-216800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-288000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>549500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>27100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>471000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-816700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FJTSY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FJTSY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
   <si>
     <t>FJTSY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7578400</v>
+        <v>7967100</v>
       </c>
       <c r="E8" s="3">
-        <v>10438500</v>
+        <v>7714800</v>
       </c>
       <c r="F8" s="3">
-        <v>8715600</v>
+        <v>10626400</v>
       </c>
       <c r="G8" s="3">
-        <v>9345800</v>
+        <v>8872600</v>
       </c>
       <c r="H8" s="3">
-        <v>7917700</v>
+        <v>9514100</v>
       </c>
       <c r="I8" s="3">
-        <v>10767000</v>
+        <v>8060300</v>
       </c>
       <c r="J8" s="3">
+        <v>10960900</v>
+      </c>
+      <c r="K8" s="3">
         <v>9225900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>8982400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>7887000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>10594900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>9068300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>9045400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>8340600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>10682100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>9054700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>8940200</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5465100</v>
+        <v>5575400</v>
       </c>
       <c r="E9" s="3">
-        <v>7307700</v>
+        <v>5563500</v>
       </c>
       <c r="F9" s="3">
-        <v>6204500</v>
+        <v>7439300</v>
       </c>
       <c r="G9" s="3">
-        <v>6643300</v>
+        <v>6316200</v>
       </c>
       <c r="H9" s="3">
-        <v>5790100</v>
+        <v>6763000</v>
       </c>
       <c r="I9" s="3">
-        <v>7517600</v>
+        <v>5894400</v>
       </c>
       <c r="J9" s="3">
+        <v>7652900</v>
+      </c>
+      <c r="K9" s="3">
         <v>6814100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>6619700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>5900700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>7434500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>6706300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>6565400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>6111700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>7514400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>6501100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>6406200</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2113200</v>
+        <v>2391700</v>
       </c>
       <c r="E10" s="3">
-        <v>3130700</v>
+        <v>2151300</v>
       </c>
       <c r="F10" s="3">
-        <v>2511200</v>
+        <v>3187100</v>
       </c>
       <c r="G10" s="3">
-        <v>2702500</v>
+        <v>2556400</v>
       </c>
       <c r="H10" s="3">
-        <v>2127600</v>
+        <v>2751200</v>
       </c>
       <c r="I10" s="3">
-        <v>3249500</v>
+        <v>2165900</v>
       </c>
       <c r="J10" s="3">
+        <v>3308000</v>
+      </c>
+      <c r="K10" s="3">
         <v>2411800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2362700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1986300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3160500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2362000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2480000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2228900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>3167600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2553600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2534000</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1048,14 +1068,14 @@
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
-        <v>697600</v>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J14" s="3">
+        <v>710200</v>
+      </c>
+      <c r="K14" s="3">
         <v>411800</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7368100</v>
+        <v>7583000</v>
       </c>
       <c r="E17" s="3">
-        <v>9588800</v>
+        <v>7500800</v>
       </c>
       <c r="F17" s="3">
-        <v>8239700</v>
+        <v>9761400</v>
       </c>
       <c r="G17" s="3">
-        <v>8707000</v>
+        <v>8388100</v>
       </c>
       <c r="H17" s="3">
-        <v>7885700</v>
+        <v>8863800</v>
       </c>
       <c r="I17" s="3">
-        <v>10165800</v>
+        <v>8027700</v>
       </c>
       <c r="J17" s="3">
+        <v>10348900</v>
+      </c>
+      <c r="K17" s="3">
         <v>9497100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8836700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7163500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>9293500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>8973100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>8837100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>8295900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>10123400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>8749800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>8640300</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>210300</v>
+        <v>384200</v>
       </c>
       <c r="E18" s="3">
-        <v>849700</v>
+        <v>214000</v>
       </c>
       <c r="F18" s="3">
-        <v>475900</v>
+        <v>865000</v>
       </c>
       <c r="G18" s="3">
-        <v>638900</v>
+        <v>484500</v>
       </c>
       <c r="H18" s="3">
-        <v>32000</v>
+        <v>650400</v>
       </c>
       <c r="I18" s="3">
-        <v>601200</v>
+        <v>32500</v>
       </c>
       <c r="J18" s="3">
+        <v>612000</v>
+      </c>
+      <c r="K18" s="3">
         <v>-271200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>145700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>723500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1301400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>95200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>208400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>44800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>558700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>304900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>299900</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,273 +1312,289 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>42400</v>
+        <v>27700</v>
       </c>
       <c r="E20" s="3">
-        <v>47900</v>
+        <v>43200</v>
       </c>
       <c r="F20" s="3">
-        <v>41400</v>
+        <v>48700</v>
       </c>
       <c r="G20" s="3">
-        <v>74500</v>
+        <v>42200</v>
       </c>
       <c r="H20" s="3">
-        <v>36900</v>
+        <v>75900</v>
       </c>
       <c r="I20" s="3">
-        <v>71300</v>
+        <v>37600</v>
       </c>
       <c r="J20" s="3">
+        <v>72600</v>
+      </c>
+      <c r="K20" s="3">
         <v>35300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>49200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>165400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>244600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>32400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>271100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>30400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>27500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>46900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>637800</v>
+        <v>808400</v>
       </c>
       <c r="E21" s="3">
-        <v>1411600</v>
+        <v>649300</v>
       </c>
       <c r="F21" s="3">
-        <v>1001700</v>
+        <v>1437100</v>
       </c>
       <c r="G21" s="3">
-        <v>1213500</v>
+        <v>1019800</v>
       </c>
       <c r="H21" s="3">
-        <v>590800</v>
+        <v>1235400</v>
       </c>
       <c r="I21" s="3">
-        <v>1064400</v>
+        <v>601400</v>
       </c>
       <c r="J21" s="3">
+        <v>1083600</v>
+      </c>
+      <c r="K21" s="3">
         <v>161400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>548600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1220000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1952300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>501700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>862300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>446500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1096200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>746400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>721600</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>7700</v>
+        <v>7600</v>
       </c>
       <c r="E22" s="3">
-        <v>10500</v>
+        <v>7900</v>
       </c>
       <c r="F22" s="3">
-        <v>9500</v>
+        <v>10700</v>
       </c>
       <c r="G22" s="3">
         <v>9700</v>
       </c>
       <c r="H22" s="3">
-        <v>9800</v>
+        <v>9900</v>
       </c>
       <c r="I22" s="3">
-        <v>7600</v>
+        <v>9900</v>
       </c>
       <c r="J22" s="3">
+        <v>7800</v>
+      </c>
+      <c r="K22" s="3">
         <v>8100</v>
-      </c>
-      <c r="K22" s="3">
-        <v>7200</v>
       </c>
       <c r="L22" s="3">
         <v>7200</v>
       </c>
       <c r="M22" s="3">
+        <v>7200</v>
+      </c>
+      <c r="N22" s="3">
         <v>8400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>9500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>10000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>8300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>10800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>8600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>245000</v>
+        <v>404300</v>
       </c>
       <c r="E23" s="3">
-        <v>887100</v>
+        <v>249400</v>
       </c>
       <c r="F23" s="3">
-        <v>507800</v>
+        <v>903000</v>
       </c>
       <c r="G23" s="3">
-        <v>703700</v>
+        <v>516900</v>
       </c>
       <c r="H23" s="3">
-        <v>59100</v>
+        <v>716300</v>
       </c>
       <c r="I23" s="3">
-        <v>664800</v>
+        <v>60200</v>
       </c>
       <c r="J23" s="3">
+        <v>676800</v>
+      </c>
+      <c r="K23" s="3">
         <v>-244100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>187800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>881700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1537600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>118000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>469500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>66900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>575400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>343200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>320900</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>64200</v>
+        <v>105900</v>
       </c>
       <c r="E24" s="3">
-        <v>307200</v>
+        <v>65300</v>
       </c>
       <c r="F24" s="3">
-        <v>159000</v>
+        <v>312700</v>
       </c>
       <c r="G24" s="3">
-        <v>171400</v>
+        <v>161800</v>
       </c>
       <c r="H24" s="3">
-        <v>6600</v>
+        <v>174500</v>
       </c>
       <c r="I24" s="3">
-        <v>159100</v>
+        <v>6700</v>
       </c>
       <c r="J24" s="3">
+        <v>162000</v>
+      </c>
+      <c r="K24" s="3">
         <v>29600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>93200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>191300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>502900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>37600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>75200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>57500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>39300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>149900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>79400</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>180800</v>
+        <v>298300</v>
       </c>
       <c r="E26" s="3">
-        <v>579900</v>
+        <v>184100</v>
       </c>
       <c r="F26" s="3">
-        <v>348800</v>
+        <v>590300</v>
       </c>
       <c r="G26" s="3">
-        <v>532200</v>
+        <v>355100</v>
       </c>
       <c r="H26" s="3">
-        <v>52600</v>
+        <v>541800</v>
       </c>
       <c r="I26" s="3">
-        <v>505700</v>
+        <v>53500</v>
       </c>
       <c r="J26" s="3">
+        <v>514800</v>
+      </c>
+      <c r="K26" s="3">
         <v>-273600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>94600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>690400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1034700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>80500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>394300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>9400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>536000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>193300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>241500</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>171600</v>
+        <v>278200</v>
       </c>
       <c r="E27" s="3">
-        <v>567700</v>
+        <v>174700</v>
       </c>
       <c r="F27" s="3">
-        <v>342200</v>
+        <v>577900</v>
       </c>
       <c r="G27" s="3">
-        <v>534000</v>
+        <v>348300</v>
       </c>
       <c r="H27" s="3">
-        <v>67000</v>
+        <v>543600</v>
       </c>
       <c r="I27" s="3">
-        <v>501300</v>
+        <v>68200</v>
       </c>
       <c r="J27" s="3">
+        <v>510300</v>
+      </c>
+      <c r="K27" s="3">
         <v>-280100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>77800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>661400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1029700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>50100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>380700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-13200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>529200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>159500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>211300</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1788,29 +1849,32 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
+      <c r="M29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>58000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-7100</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>32600</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-30200</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>21200</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>18600</v>
       </c>
     </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-42400</v>
+        <v>-27700</v>
       </c>
       <c r="E32" s="3">
-        <v>-47900</v>
+        <v>-43200</v>
       </c>
       <c r="F32" s="3">
-        <v>-41400</v>
+        <v>-48700</v>
       </c>
       <c r="G32" s="3">
-        <v>-74500</v>
+        <v>-42200</v>
       </c>
       <c r="H32" s="3">
-        <v>-36900</v>
+        <v>-75900</v>
       </c>
       <c r="I32" s="3">
-        <v>-71300</v>
+        <v>-37600</v>
       </c>
       <c r="J32" s="3">
+        <v>-72600</v>
+      </c>
+      <c r="K32" s="3">
         <v>-35300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-49200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-165400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-244600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-32400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-271100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-30400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-27500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-46900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-30200</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>171600</v>
+        <v>278200</v>
       </c>
       <c r="E33" s="3">
-        <v>567700</v>
+        <v>174700</v>
       </c>
       <c r="F33" s="3">
-        <v>342200</v>
+        <v>577900</v>
       </c>
       <c r="G33" s="3">
-        <v>534000</v>
+        <v>348300</v>
       </c>
       <c r="H33" s="3">
-        <v>67000</v>
+        <v>543600</v>
       </c>
       <c r="I33" s="3">
-        <v>501300</v>
+        <v>68200</v>
       </c>
       <c r="J33" s="3">
+        <v>510300</v>
+      </c>
+      <c r="K33" s="3">
         <v>-280100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>77800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>661400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1029700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>108100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>373600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>19400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>499000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>180700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>229900</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>171600</v>
+        <v>278200</v>
       </c>
       <c r="E35" s="3">
-        <v>567700</v>
+        <v>174700</v>
       </c>
       <c r="F35" s="3">
-        <v>342200</v>
+        <v>577900</v>
       </c>
       <c r="G35" s="3">
-        <v>534000</v>
+        <v>348300</v>
       </c>
       <c r="H35" s="3">
-        <v>67000</v>
+        <v>543600</v>
       </c>
       <c r="I35" s="3">
-        <v>501300</v>
+        <v>68200</v>
       </c>
       <c r="J35" s="3">
+        <v>510300</v>
+      </c>
+      <c r="K35" s="3">
         <v>-280100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>77800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>661400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1029700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>108100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>373600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>19400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>499000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>180700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>229900</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2313,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>5370500</v>
+        <v>4719200</v>
       </c>
       <c r="E41" s="3">
-        <v>4265500</v>
+        <v>5467200</v>
       </c>
       <c r="F41" s="3">
-        <v>4760000</v>
+        <v>4342300</v>
       </c>
       <c r="G41" s="3">
-        <v>3898700</v>
+        <v>4845700</v>
       </c>
       <c r="H41" s="3">
-        <v>4380900</v>
+        <v>3968900</v>
       </c>
       <c r="I41" s="3">
-        <v>3933500</v>
+        <v>4459800</v>
       </c>
       <c r="J41" s="3">
+        <v>4004300</v>
+      </c>
+      <c r="K41" s="3">
         <v>3420000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4022600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4852800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4091100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3514500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3640500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3944200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3376800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3378700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2907800</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,379 +2423,403 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5798000</v>
+        <v>6229300</v>
       </c>
       <c r="E43" s="3">
-        <v>10074600</v>
+        <v>5902400</v>
       </c>
       <c r="F43" s="3">
-        <v>8581200</v>
+        <v>10256000</v>
       </c>
       <c r="G43" s="3">
-        <v>8924200</v>
+        <v>8735700</v>
       </c>
       <c r="H43" s="3">
-        <v>6193100</v>
+        <v>9084900</v>
       </c>
       <c r="I43" s="3">
-        <v>10698200</v>
+        <v>6304600</v>
       </c>
       <c r="J43" s="3">
+        <v>10890900</v>
+      </c>
+      <c r="K43" s="3">
         <v>8897700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>8539000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>7949100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>9504100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>8140100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>8112800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>7229000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>9456200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>8723500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>8133900</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2356700</v>
+        <v>2548800</v>
       </c>
       <c r="E44" s="3">
-        <v>2247400</v>
+        <v>2399200</v>
       </c>
       <c r="F44" s="3">
-        <v>3134400</v>
+        <v>2287900</v>
       </c>
       <c r="G44" s="3">
-        <v>2746000</v>
+        <v>3190900</v>
       </c>
       <c r="H44" s="3">
-        <v>2607500</v>
+        <v>2795400</v>
       </c>
       <c r="I44" s="3">
-        <v>2133900</v>
+        <v>2654500</v>
       </c>
       <c r="J44" s="3">
+        <v>2172300</v>
+      </c>
+      <c r="K44" s="3">
         <v>2782400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2567900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2568900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2184100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2619100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2715300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2696200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2600400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3205000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2890300</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2741700</v>
+        <v>3141000</v>
       </c>
       <c r="E45" s="3">
-        <v>1264700</v>
+        <v>2791100</v>
       </c>
       <c r="F45" s="3">
-        <v>1148400</v>
+        <v>1287400</v>
       </c>
       <c r="G45" s="3">
-        <v>1801700</v>
+        <v>1169100</v>
       </c>
       <c r="H45" s="3">
-        <v>3336300</v>
+        <v>1834200</v>
       </c>
       <c r="I45" s="3">
-        <v>1730700</v>
+        <v>3396300</v>
       </c>
       <c r="J45" s="3">
+        <v>1761800</v>
+      </c>
+      <c r="K45" s="3">
         <v>2739100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2608500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1638200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1101100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1572900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2370700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2509100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>908800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>924000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>838300</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>16267000</v>
+        <v>16638300</v>
       </c>
       <c r="E46" s="3">
-        <v>17852200</v>
+        <v>16559900</v>
       </c>
       <c r="F46" s="3">
-        <v>17624100</v>
+        <v>18173700</v>
       </c>
       <c r="G46" s="3">
-        <v>17370600</v>
+        <v>17941400</v>
       </c>
       <c r="H46" s="3">
-        <v>16517800</v>
+        <v>17683400</v>
       </c>
       <c r="I46" s="3">
-        <v>18496300</v>
+        <v>16815200</v>
       </c>
       <c r="J46" s="3">
+        <v>18829300</v>
+      </c>
+      <c r="K46" s="3">
         <v>17839300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>17738000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>17009000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>16880400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>15846500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>16839400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>16378500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>16342100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>16231300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>14770300</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2795200</v>
+        <v>2938000</v>
       </c>
       <c r="E47" s="3">
-        <v>2666600</v>
+        <v>2845500</v>
       </c>
       <c r="F47" s="3">
-        <v>2821800</v>
+        <v>2714700</v>
       </c>
       <c r="G47" s="3">
-        <v>2746700</v>
+        <v>2872600</v>
       </c>
       <c r="H47" s="3">
-        <v>2718300</v>
+        <v>2796100</v>
       </c>
       <c r="I47" s="3">
-        <v>2809200</v>
+        <v>2767300</v>
       </c>
       <c r="J47" s="3">
+        <v>2859800</v>
+      </c>
+      <c r="K47" s="3">
         <v>2699000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3077600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3008500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2818600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2568300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2387000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2600400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2588500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2502100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2282100</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5304900</v>
+        <v>5336600</v>
       </c>
       <c r="E48" s="3">
-        <v>5382400</v>
+        <v>5400400</v>
       </c>
       <c r="F48" s="3">
-        <v>5497000</v>
+        <v>5479300</v>
       </c>
       <c r="G48" s="3">
-        <v>5586600</v>
+        <v>5596000</v>
       </c>
       <c r="H48" s="3">
-        <v>5623800</v>
+        <v>5687200</v>
       </c>
       <c r="I48" s="3">
-        <v>4144900</v>
+        <v>5725100</v>
       </c>
       <c r="J48" s="3">
+        <v>4219500</v>
+      </c>
+      <c r="K48" s="3">
         <v>4201800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4224000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4290200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4751300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4833700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4984100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4980900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5292300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5365800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>5402900</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1387700</v>
+        <v>1466000</v>
       </c>
       <c r="E49" s="3">
-        <v>1358600</v>
+        <v>1412700</v>
       </c>
       <c r="F49" s="3">
-        <v>1397300</v>
+        <v>1383100</v>
       </c>
       <c r="G49" s="3">
-        <v>1359100</v>
+        <v>1422500</v>
       </c>
       <c r="H49" s="3">
-        <v>1424100</v>
+        <v>1383600</v>
       </c>
       <c r="I49" s="3">
-        <v>1465600</v>
+        <v>1449700</v>
       </c>
       <c r="J49" s="3">
+        <v>1492000</v>
+      </c>
+      <c r="K49" s="3">
         <v>1482000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1521000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1508100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1565500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1609100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1638400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1634800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1731500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1773700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1761300</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2424400</v>
+        <v>2350200</v>
       </c>
       <c r="E52" s="3">
-        <v>2829600</v>
+        <v>2468000</v>
       </c>
       <c r="F52" s="3">
-        <v>2064600</v>
+        <v>2880600</v>
       </c>
       <c r="G52" s="3">
-        <v>2322100</v>
+        <v>2101800</v>
       </c>
       <c r="H52" s="3">
-        <v>2300100</v>
+        <v>2363900</v>
       </c>
       <c r="I52" s="3">
-        <v>2393700</v>
+        <v>2341500</v>
       </c>
       <c r="J52" s="3">
+        <v>2436900</v>
+      </c>
+      <c r="K52" s="3">
         <v>2024100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2036300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1967800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2202800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2103500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2053100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1898900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2354200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2168000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2425900</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>28179100</v>
+        <v>28729000</v>
       </c>
       <c r="E54" s="3">
-        <v>30089500</v>
+        <v>28686600</v>
       </c>
       <c r="F54" s="3">
-        <v>29404800</v>
+        <v>30631300</v>
       </c>
       <c r="G54" s="3">
-        <v>29385100</v>
+        <v>29934300</v>
       </c>
       <c r="H54" s="3">
-        <v>28584000</v>
+        <v>29914300</v>
       </c>
       <c r="I54" s="3">
-        <v>29309700</v>
+        <v>29098700</v>
       </c>
       <c r="J54" s="3">
+        <v>29837500</v>
+      </c>
+      <c r="K54" s="3">
         <v>28246100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>28596900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>27783500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>28218600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>26961200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>27902100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>27493600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>28308600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>28040900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>26642400</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,326 +3141,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3745800</v>
+        <v>3966800</v>
       </c>
       <c r="E57" s="3">
-        <v>4521500</v>
+        <v>3813300</v>
       </c>
       <c r="F57" s="3">
-        <v>4581200</v>
+        <v>4602900</v>
       </c>
       <c r="G57" s="3">
-        <v>4626600</v>
+        <v>4663700</v>
       </c>
       <c r="H57" s="3">
-        <v>4165200</v>
+        <v>4709900</v>
       </c>
       <c r="I57" s="3">
-        <v>4991300</v>
+        <v>4240200</v>
       </c>
       <c r="J57" s="3">
+        <v>5081200</v>
+      </c>
+      <c r="K57" s="3">
         <v>4770900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4895000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4925800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4890100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4536100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4442700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4365700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>5479100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>5278500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>4733500</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2262100</v>
+        <v>2034200</v>
       </c>
       <c r="E58" s="3">
-        <v>1882800</v>
+        <v>2302800</v>
       </c>
       <c r="F58" s="3">
-        <v>2249200</v>
+        <v>1916700</v>
       </c>
       <c r="G58" s="3">
-        <v>1925000</v>
+        <v>2289700</v>
       </c>
       <c r="H58" s="3">
-        <v>1489600</v>
+        <v>1959700</v>
       </c>
       <c r="I58" s="3">
-        <v>1235500</v>
+        <v>1516400</v>
       </c>
       <c r="J58" s="3">
+        <v>1257700</v>
+      </c>
+      <c r="K58" s="3">
         <v>1139500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1370500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1457300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1223900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1843800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1758100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1742400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1160100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2089100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1598500</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5574600</v>
+        <v>5900500</v>
       </c>
       <c r="E59" s="3">
-        <v>6487100</v>
+        <v>5675000</v>
       </c>
       <c r="F59" s="3">
-        <v>5627500</v>
+        <v>6603900</v>
       </c>
       <c r="G59" s="3">
-        <v>5754600</v>
+        <v>5728800</v>
       </c>
       <c r="H59" s="3">
-        <v>5776000</v>
+        <v>5858300</v>
       </c>
       <c r="I59" s="3">
-        <v>6657900</v>
+        <v>5880000</v>
       </c>
       <c r="J59" s="3">
+        <v>6777800</v>
+      </c>
+      <c r="K59" s="3">
         <v>6198400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5931800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5503600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>5842700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>5204500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>6069800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>6141100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>6062600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>5314400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>5197200</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>11582500</v>
+        <v>11901500</v>
       </c>
       <c r="E60" s="3">
-        <v>12891300</v>
+        <v>11791100</v>
       </c>
       <c r="F60" s="3">
-        <v>12457800</v>
+        <v>13123500</v>
       </c>
       <c r="G60" s="3">
-        <v>12306200</v>
+        <v>12682200</v>
       </c>
       <c r="H60" s="3">
-        <v>11430700</v>
+        <v>12527800</v>
       </c>
       <c r="I60" s="3">
-        <v>12884700</v>
+        <v>11636600</v>
       </c>
       <c r="J60" s="3">
+        <v>13116800</v>
+      </c>
+      <c r="K60" s="3">
         <v>12108900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>12197300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>11886800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>11956700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>11584400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>12270600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>12249300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>12701800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>12682100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>11529200</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1601000</v>
+        <v>1477500</v>
       </c>
       <c r="E61" s="3">
-        <v>1945800</v>
+        <v>1629800</v>
       </c>
       <c r="F61" s="3">
-        <v>2190200</v>
+        <v>1980800</v>
       </c>
       <c r="G61" s="3">
-        <v>2413700</v>
+        <v>2229600</v>
       </c>
       <c r="H61" s="3">
-        <v>2775300</v>
+        <v>2457100</v>
       </c>
       <c r="I61" s="3">
-        <v>1749600</v>
+        <v>2825300</v>
       </c>
       <c r="J61" s="3">
+        <v>1781100</v>
+      </c>
+      <c r="K61" s="3">
         <v>2114900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2085900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2071600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2409200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2514000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2845600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2850300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3142700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3330600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>3416600</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2312400</v>
+        <v>2321700</v>
       </c>
       <c r="E62" s="3">
-        <v>2523200</v>
+        <v>2354000</v>
       </c>
       <c r="F62" s="3">
-        <v>2333600</v>
+        <v>2568600</v>
       </c>
       <c r="G62" s="3">
-        <v>2515200</v>
+        <v>2375600</v>
       </c>
       <c r="H62" s="3">
-        <v>2702100</v>
+        <v>2560500</v>
       </c>
       <c r="I62" s="3">
-        <v>2841100</v>
+        <v>2750800</v>
       </c>
       <c r="J62" s="3">
+        <v>2892300</v>
+      </c>
+      <c r="K62" s="3">
         <v>2815900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2349600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2433100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2960400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2738600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3007700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3186800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3423800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>3635400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>4100300</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>16521900</v>
+        <v>16547000</v>
       </c>
       <c r="E66" s="3">
-        <v>18374900</v>
+        <v>16819500</v>
       </c>
       <c r="F66" s="3">
-        <v>17992200</v>
+        <v>18705800</v>
       </c>
       <c r="G66" s="3">
-        <v>18339400</v>
+        <v>18316200</v>
       </c>
       <c r="H66" s="3">
-        <v>18017800</v>
+        <v>18669600</v>
       </c>
       <c r="I66" s="3">
-        <v>18623100</v>
+        <v>18342300</v>
       </c>
       <c r="J66" s="3">
+        <v>18958500</v>
+      </c>
+      <c r="K66" s="3">
         <v>18179000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>17756300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>17466900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>18384900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>17967300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>19395400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>19535600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>20491500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>20859700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>20204800</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>6801400</v>
+        <v>7106900</v>
       </c>
       <c r="E72" s="3">
-        <v>6947100</v>
+        <v>6923900</v>
       </c>
       <c r="F72" s="3">
-        <v>6119500</v>
+        <v>7072200</v>
       </c>
       <c r="G72" s="3">
-        <v>5882500</v>
+        <v>6229700</v>
       </c>
       <c r="H72" s="3">
-        <v>5364200</v>
+        <v>5988500</v>
       </c>
       <c r="I72" s="3">
-        <v>5445500</v>
+        <v>5460800</v>
       </c>
       <c r="J72" s="3">
+        <v>5543600</v>
+      </c>
+      <c r="K72" s="3">
         <v>4808000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>5381100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>5046900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>4337200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>3458200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>3040200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2400300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2358500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1640600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1192500</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>11657200</v>
+        <v>12182000</v>
       </c>
       <c r="E76" s="3">
-        <v>11714600</v>
+        <v>11867100</v>
       </c>
       <c r="F76" s="3">
-        <v>11412600</v>
+        <v>11925600</v>
       </c>
       <c r="G76" s="3">
-        <v>11045700</v>
+        <v>11618100</v>
       </c>
       <c r="H76" s="3">
-        <v>10566200</v>
+        <v>11244600</v>
       </c>
       <c r="I76" s="3">
-        <v>10686600</v>
+        <v>10756500</v>
       </c>
       <c r="J76" s="3">
+        <v>10879000</v>
+      </c>
+      <c r="K76" s="3">
         <v>10067100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>10840600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>10316700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>9833700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>8993900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>8506700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>7958000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>7817100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>7181100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>6437700</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>171600</v>
+        <v>278200</v>
       </c>
       <c r="E81" s="3">
-        <v>567700</v>
+        <v>174700</v>
       </c>
       <c r="F81" s="3">
-        <v>342200</v>
+        <v>577900</v>
       </c>
       <c r="G81" s="3">
-        <v>534000</v>
+        <v>348300</v>
       </c>
       <c r="H81" s="3">
-        <v>67000</v>
+        <v>543600</v>
       </c>
       <c r="I81" s="3">
-        <v>501300</v>
+        <v>68200</v>
       </c>
       <c r="J81" s="3">
+        <v>510300</v>
+      </c>
+      <c r="K81" s="3">
         <v>-280100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>77800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>661400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1029700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>108100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>373600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>19400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>499000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>180700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>229900</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4422,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>385100</v>
+        <v>396600</v>
       </c>
       <c r="E83" s="3">
-        <v>514100</v>
+        <v>392000</v>
       </c>
       <c r="F83" s="3">
-        <v>484400</v>
+        <v>523300</v>
       </c>
       <c r="G83" s="3">
-        <v>500100</v>
+        <v>493100</v>
       </c>
       <c r="H83" s="3">
-        <v>521900</v>
+        <v>509100</v>
       </c>
       <c r="I83" s="3">
-        <v>392000</v>
+        <v>531300</v>
       </c>
       <c r="J83" s="3">
+        <v>399000</v>
+      </c>
+      <c r="K83" s="3">
         <v>397400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>353700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>331100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>406300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>374200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>382800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>371200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>510100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>394600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>391500</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1405600</v>
+        <v>77500</v>
       </c>
       <c r="E89" s="3">
-        <v>1231800</v>
+        <v>1430900</v>
       </c>
       <c r="F89" s="3">
-        <v>958600</v>
+        <v>1254000</v>
       </c>
       <c r="G89" s="3">
-        <v>-10900</v>
+        <v>975900</v>
       </c>
       <c r="H89" s="3">
-        <v>1098600</v>
+        <v>-11100</v>
       </c>
       <c r="I89" s="3">
-        <v>784400</v>
+        <v>1118400</v>
       </c>
       <c r="J89" s="3">
+        <v>798500</v>
+      </c>
+      <c r="K89" s="3">
         <v>-282800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-542300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>951300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1170800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>146100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-243400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>738300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1384900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>462200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-176900</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-247600</v>
+        <v>-304900</v>
       </c>
       <c r="E91" s="3">
-        <v>-320900</v>
+        <v>-252000</v>
       </c>
       <c r="F91" s="3">
-        <v>-351300</v>
+        <v>-326700</v>
       </c>
       <c r="G91" s="3">
-        <v>-336800</v>
+        <v>-357600</v>
       </c>
       <c r="H91" s="3">
-        <v>-246200</v>
+        <v>-342900</v>
       </c>
       <c r="I91" s="3">
-        <v>-272200</v>
+        <v>-250700</v>
       </c>
       <c r="J91" s="3">
+        <v>-277100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-280100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-308100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-263300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-328500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-278400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-345300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-268200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>796000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-743100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1114100</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-94500</v>
+        <v>-328600</v>
       </c>
       <c r="E94" s="3">
-        <v>-657800</v>
+        <v>-96200</v>
       </c>
       <c r="F94" s="3">
-        <v>31600</v>
+        <v>-669600</v>
       </c>
       <c r="G94" s="3">
-        <v>-350400</v>
+        <v>32100</v>
       </c>
       <c r="H94" s="3">
-        <v>-101500</v>
+        <v>-356700</v>
       </c>
       <c r="I94" s="3">
-        <v>-122600</v>
+        <v>-103400</v>
       </c>
       <c r="J94" s="3">
+        <v>-124800</v>
+      </c>
+      <c r="K94" s="3">
         <v>151500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-165200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>171400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>135400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-19800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-35900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-283900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-128400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-312300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-509000</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,61 +5082,65 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-189000</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-192400</v>
       </c>
       <c r="F96" s="3">
-        <v>-153100</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-155800</v>
       </c>
       <c r="H96" s="3">
-        <v>-153100</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-155800</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-135100</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-112300</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-92700</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-92700</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-73400</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,163 +5304,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-225000</v>
+        <v>-497400</v>
       </c>
       <c r="E100" s="3">
-        <v>-1035700</v>
+        <v>-229000</v>
       </c>
       <c r="F100" s="3">
-        <v>-232800</v>
+        <v>-1054300</v>
       </c>
       <c r="G100" s="3">
-        <v>-31800</v>
+        <v>-237000</v>
       </c>
       <c r="H100" s="3">
-        <v>-523100</v>
+        <v>-32400</v>
       </c>
       <c r="I100" s="3">
-        <v>-323100</v>
+        <v>-532500</v>
       </c>
       <c r="J100" s="3">
+        <v>-328900</v>
+      </c>
+      <c r="K100" s="3">
         <v>-456900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-98000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-394900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-724300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-355700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-24600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>87700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1222900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>222400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-114400</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>15000</v>
+        <v>12800</v>
       </c>
       <c r="E101" s="3">
-        <v>-30400</v>
+        <v>15200</v>
       </c>
       <c r="F101" s="3">
-        <v>8900</v>
+        <v>-31000</v>
       </c>
       <c r="G101" s="3">
-        <v>-8300</v>
+        <v>9000</v>
       </c>
       <c r="H101" s="3">
-        <v>-4100</v>
+        <v>-8400</v>
       </c>
       <c r="I101" s="3">
-        <v>-25500</v>
+        <v>-4200</v>
       </c>
       <c r="J101" s="3">
+        <v>-25900</v>
+      </c>
+      <c r="K101" s="3">
         <v>-29900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>15200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>12400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-5500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>12600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>15900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>7400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-6500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>98700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-16300</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1101100</v>
+        <v>-735600</v>
       </c>
       <c r="E102" s="3">
-        <v>-492000</v>
+        <v>1121000</v>
       </c>
       <c r="F102" s="3">
-        <v>766200</v>
+        <v>-500900</v>
       </c>
       <c r="G102" s="3">
-        <v>-401400</v>
+        <v>780000</v>
       </c>
       <c r="H102" s="3">
-        <v>469800</v>
+        <v>-408600</v>
       </c>
       <c r="I102" s="3">
-        <v>313200</v>
+        <v>478300</v>
       </c>
       <c r="J102" s="3">
+        <v>318800</v>
+      </c>
+      <c r="K102" s="3">
         <v>-618100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-790300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>740200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>576400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-216800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-288000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>549500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>27100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>471000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-816700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FJTSY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FJTSY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
   <si>
     <t>FJTSY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,269 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7967100</v>
+        <v>8192400</v>
       </c>
       <c r="E8" s="3">
-        <v>7714800</v>
+        <v>7594000</v>
       </c>
       <c r="F8" s="3">
-        <v>10626400</v>
+        <v>7353600</v>
       </c>
       <c r="G8" s="3">
-        <v>8872600</v>
+        <v>10128800</v>
       </c>
       <c r="H8" s="3">
-        <v>9514100</v>
+        <v>8457100</v>
       </c>
       <c r="I8" s="3">
-        <v>8060300</v>
+        <v>9068600</v>
       </c>
       <c r="J8" s="3">
+        <v>7682800</v>
+      </c>
+      <c r="K8" s="3">
         <v>10960900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>9225900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>8982400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>7887000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>10594900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>9068300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>9045400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>8340600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>10682100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>9054700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>8940200</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5575400</v>
+        <v>5736400</v>
       </c>
       <c r="E9" s="3">
-        <v>5563500</v>
+        <v>5314400</v>
       </c>
       <c r="F9" s="3">
-        <v>7439300</v>
+        <v>5303000</v>
       </c>
       <c r="G9" s="3">
-        <v>6316200</v>
+        <v>7091000</v>
       </c>
       <c r="H9" s="3">
-        <v>6763000</v>
+        <v>6020400</v>
       </c>
       <c r="I9" s="3">
-        <v>5894400</v>
+        <v>6446300</v>
       </c>
       <c r="J9" s="3">
+        <v>5618400</v>
+      </c>
+      <c r="K9" s="3">
         <v>7652900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>6814100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>6619700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>5900700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>7434500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>6706300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>6565400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>6111700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>7514400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>6501100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>6406200</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2391700</v>
+        <v>2456000</v>
       </c>
       <c r="E10" s="3">
-        <v>2151300</v>
+        <v>2279700</v>
       </c>
       <c r="F10" s="3">
-        <v>3187100</v>
+        <v>2050600</v>
       </c>
       <c r="G10" s="3">
-        <v>2556400</v>
+        <v>3037900</v>
       </c>
       <c r="H10" s="3">
-        <v>2751200</v>
+        <v>2436700</v>
       </c>
       <c r="I10" s="3">
-        <v>2165900</v>
+        <v>2622400</v>
       </c>
       <c r="J10" s="3">
+        <v>2064500</v>
+      </c>
+      <c r="K10" s="3">
         <v>3308000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2411800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2362700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1986300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3160500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2362000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2480000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2228900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>3167600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2553600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2534000</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +948,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1005,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1064,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1071,14 +1090,14 @@
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="3">
         <v>710200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>411800</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
@@ -1104,8 +1123,11 @@
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1182,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7583000</v>
+        <v>7336000</v>
       </c>
       <c r="E17" s="3">
-        <v>7500800</v>
+        <v>7227900</v>
       </c>
       <c r="F17" s="3">
-        <v>9761400</v>
+        <v>7149600</v>
       </c>
       <c r="G17" s="3">
-        <v>8388100</v>
+        <v>9304400</v>
       </c>
       <c r="H17" s="3">
-        <v>8863800</v>
+        <v>7995300</v>
       </c>
       <c r="I17" s="3">
-        <v>8027700</v>
+        <v>8448700</v>
       </c>
       <c r="J17" s="3">
+        <v>7651800</v>
+      </c>
+      <c r="K17" s="3">
         <v>10348900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>9497100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8836700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7163500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>9293500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>8973100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>8837100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>8295900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>10123400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>8749800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>8640300</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>384200</v>
+        <v>856400</v>
       </c>
       <c r="E18" s="3">
-        <v>214000</v>
+        <v>366200</v>
       </c>
       <c r="F18" s="3">
-        <v>865000</v>
+        <v>204000</v>
       </c>
       <c r="G18" s="3">
-        <v>484500</v>
+        <v>824500</v>
       </c>
       <c r="H18" s="3">
-        <v>650400</v>
+        <v>461800</v>
       </c>
       <c r="I18" s="3">
-        <v>32500</v>
+        <v>619900</v>
       </c>
       <c r="J18" s="3">
+        <v>31000</v>
+      </c>
+      <c r="K18" s="3">
         <v>612000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-271200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>145700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>723500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1301400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>95200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>208400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>44800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>558700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>304900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>299900</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,288 +1345,304 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>27700</v>
+        <v>30300</v>
       </c>
       <c r="E20" s="3">
-        <v>43200</v>
+        <v>26400</v>
       </c>
       <c r="F20" s="3">
-        <v>48700</v>
+        <v>41200</v>
       </c>
       <c r="G20" s="3">
-        <v>42200</v>
+        <v>46400</v>
       </c>
       <c r="H20" s="3">
-        <v>75900</v>
+        <v>40200</v>
       </c>
       <c r="I20" s="3">
-        <v>37600</v>
+        <v>72300</v>
       </c>
       <c r="J20" s="3">
+        <v>35800</v>
+      </c>
+      <c r="K20" s="3">
         <v>72600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>35300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>49200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>165400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>244600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>32400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>271100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>30400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>27500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>46900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>808400</v>
+        <v>1283100</v>
       </c>
       <c r="E21" s="3">
-        <v>649300</v>
+        <v>770500</v>
       </c>
       <c r="F21" s="3">
-        <v>1437100</v>
+        <v>618800</v>
       </c>
       <c r="G21" s="3">
-        <v>1019800</v>
+        <v>1369800</v>
       </c>
       <c r="H21" s="3">
-        <v>1235400</v>
+        <v>972000</v>
       </c>
       <c r="I21" s="3">
-        <v>601400</v>
+        <v>1177500</v>
       </c>
       <c r="J21" s="3">
+        <v>573300</v>
+      </c>
+      <c r="K21" s="3">
         <v>1083600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>161400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>548600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1220000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1952300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>501700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>862300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>446500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1096200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>746400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>721600</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>7600</v>
+        <v>6700</v>
       </c>
       <c r="E22" s="3">
-        <v>7900</v>
+        <v>7200</v>
       </c>
       <c r="F22" s="3">
-        <v>10700</v>
+        <v>7500</v>
       </c>
       <c r="G22" s="3">
-        <v>9700</v>
+        <v>10200</v>
       </c>
       <c r="H22" s="3">
-        <v>9900</v>
+        <v>9300</v>
       </c>
       <c r="I22" s="3">
-        <v>9900</v>
+        <v>9400</v>
       </c>
       <c r="J22" s="3">
+        <v>9500</v>
+      </c>
+      <c r="K22" s="3">
         <v>7800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>8100</v>
-      </c>
-      <c r="L22" s="3">
-        <v>7200</v>
       </c>
       <c r="M22" s="3">
         <v>7200</v>
       </c>
       <c r="N22" s="3">
+        <v>7200</v>
+      </c>
+      <c r="O22" s="3">
         <v>8400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>9500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>10000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>8300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>10800</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>8600</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>404300</v>
+        <v>879900</v>
       </c>
       <c r="E23" s="3">
-        <v>249400</v>
+        <v>385300</v>
       </c>
       <c r="F23" s="3">
-        <v>903000</v>
+        <v>237700</v>
       </c>
       <c r="G23" s="3">
-        <v>516900</v>
+        <v>860800</v>
       </c>
       <c r="H23" s="3">
-        <v>716300</v>
+        <v>492700</v>
       </c>
       <c r="I23" s="3">
-        <v>60200</v>
+        <v>682800</v>
       </c>
       <c r="J23" s="3">
+        <v>57400</v>
+      </c>
+      <c r="K23" s="3">
         <v>676800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-244100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>187800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>881700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1537600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>118000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>469500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>66900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>575400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>343200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>320900</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>105900</v>
+        <v>227500</v>
       </c>
       <c r="E24" s="3">
-        <v>65300</v>
+        <v>101000</v>
       </c>
       <c r="F24" s="3">
-        <v>312700</v>
+        <v>62300</v>
       </c>
       <c r="G24" s="3">
-        <v>161800</v>
+        <v>298100</v>
       </c>
       <c r="H24" s="3">
-        <v>174500</v>
+        <v>154300</v>
       </c>
       <c r="I24" s="3">
-        <v>6700</v>
+        <v>166300</v>
       </c>
       <c r="J24" s="3">
+        <v>6400</v>
+      </c>
+      <c r="K24" s="3">
         <v>162000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>29600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>93200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>191300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>502900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>37600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>75200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>57500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>39300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>149900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>79400</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>298300</v>
+        <v>652400</v>
       </c>
       <c r="E26" s="3">
-        <v>184100</v>
+        <v>284400</v>
       </c>
       <c r="F26" s="3">
-        <v>590300</v>
+        <v>175400</v>
       </c>
       <c r="G26" s="3">
-        <v>355100</v>
+        <v>562700</v>
       </c>
       <c r="H26" s="3">
-        <v>541800</v>
+        <v>338500</v>
       </c>
       <c r="I26" s="3">
-        <v>53500</v>
+        <v>516500</v>
       </c>
       <c r="J26" s="3">
+        <v>51000</v>
+      </c>
+      <c r="K26" s="3">
         <v>514800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-273600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>94600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>690400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1034700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>80500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>394300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>9400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>536000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>193300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>241500</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>278200</v>
+        <v>616200</v>
       </c>
       <c r="E27" s="3">
-        <v>174700</v>
+        <v>265200</v>
       </c>
       <c r="F27" s="3">
-        <v>577900</v>
+        <v>166500</v>
       </c>
       <c r="G27" s="3">
-        <v>348300</v>
+        <v>550900</v>
       </c>
       <c r="H27" s="3">
-        <v>543600</v>
+        <v>332000</v>
       </c>
       <c r="I27" s="3">
-        <v>68200</v>
+        <v>518100</v>
       </c>
       <c r="J27" s="3">
+        <v>65000</v>
+      </c>
+      <c r="K27" s="3">
         <v>510300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-280100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>77800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>661400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1029700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>50100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>380700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-13200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>529200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>159500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>211300</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1852,29 +1912,32 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
+      <c r="N29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>58000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-7100</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>32600</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-30200</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>21200</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>18600</v>
       </c>
     </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2051,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-27700</v>
+        <v>-30300</v>
       </c>
       <c r="E32" s="3">
-        <v>-43200</v>
+        <v>-26400</v>
       </c>
       <c r="F32" s="3">
-        <v>-48700</v>
+        <v>-41200</v>
       </c>
       <c r="G32" s="3">
-        <v>-42200</v>
+        <v>-46400</v>
       </c>
       <c r="H32" s="3">
-        <v>-75900</v>
+        <v>-40200</v>
       </c>
       <c r="I32" s="3">
-        <v>-37600</v>
+        <v>-72300</v>
       </c>
       <c r="J32" s="3">
+        <v>-35800</v>
+      </c>
+      <c r="K32" s="3">
         <v>-72600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-35300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-49200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-165400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-244600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-32400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-271100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-30400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-27500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-46900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-30200</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>278200</v>
+        <v>616200</v>
       </c>
       <c r="E33" s="3">
-        <v>174700</v>
+        <v>265200</v>
       </c>
       <c r="F33" s="3">
-        <v>577900</v>
+        <v>166500</v>
       </c>
       <c r="G33" s="3">
-        <v>348300</v>
+        <v>550900</v>
       </c>
       <c r="H33" s="3">
-        <v>543600</v>
+        <v>332000</v>
       </c>
       <c r="I33" s="3">
-        <v>68200</v>
+        <v>518100</v>
       </c>
       <c r="J33" s="3">
+        <v>65000</v>
+      </c>
+      <c r="K33" s="3">
         <v>510300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-280100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>77800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>661400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1029700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>108100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>373600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>19400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>499000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>180700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>229900</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>278200</v>
+        <v>616200</v>
       </c>
       <c r="E35" s="3">
-        <v>174700</v>
+        <v>265200</v>
       </c>
       <c r="F35" s="3">
-        <v>577900</v>
+        <v>166500</v>
       </c>
       <c r="G35" s="3">
-        <v>348300</v>
+        <v>550900</v>
       </c>
       <c r="H35" s="3">
-        <v>543600</v>
+        <v>332000</v>
       </c>
       <c r="I35" s="3">
-        <v>68200</v>
+        <v>518100</v>
       </c>
       <c r="J35" s="3">
+        <v>65000</v>
+      </c>
+      <c r="K35" s="3">
         <v>510300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-280100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>77800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>661400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1029700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>108100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>373600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>19400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>499000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>180700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>229900</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,64 +2399,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4719200</v>
+        <v>4281600</v>
       </c>
       <c r="E41" s="3">
-        <v>5467200</v>
+        <v>4498300</v>
       </c>
       <c r="F41" s="3">
-        <v>4342300</v>
+        <v>5211200</v>
       </c>
       <c r="G41" s="3">
-        <v>4845700</v>
+        <v>4139000</v>
       </c>
       <c r="H41" s="3">
-        <v>3968900</v>
+        <v>4618800</v>
       </c>
       <c r="I41" s="3">
-        <v>4459800</v>
+        <v>3783100</v>
       </c>
       <c r="J41" s="3">
+        <v>4251000</v>
+      </c>
+      <c r="K41" s="3">
         <v>4004300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3420000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4022600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4852800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4091100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3514500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3640500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3944200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3376800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3378700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2907800</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,400 +2515,424 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>6229300</v>
+        <v>6035200</v>
       </c>
       <c r="E43" s="3">
-        <v>5902400</v>
+        <v>5937600</v>
       </c>
       <c r="F43" s="3">
-        <v>10256000</v>
+        <v>5626000</v>
       </c>
       <c r="G43" s="3">
-        <v>8735700</v>
+        <v>9775800</v>
       </c>
       <c r="H43" s="3">
-        <v>9084900</v>
+        <v>8326700</v>
       </c>
       <c r="I43" s="3">
-        <v>6304600</v>
+        <v>8659500</v>
       </c>
       <c r="J43" s="3">
+        <v>6009400</v>
+      </c>
+      <c r="K43" s="3">
         <v>10890900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>8897700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>8539000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>7949100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>9504100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>8140100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>8112800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>7229000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>9456200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>8723500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>8133900</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2548800</v>
+        <v>2567400</v>
       </c>
       <c r="E44" s="3">
-        <v>2399200</v>
+        <v>2429400</v>
       </c>
       <c r="F44" s="3">
-        <v>2287900</v>
+        <v>2286800</v>
       </c>
       <c r="G44" s="3">
-        <v>3190900</v>
+        <v>2180700</v>
       </c>
       <c r="H44" s="3">
-        <v>2795400</v>
+        <v>3041400</v>
       </c>
       <c r="I44" s="3">
-        <v>2654500</v>
+        <v>2664500</v>
       </c>
       <c r="J44" s="3">
+        <v>2530200</v>
+      </c>
+      <c r="K44" s="3">
         <v>2172300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2782400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2567900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2568900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2184100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2619100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2715300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2696200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2600400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3205000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>2890300</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3141000</v>
+        <v>3290500</v>
       </c>
       <c r="E45" s="3">
-        <v>2791100</v>
+        <v>2993900</v>
       </c>
       <c r="F45" s="3">
-        <v>1287400</v>
+        <v>2660400</v>
       </c>
       <c r="G45" s="3">
-        <v>1169100</v>
+        <v>1227100</v>
       </c>
       <c r="H45" s="3">
-        <v>1834200</v>
+        <v>1114400</v>
       </c>
       <c r="I45" s="3">
-        <v>3396300</v>
+        <v>1748300</v>
       </c>
       <c r="J45" s="3">
+        <v>3237300</v>
+      </c>
+      <c r="K45" s="3">
         <v>1761800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2739100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2608500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1638200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1101100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1572900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2370700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2509100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>908800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>924000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>838300</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>16638300</v>
+        <v>16174600</v>
       </c>
       <c r="E46" s="3">
-        <v>16559900</v>
+        <v>15859200</v>
       </c>
       <c r="F46" s="3">
-        <v>18173700</v>
+        <v>15784500</v>
       </c>
       <c r="G46" s="3">
-        <v>17941400</v>
+        <v>17322700</v>
       </c>
       <c r="H46" s="3">
-        <v>17683400</v>
+        <v>17101300</v>
       </c>
       <c r="I46" s="3">
-        <v>16815200</v>
+        <v>16855400</v>
       </c>
       <c r="J46" s="3">
+        <v>16027800</v>
+      </c>
+      <c r="K46" s="3">
         <v>18829300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>17839300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>17738000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>17009000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>16880400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>15846500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>16839400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>16378500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>16342100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>16231300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>14770300</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2938000</v>
+        <v>2967200</v>
       </c>
       <c r="E47" s="3">
-        <v>2845500</v>
+        <v>2800400</v>
       </c>
       <c r="F47" s="3">
-        <v>2714700</v>
+        <v>2712300</v>
       </c>
       <c r="G47" s="3">
-        <v>2872600</v>
+        <v>2587600</v>
       </c>
       <c r="H47" s="3">
-        <v>2796100</v>
+        <v>2738100</v>
       </c>
       <c r="I47" s="3">
-        <v>2767300</v>
+        <v>2665200</v>
       </c>
       <c r="J47" s="3">
+        <v>2637700</v>
+      </c>
+      <c r="K47" s="3">
         <v>2859800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2699000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3077600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3008500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2818600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2568300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2387000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2600400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2588500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2502100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>2282100</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5336600</v>
+        <v>5127200</v>
       </c>
       <c r="E48" s="3">
-        <v>5400400</v>
+        <v>5086700</v>
       </c>
       <c r="F48" s="3">
-        <v>5479300</v>
+        <v>5147500</v>
       </c>
       <c r="G48" s="3">
-        <v>5596000</v>
+        <v>5222800</v>
       </c>
       <c r="H48" s="3">
-        <v>5687200</v>
+        <v>5333900</v>
       </c>
       <c r="I48" s="3">
-        <v>5725100</v>
+        <v>5420900</v>
       </c>
       <c r="J48" s="3">
+        <v>5457000</v>
+      </c>
+      <c r="K48" s="3">
         <v>4219500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4201800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4224000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4290200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4751300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4833700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4984100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4980900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5292300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>5365800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>5402900</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1466000</v>
+        <v>1444600</v>
       </c>
       <c r="E49" s="3">
-        <v>1412700</v>
+        <v>1397300</v>
       </c>
       <c r="F49" s="3">
-        <v>1383100</v>
+        <v>1346500</v>
       </c>
       <c r="G49" s="3">
-        <v>1422500</v>
+        <v>1318300</v>
       </c>
       <c r="H49" s="3">
-        <v>1383600</v>
+        <v>1355800</v>
       </c>
       <c r="I49" s="3">
-        <v>1449700</v>
+        <v>1318800</v>
       </c>
       <c r="J49" s="3">
+        <v>1381900</v>
+      </c>
+      <c r="K49" s="3">
         <v>1492000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1482000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1521000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1508100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1565500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1609100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1638400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1634800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1731500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1773700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1761300</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3046,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2350200</v>
+        <v>2046400</v>
       </c>
       <c r="E52" s="3">
-        <v>2468000</v>
+        <v>2240200</v>
       </c>
       <c r="F52" s="3">
-        <v>2880600</v>
+        <v>2352400</v>
       </c>
       <c r="G52" s="3">
-        <v>2101800</v>
+        <v>2745700</v>
       </c>
       <c r="H52" s="3">
-        <v>2363900</v>
+        <v>2003400</v>
       </c>
       <c r="I52" s="3">
-        <v>2341500</v>
+        <v>2253300</v>
       </c>
       <c r="J52" s="3">
+        <v>2231800</v>
+      </c>
+      <c r="K52" s="3">
         <v>2436900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2024100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2036300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1967800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2202800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2103500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2053100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1898900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2354200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2168000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>2425900</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3164,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>28729000</v>
+        <v>27759900</v>
       </c>
       <c r="E54" s="3">
-        <v>28686600</v>
+        <v>27383800</v>
       </c>
       <c r="F54" s="3">
-        <v>30631300</v>
+        <v>27343300</v>
       </c>
       <c r="G54" s="3">
-        <v>29934300</v>
+        <v>29197000</v>
       </c>
       <c r="H54" s="3">
-        <v>29914300</v>
+        <v>28532600</v>
       </c>
       <c r="I54" s="3">
-        <v>29098700</v>
+        <v>28513500</v>
       </c>
       <c r="J54" s="3">
+        <v>27736200</v>
+      </c>
+      <c r="K54" s="3">
         <v>29837500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>28246100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>28596900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>27783500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>28218600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>26961200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>27902100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>27493600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>28308600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>28040900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>26642400</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,344 +3271,363 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3966800</v>
+        <v>4000500</v>
       </c>
       <c r="E57" s="3">
-        <v>3813300</v>
+        <v>3781100</v>
       </c>
       <c r="F57" s="3">
-        <v>4602900</v>
+        <v>3634700</v>
       </c>
       <c r="G57" s="3">
-        <v>4663700</v>
+        <v>4387400</v>
       </c>
       <c r="H57" s="3">
-        <v>4709900</v>
+        <v>4445300</v>
       </c>
       <c r="I57" s="3">
-        <v>4240200</v>
+        <v>4489300</v>
       </c>
       <c r="J57" s="3">
+        <v>4041700</v>
+      </c>
+      <c r="K57" s="3">
         <v>5081200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4770900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4895000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4925800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4890100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4536100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4442700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>4365700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>5479100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>5278500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>4733500</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2034200</v>
+        <v>1840000</v>
       </c>
       <c r="E58" s="3">
-        <v>2302800</v>
+        <v>1939000</v>
       </c>
       <c r="F58" s="3">
-        <v>1916700</v>
+        <v>2195000</v>
       </c>
       <c r="G58" s="3">
-        <v>2289700</v>
+        <v>1827000</v>
       </c>
       <c r="H58" s="3">
-        <v>1959700</v>
+        <v>2182500</v>
       </c>
       <c r="I58" s="3">
-        <v>1516400</v>
+        <v>1867900</v>
       </c>
       <c r="J58" s="3">
+        <v>1445400</v>
+      </c>
+      <c r="K58" s="3">
         <v>1257700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1139500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1370500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1457300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1223900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1843800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1758100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1742400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1160100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2089100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1598500</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5900500</v>
+        <v>5359500</v>
       </c>
       <c r="E59" s="3">
-        <v>5675000</v>
+        <v>5624200</v>
       </c>
       <c r="F59" s="3">
-        <v>6603900</v>
+        <v>5409300</v>
       </c>
       <c r="G59" s="3">
-        <v>5728800</v>
+        <v>6294600</v>
       </c>
       <c r="H59" s="3">
-        <v>5858300</v>
+        <v>5460600</v>
       </c>
       <c r="I59" s="3">
-        <v>5880000</v>
+        <v>5583900</v>
       </c>
       <c r="J59" s="3">
+        <v>5604600</v>
+      </c>
+      <c r="K59" s="3">
         <v>6777800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>6198400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5931800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>5503600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>5842700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>5204500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>6069800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>6141100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>6062600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>5314400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>5197200</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>11901500</v>
+        <v>11200000</v>
       </c>
       <c r="E60" s="3">
-        <v>11791100</v>
+        <v>11344200</v>
       </c>
       <c r="F60" s="3">
-        <v>13123500</v>
+        <v>11239000</v>
       </c>
       <c r="G60" s="3">
-        <v>12682200</v>
+        <v>12509000</v>
       </c>
       <c r="H60" s="3">
-        <v>12527800</v>
+        <v>12088300</v>
       </c>
       <c r="I60" s="3">
-        <v>11636600</v>
+        <v>11941200</v>
       </c>
       <c r="J60" s="3">
+        <v>11091700</v>
+      </c>
+      <c r="K60" s="3">
         <v>13116800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>12108900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>12197300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>11886800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>11956700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>11584400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>12270600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>12249300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>12701800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>12682100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>11529200</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1477500</v>
+        <v>1324800</v>
       </c>
       <c r="E61" s="3">
-        <v>1629800</v>
+        <v>1408300</v>
       </c>
       <c r="F61" s="3">
-        <v>1980800</v>
+        <v>1553500</v>
       </c>
       <c r="G61" s="3">
-        <v>2229600</v>
+        <v>1888100</v>
       </c>
       <c r="H61" s="3">
-        <v>2457100</v>
+        <v>2125200</v>
       </c>
       <c r="I61" s="3">
-        <v>2825300</v>
+        <v>2342100</v>
       </c>
       <c r="J61" s="3">
+        <v>2693000</v>
+      </c>
+      <c r="K61" s="3">
         <v>1781100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2114900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2085900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2071600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2409200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2514000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2845600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2850300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3142700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>3330600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>3416600</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2321700</v>
+        <v>2123600</v>
       </c>
       <c r="E62" s="3">
-        <v>2354000</v>
+        <v>2212900</v>
       </c>
       <c r="F62" s="3">
-        <v>2568600</v>
+        <v>2243800</v>
       </c>
       <c r="G62" s="3">
-        <v>2375600</v>
+        <v>2448300</v>
       </c>
       <c r="H62" s="3">
-        <v>2560500</v>
+        <v>2264400</v>
       </c>
       <c r="I62" s="3">
-        <v>2750800</v>
+        <v>2440600</v>
       </c>
       <c r="J62" s="3">
+        <v>2622000</v>
+      </c>
+      <c r="K62" s="3">
         <v>2892300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2815900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2349600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2433100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2960400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2738600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3007700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3186800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>3423800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>3635400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>4100300</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3800,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>16547000</v>
+        <v>15482100</v>
       </c>
       <c r="E66" s="3">
-        <v>16819500</v>
+        <v>15772200</v>
       </c>
       <c r="F66" s="3">
-        <v>18705800</v>
+        <v>16031900</v>
       </c>
       <c r="G66" s="3">
-        <v>18316200</v>
+        <v>17829800</v>
       </c>
       <c r="H66" s="3">
-        <v>18669600</v>
+        <v>17458500</v>
       </c>
       <c r="I66" s="3">
-        <v>18342300</v>
+        <v>17795400</v>
       </c>
       <c r="J66" s="3">
+        <v>17483400</v>
+      </c>
+      <c r="K66" s="3">
         <v>18958500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>18179000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>17756300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>17466900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>18384900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>17967300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>19395400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>19535600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>20491500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>20859700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>20204800</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4118,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7106900</v>
+        <v>7288800</v>
       </c>
       <c r="E72" s="3">
-        <v>6923900</v>
+        <v>6774100</v>
       </c>
       <c r="F72" s="3">
-        <v>7072200</v>
+        <v>6599700</v>
       </c>
       <c r="G72" s="3">
-        <v>6229700</v>
+        <v>6741000</v>
       </c>
       <c r="H72" s="3">
-        <v>5988500</v>
+        <v>5938000</v>
       </c>
       <c r="I72" s="3">
-        <v>5460800</v>
+        <v>5708100</v>
       </c>
       <c r="J72" s="3">
+        <v>5205100</v>
+      </c>
+      <c r="K72" s="3">
         <v>5543600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4808000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>5381100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>5046900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>4337200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>3458200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>3040200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2400300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2358500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1640600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1192500</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>12182000</v>
+        <v>12277800</v>
       </c>
       <c r="E76" s="3">
-        <v>11867100</v>
+        <v>11611600</v>
       </c>
       <c r="F76" s="3">
-        <v>11925600</v>
+        <v>11311400</v>
       </c>
       <c r="G76" s="3">
-        <v>11618100</v>
+        <v>11367200</v>
       </c>
       <c r="H76" s="3">
-        <v>11244600</v>
+        <v>11074100</v>
       </c>
       <c r="I76" s="3">
-        <v>10756500</v>
+        <v>10718100</v>
       </c>
       <c r="J76" s="3">
+        <v>10252800</v>
+      </c>
+      <c r="K76" s="3">
         <v>10879000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>10067100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>10840600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>10316700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>9833700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>8993900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>8506700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>7958000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>7817100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>7181100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>6437700</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>278200</v>
+        <v>616200</v>
       </c>
       <c r="E81" s="3">
-        <v>174700</v>
+        <v>265200</v>
       </c>
       <c r="F81" s="3">
-        <v>577900</v>
+        <v>166500</v>
       </c>
       <c r="G81" s="3">
-        <v>348300</v>
+        <v>550900</v>
       </c>
       <c r="H81" s="3">
-        <v>543600</v>
+        <v>332000</v>
       </c>
       <c r="I81" s="3">
-        <v>68200</v>
+        <v>518100</v>
       </c>
       <c r="J81" s="3">
+        <v>65000</v>
+      </c>
+      <c r="K81" s="3">
         <v>510300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-280100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>77800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>661400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1029700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>108100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>373600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>19400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>499000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>180700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>229900</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,64 +4620,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>396600</v>
+        <v>396400</v>
       </c>
       <c r="E83" s="3">
-        <v>392000</v>
+        <v>378000</v>
       </c>
       <c r="F83" s="3">
-        <v>523300</v>
+        <v>373600</v>
       </c>
       <c r="G83" s="3">
-        <v>493100</v>
+        <v>498800</v>
       </c>
       <c r="H83" s="3">
-        <v>509100</v>
+        <v>470100</v>
       </c>
       <c r="I83" s="3">
-        <v>531300</v>
+        <v>485300</v>
       </c>
       <c r="J83" s="3">
+        <v>506400</v>
+      </c>
+      <c r="K83" s="3">
         <v>399000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>397400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>353700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>331100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>406300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>374200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>382800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>371200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>510100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>394600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>391500</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4972,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>77500</v>
+        <v>389000</v>
       </c>
       <c r="E89" s="3">
-        <v>1430900</v>
+        <v>73900</v>
       </c>
       <c r="F89" s="3">
-        <v>1254000</v>
+        <v>1363900</v>
       </c>
       <c r="G89" s="3">
-        <v>975900</v>
+        <v>1195300</v>
       </c>
       <c r="H89" s="3">
-        <v>-11100</v>
+        <v>930200</v>
       </c>
       <c r="I89" s="3">
-        <v>1118400</v>
+        <v>-10600</v>
       </c>
       <c r="J89" s="3">
+        <v>1066000</v>
+      </c>
+      <c r="K89" s="3">
         <v>798500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-282800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-542300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>951300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1170800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>146100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-243400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>738300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1384900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>462200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-176900</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5056,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-304900</v>
+        <v>-312700</v>
       </c>
       <c r="E91" s="3">
-        <v>-252000</v>
+        <v>-290600</v>
       </c>
       <c r="F91" s="3">
-        <v>-326700</v>
+        <v>-240200</v>
       </c>
       <c r="G91" s="3">
-        <v>-357600</v>
+        <v>-311400</v>
       </c>
       <c r="H91" s="3">
-        <v>-342900</v>
+        <v>-340900</v>
       </c>
       <c r="I91" s="3">
-        <v>-250700</v>
+        <v>-326800</v>
       </c>
       <c r="J91" s="3">
+        <v>-238900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-277100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-280100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-308100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-263300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-328500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-278400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-345300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-268200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>796000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-743100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1114100</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5231,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-328600</v>
+        <v>26900</v>
       </c>
       <c r="E94" s="3">
-        <v>-96200</v>
+        <v>-313200</v>
       </c>
       <c r="F94" s="3">
-        <v>-669600</v>
+        <v>-91700</v>
       </c>
       <c r="G94" s="3">
-        <v>32100</v>
+        <v>-638300</v>
       </c>
       <c r="H94" s="3">
-        <v>-356700</v>
+        <v>30600</v>
       </c>
       <c r="I94" s="3">
-        <v>-103400</v>
+        <v>-340000</v>
       </c>
       <c r="J94" s="3">
+        <v>-98500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-124800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>151500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-165200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>171400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>135400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-19800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-35900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-283900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-128400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-312300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-509000</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,64 +5315,68 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-183500</v>
       </c>
       <c r="E96" s="3">
-        <v>-192400</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-183400</v>
       </c>
       <c r="G96" s="3">
-        <v>-155800</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-148500</v>
       </c>
       <c r="I96" s="3">
-        <v>-155800</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-148500</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-135100</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-112300</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-92700</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-92700</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-73400</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,172 +5549,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-497400</v>
+        <v>-653100</v>
       </c>
       <c r="E100" s="3">
-        <v>-229000</v>
+        <v>-474100</v>
       </c>
       <c r="F100" s="3">
-        <v>-1054300</v>
+        <v>-218300</v>
       </c>
       <c r="G100" s="3">
-        <v>-237000</v>
+        <v>-1005000</v>
       </c>
       <c r="H100" s="3">
-        <v>-32400</v>
+        <v>-225900</v>
       </c>
       <c r="I100" s="3">
-        <v>-532500</v>
+        <v>-30900</v>
       </c>
       <c r="J100" s="3">
+        <v>-507600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-328900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-456900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-98000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-394900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-724300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-355700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-24600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>87700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1222900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>222400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-114400</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>12800</v>
+        <v>16200</v>
       </c>
       <c r="E101" s="3">
+        <v>12200</v>
+      </c>
+      <c r="F101" s="3">
+        <v>14500</v>
+      </c>
+      <c r="G101" s="3">
+        <v>-29500</v>
+      </c>
+      <c r="H101" s="3">
+        <v>8600</v>
+      </c>
+      <c r="I101" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="K101" s="3">
+        <v>-25900</v>
+      </c>
+      <c r="L101" s="3">
+        <v>-29900</v>
+      </c>
+      <c r="M101" s="3">
         <v>15200</v>
       </c>
-      <c r="F101" s="3">
-        <v>-31000</v>
-      </c>
-      <c r="G101" s="3">
-        <v>9000</v>
-      </c>
-      <c r="H101" s="3">
-        <v>-8400</v>
-      </c>
-      <c r="I101" s="3">
-        <v>-4200</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-25900</v>
-      </c>
-      <c r="K101" s="3">
-        <v>-29900</v>
-      </c>
-      <c r="L101" s="3">
-        <v>15200</v>
-      </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>12400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-5500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>12600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>15900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>7400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-6500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>98700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-16300</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-735600</v>
+        <v>-221100</v>
       </c>
       <c r="E102" s="3">
-        <v>1121000</v>
+        <v>-701200</v>
       </c>
       <c r="F102" s="3">
-        <v>-500900</v>
+        <v>1068500</v>
       </c>
       <c r="G102" s="3">
-        <v>780000</v>
+        <v>-477400</v>
       </c>
       <c r="H102" s="3">
-        <v>-408600</v>
+        <v>743500</v>
       </c>
       <c r="I102" s="3">
-        <v>478300</v>
+        <v>-389500</v>
       </c>
       <c r="J102" s="3">
+        <v>455900</v>
+      </c>
+      <c r="K102" s="3">
         <v>318800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-618100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-790300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>740200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>576400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-216800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-288000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>549500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>27100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>471000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-816700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FJTSY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FJTSY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
   <si>
     <t>FJTSY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,282 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8192400</v>
+        <v>9773600</v>
       </c>
       <c r="E8" s="3">
-        <v>7594000</v>
+        <v>8219200</v>
       </c>
       <c r="F8" s="3">
-        <v>7353600</v>
+        <v>7618900</v>
       </c>
       <c r="G8" s="3">
-        <v>10128800</v>
+        <v>7377700</v>
       </c>
       <c r="H8" s="3">
-        <v>8457100</v>
+        <v>10162000</v>
       </c>
       <c r="I8" s="3">
-        <v>9068600</v>
+        <v>8484800</v>
       </c>
       <c r="J8" s="3">
+        <v>9098300</v>
+      </c>
+      <c r="K8" s="3">
         <v>7682800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>10960900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>9225900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>8982400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>7887000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>10594900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>9068300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>9045400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>8340600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>10682100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>9054700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>8940200</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5736400</v>
+        <v>6654500</v>
       </c>
       <c r="E9" s="3">
-        <v>5314400</v>
+        <v>5755200</v>
       </c>
       <c r="F9" s="3">
-        <v>5303000</v>
+        <v>5331800</v>
       </c>
       <c r="G9" s="3">
-        <v>7091000</v>
+        <v>5320400</v>
       </c>
       <c r="H9" s="3">
-        <v>6020400</v>
+        <v>7114200</v>
       </c>
       <c r="I9" s="3">
-        <v>6446300</v>
+        <v>6040100</v>
       </c>
       <c r="J9" s="3">
+        <v>6467400</v>
+      </c>
+      <c r="K9" s="3">
         <v>5618400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>7652900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>6814100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>6619700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>5900700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>7434500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>6706300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>6565400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>6111700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>7514400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>6501100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>6406200</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2456000</v>
+        <v>3119000</v>
       </c>
       <c r="E10" s="3">
-        <v>2279700</v>
+        <v>2464000</v>
       </c>
       <c r="F10" s="3">
-        <v>2050600</v>
+        <v>2287200</v>
       </c>
       <c r="G10" s="3">
-        <v>3037900</v>
+        <v>2057300</v>
       </c>
       <c r="H10" s="3">
-        <v>2436700</v>
+        <v>3047800</v>
       </c>
       <c r="I10" s="3">
-        <v>2622400</v>
+        <v>2444700</v>
       </c>
       <c r="J10" s="3">
+        <v>2630900</v>
+      </c>
+      <c r="K10" s="3">
         <v>2064500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3308000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2411800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2362700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1986300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3160500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2362000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2480000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2228900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>3167600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2553600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2534000</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1008,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,8 +1084,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1093,14 +1113,14 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3">
         <v>710200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>411800</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
@@ -1126,8 +1146,11 @@
       <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1185,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7336000</v>
+        <v>8757300</v>
       </c>
       <c r="E17" s="3">
-        <v>7227900</v>
+        <v>7360000</v>
       </c>
       <c r="F17" s="3">
-        <v>7149600</v>
+        <v>7251500</v>
       </c>
       <c r="G17" s="3">
-        <v>9304400</v>
+        <v>7173000</v>
       </c>
       <c r="H17" s="3">
-        <v>7995300</v>
+        <v>9334800</v>
       </c>
       <c r="I17" s="3">
-        <v>8448700</v>
+        <v>8021500</v>
       </c>
       <c r="J17" s="3">
+        <v>8476400</v>
+      </c>
+      <c r="K17" s="3">
         <v>7651800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>10348900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>9497100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>8836700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7163500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>9293500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>8973100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>8837100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>8295900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>10123400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>8749800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>8640300</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>856400</v>
+        <v>1016300</v>
       </c>
       <c r="E18" s="3">
-        <v>366200</v>
+        <v>859200</v>
       </c>
       <c r="F18" s="3">
-        <v>204000</v>
+        <v>367400</v>
       </c>
       <c r="G18" s="3">
-        <v>824500</v>
+        <v>204700</v>
       </c>
       <c r="H18" s="3">
-        <v>461800</v>
+        <v>827200</v>
       </c>
       <c r="I18" s="3">
-        <v>619900</v>
+        <v>463300</v>
       </c>
       <c r="J18" s="3">
+        <v>621900</v>
+      </c>
+      <c r="K18" s="3">
         <v>31000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>612000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-271200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>145700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>723500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1301400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>95200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>208400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>44800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>558700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>304900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>299900</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,303 +1379,319 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>30300</v>
+        <v>158000</v>
       </c>
       <c r="E20" s="3">
-        <v>26400</v>
+        <v>30400</v>
       </c>
       <c r="F20" s="3">
-        <v>41200</v>
+        <v>26500</v>
       </c>
       <c r="G20" s="3">
-        <v>46400</v>
+        <v>41300</v>
       </c>
       <c r="H20" s="3">
-        <v>40200</v>
+        <v>46600</v>
       </c>
       <c r="I20" s="3">
-        <v>72300</v>
+        <v>40300</v>
       </c>
       <c r="J20" s="3">
+        <v>72600</v>
+      </c>
+      <c r="K20" s="3">
         <v>35800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>72600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>35300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>49200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>165400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>244600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>32400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>271100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>30400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>27500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>46900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1283100</v>
+        <v>1638300</v>
       </c>
       <c r="E21" s="3">
-        <v>770500</v>
+        <v>1287300</v>
       </c>
       <c r="F21" s="3">
-        <v>618800</v>
+        <v>773100</v>
       </c>
       <c r="G21" s="3">
-        <v>1369800</v>
+        <v>620900</v>
       </c>
       <c r="H21" s="3">
-        <v>972000</v>
+        <v>1374300</v>
       </c>
       <c r="I21" s="3">
-        <v>1177500</v>
+        <v>975200</v>
       </c>
       <c r="J21" s="3">
+        <v>1181400</v>
+      </c>
+      <c r="K21" s="3">
         <v>573300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1083600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>161400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>548600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1220000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1952300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>501700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>862300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>446500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1096200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>746400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>721600</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>6700</v>
+      <c r="D22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E22" s="3">
-        <v>7200</v>
+        <v>6800</v>
       </c>
       <c r="F22" s="3">
+        <v>7300</v>
+      </c>
+      <c r="G22" s="3">
         <v>7500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>10200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>9300</v>
-      </c>
-      <c r="I22" s="3">
-        <v>9400</v>
       </c>
       <c r="J22" s="3">
         <v>9500</v>
       </c>
       <c r="K22" s="3">
+        <v>9500</v>
+      </c>
+      <c r="L22" s="3">
         <v>7800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>8100</v>
-      </c>
-      <c r="M22" s="3">
-        <v>7200</v>
       </c>
       <c r="N22" s="3">
         <v>7200</v>
       </c>
       <c r="O22" s="3">
+        <v>7200</v>
+      </c>
+      <c r="P22" s="3">
         <v>8400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>9500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>10000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>8300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>10800</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>8600</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>879900</v>
+        <v>1174300</v>
       </c>
       <c r="E23" s="3">
-        <v>385300</v>
+        <v>882800</v>
       </c>
       <c r="F23" s="3">
-        <v>237700</v>
+        <v>386600</v>
       </c>
       <c r="G23" s="3">
-        <v>860800</v>
+        <v>238500</v>
       </c>
       <c r="H23" s="3">
-        <v>492700</v>
+        <v>863600</v>
       </c>
       <c r="I23" s="3">
-        <v>682800</v>
+        <v>494300</v>
       </c>
       <c r="J23" s="3">
+        <v>685000</v>
+      </c>
+      <c r="K23" s="3">
         <v>57400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>676800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-244100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>187800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>881700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1537600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>118000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>469500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>66900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>575400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>343200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>320900</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>227500</v>
+        <v>327800</v>
       </c>
       <c r="E24" s="3">
-        <v>101000</v>
+        <v>228300</v>
       </c>
       <c r="F24" s="3">
-        <v>62300</v>
+        <v>101300</v>
       </c>
       <c r="G24" s="3">
-        <v>298100</v>
+        <v>62500</v>
       </c>
       <c r="H24" s="3">
-        <v>154300</v>
+        <v>299100</v>
       </c>
       <c r="I24" s="3">
-        <v>166300</v>
+        <v>154800</v>
       </c>
       <c r="J24" s="3">
+        <v>166900</v>
+      </c>
+      <c r="K24" s="3">
         <v>6400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>162000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>29600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>93200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>191300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>502900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>37600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>75200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>57500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>39300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>149900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>79400</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>652400</v>
+        <v>846400</v>
       </c>
       <c r="E26" s="3">
-        <v>284400</v>
+        <v>654500</v>
       </c>
       <c r="F26" s="3">
-        <v>175400</v>
+        <v>285300</v>
       </c>
       <c r="G26" s="3">
-        <v>562700</v>
+        <v>176000</v>
       </c>
       <c r="H26" s="3">
-        <v>338500</v>
+        <v>564500</v>
       </c>
       <c r="I26" s="3">
-        <v>516500</v>
+        <v>339600</v>
       </c>
       <c r="J26" s="3">
+        <v>518200</v>
+      </c>
+      <c r="K26" s="3">
         <v>51000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>514800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-273600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>94600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>690400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1034700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>80500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>394300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>9400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>536000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>193300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>241500</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>616200</v>
+        <v>811500</v>
       </c>
       <c r="E27" s="3">
-        <v>265200</v>
+        <v>618200</v>
       </c>
       <c r="F27" s="3">
-        <v>166500</v>
+        <v>266100</v>
       </c>
       <c r="G27" s="3">
-        <v>550900</v>
+        <v>167000</v>
       </c>
       <c r="H27" s="3">
-        <v>332000</v>
+        <v>552700</v>
       </c>
       <c r="I27" s="3">
-        <v>518100</v>
+        <v>333100</v>
       </c>
       <c r="J27" s="3">
+        <v>519800</v>
+      </c>
+      <c r="K27" s="3">
         <v>65000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>510300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-280100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>77800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>661400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1029700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>50100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>380700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-13200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>529200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>159500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>211300</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,31 +1935,34 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -1915,29 +1976,32 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
+      <c r="O29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>58000</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-7100</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>32600</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-30200</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>21200</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>18600</v>
       </c>
     </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,126 +2121,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-30300</v>
+        <v>-158000</v>
       </c>
       <c r="E32" s="3">
-        <v>-26400</v>
+        <v>-30400</v>
       </c>
       <c r="F32" s="3">
-        <v>-41200</v>
+        <v>-26500</v>
       </c>
       <c r="G32" s="3">
-        <v>-46400</v>
+        <v>-41300</v>
       </c>
       <c r="H32" s="3">
-        <v>-40200</v>
+        <v>-46600</v>
       </c>
       <c r="I32" s="3">
-        <v>-72300</v>
+        <v>-40300</v>
       </c>
       <c r="J32" s="3">
+        <v>-72600</v>
+      </c>
+      <c r="K32" s="3">
         <v>-35800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-72600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-35300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-49200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-165400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-244600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-32400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-271100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-30400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-27500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-46900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-30200</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>616200</v>
+        <v>811500</v>
       </c>
       <c r="E33" s="3">
-        <v>265200</v>
+        <v>618200</v>
       </c>
       <c r="F33" s="3">
-        <v>166500</v>
+        <v>266100</v>
       </c>
       <c r="G33" s="3">
-        <v>550900</v>
+        <v>167000</v>
       </c>
       <c r="H33" s="3">
-        <v>332000</v>
+        <v>552700</v>
       </c>
       <c r="I33" s="3">
-        <v>518100</v>
+        <v>333100</v>
       </c>
       <c r="J33" s="3">
+        <v>519800</v>
+      </c>
+      <c r="K33" s="3">
         <v>65000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>510300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-280100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>77800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>661400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1029700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>108100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>373600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>19400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>499000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>180700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>229900</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>616200</v>
+        <v>811500</v>
       </c>
       <c r="E35" s="3">
-        <v>265200</v>
+        <v>618200</v>
       </c>
       <c r="F35" s="3">
-        <v>166500</v>
+        <v>266100</v>
       </c>
       <c r="G35" s="3">
-        <v>550900</v>
+        <v>167000</v>
       </c>
       <c r="H35" s="3">
-        <v>332000</v>
+        <v>552700</v>
       </c>
       <c r="I35" s="3">
-        <v>518100</v>
+        <v>333100</v>
       </c>
       <c r="J35" s="3">
+        <v>519800</v>
+      </c>
+      <c r="K35" s="3">
         <v>65000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>510300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-280100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>77800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>661400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1029700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>108100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>373600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>19400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>499000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>180700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>229900</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,67 +2486,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4281600</v>
+        <v>4428000</v>
       </c>
       <c r="E41" s="3">
-        <v>4498300</v>
+        <v>4295600</v>
       </c>
       <c r="F41" s="3">
-        <v>5211200</v>
+        <v>4513000</v>
       </c>
       <c r="G41" s="3">
-        <v>4139000</v>
+        <v>5228300</v>
       </c>
       <c r="H41" s="3">
-        <v>4618800</v>
+        <v>4152600</v>
       </c>
       <c r="I41" s="3">
-        <v>3783100</v>
+        <v>4634000</v>
       </c>
       <c r="J41" s="3">
+        <v>3795500</v>
+      </c>
+      <c r="K41" s="3">
         <v>4251000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4004300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3420000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4022600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4852800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4091100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3514500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3640500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3944200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3376800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3378700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2907800</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2518,421 +2608,445 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>6035200</v>
+        <v>8350900</v>
       </c>
       <c r="E43" s="3">
-        <v>5937600</v>
+        <v>6054900</v>
       </c>
       <c r="F43" s="3">
-        <v>5626000</v>
+        <v>5957000</v>
       </c>
       <c r="G43" s="3">
-        <v>9775800</v>
+        <v>5644500</v>
       </c>
       <c r="H43" s="3">
-        <v>8326700</v>
+        <v>9807800</v>
       </c>
       <c r="I43" s="3">
-        <v>8659500</v>
+        <v>8353900</v>
       </c>
       <c r="J43" s="3">
+        <v>8687800</v>
+      </c>
+      <c r="K43" s="3">
         <v>6009400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>10890900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>8897700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>8539000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>7949100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>9504100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>8140100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>8112800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>7229000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>9456200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>8723500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>8133900</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2567400</v>
+        <v>2178100</v>
       </c>
       <c r="E44" s="3">
-        <v>2429400</v>
+        <v>2575800</v>
       </c>
       <c r="F44" s="3">
-        <v>2286800</v>
+        <v>2437400</v>
       </c>
       <c r="G44" s="3">
-        <v>2180700</v>
+        <v>2294300</v>
       </c>
       <c r="H44" s="3">
-        <v>3041400</v>
+        <v>2187900</v>
       </c>
       <c r="I44" s="3">
-        <v>2664500</v>
+        <v>3051400</v>
       </c>
       <c r="J44" s="3">
+        <v>2673300</v>
+      </c>
+      <c r="K44" s="3">
         <v>2530200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2172300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2782400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2567900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2568900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2184100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2619100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2715300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2696200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2600400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3205000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>2890300</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3290500</v>
+        <v>2256600</v>
       </c>
       <c r="E45" s="3">
-        <v>2993900</v>
+        <v>3301200</v>
       </c>
       <c r="F45" s="3">
-        <v>2660400</v>
+        <v>3003700</v>
       </c>
       <c r="G45" s="3">
-        <v>1227100</v>
+        <v>2669100</v>
       </c>
       <c r="H45" s="3">
-        <v>1114400</v>
+        <v>1231200</v>
       </c>
       <c r="I45" s="3">
-        <v>1748300</v>
+        <v>1118000</v>
       </c>
       <c r="J45" s="3">
+        <v>1754000</v>
+      </c>
+      <c r="K45" s="3">
         <v>3237300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1761800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2739100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2608500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1638200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1101100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1572900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2370700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2509100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>908800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>924000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>838300</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>16174600</v>
+        <v>17213700</v>
       </c>
       <c r="E46" s="3">
-        <v>15859200</v>
+        <v>16227600</v>
       </c>
       <c r="F46" s="3">
-        <v>15784500</v>
+        <v>15911100</v>
       </c>
       <c r="G46" s="3">
-        <v>17322700</v>
+        <v>15836200</v>
       </c>
       <c r="H46" s="3">
-        <v>17101300</v>
+        <v>17379400</v>
       </c>
       <c r="I46" s="3">
-        <v>16855400</v>
+        <v>17157300</v>
       </c>
       <c r="J46" s="3">
+        <v>16910600</v>
+      </c>
+      <c r="K46" s="3">
         <v>16027800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>18829300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>17839300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>17738000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>17009000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>16880400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>15846500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>16839400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>16378500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>16342100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>16231300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>14770300</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2967200</v>
+        <v>3044500</v>
       </c>
       <c r="E47" s="3">
-        <v>2800400</v>
+        <v>2976900</v>
       </c>
       <c r="F47" s="3">
-        <v>2712300</v>
+        <v>2809600</v>
       </c>
       <c r="G47" s="3">
-        <v>2587600</v>
+        <v>2721200</v>
       </c>
       <c r="H47" s="3">
-        <v>2738100</v>
+        <v>2596000</v>
       </c>
       <c r="I47" s="3">
-        <v>2665200</v>
+        <v>2747100</v>
       </c>
       <c r="J47" s="3">
+        <v>2673900</v>
+      </c>
+      <c r="K47" s="3">
         <v>2637700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2859800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2699000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3077600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3008500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2818600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2568300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2387000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2600400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2588500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>2502100</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>2282100</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5127200</v>
+        <v>5234600</v>
       </c>
       <c r="E48" s="3">
-        <v>5086700</v>
+        <v>5144000</v>
       </c>
       <c r="F48" s="3">
-        <v>5147500</v>
+        <v>5103300</v>
       </c>
       <c r="G48" s="3">
-        <v>5222800</v>
+        <v>5164400</v>
       </c>
       <c r="H48" s="3">
-        <v>5333900</v>
+        <v>5239900</v>
       </c>
       <c r="I48" s="3">
-        <v>5420900</v>
+        <v>5351400</v>
       </c>
       <c r="J48" s="3">
+        <v>5438700</v>
+      </c>
+      <c r="K48" s="3">
         <v>5457000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4219500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4201800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4224000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4290200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4751300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4833700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4984100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>4980900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>5292300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>5365800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>5402900</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1444600</v>
+        <v>1486000</v>
       </c>
       <c r="E49" s="3">
-        <v>1397300</v>
+        <v>1449300</v>
       </c>
       <c r="F49" s="3">
-        <v>1346500</v>
+        <v>1401900</v>
       </c>
       <c r="G49" s="3">
-        <v>1318300</v>
+        <v>1350900</v>
       </c>
       <c r="H49" s="3">
-        <v>1355800</v>
+        <v>1322600</v>
       </c>
       <c r="I49" s="3">
-        <v>1318800</v>
+        <v>1360300</v>
       </c>
       <c r="J49" s="3">
+        <v>1323100</v>
+      </c>
+      <c r="K49" s="3">
         <v>1381900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1492000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1482000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1521000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1508100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1565500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1609100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1638400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1634800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1731500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1773700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1761300</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,67 +3166,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2046400</v>
+        <v>2339200</v>
       </c>
       <c r="E52" s="3">
-        <v>2240200</v>
+        <v>2053100</v>
       </c>
       <c r="F52" s="3">
-        <v>2352400</v>
+        <v>2247500</v>
       </c>
       <c r="G52" s="3">
-        <v>2745700</v>
+        <v>2360100</v>
       </c>
       <c r="H52" s="3">
-        <v>2003400</v>
+        <v>2754700</v>
       </c>
       <c r="I52" s="3">
-        <v>2253300</v>
+        <v>2010000</v>
       </c>
       <c r="J52" s="3">
+        <v>2260600</v>
+      </c>
+      <c r="K52" s="3">
         <v>2231800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2436900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2024100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2036300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1967800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2202800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2103500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2053100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1898900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2354200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>2168000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>2425900</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>27759900</v>
+        <v>29318000</v>
       </c>
       <c r="E54" s="3">
-        <v>27383800</v>
+        <v>27850800</v>
       </c>
       <c r="F54" s="3">
-        <v>27343300</v>
+        <v>27473500</v>
       </c>
       <c r="G54" s="3">
-        <v>29197000</v>
+        <v>27432800</v>
       </c>
       <c r="H54" s="3">
-        <v>28532600</v>
+        <v>29292600</v>
       </c>
       <c r="I54" s="3">
-        <v>28513500</v>
+        <v>28626000</v>
       </c>
       <c r="J54" s="3">
+        <v>28606900</v>
+      </c>
+      <c r="K54" s="3">
         <v>27736200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>29837500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>28246100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>28596900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>27783500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>28218600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>26961200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>27902100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>27493600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>28308600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>28040900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>26642400</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,362 +3402,381 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4000500</v>
+        <v>4302200</v>
       </c>
       <c r="E57" s="3">
-        <v>3781100</v>
+        <v>4013600</v>
       </c>
       <c r="F57" s="3">
-        <v>3634700</v>
+        <v>3793400</v>
       </c>
       <c r="G57" s="3">
-        <v>4387400</v>
+        <v>3646600</v>
       </c>
       <c r="H57" s="3">
-        <v>4445300</v>
+        <v>4357600</v>
       </c>
       <c r="I57" s="3">
-        <v>4489300</v>
+        <v>4459900</v>
       </c>
       <c r="J57" s="3">
+        <v>4504000</v>
+      </c>
+      <c r="K57" s="3">
         <v>4041700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5081200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4770900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4895000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4925800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4890100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4536100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>4442700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>4365700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>5479100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>5278500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>4733500</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1840000</v>
+        <v>1601500</v>
       </c>
       <c r="E58" s="3">
-        <v>1939000</v>
+        <v>1846100</v>
       </c>
       <c r="F58" s="3">
-        <v>2195000</v>
+        <v>1945300</v>
       </c>
       <c r="G58" s="3">
-        <v>1827000</v>
+        <v>2202200</v>
       </c>
       <c r="H58" s="3">
-        <v>2182500</v>
+        <v>1832900</v>
       </c>
       <c r="I58" s="3">
-        <v>1867900</v>
+        <v>2189600</v>
       </c>
       <c r="J58" s="3">
+        <v>1874100</v>
+      </c>
+      <c r="K58" s="3">
         <v>1445400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1257700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1139500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1370500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1457300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1223900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1843800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1758100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1742400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1160100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2089100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1598500</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5359500</v>
+        <v>5946800</v>
       </c>
       <c r="E59" s="3">
-        <v>5624200</v>
+        <v>5377100</v>
       </c>
       <c r="F59" s="3">
-        <v>5409300</v>
+        <v>5642600</v>
       </c>
       <c r="G59" s="3">
-        <v>6294600</v>
+        <v>5427000</v>
       </c>
       <c r="H59" s="3">
-        <v>5460600</v>
+        <v>6359400</v>
       </c>
       <c r="I59" s="3">
-        <v>5583900</v>
+        <v>5478500</v>
       </c>
       <c r="J59" s="3">
+        <v>5602200</v>
+      </c>
+      <c r="K59" s="3">
         <v>5604600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>6777800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>6198400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>5931800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>5503600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>5842700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>5204500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>6069800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>6141100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>6062600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>5314400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>5197200</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>11200000</v>
+        <v>11850500</v>
       </c>
       <c r="E60" s="3">
-        <v>11344200</v>
+        <v>11236700</v>
       </c>
       <c r="F60" s="3">
-        <v>11239000</v>
+        <v>11381400</v>
       </c>
       <c r="G60" s="3">
-        <v>12509000</v>
+        <v>11275800</v>
       </c>
       <c r="H60" s="3">
-        <v>12088300</v>
+        <v>12549900</v>
       </c>
       <c r="I60" s="3">
-        <v>11941200</v>
+        <v>12127900</v>
       </c>
       <c r="J60" s="3">
+        <v>11980300</v>
+      </c>
+      <c r="K60" s="3">
         <v>11091700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>13116800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>12108900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>12197300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>11886800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>11956700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>11584400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>12270600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>12249300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>12701800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>12682100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>11529200</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1324800</v>
+        <v>1305500</v>
       </c>
       <c r="E61" s="3">
-        <v>1408300</v>
+        <v>1329200</v>
       </c>
       <c r="F61" s="3">
-        <v>1553500</v>
+        <v>1412900</v>
       </c>
       <c r="G61" s="3">
-        <v>1888100</v>
+        <v>1558600</v>
       </c>
       <c r="H61" s="3">
-        <v>2125200</v>
+        <v>1894200</v>
       </c>
       <c r="I61" s="3">
-        <v>2342100</v>
+        <v>2132200</v>
       </c>
       <c r="J61" s="3">
+        <v>2349700</v>
+      </c>
+      <c r="K61" s="3">
         <v>2693000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1781100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2114900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2085900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2071600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2409200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2514000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2845600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2850300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>3142700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>3330600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>3416600</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2123600</v>
+        <v>1946000</v>
       </c>
       <c r="E62" s="3">
-        <v>2212900</v>
+        <v>2130500</v>
       </c>
       <c r="F62" s="3">
-        <v>2243800</v>
+        <v>2220200</v>
       </c>
       <c r="G62" s="3">
-        <v>2448300</v>
+        <v>2251100</v>
       </c>
       <c r="H62" s="3">
-        <v>2264400</v>
+        <v>2456300</v>
       </c>
       <c r="I62" s="3">
-        <v>2440600</v>
+        <v>2271800</v>
       </c>
       <c r="J62" s="3">
+        <v>2448600</v>
+      </c>
+      <c r="K62" s="3">
         <v>2622000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2892300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2815900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2349600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2433100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2960400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2738600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3007700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>3186800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>3423800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>3635400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>4100300</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>15482100</v>
+        <v>15991200</v>
       </c>
       <c r="E66" s="3">
-        <v>15772200</v>
+        <v>15532900</v>
       </c>
       <c r="F66" s="3">
-        <v>16031900</v>
+        <v>15823800</v>
       </c>
       <c r="G66" s="3">
-        <v>17829800</v>
+        <v>16084400</v>
       </c>
       <c r="H66" s="3">
-        <v>17458500</v>
+        <v>17888200</v>
       </c>
       <c r="I66" s="3">
-        <v>17795400</v>
+        <v>17515700</v>
       </c>
       <c r="J66" s="3">
+        <v>17853700</v>
+      </c>
+      <c r="K66" s="3">
         <v>17483400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>18958500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>18179000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>17756300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>17466900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>18384900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>17967300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>19395400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>19535600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>20491500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>20859700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>20204800</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7288800</v>
+        <v>8355000</v>
       </c>
       <c r="E72" s="3">
-        <v>6774100</v>
+        <v>7312600</v>
       </c>
       <c r="F72" s="3">
-        <v>6599700</v>
+        <v>6796300</v>
       </c>
       <c r="G72" s="3">
-        <v>6741000</v>
+        <v>6621300</v>
       </c>
       <c r="H72" s="3">
-        <v>5938000</v>
+        <v>6763100</v>
       </c>
       <c r="I72" s="3">
-        <v>5708100</v>
+        <v>5957400</v>
       </c>
       <c r="J72" s="3">
+        <v>5726800</v>
+      </c>
+      <c r="K72" s="3">
         <v>5205100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>5543600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>4808000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>5381100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>5046900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>4337200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>3458200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>3040200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2400300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2358500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1640600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1192500</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>12277800</v>
+        <v>13326800</v>
       </c>
       <c r="E76" s="3">
-        <v>11611600</v>
+        <v>12318000</v>
       </c>
       <c r="F76" s="3">
-        <v>11311400</v>
+        <v>11649600</v>
       </c>
       <c r="G76" s="3">
-        <v>11367200</v>
+        <v>11348400</v>
       </c>
       <c r="H76" s="3">
-        <v>11074100</v>
+        <v>11404400</v>
       </c>
       <c r="I76" s="3">
-        <v>10718100</v>
+        <v>11110400</v>
       </c>
       <c r="J76" s="3">
+        <v>10753200</v>
+      </c>
+      <c r="K76" s="3">
         <v>10252800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>10879000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>10067100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>10840600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>10316700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>9833700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>8993900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>8506700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>7958000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>7817100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>7181100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>6437700</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>616200</v>
+        <v>811500</v>
       </c>
       <c r="E81" s="3">
-        <v>265200</v>
+        <v>618200</v>
       </c>
       <c r="F81" s="3">
-        <v>166500</v>
+        <v>266100</v>
       </c>
       <c r="G81" s="3">
-        <v>550900</v>
+        <v>167000</v>
       </c>
       <c r="H81" s="3">
-        <v>332000</v>
+        <v>552700</v>
       </c>
       <c r="I81" s="3">
-        <v>518100</v>
+        <v>333100</v>
       </c>
       <c r="J81" s="3">
+        <v>519800</v>
+      </c>
+      <c r="K81" s="3">
         <v>65000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>510300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-280100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>77800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>661400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1029700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>108100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>373600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>19400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>499000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>180700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>229900</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,67 +4819,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>396400</v>
+        <v>464000</v>
       </c>
       <c r="E83" s="3">
-        <v>378000</v>
+        <v>397700</v>
       </c>
       <c r="F83" s="3">
-        <v>373600</v>
+        <v>379200</v>
       </c>
       <c r="G83" s="3">
-        <v>498800</v>
+        <v>374900</v>
       </c>
       <c r="H83" s="3">
-        <v>470100</v>
+        <v>500500</v>
       </c>
       <c r="I83" s="3">
-        <v>485300</v>
+        <v>471600</v>
       </c>
       <c r="J83" s="3">
+        <v>486900</v>
+      </c>
+      <c r="K83" s="3">
         <v>506400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>399000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>397400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>353700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>331100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>406300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>374200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>382800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>371200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>510100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>394600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>391500</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>389000</v>
+        <v>997300</v>
       </c>
       <c r="E89" s="3">
-        <v>73900</v>
+        <v>390300</v>
       </c>
       <c r="F89" s="3">
-        <v>1363900</v>
+        <v>74100</v>
       </c>
       <c r="G89" s="3">
-        <v>1195300</v>
+        <v>1368400</v>
       </c>
       <c r="H89" s="3">
-        <v>930200</v>
+        <v>1199200</v>
       </c>
       <c r="I89" s="3">
+        <v>933200</v>
+      </c>
+      <c r="J89" s="3">
         <v>-10600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1066000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>798500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-282800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-542300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>951300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1170800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>146100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-243400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>738300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1384900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>462200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-176900</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,67 +5277,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-312700</v>
+        <v>-337100</v>
       </c>
       <c r="E91" s="3">
-        <v>-290600</v>
+        <v>-313700</v>
       </c>
       <c r="F91" s="3">
-        <v>-240200</v>
+        <v>-291600</v>
       </c>
       <c r="G91" s="3">
-        <v>-311400</v>
+        <v>-241000</v>
       </c>
       <c r="H91" s="3">
-        <v>-340900</v>
+        <v>-312400</v>
       </c>
       <c r="I91" s="3">
-        <v>-326800</v>
+        <v>-342000</v>
       </c>
       <c r="J91" s="3">
+        <v>-327900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-238900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-277100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-280100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-308100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-263300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-328500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-278400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-345300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-268200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>796000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-743100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1114100</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,67 +5461,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>26900</v>
+        <v>-278500</v>
       </c>
       <c r="E94" s="3">
-        <v>-313200</v>
+        <v>27000</v>
       </c>
       <c r="F94" s="3">
-        <v>-91700</v>
+        <v>-314200</v>
       </c>
       <c r="G94" s="3">
-        <v>-638300</v>
+        <v>-92000</v>
       </c>
       <c r="H94" s="3">
-        <v>30600</v>
+        <v>-640300</v>
       </c>
       <c r="I94" s="3">
-        <v>-340000</v>
+        <v>30700</v>
       </c>
       <c r="J94" s="3">
+        <v>-341100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-98500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-124800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>151500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-165200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>171400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>135400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-19800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-35900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-283900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-128400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-312300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-509000</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,67 +5549,71 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-183500</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-184100</v>
       </c>
       <c r="F96" s="3">
-        <v>-183400</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-184000</v>
       </c>
       <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-149000</v>
+      </c>
+      <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-148500</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-148500</v>
-      </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-135100</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-112300</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-92700</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-92700</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-73400</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,181 +5795,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-653100</v>
+        <v>-668500</v>
       </c>
       <c r="E100" s="3">
-        <v>-474100</v>
+        <v>-655300</v>
       </c>
       <c r="F100" s="3">
-        <v>-218300</v>
+        <v>-475600</v>
       </c>
       <c r="G100" s="3">
-        <v>-1005000</v>
+        <v>-219000</v>
       </c>
       <c r="H100" s="3">
-        <v>-225900</v>
+        <v>-1008200</v>
       </c>
       <c r="I100" s="3">
-        <v>-30900</v>
+        <v>-226700</v>
       </c>
       <c r="J100" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="K100" s="3">
         <v>-507600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-328900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-456900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-98000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-394900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-724300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-355700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-24600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>87700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1222900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>222400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-114400</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>16200</v>
+        <v>67600</v>
       </c>
       <c r="E101" s="3">
+        <v>16300</v>
+      </c>
+      <c r="F101" s="3">
         <v>12200</v>
       </c>
-      <c r="F101" s="3">
-        <v>14500</v>
-      </c>
       <c r="G101" s="3">
-        <v>-29500</v>
+        <v>14600</v>
       </c>
       <c r="H101" s="3">
+        <v>-29600</v>
+      </c>
+      <c r="I101" s="3">
         <v>8600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-8100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-4000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-25900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-29900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>15200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>12400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-5500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>12600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>15900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>7400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-6500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>98700</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-16300</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-221100</v>
+        <v>117900</v>
       </c>
       <c r="E102" s="3">
-        <v>-701200</v>
+        <v>-221800</v>
       </c>
       <c r="F102" s="3">
-        <v>1068500</v>
+        <v>-703500</v>
       </c>
       <c r="G102" s="3">
-        <v>-477400</v>
+        <v>1072000</v>
       </c>
       <c r="H102" s="3">
-        <v>743500</v>
+        <v>-479000</v>
       </c>
       <c r="I102" s="3">
-        <v>-389500</v>
+        <v>745900</v>
       </c>
       <c r="J102" s="3">
+        <v>-390800</v>
+      </c>
+      <c r="K102" s="3">
         <v>455900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>318800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-618100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-790300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>740200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>576400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-216800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-288000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>549500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>27100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>471000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-816700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FJTSY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FJTSY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
   <si>
     <t>FJTSY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,295 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>9773600</v>
+        <v>7306000</v>
       </c>
       <c r="E8" s="3">
-        <v>8219200</v>
+        <v>9688500</v>
       </c>
       <c r="F8" s="3">
-        <v>7618900</v>
+        <v>8147600</v>
       </c>
       <c r="G8" s="3">
-        <v>7377700</v>
+        <v>7552600</v>
       </c>
       <c r="H8" s="3">
-        <v>10162000</v>
+        <v>7313400</v>
       </c>
       <c r="I8" s="3">
-        <v>8484800</v>
+        <v>10073600</v>
       </c>
       <c r="J8" s="3">
+        <v>8410900</v>
+      </c>
+      <c r="K8" s="3">
         <v>9098300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7682800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>10960900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>9225900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>8982400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>7887000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>10594900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>9068300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>9045400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>8340600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>10682100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>9054700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>8940200</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6654500</v>
+        <v>5065000</v>
       </c>
       <c r="E9" s="3">
-        <v>5755200</v>
+        <v>6596600</v>
       </c>
       <c r="F9" s="3">
-        <v>5331800</v>
+        <v>5705100</v>
       </c>
       <c r="G9" s="3">
-        <v>5320400</v>
+        <v>5285300</v>
       </c>
       <c r="H9" s="3">
-        <v>7114200</v>
+        <v>5274100</v>
       </c>
       <c r="I9" s="3">
-        <v>6040100</v>
+        <v>7052300</v>
       </c>
       <c r="J9" s="3">
+        <v>5987600</v>
+      </c>
+      <c r="K9" s="3">
         <v>6467400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>5618400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>7652900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>6814100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>6619700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>5900700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>7434500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>6706300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>6565400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>6111700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>7514400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>6501100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>6406200</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3119000</v>
+        <v>2241100</v>
       </c>
       <c r="E10" s="3">
-        <v>2464000</v>
+        <v>3091900</v>
       </c>
       <c r="F10" s="3">
-        <v>2287200</v>
+        <v>2442600</v>
       </c>
       <c r="G10" s="3">
-        <v>2057300</v>
+        <v>2267200</v>
       </c>
       <c r="H10" s="3">
-        <v>3047800</v>
+        <v>2039400</v>
       </c>
       <c r="I10" s="3">
-        <v>2444700</v>
+        <v>3021300</v>
       </c>
       <c r="J10" s="3">
+        <v>2423400</v>
+      </c>
+      <c r="K10" s="3">
         <v>2630900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2064500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3308000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2411800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2362700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1986300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3160500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2362000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2480000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2228900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>3167600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2553600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2534000</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1116,14 +1136,14 @@
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3">
         <v>710200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>411800</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
@@ -1149,8 +1169,11 @@
       <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>8757300</v>
+        <v>6998700</v>
       </c>
       <c r="E17" s="3">
-        <v>7360000</v>
+        <v>8681100</v>
       </c>
       <c r="F17" s="3">
-        <v>7251500</v>
+        <v>7295900</v>
       </c>
       <c r="G17" s="3">
-        <v>7173000</v>
+        <v>7188400</v>
       </c>
       <c r="H17" s="3">
-        <v>9334800</v>
+        <v>7110500</v>
       </c>
       <c r="I17" s="3">
-        <v>8021500</v>
+        <v>9253600</v>
       </c>
       <c r="J17" s="3">
+        <v>7951700</v>
+      </c>
+      <c r="K17" s="3">
         <v>8476400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7651800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>10348900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>9497100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>8836700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7163500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>9293500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>8973100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>8837100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>8295900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>10123400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>8749800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>8640300</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1016300</v>
+        <v>307400</v>
       </c>
       <c r="E18" s="3">
-        <v>859200</v>
+        <v>1007400</v>
       </c>
       <c r="F18" s="3">
-        <v>367400</v>
+        <v>851700</v>
       </c>
       <c r="G18" s="3">
-        <v>204700</v>
+        <v>364200</v>
       </c>
       <c r="H18" s="3">
-        <v>827200</v>
+        <v>202900</v>
       </c>
       <c r="I18" s="3">
-        <v>463300</v>
+        <v>820000</v>
       </c>
       <c r="J18" s="3">
+        <v>459300</v>
+      </c>
+      <c r="K18" s="3">
         <v>621900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>31000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>612000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-271200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>145700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>723500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1301400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>95200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>208400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>44800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>558700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>304900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>299900</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,318 +1413,334 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>158000</v>
+        <v>59500</v>
       </c>
       <c r="E20" s="3">
+        <v>163000</v>
+      </c>
+      <c r="F20" s="3">
+        <v>30100</v>
+      </c>
+      <c r="G20" s="3">
+        <v>26200</v>
+      </c>
+      <c r="H20" s="3">
+        <v>41000</v>
+      </c>
+      <c r="I20" s="3">
+        <v>46200</v>
+      </c>
+      <c r="J20" s="3">
+        <v>40000</v>
+      </c>
+      <c r="K20" s="3">
+        <v>72600</v>
+      </c>
+      <c r="L20" s="3">
+        <v>35800</v>
+      </c>
+      <c r="M20" s="3">
+        <v>72600</v>
+      </c>
+      <c r="N20" s="3">
+        <v>35300</v>
+      </c>
+      <c r="O20" s="3">
+        <v>49200</v>
+      </c>
+      <c r="P20" s="3">
+        <v>165400</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>244600</v>
+      </c>
+      <c r="R20" s="3">
+        <v>32400</v>
+      </c>
+      <c r="S20" s="3">
+        <v>271100</v>
+      </c>
+      <c r="T20" s="3">
         <v>30400</v>
       </c>
-      <c r="F20" s="3">
-        <v>26500</v>
-      </c>
-      <c r="G20" s="3">
-        <v>41300</v>
-      </c>
-      <c r="H20" s="3">
-        <v>46600</v>
-      </c>
-      <c r="I20" s="3">
-        <v>40300</v>
-      </c>
-      <c r="J20" s="3">
-        <v>72600</v>
-      </c>
-      <c r="K20" s="3">
-        <v>35800</v>
-      </c>
-      <c r="L20" s="3">
-        <v>72600</v>
-      </c>
-      <c r="M20" s="3">
-        <v>35300</v>
-      </c>
-      <c r="N20" s="3">
-        <v>49200</v>
-      </c>
-      <c r="O20" s="3">
-        <v>165400</v>
-      </c>
-      <c r="P20" s="3">
-        <v>244600</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>32400</v>
-      </c>
-      <c r="R20" s="3">
-        <v>271100</v>
-      </c>
-      <c r="S20" s="3">
-        <v>30400</v>
-      </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>27500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>46900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1638300</v>
+        <v>770400</v>
       </c>
       <c r="E21" s="3">
-        <v>1287300</v>
+        <v>1630500</v>
       </c>
       <c r="F21" s="3">
-        <v>773100</v>
+        <v>1276100</v>
       </c>
       <c r="G21" s="3">
-        <v>620900</v>
+        <v>766300</v>
       </c>
       <c r="H21" s="3">
-        <v>1374300</v>
+        <v>615500</v>
       </c>
       <c r="I21" s="3">
-        <v>975200</v>
+        <v>1362300</v>
       </c>
       <c r="J21" s="3">
+        <v>966700</v>
+      </c>
+      <c r="K21" s="3">
         <v>1181400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>573300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1083600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>161400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>548600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1220000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1952300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>501700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>862300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>446500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1096200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>746400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>721600</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>8</v>
+      <c r="D22" s="3">
+        <v>6100</v>
       </c>
       <c r="E22" s="3">
-        <v>6800</v>
+        <v>6400</v>
       </c>
       <c r="F22" s="3">
-        <v>7300</v>
+        <v>6700</v>
       </c>
       <c r="G22" s="3">
+        <v>7200</v>
+      </c>
+      <c r="H22" s="3">
         <v>7500</v>
       </c>
-      <c r="H22" s="3">
-        <v>10200</v>
-      </c>
       <c r="I22" s="3">
-        <v>9300</v>
+        <v>10100</v>
       </c>
       <c r="J22" s="3">
-        <v>9500</v>
+        <v>9200</v>
       </c>
       <c r="K22" s="3">
         <v>9500</v>
       </c>
       <c r="L22" s="3">
+        <v>9500</v>
+      </c>
+      <c r="M22" s="3">
         <v>7800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>8100</v>
-      </c>
-      <c r="N22" s="3">
-        <v>7200</v>
       </c>
       <c r="O22" s="3">
         <v>7200</v>
       </c>
       <c r="P22" s="3">
+        <v>7200</v>
+      </c>
+      <c r="Q22" s="3">
         <v>8400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>9500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>10000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>8300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>10800</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>8600</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1174300</v>
+        <v>360700</v>
       </c>
       <c r="E23" s="3">
-        <v>882800</v>
+        <v>1164000</v>
       </c>
       <c r="F23" s="3">
-        <v>386600</v>
+        <v>875100</v>
       </c>
       <c r="G23" s="3">
-        <v>238500</v>
+        <v>383200</v>
       </c>
       <c r="H23" s="3">
-        <v>863600</v>
+        <v>236400</v>
       </c>
       <c r="I23" s="3">
-        <v>494300</v>
+        <v>856100</v>
       </c>
       <c r="J23" s="3">
+        <v>490000</v>
+      </c>
+      <c r="K23" s="3">
         <v>685000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>57400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>676800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-244100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>187800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>881700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1537600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>118000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>469500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>66900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>575400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>343200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>320900</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>327800</v>
+        <v>91600</v>
       </c>
       <c r="E24" s="3">
-        <v>228300</v>
+        <v>325000</v>
       </c>
       <c r="F24" s="3">
-        <v>101300</v>
+        <v>226300</v>
       </c>
       <c r="G24" s="3">
-        <v>62500</v>
+        <v>100400</v>
       </c>
       <c r="H24" s="3">
-        <v>299100</v>
+        <v>61900</v>
       </c>
       <c r="I24" s="3">
-        <v>154800</v>
+        <v>296500</v>
       </c>
       <c r="J24" s="3">
+        <v>153400</v>
+      </c>
+      <c r="K24" s="3">
         <v>166900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>6400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>162000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>29600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>93200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>191300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>502900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>37600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>75200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>57500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>39300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>149900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>79400</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>846400</v>
+        <v>269100</v>
       </c>
       <c r="E26" s="3">
-        <v>654500</v>
+        <v>839100</v>
       </c>
       <c r="F26" s="3">
-        <v>285300</v>
+        <v>648800</v>
       </c>
       <c r="G26" s="3">
-        <v>176000</v>
+        <v>282800</v>
       </c>
       <c r="H26" s="3">
-        <v>564500</v>
+        <v>174500</v>
       </c>
       <c r="I26" s="3">
-        <v>339600</v>
+        <v>559600</v>
       </c>
       <c r="J26" s="3">
+        <v>336600</v>
+      </c>
+      <c r="K26" s="3">
         <v>518200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>51000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>514800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-273600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>94600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>690400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1034700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>80500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>394300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>9400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>536000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>193300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>241500</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>811500</v>
+        <v>220100</v>
       </c>
       <c r="E27" s="3">
-        <v>618200</v>
+        <v>804400</v>
       </c>
       <c r="F27" s="3">
-        <v>266100</v>
+        <v>612800</v>
       </c>
       <c r="G27" s="3">
-        <v>167000</v>
+        <v>263800</v>
       </c>
       <c r="H27" s="3">
-        <v>552700</v>
+        <v>165600</v>
       </c>
       <c r="I27" s="3">
-        <v>333100</v>
+        <v>547900</v>
       </c>
       <c r="J27" s="3">
+        <v>330200</v>
+      </c>
+      <c r="K27" s="3">
         <v>519800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>65000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>510300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-280100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>77800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>661400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1029700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>50100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>380700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-13200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>529200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>159500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>211300</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1964,8 +2025,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -1979,29 +2040,32 @@
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
+      <c r="P29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>58000</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-7100</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>32600</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-30200</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>21200</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>18600</v>
       </c>
     </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,132 +2191,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-158000</v>
+        <v>-59500</v>
       </c>
       <c r="E32" s="3">
+        <v>-163000</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-30100</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-26200</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-41000</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-46200</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-40000</v>
+      </c>
+      <c r="K32" s="3">
+        <v>-72600</v>
+      </c>
+      <c r="L32" s="3">
+        <v>-35800</v>
+      </c>
+      <c r="M32" s="3">
+        <v>-72600</v>
+      </c>
+      <c r="N32" s="3">
+        <v>-35300</v>
+      </c>
+      <c r="O32" s="3">
+        <v>-49200</v>
+      </c>
+      <c r="P32" s="3">
+        <v>-165400</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>-244600</v>
+      </c>
+      <c r="R32" s="3">
+        <v>-32400</v>
+      </c>
+      <c r="S32" s="3">
+        <v>-271100</v>
+      </c>
+      <c r="T32" s="3">
         <v>-30400</v>
       </c>
-      <c r="F32" s="3">
-        <v>-26500</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-41300</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-46600</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-40300</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-72600</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-35800</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-72600</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-35300</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-49200</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-165400</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-244600</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-32400</v>
-      </c>
-      <c r="R32" s="3">
-        <v>-271100</v>
-      </c>
-      <c r="S32" s="3">
-        <v>-30400</v>
-      </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-27500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-46900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-30200</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>811500</v>
+        <v>220100</v>
       </c>
       <c r="E33" s="3">
-        <v>618200</v>
+        <v>804400</v>
       </c>
       <c r="F33" s="3">
-        <v>266100</v>
+        <v>612800</v>
       </c>
       <c r="G33" s="3">
-        <v>167000</v>
+        <v>263800</v>
       </c>
       <c r="H33" s="3">
-        <v>552700</v>
+        <v>165600</v>
       </c>
       <c r="I33" s="3">
-        <v>333100</v>
+        <v>547900</v>
       </c>
       <c r="J33" s="3">
+        <v>330200</v>
+      </c>
+      <c r="K33" s="3">
         <v>519800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>65000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>510300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-280100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>77800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>661400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1029700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>108100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>373600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>19400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>499000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>180700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>229900</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>811500</v>
+        <v>220100</v>
       </c>
       <c r="E35" s="3">
-        <v>618200</v>
+        <v>804400</v>
       </c>
       <c r="F35" s="3">
-        <v>266100</v>
+        <v>612800</v>
       </c>
       <c r="G35" s="3">
-        <v>167000</v>
+        <v>263800</v>
       </c>
       <c r="H35" s="3">
-        <v>552700</v>
+        <v>165600</v>
       </c>
       <c r="I35" s="3">
-        <v>333100</v>
+        <v>547900</v>
       </c>
       <c r="J35" s="3">
+        <v>330200</v>
+      </c>
+      <c r="K35" s="3">
         <v>519800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>65000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>510300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-280100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>77800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>661400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1029700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>108100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>373600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>19400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>499000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>180700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>229900</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,70 +2573,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4428000</v>
+        <v>5251600</v>
       </c>
       <c r="E41" s="3">
-        <v>4295600</v>
+        <v>4389500</v>
       </c>
       <c r="F41" s="3">
-        <v>4513000</v>
+        <v>4258200</v>
       </c>
       <c r="G41" s="3">
-        <v>5228300</v>
+        <v>4473700</v>
       </c>
       <c r="H41" s="3">
-        <v>4152600</v>
+        <v>5182700</v>
       </c>
       <c r="I41" s="3">
-        <v>4634000</v>
+        <v>4116400</v>
       </c>
       <c r="J41" s="3">
+        <v>4593600</v>
+      </c>
+      <c r="K41" s="3">
         <v>3795500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4251000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4004300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3420000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4022600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4852800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4091100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3514500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3640500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3944200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3376800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>3378700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2907800</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,442 +2701,466 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>8350900</v>
+        <v>4886600</v>
       </c>
       <c r="E43" s="3">
-        <v>6054900</v>
+        <v>9206900</v>
       </c>
       <c r="F43" s="3">
-        <v>5957000</v>
+        <v>6002200</v>
       </c>
       <c r="G43" s="3">
-        <v>5644500</v>
+        <v>5905100</v>
       </c>
       <c r="H43" s="3">
-        <v>9807800</v>
+        <v>5595300</v>
       </c>
       <c r="I43" s="3">
-        <v>8353900</v>
+        <v>9722400</v>
       </c>
       <c r="J43" s="3">
+        <v>8281200</v>
+      </c>
+      <c r="K43" s="3">
         <v>8687800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>6009400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>10890900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>8897700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>8539000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>7949100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>9504100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>8140100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>8112800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>7229000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>9456200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>8723500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>8133900</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2178100</v>
+        <v>2494500</v>
       </c>
       <c r="E44" s="3">
-        <v>2575800</v>
+        <v>2159200</v>
       </c>
       <c r="F44" s="3">
-        <v>2437400</v>
+        <v>2553400</v>
       </c>
       <c r="G44" s="3">
-        <v>2294300</v>
+        <v>2416200</v>
       </c>
       <c r="H44" s="3">
-        <v>2187900</v>
+        <v>2274300</v>
       </c>
       <c r="I44" s="3">
-        <v>3051400</v>
+        <v>2168800</v>
       </c>
       <c r="J44" s="3">
+        <v>3024800</v>
+      </c>
+      <c r="K44" s="3">
         <v>2673300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2530200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2172300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2782400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2567900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2568900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2184100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2619100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2715300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2696200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>2600400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3205000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>2890300</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2256600</v>
+        <v>2831800</v>
       </c>
       <c r="E45" s="3">
-        <v>3301200</v>
+        <v>1308300</v>
       </c>
       <c r="F45" s="3">
-        <v>3003700</v>
+        <v>3272500</v>
       </c>
       <c r="G45" s="3">
-        <v>2669100</v>
+        <v>2977600</v>
       </c>
       <c r="H45" s="3">
-        <v>1231200</v>
+        <v>2645900</v>
       </c>
       <c r="I45" s="3">
-        <v>1118000</v>
+        <v>1220400</v>
       </c>
       <c r="J45" s="3">
+        <v>1108300</v>
+      </c>
+      <c r="K45" s="3">
         <v>1754000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3237300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1761800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2739100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2608500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1638200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1101100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1572900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2370700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2509100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>908800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>924000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>838300</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>17213700</v>
+        <v>15464500</v>
       </c>
       <c r="E46" s="3">
-        <v>16227600</v>
+        <v>17063900</v>
       </c>
       <c r="F46" s="3">
-        <v>15911100</v>
+        <v>16086300</v>
       </c>
       <c r="G46" s="3">
-        <v>15836200</v>
+        <v>15772600</v>
       </c>
       <c r="H46" s="3">
-        <v>17379400</v>
+        <v>15698300</v>
       </c>
       <c r="I46" s="3">
-        <v>17157300</v>
+        <v>17228100</v>
       </c>
       <c r="J46" s="3">
+        <v>17008000</v>
+      </c>
+      <c r="K46" s="3">
         <v>16910600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>16027800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>18829300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>17839300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>17738000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>17009000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>16880400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>15846500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>16839400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>16378500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>16342100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>16231300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>14770300</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3044500</v>
+        <v>3128400</v>
       </c>
       <c r="E47" s="3">
-        <v>2976900</v>
+        <v>3018000</v>
       </c>
       <c r="F47" s="3">
-        <v>2809600</v>
+        <v>2951000</v>
       </c>
       <c r="G47" s="3">
-        <v>2721200</v>
+        <v>2785100</v>
       </c>
       <c r="H47" s="3">
-        <v>2596000</v>
+        <v>2697500</v>
       </c>
       <c r="I47" s="3">
-        <v>2747100</v>
+        <v>2573400</v>
       </c>
       <c r="J47" s="3">
+        <v>2723200</v>
+      </c>
+      <c r="K47" s="3">
         <v>2673900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2637700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2859800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2699000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3077600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>3008500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2818600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2568300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2387000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2600400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>2588500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>2502100</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>2282100</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5234600</v>
+        <v>5359100</v>
       </c>
       <c r="E48" s="3">
-        <v>5144000</v>
+        <v>5189000</v>
       </c>
       <c r="F48" s="3">
-        <v>5103300</v>
+        <v>5099200</v>
       </c>
       <c r="G48" s="3">
-        <v>5164400</v>
+        <v>5058900</v>
       </c>
       <c r="H48" s="3">
-        <v>5239900</v>
+        <v>5119400</v>
       </c>
       <c r="I48" s="3">
-        <v>5351400</v>
+        <v>5194200</v>
       </c>
       <c r="J48" s="3">
+        <v>5304800</v>
+      </c>
+      <c r="K48" s="3">
         <v>5438700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5457000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4219500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4201800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4224000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4290200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4751300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4833700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>4984100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>4980900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>5292300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>5365800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>5402900</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1486000</v>
+        <v>1491700</v>
       </c>
       <c r="E49" s="3">
-        <v>1449300</v>
+        <v>1473100</v>
       </c>
       <c r="F49" s="3">
-        <v>1401900</v>
+        <v>1436700</v>
       </c>
       <c r="G49" s="3">
-        <v>1350900</v>
+        <v>1389700</v>
       </c>
       <c r="H49" s="3">
-        <v>1322600</v>
+        <v>1339200</v>
       </c>
       <c r="I49" s="3">
-        <v>1360300</v>
+        <v>1311100</v>
       </c>
       <c r="J49" s="3">
+        <v>1348400</v>
+      </c>
+      <c r="K49" s="3">
         <v>1323100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1381900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1492000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1482000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1521000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1508100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1565500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1609100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1638400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1634800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1731500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1773700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1761300</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,70 +3286,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2339200</v>
+        <v>2194600</v>
       </c>
       <c r="E52" s="3">
+        <v>2318800</v>
+      </c>
+      <c r="F52" s="3">
+        <v>2035200</v>
+      </c>
+      <c r="G52" s="3">
+        <v>2228000</v>
+      </c>
+      <c r="H52" s="3">
+        <v>2339600</v>
+      </c>
+      <c r="I52" s="3">
+        <v>2730700</v>
+      </c>
+      <c r="J52" s="3">
+        <v>1992500</v>
+      </c>
+      <c r="K52" s="3">
+        <v>2260600</v>
+      </c>
+      <c r="L52" s="3">
+        <v>2231800</v>
+      </c>
+      <c r="M52" s="3">
+        <v>2436900</v>
+      </c>
+      <c r="N52" s="3">
+        <v>2024100</v>
+      </c>
+      <c r="O52" s="3">
+        <v>2036300</v>
+      </c>
+      <c r="P52" s="3">
+        <v>1967800</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>2202800</v>
+      </c>
+      <c r="R52" s="3">
+        <v>2103500</v>
+      </c>
+      <c r="S52" s="3">
         <v>2053100</v>
       </c>
-      <c r="F52" s="3">
-        <v>2247500</v>
-      </c>
-      <c r="G52" s="3">
-        <v>2360100</v>
-      </c>
-      <c r="H52" s="3">
-        <v>2754700</v>
-      </c>
-      <c r="I52" s="3">
-        <v>2010000</v>
-      </c>
-      <c r="J52" s="3">
-        <v>2260600</v>
-      </c>
-      <c r="K52" s="3">
-        <v>2231800</v>
-      </c>
-      <c r="L52" s="3">
-        <v>2436900</v>
-      </c>
-      <c r="M52" s="3">
-        <v>2024100</v>
-      </c>
-      <c r="N52" s="3">
-        <v>2036300</v>
-      </c>
-      <c r="O52" s="3">
-        <v>1967800</v>
-      </c>
-      <c r="P52" s="3">
-        <v>2202800</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>2103500</v>
-      </c>
-      <c r="R52" s="3">
-        <v>2053100</v>
-      </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1898900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>2354200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>2168000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>2425900</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>29318000</v>
+        <v>27638300</v>
       </c>
       <c r="E54" s="3">
-        <v>27850800</v>
+        <v>29062800</v>
       </c>
       <c r="F54" s="3">
-        <v>27473500</v>
+        <v>27608400</v>
       </c>
       <c r="G54" s="3">
-        <v>27432800</v>
+        <v>27234300</v>
       </c>
       <c r="H54" s="3">
-        <v>29292600</v>
+        <v>27194000</v>
       </c>
       <c r="I54" s="3">
-        <v>28626000</v>
+        <v>29037600</v>
       </c>
       <c r="J54" s="3">
+        <v>28376800</v>
+      </c>
+      <c r="K54" s="3">
         <v>28606900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>27736200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>29837500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>28246100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>28596900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>27783500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>28218600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>26961200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>27902100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>27493600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>28308600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>28040900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>26642400</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,380 +3533,399 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4302200</v>
+        <v>3541600</v>
       </c>
       <c r="E57" s="3">
-        <v>4013600</v>
+        <v>4220500</v>
       </c>
       <c r="F57" s="3">
-        <v>3793400</v>
+        <v>3978600</v>
       </c>
       <c r="G57" s="3">
-        <v>3646600</v>
+        <v>3760400</v>
       </c>
       <c r="H57" s="3">
-        <v>4357600</v>
+        <v>3614900</v>
       </c>
       <c r="I57" s="3">
-        <v>4459900</v>
+        <v>4319700</v>
       </c>
       <c r="J57" s="3">
+        <v>4421000</v>
+      </c>
+      <c r="K57" s="3">
         <v>4504000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4041700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5081200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4770900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4895000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4925800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4890100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>4536100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>4442700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>4365700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>5479100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>5278500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>4733500</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1601500</v>
+        <v>1373100</v>
       </c>
       <c r="E58" s="3">
-        <v>1846100</v>
+        <v>1587600</v>
       </c>
       <c r="F58" s="3">
-        <v>1945300</v>
+        <v>1830000</v>
       </c>
       <c r="G58" s="3">
-        <v>2202200</v>
+        <v>1928400</v>
       </c>
       <c r="H58" s="3">
-        <v>1832900</v>
+        <v>2183000</v>
       </c>
       <c r="I58" s="3">
-        <v>2189600</v>
+        <v>1817000</v>
       </c>
       <c r="J58" s="3">
+        <v>2170500</v>
+      </c>
+      <c r="K58" s="3">
         <v>1874100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1445400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1257700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1139500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1370500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1457300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1223900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1843800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1758100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1742400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1160100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>2089100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1598500</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5946800</v>
+        <v>5264800</v>
       </c>
       <c r="E59" s="3">
-        <v>5377100</v>
+        <v>5939200</v>
       </c>
       <c r="F59" s="3">
-        <v>5642600</v>
+        <v>5330300</v>
       </c>
       <c r="G59" s="3">
-        <v>5427000</v>
+        <v>5593500</v>
       </c>
       <c r="H59" s="3">
-        <v>6359400</v>
+        <v>5379800</v>
       </c>
       <c r="I59" s="3">
-        <v>5478500</v>
+        <v>6304000</v>
       </c>
       <c r="J59" s="3">
+        <v>5430800</v>
+      </c>
+      <c r="K59" s="3">
         <v>5602200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5604600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>6777800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>6198400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>5931800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>5503600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>5842700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>5204500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>6069800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>6141100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>6062600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>5314400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>5197200</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>11850500</v>
+        <v>10179500</v>
       </c>
       <c r="E60" s="3">
-        <v>11236700</v>
+        <v>11747300</v>
       </c>
       <c r="F60" s="3">
-        <v>11381400</v>
+        <v>11138900</v>
       </c>
       <c r="G60" s="3">
-        <v>11275800</v>
+        <v>11282300</v>
       </c>
       <c r="H60" s="3">
-        <v>12549900</v>
+        <v>11177700</v>
       </c>
       <c r="I60" s="3">
-        <v>12127900</v>
+        <v>12440700</v>
       </c>
       <c r="J60" s="3">
+        <v>12022300</v>
+      </c>
+      <c r="K60" s="3">
         <v>11980300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>11091700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>13116800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>12108900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>12197300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>11886800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>11956700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>11584400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>12270600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>12249300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>12701800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>12682100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>11529200</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1305500</v>
+        <v>1478400</v>
       </c>
       <c r="E61" s="3">
-        <v>1329200</v>
+        <v>1294100</v>
       </c>
       <c r="F61" s="3">
-        <v>1412900</v>
+        <v>1317600</v>
       </c>
       <c r="G61" s="3">
-        <v>1558600</v>
+        <v>1400600</v>
       </c>
       <c r="H61" s="3">
-        <v>1894200</v>
+        <v>1545000</v>
       </c>
       <c r="I61" s="3">
-        <v>2132200</v>
+        <v>1877700</v>
       </c>
       <c r="J61" s="3">
+        <v>2113600</v>
+      </c>
+      <c r="K61" s="3">
         <v>2349700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2693000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1781100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2114900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2085900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2071600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2409200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2514000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2845600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2850300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>3142700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>3330600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>3416600</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1946000</v>
+        <v>1772600</v>
       </c>
       <c r="E62" s="3">
-        <v>2130500</v>
+        <v>1929000</v>
       </c>
       <c r="F62" s="3">
-        <v>2220200</v>
+        <v>2112000</v>
       </c>
       <c r="G62" s="3">
-        <v>2251100</v>
+        <v>2200900</v>
       </c>
       <c r="H62" s="3">
-        <v>2456300</v>
+        <v>2231500</v>
       </c>
       <c r="I62" s="3">
-        <v>2271800</v>
+        <v>2434900</v>
       </c>
       <c r="J62" s="3">
+        <v>2252000</v>
+      </c>
+      <c r="K62" s="3">
         <v>2448600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2622000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2892300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2815900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2349600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2433100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2960400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2738600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>3007700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>3186800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>3423800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>3635400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>4100300</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>15991200</v>
+        <v>14348500</v>
       </c>
       <c r="E66" s="3">
-        <v>15532900</v>
+        <v>15852000</v>
       </c>
       <c r="F66" s="3">
-        <v>15823800</v>
+        <v>15397600</v>
       </c>
       <c r="G66" s="3">
-        <v>16084400</v>
+        <v>15686100</v>
       </c>
       <c r="H66" s="3">
-        <v>17888200</v>
+        <v>15944400</v>
       </c>
       <c r="I66" s="3">
-        <v>17515700</v>
+        <v>17732500</v>
       </c>
       <c r="J66" s="3">
+        <v>17363200</v>
+      </c>
+      <c r="K66" s="3">
         <v>17853700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>17483400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>18958500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>18179000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>17756300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>17466900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>18384900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>17967300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>19395400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>19535600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>20491500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>20859700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>20204800</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>8355000</v>
+        <v>8443000</v>
       </c>
       <c r="E72" s="3">
-        <v>7312600</v>
+        <v>8282300</v>
       </c>
       <c r="F72" s="3">
-        <v>6796300</v>
+        <v>7249000</v>
       </c>
       <c r="G72" s="3">
-        <v>6621300</v>
+        <v>6737200</v>
       </c>
       <c r="H72" s="3">
-        <v>6763100</v>
+        <v>6563600</v>
       </c>
       <c r="I72" s="3">
-        <v>5957400</v>
+        <v>6704200</v>
       </c>
       <c r="J72" s="3">
+        <v>5905600</v>
+      </c>
+      <c r="K72" s="3">
         <v>5726800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>5205100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>5543600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>4808000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>5381100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>5046900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>4337200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>3458200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>3040200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2400300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2358500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1640600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1192500</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>13326800</v>
+        <v>13289900</v>
       </c>
       <c r="E76" s="3">
-        <v>12318000</v>
+        <v>13210800</v>
       </c>
       <c r="F76" s="3">
-        <v>11649600</v>
+        <v>12210700</v>
       </c>
       <c r="G76" s="3">
-        <v>11348400</v>
+        <v>11548200</v>
       </c>
       <c r="H76" s="3">
-        <v>11404400</v>
+        <v>11249600</v>
       </c>
       <c r="I76" s="3">
-        <v>11110400</v>
+        <v>11305100</v>
       </c>
       <c r="J76" s="3">
+        <v>11013600</v>
+      </c>
+      <c r="K76" s="3">
         <v>10753200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>10252800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>10879000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>10067100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>10840600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>10316700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>9833700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>8993900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>8506700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>7958000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>7817100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>7181100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>6437700</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>811500</v>
+        <v>220100</v>
       </c>
       <c r="E81" s="3">
-        <v>618200</v>
+        <v>804400</v>
       </c>
       <c r="F81" s="3">
-        <v>266100</v>
+        <v>612800</v>
       </c>
       <c r="G81" s="3">
-        <v>167000</v>
+        <v>263800</v>
       </c>
       <c r="H81" s="3">
-        <v>552700</v>
+        <v>165600</v>
       </c>
       <c r="I81" s="3">
-        <v>333100</v>
+        <v>547900</v>
       </c>
       <c r="J81" s="3">
+        <v>330200</v>
+      </c>
+      <c r="K81" s="3">
         <v>519800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>65000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>510300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-280100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>77800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>661400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1029700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>108100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>373600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>19400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>499000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>180700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>229900</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,70 +5018,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>464000</v>
+        <v>403500</v>
       </c>
       <c r="E83" s="3">
-        <v>397700</v>
+        <v>460000</v>
       </c>
       <c r="F83" s="3">
-        <v>379200</v>
+        <v>394300</v>
       </c>
       <c r="G83" s="3">
-        <v>374900</v>
+        <v>375900</v>
       </c>
       <c r="H83" s="3">
-        <v>500500</v>
+        <v>371600</v>
       </c>
       <c r="I83" s="3">
-        <v>471600</v>
+        <v>496100</v>
       </c>
       <c r="J83" s="3">
+        <v>467500</v>
+      </c>
+      <c r="K83" s="3">
         <v>486900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>506400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>399000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>397400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>353700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>331100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>406300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>374200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>382800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>371200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>510100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>394600</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>391500</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>997300</v>
+        <v>1749300</v>
       </c>
       <c r="E89" s="3">
-        <v>390300</v>
+        <v>988600</v>
       </c>
       <c r="F89" s="3">
-        <v>74100</v>
+        <v>386900</v>
       </c>
       <c r="G89" s="3">
-        <v>1368400</v>
+        <v>73500</v>
       </c>
       <c r="H89" s="3">
-        <v>1199200</v>
+        <v>1356500</v>
       </c>
       <c r="I89" s="3">
-        <v>933200</v>
+        <v>1188800</v>
       </c>
       <c r="J89" s="3">
+        <v>925100</v>
+      </c>
+      <c r="K89" s="3">
         <v>-10600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1066000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>798500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-282800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-542300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>951300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1170800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>146100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-243400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>738300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1384900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>462200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-176900</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,70 +5498,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-337100</v>
+        <v>-294000</v>
       </c>
       <c r="E91" s="3">
-        <v>-313700</v>
+        <v>-334200</v>
       </c>
       <c r="F91" s="3">
-        <v>-291600</v>
+        <v>-311000</v>
       </c>
       <c r="G91" s="3">
-        <v>-241000</v>
+        <v>-289100</v>
       </c>
       <c r="H91" s="3">
-        <v>-312400</v>
+        <v>-238900</v>
       </c>
       <c r="I91" s="3">
-        <v>-342000</v>
+        <v>-309700</v>
       </c>
       <c r="J91" s="3">
+        <v>-339000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-327900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-238900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-277100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-280100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-308100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-263300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-328500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-278400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-345300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-268200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>796000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-743100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-1114100</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5691,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-278500</v>
+        <v>-264400</v>
       </c>
       <c r="E94" s="3">
-        <v>27000</v>
+        <v>-276000</v>
       </c>
       <c r="F94" s="3">
-        <v>-314200</v>
+        <v>26700</v>
       </c>
       <c r="G94" s="3">
-        <v>-92000</v>
+        <v>-311500</v>
       </c>
       <c r="H94" s="3">
-        <v>-640300</v>
+        <v>-91200</v>
       </c>
       <c r="I94" s="3">
-        <v>30700</v>
+        <v>-634800</v>
       </c>
       <c r="J94" s="3">
+        <v>30500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-341100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-98500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-124800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>151500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-165200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>171400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>135400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-19800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-35900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-283900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-128400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-312300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-509000</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,70 +5783,74 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-181300</v>
       </c>
       <c r="E96" s="3">
-        <v>-184100</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-182500</v>
       </c>
       <c r="G96" s="3">
-        <v>-184000</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-182400</v>
       </c>
       <c r="I96" s="3">
-        <v>-149000</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-147700</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-148500</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-135100</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-112300</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-92700</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-92700</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-73400</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,190 +6041,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-668500</v>
+        <v>-628500</v>
       </c>
       <c r="E100" s="3">
-        <v>-655300</v>
+        <v>-662600</v>
       </c>
       <c r="F100" s="3">
-        <v>-475600</v>
+        <v>-649600</v>
       </c>
       <c r="G100" s="3">
-        <v>-219000</v>
+        <v>-471500</v>
       </c>
       <c r="H100" s="3">
-        <v>-1008200</v>
+        <v>-217100</v>
       </c>
       <c r="I100" s="3">
-        <v>-226700</v>
+        <v>-999500</v>
       </c>
       <c r="J100" s="3">
+        <v>-224700</v>
+      </c>
+      <c r="K100" s="3">
         <v>-31000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-507600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-328900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-456900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-98000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-394900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-724300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-355700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-24600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>87700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1222900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>222400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-114400</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>67600</v>
+        <v>6100</v>
       </c>
       <c r="E101" s="3">
-        <v>16300</v>
+        <v>67000</v>
       </c>
       <c r="F101" s="3">
-        <v>12200</v>
+        <v>16100</v>
       </c>
       <c r="G101" s="3">
-        <v>14600</v>
+        <v>12100</v>
       </c>
       <c r="H101" s="3">
-        <v>-29600</v>
+        <v>14400</v>
       </c>
       <c r="I101" s="3">
+        <v>-29400</v>
+      </c>
+      <c r="J101" s="3">
         <v>8600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-8100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-4000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-25900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-29900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>15200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>12400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-5500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>12600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>15900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>7400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-6500</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>98700</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-16300</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>117900</v>
+        <v>862500</v>
       </c>
       <c r="E102" s="3">
-        <v>-221800</v>
+        <v>116900</v>
       </c>
       <c r="F102" s="3">
-        <v>-703500</v>
+        <v>-219900</v>
       </c>
       <c r="G102" s="3">
-        <v>1072000</v>
+        <v>-697400</v>
       </c>
       <c r="H102" s="3">
-        <v>-479000</v>
+        <v>1062700</v>
       </c>
       <c r="I102" s="3">
-        <v>745900</v>
+        <v>-474800</v>
       </c>
       <c r="J102" s="3">
+        <v>739400</v>
+      </c>
+      <c r="K102" s="3">
         <v>-390800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>455900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>318800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-618100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-790300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>740200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>576400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-216800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-288000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>549500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>27100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>471000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-816700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FJTSY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FJTSY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
   <si>
     <t>FJTSY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,308 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7306000</v>
+        <v>7585700</v>
       </c>
       <c r="E8" s="3">
-        <v>9688500</v>
+        <v>7065400</v>
       </c>
       <c r="F8" s="3">
-        <v>8147600</v>
+        <v>9369500</v>
       </c>
       <c r="G8" s="3">
-        <v>7552600</v>
+        <v>7879300</v>
       </c>
       <c r="H8" s="3">
-        <v>7313400</v>
+        <v>7303900</v>
       </c>
       <c r="I8" s="3">
-        <v>10073600</v>
+        <v>7072600</v>
       </c>
       <c r="J8" s="3">
+        <v>9741800</v>
+      </c>
+      <c r="K8" s="3">
         <v>8410900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>9098300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>7682800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>10960900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>9225900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>8982400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>7887000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>10594900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>9068300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>9045400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>8340600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>10682100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>9054700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>8940200</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5065000</v>
+        <v>5318600</v>
       </c>
       <c r="E9" s="3">
-        <v>6596600</v>
+        <v>4898200</v>
       </c>
       <c r="F9" s="3">
-        <v>5705100</v>
+        <v>6379400</v>
       </c>
       <c r="G9" s="3">
-        <v>5285300</v>
+        <v>5517200</v>
       </c>
       <c r="H9" s="3">
-        <v>5274100</v>
+        <v>5111300</v>
       </c>
       <c r="I9" s="3">
-        <v>7052300</v>
+        <v>5100400</v>
       </c>
       <c r="J9" s="3">
+        <v>6820000</v>
+      </c>
+      <c r="K9" s="3">
         <v>5987600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>6467400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>5618400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>7652900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>6814100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>6619700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>5900700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>7434500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>6706300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>6565400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>6111700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>7514400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>6501100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>6406200</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2241100</v>
+        <v>2267100</v>
       </c>
       <c r="E10" s="3">
-        <v>3091900</v>
+        <v>2167300</v>
       </c>
       <c r="F10" s="3">
-        <v>2442600</v>
+        <v>2990100</v>
       </c>
       <c r="G10" s="3">
-        <v>2267200</v>
+        <v>2362100</v>
       </c>
       <c r="H10" s="3">
-        <v>2039400</v>
+        <v>2192600</v>
       </c>
       <c r="I10" s="3">
-        <v>3021300</v>
+        <v>1972200</v>
       </c>
       <c r="J10" s="3">
+        <v>2921800</v>
+      </c>
+      <c r="K10" s="3">
         <v>2423400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2630900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2064500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3308000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2411800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2362700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1986300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>3160500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2362000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2480000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2228900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>3167600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2553600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>2534000</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1139,14 +1159,14 @@
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3">
         <v>710200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>411800</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
@@ -1172,8 +1192,11 @@
       <c r="W14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6998700</v>
+        <v>7165100</v>
       </c>
       <c r="E17" s="3">
-        <v>8681100</v>
+        <v>6768200</v>
       </c>
       <c r="F17" s="3">
-        <v>7295900</v>
+        <v>8395200</v>
       </c>
       <c r="G17" s="3">
-        <v>7188400</v>
+        <v>7055700</v>
       </c>
       <c r="H17" s="3">
-        <v>7110500</v>
+        <v>6951700</v>
       </c>
       <c r="I17" s="3">
-        <v>9253600</v>
+        <v>6876400</v>
       </c>
       <c r="J17" s="3">
+        <v>8948800</v>
+      </c>
+      <c r="K17" s="3">
         <v>7951700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8476400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7651800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>10348900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>9497100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>8836700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>7163500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>9293500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>8973100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>8837100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>8295900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>10123400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>8749800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>8640300</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>307400</v>
+        <v>420600</v>
       </c>
       <c r="E18" s="3">
-        <v>1007400</v>
+        <v>297200</v>
       </c>
       <c r="F18" s="3">
-        <v>851700</v>
+        <v>974200</v>
       </c>
       <c r="G18" s="3">
-        <v>364200</v>
+        <v>823700</v>
       </c>
       <c r="H18" s="3">
-        <v>202900</v>
+        <v>352200</v>
       </c>
       <c r="I18" s="3">
-        <v>820000</v>
+        <v>196200</v>
       </c>
       <c r="J18" s="3">
+        <v>793000</v>
+      </c>
+      <c r="K18" s="3">
         <v>459300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>621900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>31000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>612000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-271200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>145700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>723500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1301400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>95200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>208400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>44800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>558700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>304900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>299900</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,138 +1447,145 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>59500</v>
+        <v>25200</v>
       </c>
       <c r="E20" s="3">
-        <v>163000</v>
+        <v>57500</v>
       </c>
       <c r="F20" s="3">
-        <v>30100</v>
+        <v>157700</v>
       </c>
       <c r="G20" s="3">
-        <v>26200</v>
+        <v>29100</v>
       </c>
       <c r="H20" s="3">
-        <v>41000</v>
+        <v>25400</v>
       </c>
       <c r="I20" s="3">
-        <v>46200</v>
+        <v>39600</v>
       </c>
       <c r="J20" s="3">
+        <v>44700</v>
+      </c>
+      <c r="K20" s="3">
         <v>40000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>72600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>35800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>72600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>35300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>49200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>165400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>244600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>32400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>271100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>30400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>27500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>46900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>770400</v>
+        <v>844900</v>
       </c>
       <c r="E21" s="3">
-        <v>1630500</v>
+        <v>745000</v>
       </c>
       <c r="F21" s="3">
-        <v>1276100</v>
+        <v>1576800</v>
       </c>
       <c r="G21" s="3">
-        <v>766300</v>
+        <v>1234100</v>
       </c>
       <c r="H21" s="3">
-        <v>615500</v>
+        <v>741100</v>
       </c>
       <c r="I21" s="3">
-        <v>1362300</v>
+        <v>595200</v>
       </c>
       <c r="J21" s="3">
+        <v>1317400</v>
+      </c>
+      <c r="K21" s="3">
         <v>966700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1181400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>573300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1083600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>161400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>548600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1220000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1952300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>501700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>862300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>446500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1096200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>746400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>721600</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1553,194 +1593,203 @@
         <v>6100</v>
       </c>
       <c r="E22" s="3">
-        <v>6400</v>
+        <v>5900</v>
       </c>
       <c r="F22" s="3">
-        <v>6700</v>
+        <v>6200</v>
       </c>
       <c r="G22" s="3">
+        <v>6500</v>
+      </c>
+      <c r="H22" s="3">
+        <v>7000</v>
+      </c>
+      <c r="I22" s="3">
         <v>7200</v>
       </c>
-      <c r="H22" s="3">
-        <v>7500</v>
-      </c>
-      <c r="I22" s="3">
-        <v>10100</v>
-      </c>
       <c r="J22" s="3">
+        <v>9800</v>
+      </c>
+      <c r="K22" s="3">
         <v>9200</v>
-      </c>
-      <c r="K22" s="3">
-        <v>9500</v>
       </c>
       <c r="L22" s="3">
         <v>9500</v>
       </c>
       <c r="M22" s="3">
+        <v>9500</v>
+      </c>
+      <c r="N22" s="3">
         <v>7800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>8100</v>
-      </c>
-      <c r="O22" s="3">
-        <v>7200</v>
       </c>
       <c r="P22" s="3">
         <v>7200</v>
       </c>
       <c r="Q22" s="3">
+        <v>7200</v>
+      </c>
+      <c r="R22" s="3">
         <v>8400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>9500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>10000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>8300</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>10800</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>8600</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>360700</v>
+        <v>439800</v>
       </c>
       <c r="E23" s="3">
-        <v>1164000</v>
+        <v>348800</v>
       </c>
       <c r="F23" s="3">
-        <v>875100</v>
+        <v>1125700</v>
       </c>
       <c r="G23" s="3">
-        <v>383200</v>
+        <v>846300</v>
       </c>
       <c r="H23" s="3">
-        <v>236400</v>
+        <v>370600</v>
       </c>
       <c r="I23" s="3">
-        <v>856100</v>
+        <v>228600</v>
       </c>
       <c r="J23" s="3">
+        <v>827900</v>
+      </c>
+      <c r="K23" s="3">
         <v>490000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>685000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>57400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>676800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-244100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>187800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>881700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1537600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>118000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>469500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>66900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>575400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>343200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>320900</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>91600</v>
+        <v>109300</v>
       </c>
       <c r="E24" s="3">
-        <v>325000</v>
+        <v>88600</v>
       </c>
       <c r="F24" s="3">
-        <v>226300</v>
+        <v>314300</v>
       </c>
       <c r="G24" s="3">
-        <v>100400</v>
+        <v>218800</v>
       </c>
       <c r="H24" s="3">
-        <v>61900</v>
+        <v>97100</v>
       </c>
       <c r="I24" s="3">
-        <v>296500</v>
+        <v>59900</v>
       </c>
       <c r="J24" s="3">
+        <v>286700</v>
+      </c>
+      <c r="K24" s="3">
         <v>153400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>166900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>6400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>162000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>29600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>93200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>191300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>502900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>37600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>75200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>57500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>39300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>149900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>79400</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>269100</v>
+        <v>330400</v>
       </c>
       <c r="E26" s="3">
-        <v>839100</v>
+        <v>260200</v>
       </c>
       <c r="F26" s="3">
-        <v>648800</v>
+        <v>811400</v>
       </c>
       <c r="G26" s="3">
-        <v>282800</v>
+        <v>627500</v>
       </c>
       <c r="H26" s="3">
-        <v>174500</v>
+        <v>273500</v>
       </c>
       <c r="I26" s="3">
-        <v>559600</v>
+        <v>168700</v>
       </c>
       <c r="J26" s="3">
+        <v>541200</v>
+      </c>
+      <c r="K26" s="3">
         <v>336600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>518200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>51000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>514800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-273600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>94600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>690400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1034700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>80500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>394300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>9400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>536000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>193300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>241500</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>220100</v>
+        <v>253500</v>
       </c>
       <c r="E27" s="3">
-        <v>804400</v>
+        <v>212900</v>
       </c>
       <c r="F27" s="3">
-        <v>612800</v>
+        <v>777900</v>
       </c>
       <c r="G27" s="3">
-        <v>263800</v>
+        <v>592600</v>
       </c>
       <c r="H27" s="3">
-        <v>165600</v>
+        <v>255100</v>
       </c>
       <c r="I27" s="3">
-        <v>547900</v>
+        <v>160100</v>
       </c>
       <c r="J27" s="3">
+        <v>529800</v>
+      </c>
+      <c r="K27" s="3">
         <v>330200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>519800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>65000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>510300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-280100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>77800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>661400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1029700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>50100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>380700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-13200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>529200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>159500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>211300</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2028,8 +2089,8 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -2043,29 +2104,32 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>58000</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-7100</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>32600</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-30200</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>21200</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>18600</v>
       </c>
     </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,138 +2261,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-59500</v>
+        <v>-25200</v>
       </c>
       <c r="E32" s="3">
-        <v>-163000</v>
+        <v>-57500</v>
       </c>
       <c r="F32" s="3">
-        <v>-30100</v>
+        <v>-157700</v>
       </c>
       <c r="G32" s="3">
-        <v>-26200</v>
+        <v>-29100</v>
       </c>
       <c r="H32" s="3">
-        <v>-41000</v>
+        <v>-25400</v>
       </c>
       <c r="I32" s="3">
-        <v>-46200</v>
+        <v>-39600</v>
       </c>
       <c r="J32" s="3">
+        <v>-44700</v>
+      </c>
+      <c r="K32" s="3">
         <v>-40000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-72600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-35800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-72600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-35300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-49200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-165400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-244600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-32400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-271100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-30400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-27500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-46900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-30200</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>220100</v>
+        <v>253500</v>
       </c>
       <c r="E33" s="3">
-        <v>804400</v>
+        <v>212900</v>
       </c>
       <c r="F33" s="3">
-        <v>612800</v>
+        <v>777900</v>
       </c>
       <c r="G33" s="3">
-        <v>263800</v>
+        <v>592600</v>
       </c>
       <c r="H33" s="3">
-        <v>165600</v>
+        <v>255100</v>
       </c>
       <c r="I33" s="3">
-        <v>547900</v>
+        <v>160100</v>
       </c>
       <c r="J33" s="3">
+        <v>529800</v>
+      </c>
+      <c r="K33" s="3">
         <v>330200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>519800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>65000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>510300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-280100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>77800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>661400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1029700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>108100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>373600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>19400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>499000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>180700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>229900</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>220100</v>
+        <v>253500</v>
       </c>
       <c r="E35" s="3">
-        <v>804400</v>
+        <v>212900</v>
       </c>
       <c r="F35" s="3">
-        <v>612800</v>
+        <v>777900</v>
       </c>
       <c r="G35" s="3">
-        <v>263800</v>
+        <v>592600</v>
       </c>
       <c r="H35" s="3">
-        <v>165600</v>
+        <v>255100</v>
       </c>
       <c r="I35" s="3">
-        <v>547900</v>
+        <v>160100</v>
       </c>
       <c r="J35" s="3">
+        <v>529800</v>
+      </c>
+      <c r="K35" s="3">
         <v>330200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>519800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>65000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>510300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-280100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>77800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>661400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1029700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>108100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>373600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>19400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>499000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>180700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>229900</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,73 +2660,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>5251600</v>
+        <v>4192500</v>
       </c>
       <c r="E41" s="3">
-        <v>4389500</v>
+        <v>5078700</v>
       </c>
       <c r="F41" s="3">
-        <v>4258200</v>
+        <v>4244900</v>
       </c>
       <c r="G41" s="3">
-        <v>4473700</v>
+        <v>4118000</v>
       </c>
       <c r="H41" s="3">
-        <v>5182700</v>
+        <v>4326400</v>
       </c>
       <c r="I41" s="3">
-        <v>4116400</v>
+        <v>5012100</v>
       </c>
       <c r="J41" s="3">
+        <v>3980900</v>
+      </c>
+      <c r="K41" s="3">
         <v>4593600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3795500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4251000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4004300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3420000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4022600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4852800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4091100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3514500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3640500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3944200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>3376800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>3378700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2907800</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,463 +2794,487 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4886600</v>
+        <v>5383800</v>
       </c>
       <c r="E43" s="3">
-        <v>9206900</v>
+        <v>4725600</v>
       </c>
       <c r="F43" s="3">
-        <v>6002200</v>
+        <v>8903700</v>
       </c>
       <c r="G43" s="3">
-        <v>5905100</v>
+        <v>5804600</v>
       </c>
       <c r="H43" s="3">
-        <v>5595300</v>
+        <v>5710700</v>
       </c>
       <c r="I43" s="3">
-        <v>9722400</v>
+        <v>5411100</v>
       </c>
       <c r="J43" s="3">
+        <v>9402300</v>
+      </c>
+      <c r="K43" s="3">
         <v>8281200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>8687800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>6009400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>10890900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>8897700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>8539000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>7949100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>9504100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>8140100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>8112800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>7229000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>9456200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>8723500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>8133900</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2494500</v>
+        <v>2627200</v>
       </c>
       <c r="E44" s="3">
-        <v>2159200</v>
+        <v>2412300</v>
       </c>
       <c r="F44" s="3">
-        <v>2553400</v>
+        <v>2088100</v>
       </c>
       <c r="G44" s="3">
-        <v>2416200</v>
+        <v>2469300</v>
       </c>
       <c r="H44" s="3">
-        <v>2274300</v>
+        <v>2336600</v>
       </c>
       <c r="I44" s="3">
-        <v>2168800</v>
+        <v>2199500</v>
       </c>
       <c r="J44" s="3">
+        <v>2097400</v>
+      </c>
+      <c r="K44" s="3">
         <v>3024800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2673300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2530200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2172300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2782400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2567900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2568900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2184100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2619100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2715300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>2696200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>2600400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>3205000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>2890300</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2831800</v>
+        <v>3032000</v>
       </c>
       <c r="E45" s="3">
-        <v>1308300</v>
+        <v>2738600</v>
       </c>
       <c r="F45" s="3">
-        <v>3272500</v>
+        <v>1265200</v>
       </c>
       <c r="G45" s="3">
-        <v>2977600</v>
+        <v>3164700</v>
       </c>
       <c r="H45" s="3">
-        <v>2645900</v>
+        <v>2879500</v>
       </c>
       <c r="I45" s="3">
-        <v>1220400</v>
+        <v>2558700</v>
       </c>
       <c r="J45" s="3">
+        <v>1180300</v>
+      </c>
+      <c r="K45" s="3">
         <v>1108300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1754000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3237300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1761800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2739100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2608500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1638200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1101100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1572900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2370700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2509100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>908800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>924000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>838300</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>15464500</v>
+        <v>15235500</v>
       </c>
       <c r="E46" s="3">
-        <v>17063900</v>
+        <v>14955200</v>
       </c>
       <c r="F46" s="3">
-        <v>16086300</v>
+        <v>16501900</v>
       </c>
       <c r="G46" s="3">
-        <v>15772600</v>
+        <v>15556600</v>
       </c>
       <c r="H46" s="3">
-        <v>15698300</v>
+        <v>15253200</v>
       </c>
       <c r="I46" s="3">
-        <v>17228100</v>
+        <v>15181300</v>
       </c>
       <c r="J46" s="3">
+        <v>16660800</v>
+      </c>
+      <c r="K46" s="3">
         <v>17008000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>16910600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>16027800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>18829300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>17839300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>17738000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>17009000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>16880400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>15846500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>16839400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>16378500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>16342100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>16231300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>14770300</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3128400</v>
+        <v>2946100</v>
       </c>
       <c r="E47" s="3">
-        <v>3018000</v>
+        <v>3025300</v>
       </c>
       <c r="F47" s="3">
-        <v>2951000</v>
+        <v>2918600</v>
       </c>
       <c r="G47" s="3">
-        <v>2785100</v>
+        <v>2853800</v>
       </c>
       <c r="H47" s="3">
-        <v>2697500</v>
+        <v>2693400</v>
       </c>
       <c r="I47" s="3">
-        <v>2573400</v>
+        <v>2608700</v>
       </c>
       <c r="J47" s="3">
+        <v>2488700</v>
+      </c>
+      <c r="K47" s="3">
         <v>2723200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2673900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2637700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2859800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2699000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>3077600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>3008500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2818600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2568300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2387000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>2600400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>2588500</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>2502100</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>2282100</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5359100</v>
+        <v>5123300</v>
       </c>
       <c r="E48" s="3">
-        <v>5189000</v>
+        <v>5182600</v>
       </c>
       <c r="F48" s="3">
-        <v>5099200</v>
+        <v>5018100</v>
       </c>
       <c r="G48" s="3">
-        <v>5058900</v>
+        <v>4931300</v>
       </c>
       <c r="H48" s="3">
-        <v>5119400</v>
+        <v>4892300</v>
       </c>
       <c r="I48" s="3">
-        <v>5194200</v>
+        <v>4950800</v>
       </c>
       <c r="J48" s="3">
+        <v>5023200</v>
+      </c>
+      <c r="K48" s="3">
         <v>5304800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5438700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5457000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4219500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4201800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4224000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4290200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4751300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>4833700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>4984100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>4980900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>5292300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>5365800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>5402900</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1491700</v>
+        <v>1475000</v>
       </c>
       <c r="E49" s="3">
-        <v>1473100</v>
+        <v>1442600</v>
       </c>
       <c r="F49" s="3">
-        <v>1436700</v>
+        <v>1424600</v>
       </c>
       <c r="G49" s="3">
-        <v>1389700</v>
+        <v>1389400</v>
       </c>
       <c r="H49" s="3">
-        <v>1339200</v>
+        <v>1343900</v>
       </c>
       <c r="I49" s="3">
-        <v>1311100</v>
+        <v>1295100</v>
       </c>
       <c r="J49" s="3">
+        <v>1268000</v>
+      </c>
+      <c r="K49" s="3">
         <v>1348400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1323100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1381900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1492000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1482000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1521000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1508100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1565500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1609100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1638400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1634800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1731500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1773700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1761300</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,73 +3406,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2194600</v>
+        <v>2109800</v>
       </c>
       <c r="E52" s="3">
-        <v>2318800</v>
+        <v>2122400</v>
       </c>
       <c r="F52" s="3">
-        <v>2035200</v>
+        <v>2242500</v>
       </c>
       <c r="G52" s="3">
-        <v>2228000</v>
+        <v>1968200</v>
       </c>
       <c r="H52" s="3">
-        <v>2339600</v>
+        <v>2154600</v>
       </c>
       <c r="I52" s="3">
-        <v>2730700</v>
+        <v>2262600</v>
       </c>
       <c r="J52" s="3">
+        <v>2640800</v>
+      </c>
+      <c r="K52" s="3">
         <v>1992500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2260600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2231800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2436900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2024100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2036300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1967800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2202800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2103500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2053100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1898900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>2354200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>2168000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>2425900</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>27638300</v>
+        <v>26889700</v>
       </c>
       <c r="E54" s="3">
-        <v>29062800</v>
+        <v>26728200</v>
       </c>
       <c r="F54" s="3">
-        <v>27608400</v>
+        <v>28105700</v>
       </c>
       <c r="G54" s="3">
-        <v>27234300</v>
+        <v>26699200</v>
       </c>
       <c r="H54" s="3">
-        <v>27194000</v>
+        <v>26337500</v>
       </c>
       <c r="I54" s="3">
-        <v>29037600</v>
+        <v>26298500</v>
       </c>
       <c r="J54" s="3">
+        <v>28081400</v>
+      </c>
+      <c r="K54" s="3">
         <v>28376800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>28606900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>27736200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>29837500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>28246100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>28596900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>27783500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>28218600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>26961200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>27902100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>27493600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>28308600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>28040900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>26642400</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,398 +3664,417 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3541600</v>
+        <v>3790400</v>
       </c>
       <c r="E57" s="3">
-        <v>4220500</v>
+        <v>3425000</v>
       </c>
       <c r="F57" s="3">
-        <v>3978600</v>
+        <v>4081500</v>
       </c>
       <c r="G57" s="3">
-        <v>3760400</v>
+        <v>3847600</v>
       </c>
       <c r="H57" s="3">
-        <v>3614900</v>
+        <v>3636600</v>
       </c>
       <c r="I57" s="3">
-        <v>4319700</v>
+        <v>3495900</v>
       </c>
       <c r="J57" s="3">
+        <v>4177500</v>
+      </c>
+      <c r="K57" s="3">
         <v>4421000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4504000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4041700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5081200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4770900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4895000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4925800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>4890100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>4536100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>4442700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>4365700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>5479100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>5278500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>4733500</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1373100</v>
+        <v>1371100</v>
       </c>
       <c r="E58" s="3">
-        <v>1587600</v>
+        <v>1327900</v>
       </c>
       <c r="F58" s="3">
-        <v>1830000</v>
+        <v>1535300</v>
       </c>
       <c r="G58" s="3">
-        <v>1928400</v>
+        <v>1769700</v>
       </c>
       <c r="H58" s="3">
-        <v>2183000</v>
+        <v>1864900</v>
       </c>
       <c r="I58" s="3">
-        <v>1817000</v>
+        <v>2111100</v>
       </c>
       <c r="J58" s="3">
+        <v>1757200</v>
+      </c>
+      <c r="K58" s="3">
         <v>2170500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1874100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1445400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1257700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1139500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1370500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1457300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1223900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1843800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1758100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1742400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1160100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>2089100</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1598500</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5264800</v>
+        <v>4956000</v>
       </c>
       <c r="E59" s="3">
-        <v>5939200</v>
+        <v>5091400</v>
       </c>
       <c r="F59" s="3">
-        <v>5330300</v>
+        <v>5743700</v>
       </c>
       <c r="G59" s="3">
-        <v>5593500</v>
+        <v>5154700</v>
       </c>
       <c r="H59" s="3">
-        <v>5379800</v>
+        <v>5409300</v>
       </c>
       <c r="I59" s="3">
-        <v>6304000</v>
+        <v>5202600</v>
       </c>
       <c r="J59" s="3">
+        <v>6096400</v>
+      </c>
+      <c r="K59" s="3">
         <v>5430800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5602200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5604600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>6777800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>6198400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>5931800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>5503600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>5842700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>5204500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>6069800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>6141100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>6062600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>5314400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>5197200</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>10179500</v>
+        <v>10117400</v>
       </c>
       <c r="E60" s="3">
-        <v>11747300</v>
+        <v>9844300</v>
       </c>
       <c r="F60" s="3">
-        <v>11138900</v>
+        <v>11360500</v>
       </c>
       <c r="G60" s="3">
-        <v>11282300</v>
+        <v>10772000</v>
       </c>
       <c r="H60" s="3">
-        <v>11177700</v>
+        <v>10910800</v>
       </c>
       <c r="I60" s="3">
-        <v>12440700</v>
+        <v>10809600</v>
       </c>
       <c r="J60" s="3">
+        <v>12031000</v>
+      </c>
+      <c r="K60" s="3">
         <v>12022300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>11980300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>11091700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>13116800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>12108900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>12197300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>11886800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>11956700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>11584400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>12270600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>12249300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>12701800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>12682100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>11529200</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1478400</v>
+        <v>1205300</v>
       </c>
       <c r="E61" s="3">
-        <v>1294100</v>
+        <v>1429700</v>
       </c>
       <c r="F61" s="3">
-        <v>1317600</v>
+        <v>1251500</v>
       </c>
       <c r="G61" s="3">
-        <v>1400600</v>
+        <v>1274200</v>
       </c>
       <c r="H61" s="3">
-        <v>1545000</v>
+        <v>1354500</v>
       </c>
       <c r="I61" s="3">
-        <v>1877700</v>
+        <v>1494100</v>
       </c>
       <c r="J61" s="3">
+        <v>1815900</v>
+      </c>
+      <c r="K61" s="3">
         <v>2113600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2349700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2693000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1781100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2114900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2085900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2071600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2409200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2514000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2845600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2850300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>3142700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>3330600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>3416600</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1772600</v>
+        <v>1634800</v>
       </c>
       <c r="E62" s="3">
-        <v>1929000</v>
+        <v>1714200</v>
       </c>
       <c r="F62" s="3">
-        <v>2112000</v>
+        <v>1865500</v>
       </c>
       <c r="G62" s="3">
-        <v>2200900</v>
+        <v>2042400</v>
       </c>
       <c r="H62" s="3">
-        <v>2231500</v>
+        <v>2128400</v>
       </c>
       <c r="I62" s="3">
-        <v>2434900</v>
+        <v>2158100</v>
       </c>
       <c r="J62" s="3">
+        <v>2354800</v>
+      </c>
+      <c r="K62" s="3">
         <v>2252000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2448600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2622000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2892300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2815900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2349600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2433100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2960400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2738600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>3007700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>3186800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>3423800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>3635400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>4100300</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>14348500</v>
+        <v>13919100</v>
       </c>
       <c r="E66" s="3">
-        <v>15852000</v>
+        <v>13876000</v>
       </c>
       <c r="F66" s="3">
-        <v>15397600</v>
+        <v>15330000</v>
       </c>
       <c r="G66" s="3">
-        <v>15686100</v>
+        <v>14890600</v>
       </c>
       <c r="H66" s="3">
-        <v>15944400</v>
+        <v>15169500</v>
       </c>
       <c r="I66" s="3">
-        <v>17732500</v>
+        <v>15419300</v>
       </c>
       <c r="J66" s="3">
+        <v>17148600</v>
+      </c>
+      <c r="K66" s="3">
         <v>17363200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>17853700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>17483400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>18958500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>18179000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>17756300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>17466900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>18384900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>17967300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>19395400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>19535600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>20491500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>20859700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>20204800</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>8443000</v>
+        <v>8421800</v>
       </c>
       <c r="E72" s="3">
-        <v>8282300</v>
+        <v>8165000</v>
       </c>
       <c r="F72" s="3">
-        <v>7249000</v>
+        <v>8009500</v>
       </c>
       <c r="G72" s="3">
-        <v>6737200</v>
+        <v>7010300</v>
       </c>
       <c r="H72" s="3">
-        <v>6563600</v>
+        <v>6515300</v>
       </c>
       <c r="I72" s="3">
-        <v>6704200</v>
+        <v>6347500</v>
       </c>
       <c r="J72" s="3">
+        <v>6483500</v>
+      </c>
+      <c r="K72" s="3">
         <v>5905600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>5726800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>5205100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>5543600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>4808000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>5381100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>5046900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>4337200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>3458200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>3040200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2400300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2358500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1640600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1192500</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>13289900</v>
+        <v>12970700</v>
       </c>
       <c r="E76" s="3">
-        <v>13210800</v>
+        <v>12852200</v>
       </c>
       <c r="F76" s="3">
-        <v>12210700</v>
+        <v>12775700</v>
       </c>
       <c r="G76" s="3">
-        <v>11548200</v>
+        <v>11808600</v>
       </c>
       <c r="H76" s="3">
-        <v>11249600</v>
+        <v>11167900</v>
       </c>
       <c r="I76" s="3">
-        <v>11305100</v>
+        <v>10879200</v>
       </c>
       <c r="J76" s="3">
+        <v>10932800</v>
+      </c>
+      <c r="K76" s="3">
         <v>11013600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>10753200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>10252800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>10879000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>10067100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>10840600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>10316700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>9833700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>8993900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>8506700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>7958000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>7817100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>7181100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>6437700</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>220100</v>
+        <v>253500</v>
       </c>
       <c r="E81" s="3">
-        <v>804400</v>
+        <v>212900</v>
       </c>
       <c r="F81" s="3">
-        <v>612800</v>
+        <v>777900</v>
       </c>
       <c r="G81" s="3">
-        <v>263800</v>
+        <v>592600</v>
       </c>
       <c r="H81" s="3">
-        <v>165600</v>
+        <v>255100</v>
       </c>
       <c r="I81" s="3">
-        <v>547900</v>
+        <v>160100</v>
       </c>
       <c r="J81" s="3">
+        <v>529800</v>
+      </c>
+      <c r="K81" s="3">
         <v>330200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>519800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>65000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>510300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-280100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>77800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>661400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1029700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>108100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>373600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>19400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>499000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>180700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>229900</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,73 +5217,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>403500</v>
+        <v>399100</v>
       </c>
       <c r="E83" s="3">
-        <v>460000</v>
+        <v>390200</v>
       </c>
       <c r="F83" s="3">
-        <v>394300</v>
+        <v>444900</v>
       </c>
       <c r="G83" s="3">
-        <v>375900</v>
+        <v>381300</v>
       </c>
       <c r="H83" s="3">
-        <v>371600</v>
+        <v>363500</v>
       </c>
       <c r="I83" s="3">
-        <v>496100</v>
+        <v>359400</v>
       </c>
       <c r="J83" s="3">
+        <v>479800</v>
+      </c>
+      <c r="K83" s="3">
         <v>467500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>486900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>506400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>399000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>397400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>353700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>331100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>406300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>374200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>382800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>371200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>510100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>394600</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>391500</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1749300</v>
+        <v>-176300</v>
       </c>
       <c r="E89" s="3">
-        <v>988600</v>
+        <v>1691700</v>
       </c>
       <c r="F89" s="3">
-        <v>386900</v>
+        <v>956000</v>
       </c>
       <c r="G89" s="3">
-        <v>73500</v>
+        <v>374100</v>
       </c>
       <c r="H89" s="3">
-        <v>1356500</v>
+        <v>71000</v>
       </c>
       <c r="I89" s="3">
-        <v>1188800</v>
+        <v>1311800</v>
       </c>
       <c r="J89" s="3">
+        <v>1149600</v>
+      </c>
+      <c r="K89" s="3">
         <v>925100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-10600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1066000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>798500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-282800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-542300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>951300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1170800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>146100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-243400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>738300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1384900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>462200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-176900</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,73 +5719,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-294000</v>
+        <v>-317300</v>
       </c>
       <c r="E91" s="3">
-        <v>-334200</v>
+        <v>-284300</v>
       </c>
       <c r="F91" s="3">
-        <v>-311000</v>
+        <v>-323200</v>
       </c>
       <c r="G91" s="3">
-        <v>-289100</v>
+        <v>-300700</v>
       </c>
       <c r="H91" s="3">
+        <v>-279500</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-231000</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-299500</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-339000</v>
+      </c>
+      <c r="L91" s="3">
+        <v>-327900</v>
+      </c>
+      <c r="M91" s="3">
         <v>-238900</v>
       </c>
-      <c r="I91" s="3">
-        <v>-309700</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-339000</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-327900</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-238900</v>
-      </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-277100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-280100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-308100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-263300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-328500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-278400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-345300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-268200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>796000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-743100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-1114100</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +5921,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-264400</v>
+        <v>-342900</v>
       </c>
       <c r="E94" s="3">
-        <v>-276000</v>
+        <v>-255700</v>
       </c>
       <c r="F94" s="3">
-        <v>26700</v>
+        <v>-266900</v>
       </c>
       <c r="G94" s="3">
-        <v>-311500</v>
+        <v>25900</v>
       </c>
       <c r="H94" s="3">
-        <v>-91200</v>
+        <v>-301200</v>
       </c>
       <c r="I94" s="3">
-        <v>-634800</v>
+        <v>-88200</v>
       </c>
       <c r="J94" s="3">
+        <v>-613900</v>
+      </c>
+      <c r="K94" s="3">
         <v>30500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-341100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-98500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-124800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>151500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-165200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>171400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>135400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-19800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-35900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-283900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-128400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-312300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-509000</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,73 +6017,77 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-181300</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-175300</v>
       </c>
       <c r="F96" s="3">
-        <v>-182500</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-176400</v>
       </c>
       <c r="H96" s="3">
-        <v>-182400</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-176400</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-147700</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-148500</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-135100</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-112300</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-92700</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-92700</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-73400</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,199 +6287,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-628500</v>
+        <v>-354500</v>
       </c>
       <c r="E100" s="3">
-        <v>-662600</v>
+        <v>-607800</v>
       </c>
       <c r="F100" s="3">
-        <v>-649600</v>
+        <v>-640800</v>
       </c>
       <c r="G100" s="3">
-        <v>-471500</v>
+        <v>-628200</v>
       </c>
       <c r="H100" s="3">
-        <v>-217100</v>
+        <v>-456000</v>
       </c>
       <c r="I100" s="3">
-        <v>-999500</v>
+        <v>-210000</v>
       </c>
       <c r="J100" s="3">
+        <v>-966600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-224700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-31000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-507600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-328900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-456900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-98000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-394900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-724300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-355700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-24600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>87700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1222900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>222400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-114400</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>6100</v>
+        <v>-10000</v>
       </c>
       <c r="E101" s="3">
-        <v>67000</v>
+        <v>5900</v>
       </c>
       <c r="F101" s="3">
-        <v>16100</v>
+        <v>64800</v>
       </c>
       <c r="G101" s="3">
-        <v>12100</v>
+        <v>15600</v>
       </c>
       <c r="H101" s="3">
-        <v>14400</v>
+        <v>11700</v>
       </c>
       <c r="I101" s="3">
-        <v>-29400</v>
+        <v>14000</v>
       </c>
       <c r="J101" s="3">
+        <v>-28400</v>
+      </c>
+      <c r="K101" s="3">
         <v>8600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-8100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-4000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-25900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-29900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>15200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>12400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-5500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>12600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>15900</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>7400</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-6500</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>98700</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-16300</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>862500</v>
+        <v>-883800</v>
       </c>
       <c r="E102" s="3">
-        <v>116900</v>
+        <v>834100</v>
       </c>
       <c r="F102" s="3">
-        <v>-219900</v>
+        <v>113000</v>
       </c>
       <c r="G102" s="3">
-        <v>-697400</v>
+        <v>-212600</v>
       </c>
       <c r="H102" s="3">
-        <v>1062700</v>
+        <v>-674400</v>
       </c>
       <c r="I102" s="3">
-        <v>-474800</v>
+        <v>1027700</v>
       </c>
       <c r="J102" s="3">
+        <v>-459200</v>
+      </c>
+      <c r="K102" s="3">
         <v>739400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-390800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>455900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>318800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-618100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-790300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>740200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>576400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-216800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-288000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>549500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>27100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>471000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-816700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FJTSY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FJTSY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
   <si>
     <t>FJTSY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,320 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7585700</v>
+        <v>7510900</v>
       </c>
       <c r="E8" s="3">
-        <v>7065400</v>
+        <v>7344600</v>
       </c>
       <c r="F8" s="3">
-        <v>9369500</v>
+        <v>6840900</v>
       </c>
       <c r="G8" s="3">
-        <v>7879300</v>
+        <v>9071700</v>
       </c>
       <c r="H8" s="3">
-        <v>7303900</v>
+        <v>7628900</v>
       </c>
       <c r="I8" s="3">
-        <v>7072600</v>
+        <v>7071700</v>
       </c>
       <c r="J8" s="3">
+        <v>6847800</v>
+      </c>
+      <c r="K8" s="3">
         <v>9741800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>8410900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>9098300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>7682800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>10960900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>9225900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>8982400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>7887000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>10594900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>9068300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>9045400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>8340600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>10682100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>9054700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>8940200</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5318600</v>
+        <v>5244000</v>
       </c>
       <c r="E9" s="3">
-        <v>4898200</v>
+        <v>5149500</v>
       </c>
       <c r="F9" s="3">
-        <v>6379400</v>
+        <v>4742500</v>
       </c>
       <c r="G9" s="3">
-        <v>5517200</v>
+        <v>6176600</v>
       </c>
       <c r="H9" s="3">
-        <v>5111300</v>
+        <v>5341900</v>
       </c>
       <c r="I9" s="3">
-        <v>5100400</v>
+        <v>4948900</v>
       </c>
       <c r="J9" s="3">
+        <v>4938300</v>
+      </c>
+      <c r="K9" s="3">
         <v>6820000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>5987600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>6467400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>5618400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>7652900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>6814100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>6619700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>5900700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>7434500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>6706300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>6565400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>6111700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>7514400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>6501100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>6406200</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2267100</v>
+        <v>2266800</v>
       </c>
       <c r="E10" s="3">
-        <v>2167300</v>
+        <v>2195100</v>
       </c>
       <c r="F10" s="3">
-        <v>2990100</v>
+        <v>2098400</v>
       </c>
       <c r="G10" s="3">
-        <v>2362100</v>
+        <v>2895000</v>
       </c>
       <c r="H10" s="3">
-        <v>2192600</v>
+        <v>2287100</v>
       </c>
       <c r="I10" s="3">
-        <v>1972200</v>
+        <v>2122900</v>
       </c>
       <c r="J10" s="3">
+        <v>1909500</v>
+      </c>
+      <c r="K10" s="3">
         <v>2921800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2423400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2630900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2064500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3308000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2411800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2362700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1986300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>3160500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2362000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2480000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2228900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>3167600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>2553600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>2534000</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1003,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1072,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1143,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1162,14 +1181,14 @@
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" s="3">
         <v>710200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>411800</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>8</v>
@@ -1195,8 +1214,11 @@
       <c r="X14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1311,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7165100</v>
+        <v>6954900</v>
       </c>
       <c r="E17" s="3">
-        <v>6768200</v>
+        <v>6937300</v>
       </c>
       <c r="F17" s="3">
-        <v>8395200</v>
+        <v>6553100</v>
       </c>
       <c r="G17" s="3">
-        <v>7055700</v>
+        <v>8128400</v>
       </c>
       <c r="H17" s="3">
-        <v>6951700</v>
+        <v>6831400</v>
       </c>
       <c r="I17" s="3">
-        <v>6876400</v>
+        <v>6730800</v>
       </c>
       <c r="J17" s="3">
+        <v>6657800</v>
+      </c>
+      <c r="K17" s="3">
         <v>8948800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7951700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8476400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7651800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>10348900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>9497100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>8836700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>7163500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>9293500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>8973100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>8837100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>8295900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>10123400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>8749800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>8640300</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>420600</v>
+        <v>556000</v>
       </c>
       <c r="E18" s="3">
-        <v>297200</v>
+        <v>407300</v>
       </c>
       <c r="F18" s="3">
-        <v>974200</v>
+        <v>287800</v>
       </c>
       <c r="G18" s="3">
-        <v>823700</v>
+        <v>943300</v>
       </c>
       <c r="H18" s="3">
-        <v>352200</v>
+        <v>797500</v>
       </c>
       <c r="I18" s="3">
-        <v>196200</v>
+        <v>341000</v>
       </c>
       <c r="J18" s="3">
+        <v>190000</v>
+      </c>
+      <c r="K18" s="3">
         <v>793000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>459300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>621900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>31000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>612000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-271200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>145700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>723500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1301400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>95200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>208400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>44800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>558700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>304900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>299900</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,348 +1480,364 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>25200</v>
+        <v>37600</v>
       </c>
       <c r="E20" s="3">
-        <v>57500</v>
+        <v>24400</v>
       </c>
       <c r="F20" s="3">
-        <v>157700</v>
+        <v>55700</v>
       </c>
       <c r="G20" s="3">
-        <v>29100</v>
+        <v>152700</v>
       </c>
       <c r="H20" s="3">
-        <v>25400</v>
+        <v>28200</v>
       </c>
       <c r="I20" s="3">
-        <v>39600</v>
+        <v>24600</v>
       </c>
       <c r="J20" s="3">
+        <v>38400</v>
+      </c>
+      <c r="K20" s="3">
         <v>44700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>40000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>72600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>35800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>72600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>35300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>49200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>165400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>244600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>32400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>271100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>30400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>27500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>46900</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>844900</v>
+        <v>976400</v>
       </c>
       <c r="E21" s="3">
-        <v>745000</v>
+        <v>818100</v>
       </c>
       <c r="F21" s="3">
-        <v>1576800</v>
+        <v>721300</v>
       </c>
       <c r="G21" s="3">
-        <v>1234100</v>
+        <v>1526700</v>
       </c>
       <c r="H21" s="3">
-        <v>741100</v>
+        <v>1194800</v>
       </c>
       <c r="I21" s="3">
-        <v>595200</v>
+        <v>717600</v>
       </c>
       <c r="J21" s="3">
+        <v>576300</v>
+      </c>
+      <c r="K21" s="3">
         <v>1317400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>966700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1181400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>573300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1083600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>161400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>548600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1220000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1952300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>501700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>862300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>446500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1096200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>746400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>721600</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>6100</v>
+        <v>5800</v>
       </c>
       <c r="E22" s="3">
         <v>5900</v>
       </c>
       <c r="F22" s="3">
-        <v>6200</v>
+        <v>5700</v>
       </c>
       <c r="G22" s="3">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="H22" s="3">
+        <v>6300</v>
+      </c>
+      <c r="I22" s="3">
+        <v>6700</v>
+      </c>
+      <c r="J22" s="3">
         <v>7000</v>
       </c>
-      <c r="I22" s="3">
-        <v>7200</v>
-      </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>9800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>9200</v>
-      </c>
-      <c r="L22" s="3">
-        <v>9500</v>
       </c>
       <c r="M22" s="3">
         <v>9500</v>
       </c>
       <c r="N22" s="3">
+        <v>9500</v>
+      </c>
+      <c r="O22" s="3">
         <v>7800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>8100</v>
-      </c>
-      <c r="P22" s="3">
-        <v>7200</v>
       </c>
       <c r="Q22" s="3">
         <v>7200</v>
       </c>
       <c r="R22" s="3">
+        <v>7200</v>
+      </c>
+      <c r="S22" s="3">
         <v>8400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>9500</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>10000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>8300</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>10800</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>8600</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>439800</v>
+        <v>587800</v>
       </c>
       <c r="E23" s="3">
-        <v>348800</v>
+        <v>425800</v>
       </c>
       <c r="F23" s="3">
-        <v>1125700</v>
+        <v>337700</v>
       </c>
       <c r="G23" s="3">
-        <v>846300</v>
+        <v>1089900</v>
       </c>
       <c r="H23" s="3">
-        <v>370600</v>
+        <v>819400</v>
       </c>
       <c r="I23" s="3">
-        <v>228600</v>
+        <v>358800</v>
       </c>
       <c r="J23" s="3">
+        <v>221400</v>
+      </c>
+      <c r="K23" s="3">
         <v>827900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>490000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>685000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>57400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>676800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-244100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>187800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>881700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1537600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>118000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>469500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>66900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>575400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>343200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>320900</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>109300</v>
+        <v>-96400</v>
       </c>
       <c r="E24" s="3">
-        <v>88600</v>
+        <v>105900</v>
       </c>
       <c r="F24" s="3">
-        <v>314300</v>
+        <v>85800</v>
       </c>
       <c r="G24" s="3">
-        <v>218800</v>
+        <v>304300</v>
       </c>
       <c r="H24" s="3">
-        <v>97100</v>
+        <v>211900</v>
       </c>
       <c r="I24" s="3">
-        <v>59900</v>
+        <v>94000</v>
       </c>
       <c r="J24" s="3">
+        <v>58000</v>
+      </c>
+      <c r="K24" s="3">
         <v>286700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>153400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>166900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>6400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>162000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>29600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>93200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>191300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>502900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>37600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>75200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>57500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>39300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>149900</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>79400</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>330400</v>
+        <v>684200</v>
       </c>
       <c r="E26" s="3">
-        <v>260200</v>
+        <v>319900</v>
       </c>
       <c r="F26" s="3">
-        <v>811400</v>
+        <v>252000</v>
       </c>
       <c r="G26" s="3">
-        <v>627500</v>
+        <v>785600</v>
       </c>
       <c r="H26" s="3">
-        <v>273500</v>
+        <v>607500</v>
       </c>
       <c r="I26" s="3">
-        <v>168700</v>
+        <v>264800</v>
       </c>
       <c r="J26" s="3">
+        <v>163400</v>
+      </c>
+      <c r="K26" s="3">
         <v>541200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>336600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>518200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>51000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>514800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-273600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>94600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>690400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1034700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>80500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>394300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>9400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>536000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>193300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>241500</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>253500</v>
+        <v>608600</v>
       </c>
       <c r="E27" s="3">
-        <v>212900</v>
+        <v>245400</v>
       </c>
       <c r="F27" s="3">
-        <v>777900</v>
+        <v>206100</v>
       </c>
       <c r="G27" s="3">
-        <v>592600</v>
+        <v>753200</v>
       </c>
       <c r="H27" s="3">
-        <v>255100</v>
+        <v>573800</v>
       </c>
       <c r="I27" s="3">
-        <v>160100</v>
+        <v>247000</v>
       </c>
       <c r="J27" s="3">
+        <v>155000</v>
+      </c>
+      <c r="K27" s="3">
         <v>529800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>330200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>519800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>65000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>510300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-280100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>77800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>661400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1029700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>50100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>380700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-13200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>529200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>159500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>211300</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2092,8 +2152,8 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -2107,29 +2167,32 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
+      <c r="R29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
         <v>58000</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-7100</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>32600</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-30200</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>21200</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>18600</v>
       </c>
     </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2330,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-25200</v>
+        <v>-37600</v>
       </c>
       <c r="E32" s="3">
-        <v>-57500</v>
+        <v>-24400</v>
       </c>
       <c r="F32" s="3">
-        <v>-157700</v>
+        <v>-55700</v>
       </c>
       <c r="G32" s="3">
-        <v>-29100</v>
+        <v>-152700</v>
       </c>
       <c r="H32" s="3">
-        <v>-25400</v>
+        <v>-28200</v>
       </c>
       <c r="I32" s="3">
-        <v>-39600</v>
+        <v>-24600</v>
       </c>
       <c r="J32" s="3">
+        <v>-38400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-44700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-40000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-72600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-35800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-72600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-35300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-49200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-165400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-244600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-32400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-271100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-30400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-27500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-46900</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-30200</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>253500</v>
+        <v>608600</v>
       </c>
       <c r="E33" s="3">
-        <v>212900</v>
+        <v>245400</v>
       </c>
       <c r="F33" s="3">
-        <v>777900</v>
+        <v>206100</v>
       </c>
       <c r="G33" s="3">
-        <v>592600</v>
+        <v>753200</v>
       </c>
       <c r="H33" s="3">
-        <v>255100</v>
+        <v>573800</v>
       </c>
       <c r="I33" s="3">
-        <v>160100</v>
+        <v>247000</v>
       </c>
       <c r="J33" s="3">
+        <v>155000</v>
+      </c>
+      <c r="K33" s="3">
         <v>529800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>330200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>519800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>65000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>510300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-280100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>77800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>661400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1029700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>108100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>373600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>19400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>499000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>180700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>229900</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>253500</v>
+        <v>608600</v>
       </c>
       <c r="E35" s="3">
-        <v>212900</v>
+        <v>245400</v>
       </c>
       <c r="F35" s="3">
-        <v>777900</v>
+        <v>206100</v>
       </c>
       <c r="G35" s="3">
-        <v>592600</v>
+        <v>753200</v>
       </c>
       <c r="H35" s="3">
-        <v>255100</v>
+        <v>573800</v>
       </c>
       <c r="I35" s="3">
-        <v>160100</v>
+        <v>247000</v>
       </c>
       <c r="J35" s="3">
+        <v>155000</v>
+      </c>
+      <c r="K35" s="3">
         <v>529800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>330200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>519800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>65000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>510300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-280100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>77800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>661400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1029700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>108100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>373600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>19400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>499000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>180700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>229900</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,76 +2746,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4192500</v>
+        <v>3647900</v>
       </c>
       <c r="E41" s="3">
-        <v>5078700</v>
+        <v>4059300</v>
       </c>
       <c r="F41" s="3">
-        <v>4244900</v>
+        <v>4917300</v>
       </c>
       <c r="G41" s="3">
-        <v>4118000</v>
+        <v>4110000</v>
       </c>
       <c r="H41" s="3">
-        <v>4326400</v>
+        <v>3987100</v>
       </c>
       <c r="I41" s="3">
-        <v>5012100</v>
+        <v>4188900</v>
       </c>
       <c r="J41" s="3">
+        <v>4852800</v>
+      </c>
+      <c r="K41" s="3">
         <v>3980900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4593600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3795500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4251000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4004300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3420000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4022600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4852800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4091100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3514500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3640500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>3944200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>3376800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>3378700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>2907800</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,484 +2886,508 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5383800</v>
+        <v>5198500</v>
       </c>
       <c r="E43" s="3">
-        <v>4725600</v>
+        <v>5212700</v>
       </c>
       <c r="F43" s="3">
-        <v>8903700</v>
+        <v>4575500</v>
       </c>
       <c r="G43" s="3">
-        <v>5804600</v>
+        <v>8620800</v>
       </c>
       <c r="H43" s="3">
-        <v>5710700</v>
+        <v>5620100</v>
       </c>
       <c r="I43" s="3">
-        <v>5411100</v>
+        <v>5529200</v>
       </c>
       <c r="J43" s="3">
+        <v>5239100</v>
+      </c>
+      <c r="K43" s="3">
         <v>9402300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>8281200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>8687800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>6009400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>10890900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>8897700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>8539000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>7949100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>9504100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>8140100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>8112800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>7229000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>9456200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>8723500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>8133900</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2627200</v>
+        <v>2871600</v>
       </c>
       <c r="E44" s="3">
-        <v>2412300</v>
+        <v>2543700</v>
       </c>
       <c r="F44" s="3">
-        <v>2088100</v>
+        <v>2335700</v>
       </c>
       <c r="G44" s="3">
-        <v>2469300</v>
+        <v>2021700</v>
       </c>
       <c r="H44" s="3">
-        <v>2336600</v>
+        <v>2390800</v>
       </c>
       <c r="I44" s="3">
-        <v>2199500</v>
+        <v>2262300</v>
       </c>
       <c r="J44" s="3">
+        <v>2129500</v>
+      </c>
+      <c r="K44" s="3">
         <v>2097400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3024800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2673300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2530200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2172300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2782400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2567900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2568900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2184100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2619100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>2715300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>2696200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>2600400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>3205000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>2890300</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3032000</v>
+        <v>3264000</v>
       </c>
       <c r="E45" s="3">
-        <v>2738600</v>
+        <v>2935600</v>
       </c>
       <c r="F45" s="3">
-        <v>1265200</v>
+        <v>2651500</v>
       </c>
       <c r="G45" s="3">
-        <v>3164700</v>
+        <v>1225000</v>
       </c>
       <c r="H45" s="3">
-        <v>2879500</v>
+        <v>3064100</v>
       </c>
       <c r="I45" s="3">
-        <v>2558700</v>
+        <v>2788000</v>
       </c>
       <c r="J45" s="3">
+        <v>2477400</v>
+      </c>
+      <c r="K45" s="3">
         <v>1180300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1108300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1754000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3237300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1761800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2739100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2608500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1638200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1101100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1572900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2370700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>2509100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>908800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>924000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>838300</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>15235500</v>
+        <v>14982000</v>
       </c>
       <c r="E46" s="3">
-        <v>14955200</v>
+        <v>14751300</v>
       </c>
       <c r="F46" s="3">
-        <v>16501900</v>
+        <v>14479900</v>
       </c>
       <c r="G46" s="3">
-        <v>15556600</v>
+        <v>15977500</v>
       </c>
       <c r="H46" s="3">
-        <v>15253200</v>
+        <v>15062200</v>
       </c>
       <c r="I46" s="3">
-        <v>15181300</v>
+        <v>14768400</v>
       </c>
       <c r="J46" s="3">
+        <v>14698800</v>
+      </c>
+      <c r="K46" s="3">
         <v>16660800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>17008000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>16910600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>16027800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>18829300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>17839300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>17738000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>17009000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>16880400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>15846500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>16839400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>16378500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>16342100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>16231300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>14770300</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2946100</v>
+        <v>2834800</v>
       </c>
       <c r="E47" s="3">
-        <v>3025300</v>
+        <v>2852500</v>
       </c>
       <c r="F47" s="3">
-        <v>2918600</v>
+        <v>2929200</v>
       </c>
       <c r="G47" s="3">
-        <v>2853800</v>
+        <v>2825900</v>
       </c>
       <c r="H47" s="3">
-        <v>2693400</v>
+        <v>2763100</v>
       </c>
       <c r="I47" s="3">
-        <v>2608700</v>
+        <v>2607800</v>
       </c>
       <c r="J47" s="3">
+        <v>2525800</v>
+      </c>
+      <c r="K47" s="3">
         <v>2488700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2723200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2673900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2637700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2859800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2699000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>3077600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>3008500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2818600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2568300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>2387000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>2600400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>2588500</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>2502100</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>2282100</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5123300</v>
+        <v>4912800</v>
       </c>
       <c r="E48" s="3">
-        <v>5182600</v>
+        <v>4960400</v>
       </c>
       <c r="F48" s="3">
-        <v>5018100</v>
+        <v>5017900</v>
       </c>
       <c r="G48" s="3">
-        <v>4931300</v>
+        <v>4858600</v>
       </c>
       <c r="H48" s="3">
-        <v>4892300</v>
+        <v>4774600</v>
       </c>
       <c r="I48" s="3">
-        <v>4950800</v>
+        <v>4736800</v>
       </c>
       <c r="J48" s="3">
+        <v>4793500</v>
+      </c>
+      <c r="K48" s="3">
         <v>5023200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5304800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5438700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5457000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4219500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4201800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4224000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4290200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>4751300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>4833700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>4984100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>4980900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>5292300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>5365800</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>5402900</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1475000</v>
+        <v>1458300</v>
       </c>
       <c r="E49" s="3">
-        <v>1442600</v>
+        <v>1428200</v>
       </c>
       <c r="F49" s="3">
-        <v>1424600</v>
+        <v>1396700</v>
       </c>
       <c r="G49" s="3">
-        <v>1389400</v>
+        <v>1379300</v>
       </c>
       <c r="H49" s="3">
-        <v>1343900</v>
+        <v>1345200</v>
       </c>
       <c r="I49" s="3">
-        <v>1295100</v>
+        <v>1301200</v>
       </c>
       <c r="J49" s="3">
+        <v>1253900</v>
+      </c>
+      <c r="K49" s="3">
         <v>1268000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1348400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1323100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1381900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1492000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1482000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1521000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1508100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1565500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1609100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1638400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1634800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1731500</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1773700</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1761300</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,76 +3525,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2109800</v>
+        <v>2388200</v>
       </c>
       <c r="E52" s="3">
-        <v>2122400</v>
+        <v>2042800</v>
       </c>
       <c r="F52" s="3">
-        <v>2242500</v>
+        <v>2054900</v>
       </c>
       <c r="G52" s="3">
-        <v>1968200</v>
+        <v>2171200</v>
       </c>
       <c r="H52" s="3">
-        <v>2154600</v>
+        <v>1905600</v>
       </c>
       <c r="I52" s="3">
-        <v>2262600</v>
+        <v>2086100</v>
       </c>
       <c r="J52" s="3">
+        <v>2190600</v>
+      </c>
+      <c r="K52" s="3">
         <v>2640800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1992500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2260600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2231800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2436900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2024100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2036300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1967800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2202800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2103500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>2053100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1898900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>2354200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>2168000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>2425900</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3667,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>26889700</v>
+        <v>26576100</v>
       </c>
       <c r="E54" s="3">
-        <v>26728200</v>
+        <v>26035100</v>
       </c>
       <c r="F54" s="3">
-        <v>28105700</v>
+        <v>25878700</v>
       </c>
       <c r="G54" s="3">
-        <v>26699200</v>
+        <v>27212500</v>
       </c>
       <c r="H54" s="3">
-        <v>26337500</v>
+        <v>25850700</v>
       </c>
       <c r="I54" s="3">
-        <v>26298500</v>
+        <v>25500400</v>
       </c>
       <c r="J54" s="3">
+        <v>25462700</v>
+      </c>
+      <c r="K54" s="3">
         <v>28081400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>28376800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>28606900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>27736200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>29837500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>28246100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>28596900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>27783500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>28218600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>26961200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>27902100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>27493600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>28308600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>28040900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>26642400</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,416 +3794,435 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3790400</v>
+        <v>3762600</v>
       </c>
       <c r="E57" s="3">
-        <v>3425000</v>
+        <v>3669900</v>
       </c>
       <c r="F57" s="3">
-        <v>4081500</v>
+        <v>3316100</v>
       </c>
       <c r="G57" s="3">
-        <v>3847600</v>
+        <v>3951800</v>
       </c>
       <c r="H57" s="3">
-        <v>3636600</v>
+        <v>3725300</v>
       </c>
       <c r="I57" s="3">
-        <v>3495900</v>
+        <v>3521000</v>
       </c>
       <c r="J57" s="3">
+        <v>3384800</v>
+      </c>
+      <c r="K57" s="3">
         <v>4177500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4421000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4504000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4041700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>5081200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4770900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4895000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>4925800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>4890100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>4536100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>4442700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>4365700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>5479100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>5278500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>4733500</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1371100</v>
+        <v>1352700</v>
       </c>
       <c r="E58" s="3">
-        <v>1327900</v>
+        <v>1327500</v>
       </c>
       <c r="F58" s="3">
-        <v>1535300</v>
+        <v>1285700</v>
       </c>
       <c r="G58" s="3">
-        <v>1769700</v>
+        <v>1486500</v>
       </c>
       <c r="H58" s="3">
-        <v>1864900</v>
+        <v>1713500</v>
       </c>
       <c r="I58" s="3">
-        <v>2111100</v>
+        <v>1805600</v>
       </c>
       <c r="J58" s="3">
+        <v>2044000</v>
+      </c>
+      <c r="K58" s="3">
         <v>1757200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2170500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1874100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1445400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1257700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1139500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1370500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1457300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1223900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1843800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1758100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1742400</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1160100</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>2089100</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1598500</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4956000</v>
+        <v>4761900</v>
       </c>
       <c r="E59" s="3">
-        <v>5091400</v>
+        <v>4798500</v>
       </c>
       <c r="F59" s="3">
-        <v>5743700</v>
+        <v>4929600</v>
       </c>
       <c r="G59" s="3">
-        <v>5154700</v>
+        <v>5561100</v>
       </c>
       <c r="H59" s="3">
-        <v>5409300</v>
+        <v>4990900</v>
       </c>
       <c r="I59" s="3">
-        <v>5202600</v>
+        <v>5237400</v>
       </c>
       <c r="J59" s="3">
+        <v>5037200</v>
+      </c>
+      <c r="K59" s="3">
         <v>6096400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5430800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5602200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>5604600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>6777800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>6198400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>5931800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>5503600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>5842700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>5204500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>6069800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>6141100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>6062600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>5314400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>5197200</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>10117400</v>
+        <v>9877200</v>
       </c>
       <c r="E60" s="3">
-        <v>9844300</v>
+        <v>9795900</v>
       </c>
       <c r="F60" s="3">
-        <v>11360500</v>
+        <v>9531400</v>
       </c>
       <c r="G60" s="3">
-        <v>10772000</v>
+        <v>10999400</v>
       </c>
       <c r="H60" s="3">
-        <v>10910800</v>
+        <v>10429700</v>
       </c>
       <c r="I60" s="3">
-        <v>10809600</v>
+        <v>10564000</v>
       </c>
       <c r="J60" s="3">
+        <v>10466000</v>
+      </c>
+      <c r="K60" s="3">
         <v>12031000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>12022300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>11980300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>11091700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>13116800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>12108900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>12197300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>11886800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>11956700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>11584400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>12270600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>12249300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>12701800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>12682100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>11529200</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1205300</v>
+        <v>1145900</v>
       </c>
       <c r="E61" s="3">
-        <v>1429700</v>
+        <v>1167000</v>
       </c>
       <c r="F61" s="3">
-        <v>1251500</v>
+        <v>1384300</v>
       </c>
       <c r="G61" s="3">
-        <v>1274200</v>
+        <v>1211700</v>
       </c>
       <c r="H61" s="3">
-        <v>1354500</v>
+        <v>1233700</v>
       </c>
       <c r="I61" s="3">
-        <v>1494100</v>
+        <v>1311400</v>
       </c>
       <c r="J61" s="3">
+        <v>1446600</v>
+      </c>
+      <c r="K61" s="3">
         <v>1815900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2113600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2349700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2693000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1781100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2114900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2085900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2071600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2409200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2514000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2845600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2850300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>3142700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>3330600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>3416600</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1634800</v>
+        <v>1543100</v>
       </c>
       <c r="E62" s="3">
-        <v>1714200</v>
+        <v>1582800</v>
       </c>
       <c r="F62" s="3">
-        <v>1865500</v>
+        <v>1659700</v>
       </c>
       <c r="G62" s="3">
-        <v>2042400</v>
+        <v>1806200</v>
       </c>
       <c r="H62" s="3">
-        <v>2128400</v>
+        <v>1977500</v>
       </c>
       <c r="I62" s="3">
-        <v>2158100</v>
+        <v>2060700</v>
       </c>
       <c r="J62" s="3">
+        <v>2089500</v>
+      </c>
+      <c r="K62" s="3">
         <v>2354800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2252000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2448600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2622000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2892300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2815900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2349600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2433100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2960400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2738600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>3007700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>3186800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>3423800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>3635400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>4100300</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4431,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>13919100</v>
+        <v>13563200</v>
       </c>
       <c r="E66" s="3">
-        <v>13876000</v>
+        <v>13476700</v>
       </c>
       <c r="F66" s="3">
-        <v>15330000</v>
+        <v>13434900</v>
       </c>
       <c r="G66" s="3">
-        <v>14890600</v>
+        <v>14842800</v>
       </c>
       <c r="H66" s="3">
-        <v>15169500</v>
+        <v>14417300</v>
       </c>
       <c r="I66" s="3">
-        <v>15419300</v>
+        <v>14687400</v>
       </c>
       <c r="J66" s="3">
+        <v>14929300</v>
+      </c>
+      <c r="K66" s="3">
         <v>17148600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>17363200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>17853700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>17483400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>18958500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>18179000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>17756300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>17466900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>18384900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>17967300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>19395400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>19535600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>20491500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>20859700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>20204800</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>8421800</v>
+        <v>8731100</v>
       </c>
       <c r="E72" s="3">
-        <v>8165000</v>
+        <v>8154100</v>
       </c>
       <c r="F72" s="3">
-        <v>8009500</v>
+        <v>7905500</v>
       </c>
       <c r="G72" s="3">
-        <v>7010300</v>
+        <v>7755000</v>
       </c>
       <c r="H72" s="3">
-        <v>6515300</v>
+        <v>6787500</v>
       </c>
       <c r="I72" s="3">
-        <v>6347500</v>
+        <v>6308200</v>
       </c>
       <c r="J72" s="3">
+        <v>6145800</v>
+      </c>
+      <c r="K72" s="3">
         <v>6483500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>5905600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>5726800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>5205100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>5543600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>4808000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>5381100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>5046900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>4337200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>3458200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>3040200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2400300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>2358500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1640600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1192500</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>12970700</v>
+        <v>13012900</v>
       </c>
       <c r="E76" s="3">
-        <v>12852200</v>
+        <v>12558500</v>
       </c>
       <c r="F76" s="3">
-        <v>12775700</v>
+        <v>12443700</v>
       </c>
       <c r="G76" s="3">
-        <v>11808600</v>
+        <v>12369700</v>
       </c>
       <c r="H76" s="3">
-        <v>11167900</v>
+        <v>11433300</v>
       </c>
       <c r="I76" s="3">
-        <v>10879200</v>
+        <v>10813000</v>
       </c>
       <c r="J76" s="3">
+        <v>10533400</v>
+      </c>
+      <c r="K76" s="3">
         <v>10932800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>11013600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>10753200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>10252800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>10879000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>10067100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>10840600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>10316700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>9833700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>8993900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>8506700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>7958000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>7817100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>7181100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>6437700</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>253500</v>
+        <v>608600</v>
       </c>
       <c r="E81" s="3">
-        <v>212900</v>
+        <v>245400</v>
       </c>
       <c r="F81" s="3">
-        <v>777900</v>
+        <v>206100</v>
       </c>
       <c r="G81" s="3">
-        <v>592600</v>
+        <v>753200</v>
       </c>
       <c r="H81" s="3">
-        <v>255100</v>
+        <v>573800</v>
       </c>
       <c r="I81" s="3">
-        <v>160100</v>
+        <v>247000</v>
       </c>
       <c r="J81" s="3">
+        <v>155000</v>
+      </c>
+      <c r="K81" s="3">
         <v>529800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>330200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>519800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>65000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>510300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-280100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>77800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>661400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1029700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>108100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>373600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>19400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>499000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>180700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>229900</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,76 +5415,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>399100</v>
+        <v>382900</v>
       </c>
       <c r="E83" s="3">
-        <v>390200</v>
+        <v>386400</v>
       </c>
       <c r="F83" s="3">
-        <v>444900</v>
+        <v>377800</v>
       </c>
       <c r="G83" s="3">
-        <v>381300</v>
+        <v>430700</v>
       </c>
       <c r="H83" s="3">
-        <v>363500</v>
+        <v>369200</v>
       </c>
       <c r="I83" s="3">
-        <v>359400</v>
+        <v>352000</v>
       </c>
       <c r="J83" s="3">
+        <v>347900</v>
+      </c>
+      <c r="K83" s="3">
         <v>479800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>467500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>486900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>506400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>399000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>397400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>353700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>331100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>406300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>374200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>382800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>371200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>510100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>394600</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>391500</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5839,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-176300</v>
+        <v>191400</v>
       </c>
       <c r="E89" s="3">
-        <v>1691700</v>
+        <v>-170700</v>
       </c>
       <c r="F89" s="3">
-        <v>956000</v>
+        <v>1637900</v>
       </c>
       <c r="G89" s="3">
-        <v>374100</v>
+        <v>925700</v>
       </c>
       <c r="H89" s="3">
-        <v>71000</v>
+        <v>362200</v>
       </c>
       <c r="I89" s="3">
-        <v>1311800</v>
+        <v>68800</v>
       </c>
       <c r="J89" s="3">
+        <v>1270100</v>
+      </c>
+      <c r="K89" s="3">
         <v>1149600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>925100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-10600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1066000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>798500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-282800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-542300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>951300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1170800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>146100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-243400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>738300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1384900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>462200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-176900</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,76 +5939,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-317300</v>
+        <v>-327200</v>
       </c>
       <c r="E91" s="3">
-        <v>-284300</v>
+        <v>-307200</v>
       </c>
       <c r="F91" s="3">
-        <v>-323200</v>
+        <v>-275300</v>
       </c>
       <c r="G91" s="3">
-        <v>-300700</v>
+        <v>-312900</v>
       </c>
       <c r="H91" s="3">
-        <v>-279500</v>
+        <v>-291200</v>
       </c>
       <c r="I91" s="3">
-        <v>-231000</v>
+        <v>-270600</v>
       </c>
       <c r="J91" s="3">
+        <v>-223700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-299500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-339000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-327900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-238900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-277100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-280100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-308100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-263300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-328500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-278400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-345300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-268200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>796000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-743100</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-1114100</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6150,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-342900</v>
+        <v>-145800</v>
       </c>
       <c r="E94" s="3">
-        <v>-255700</v>
+        <v>-332000</v>
       </c>
       <c r="F94" s="3">
-        <v>-266900</v>
+        <v>-247600</v>
       </c>
       <c r="G94" s="3">
-        <v>25900</v>
+        <v>-258500</v>
       </c>
       <c r="H94" s="3">
-        <v>-301200</v>
+        <v>25000</v>
       </c>
       <c r="I94" s="3">
-        <v>-88200</v>
+        <v>-291600</v>
       </c>
       <c r="J94" s="3">
+        <v>-85400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-613900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>30500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-341100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-98500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-124800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>151500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-165200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>171400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>135400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-19800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-35900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-283900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-128400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-312300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-509000</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,76 +6250,80 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-185800</v>
       </c>
       <c r="E96" s="3">
-        <v>-175300</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-169700</v>
       </c>
       <c r="G96" s="3">
-        <v>-176400</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-170800</v>
       </c>
       <c r="I96" s="3">
-        <v>-176400</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-170800</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-147700</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-148500</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-135100</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-112300</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-92700</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-92700</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-73400</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,208 +6532,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-354500</v>
+        <v>-477500</v>
       </c>
       <c r="E100" s="3">
-        <v>-607800</v>
+        <v>-343200</v>
       </c>
       <c r="F100" s="3">
-        <v>-640800</v>
+        <v>-588500</v>
       </c>
       <c r="G100" s="3">
-        <v>-628200</v>
+        <v>-620400</v>
       </c>
       <c r="H100" s="3">
-        <v>-456000</v>
+        <v>-608200</v>
       </c>
       <c r="I100" s="3">
-        <v>-210000</v>
+        <v>-441500</v>
       </c>
       <c r="J100" s="3">
+        <v>-203300</v>
+      </c>
+      <c r="K100" s="3">
         <v>-966600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-224700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-31000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-507600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-328900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-456900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-98000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-394900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-724300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-355700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-24600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>87700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-1222900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>222400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-114400</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-10000</v>
+        <v>17900</v>
       </c>
       <c r="E101" s="3">
-        <v>5900</v>
+        <v>-9700</v>
       </c>
       <c r="F101" s="3">
-        <v>64800</v>
+        <v>5700</v>
       </c>
       <c r="G101" s="3">
-        <v>15600</v>
+        <v>62700</v>
       </c>
       <c r="H101" s="3">
-        <v>11700</v>
+        <v>15100</v>
       </c>
       <c r="I101" s="3">
-        <v>14000</v>
+        <v>11400</v>
       </c>
       <c r="J101" s="3">
+        <v>13500</v>
+      </c>
+      <c r="K101" s="3">
         <v>-28400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>8600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-8100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-4000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-25900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-29900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>15200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>12400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-5500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>12600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>15900</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>7400</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-6500</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>98700</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-16300</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-883800</v>
+        <v>-414000</v>
       </c>
       <c r="E102" s="3">
-        <v>834100</v>
+        <v>-855700</v>
       </c>
       <c r="F102" s="3">
-        <v>113000</v>
+        <v>807600</v>
       </c>
       <c r="G102" s="3">
-        <v>-212600</v>
+        <v>109500</v>
       </c>
       <c r="H102" s="3">
-        <v>-674400</v>
+        <v>-205900</v>
       </c>
       <c r="I102" s="3">
-        <v>1027700</v>
+        <v>-653000</v>
       </c>
       <c r="J102" s="3">
+        <v>995000</v>
+      </c>
+      <c r="K102" s="3">
         <v>-459200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>739400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-390800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>455900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>318800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-618100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-790300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>740200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>576400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-216800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-288000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>549500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>27100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>471000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-816700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FJTSY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FJTSY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
   <si>
     <t>FJTSY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,320 +665,333 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7510900</v>
+        <v>8127300</v>
       </c>
       <c r="E8" s="3">
-        <v>7344600</v>
+        <v>6859300</v>
       </c>
       <c r="F8" s="3">
-        <v>6840900</v>
+        <v>6707400</v>
       </c>
       <c r="G8" s="3">
-        <v>9071700</v>
+        <v>6247400</v>
       </c>
       <c r="H8" s="3">
-        <v>7628900</v>
+        <v>8284700</v>
       </c>
       <c r="I8" s="3">
-        <v>7071700</v>
+        <v>6967100</v>
       </c>
       <c r="J8" s="3">
+        <v>6458300</v>
+      </c>
+      <c r="K8" s="3">
         <v>6847800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>9741800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>8410900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>9098300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>7682800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>10960900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>9225900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>8982400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>7887000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>10594900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>9068300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>9045400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>8340600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>10682100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>9054700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>8940200</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5244000</v>
+        <v>5404200</v>
       </c>
       <c r="E9" s="3">
-        <v>5149500</v>
+        <v>4789100</v>
       </c>
       <c r="F9" s="3">
-        <v>4742500</v>
+        <v>4702800</v>
       </c>
       <c r="G9" s="3">
-        <v>6176600</v>
+        <v>4331100</v>
       </c>
       <c r="H9" s="3">
-        <v>5341900</v>
+        <v>5640800</v>
       </c>
       <c r="I9" s="3">
-        <v>4948900</v>
+        <v>4878400</v>
       </c>
       <c r="J9" s="3">
+        <v>4519500</v>
+      </c>
+      <c r="K9" s="3">
         <v>4938300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>6820000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>5987600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>6467400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>5618400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>7652900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>6814100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>6619700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>5900700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>7434500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>6706300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>6565400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>6111700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>7514400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>6501100</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>6406200</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2266800</v>
+        <v>2723100</v>
       </c>
       <c r="E10" s="3">
-        <v>2195100</v>
+        <v>2070200</v>
       </c>
       <c r="F10" s="3">
-        <v>2098400</v>
+        <v>2004600</v>
       </c>
       <c r="G10" s="3">
-        <v>2895000</v>
+        <v>1916300</v>
       </c>
       <c r="H10" s="3">
-        <v>2287100</v>
+        <v>2643900</v>
       </c>
       <c r="I10" s="3">
-        <v>2122900</v>
+        <v>2088600</v>
       </c>
       <c r="J10" s="3">
+        <v>1938700</v>
+      </c>
+      <c r="K10" s="3">
         <v>1909500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2921800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2423400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2630900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2064500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3308000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2411800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2362700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1986300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>3160500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2362000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2480000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2228900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>3167600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>2553600</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>2534000</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,8 +1017,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1075,8 +1089,11 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,8 +1163,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1184,14 +1204,14 @@
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P14" s="3">
         <v>710200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>411800</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>8</v>
@@ -1217,8 +1237,11 @@
       <c r="Y14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1288,8 +1311,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,150 +1338,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6954900</v>
+        <v>7562300</v>
       </c>
       <c r="E17" s="3">
-        <v>6937300</v>
+        <v>6351500</v>
       </c>
       <c r="F17" s="3">
-        <v>6553100</v>
+        <v>6335500</v>
       </c>
       <c r="G17" s="3">
-        <v>8128400</v>
+        <v>5984600</v>
       </c>
       <c r="H17" s="3">
-        <v>6831400</v>
+        <v>7423200</v>
       </c>
       <c r="I17" s="3">
-        <v>6730800</v>
+        <v>6238800</v>
       </c>
       <c r="J17" s="3">
+        <v>6146800</v>
+      </c>
+      <c r="K17" s="3">
         <v>6657800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8948800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7951700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>8476400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7651800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>10348900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>9497100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>8836700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>7163500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>9293500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>8973100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>8837100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>8295900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>10123400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>8749800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>8640300</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>556000</v>
+        <v>565000</v>
       </c>
       <c r="E18" s="3">
-        <v>407300</v>
+        <v>507800</v>
       </c>
       <c r="F18" s="3">
-        <v>287800</v>
+        <v>371900</v>
       </c>
       <c r="G18" s="3">
-        <v>943300</v>
+        <v>262800</v>
       </c>
       <c r="H18" s="3">
-        <v>797500</v>
+        <v>861400</v>
       </c>
       <c r="I18" s="3">
-        <v>341000</v>
+        <v>728300</v>
       </c>
       <c r="J18" s="3">
+        <v>311400</v>
+      </c>
+      <c r="K18" s="3">
         <v>190000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>793000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>459300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>621900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>31000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>612000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-271200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>145700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>723500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1301400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>95200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>208400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>44800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>558700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>304900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>299900</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,363 +1514,379 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>37600</v>
+        <v>70400</v>
       </c>
       <c r="E20" s="3">
-        <v>24400</v>
+        <v>34300</v>
       </c>
       <c r="F20" s="3">
-        <v>55700</v>
+        <v>22300</v>
       </c>
       <c r="G20" s="3">
-        <v>152700</v>
+        <v>50900</v>
       </c>
       <c r="H20" s="3">
-        <v>28200</v>
+        <v>139400</v>
       </c>
       <c r="I20" s="3">
-        <v>24600</v>
+        <v>25700</v>
       </c>
       <c r="J20" s="3">
+        <v>22400</v>
+      </c>
+      <c r="K20" s="3">
         <v>38400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>44700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>40000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>72600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>35800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>72600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>35300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>49200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>165400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>244600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>32400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>271100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>30400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>27500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>46900</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>976400</v>
+        <v>1039700</v>
       </c>
       <c r="E21" s="3">
-        <v>818100</v>
+        <v>891700</v>
       </c>
       <c r="F21" s="3">
-        <v>721300</v>
+        <v>747100</v>
       </c>
       <c r="G21" s="3">
-        <v>1526700</v>
+        <v>658700</v>
       </c>
       <c r="H21" s="3">
-        <v>1194800</v>
+        <v>1394200</v>
       </c>
       <c r="I21" s="3">
-        <v>717600</v>
+        <v>1091200</v>
       </c>
       <c r="J21" s="3">
+        <v>655300</v>
+      </c>
+      <c r="K21" s="3">
         <v>576300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1317400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>966700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1181400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>573300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1083600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>161400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>548600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1220000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1952300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>501700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>862300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>446500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1096200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>746400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>721600</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>5800</v>
+      <c r="D22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E22" s="3">
-        <v>5900</v>
+        <v>5300</v>
       </c>
       <c r="F22" s="3">
+        <v>5400</v>
+      </c>
+      <c r="G22" s="3">
+        <v>5200</v>
+      </c>
+      <c r="H22" s="3">
+        <v>5500</v>
+      </c>
+      <c r="I22" s="3">
         <v>5700</v>
       </c>
-      <c r="G22" s="3">
-        <v>6000</v>
-      </c>
-      <c r="H22" s="3">
-        <v>6300</v>
-      </c>
-      <c r="I22" s="3">
-        <v>6700</v>
-      </c>
       <c r="J22" s="3">
+        <v>6100</v>
+      </c>
+      <c r="K22" s="3">
         <v>7000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>9800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>9200</v>
-      </c>
-      <c r="M22" s="3">
-        <v>9500</v>
       </c>
       <c r="N22" s="3">
         <v>9500</v>
       </c>
       <c r="O22" s="3">
+        <v>9500</v>
+      </c>
+      <c r="P22" s="3">
         <v>7800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>8100</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>7200</v>
       </c>
       <c r="R22" s="3">
         <v>7200</v>
       </c>
       <c r="S22" s="3">
+        <v>7200</v>
+      </c>
+      <c r="T22" s="3">
         <v>8400</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>9500</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>10000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>8300</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>10800</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>8600</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>587800</v>
+        <v>635400</v>
       </c>
       <c r="E23" s="3">
-        <v>425800</v>
+        <v>536800</v>
       </c>
       <c r="F23" s="3">
-        <v>337700</v>
+        <v>388900</v>
       </c>
       <c r="G23" s="3">
-        <v>1089900</v>
+        <v>308400</v>
       </c>
       <c r="H23" s="3">
-        <v>819400</v>
+        <v>995400</v>
       </c>
       <c r="I23" s="3">
-        <v>358800</v>
+        <v>748300</v>
       </c>
       <c r="J23" s="3">
+        <v>327700</v>
+      </c>
+      <c r="K23" s="3">
         <v>221400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>827900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>490000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>685000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>57400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>676800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-244100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>187800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>881700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1537600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>118000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>469500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>66900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>575400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>343200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>320900</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-96400</v>
+        <v>122100</v>
       </c>
       <c r="E24" s="3">
-        <v>105900</v>
+        <v>-88000</v>
       </c>
       <c r="F24" s="3">
-        <v>85800</v>
+        <v>96700</v>
       </c>
       <c r="G24" s="3">
-        <v>304300</v>
+        <v>78300</v>
       </c>
       <c r="H24" s="3">
-        <v>211900</v>
+        <v>277900</v>
       </c>
       <c r="I24" s="3">
-        <v>94000</v>
+        <v>193500</v>
       </c>
       <c r="J24" s="3">
+        <v>85900</v>
+      </c>
+      <c r="K24" s="3">
         <v>58000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>286700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>153400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>166900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>6400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>162000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>29600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>93200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>191300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>502900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>37600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>75200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>57500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>39300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>149900</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>79400</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +1956,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>684200</v>
+        <v>513300</v>
       </c>
       <c r="E26" s="3">
-        <v>319900</v>
+        <v>624800</v>
       </c>
       <c r="F26" s="3">
-        <v>252000</v>
+        <v>292200</v>
       </c>
       <c r="G26" s="3">
-        <v>785600</v>
+        <v>230100</v>
       </c>
       <c r="H26" s="3">
-        <v>607500</v>
+        <v>717500</v>
       </c>
       <c r="I26" s="3">
-        <v>264800</v>
+        <v>554800</v>
       </c>
       <c r="J26" s="3">
+        <v>241800</v>
+      </c>
+      <c r="K26" s="3">
         <v>163400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>541200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>336600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>518200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>51000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>514800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-273600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>94600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>690400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1034700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>80500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>394300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>9400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>536000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>193300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>241500</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>608600</v>
+        <v>455000</v>
       </c>
       <c r="E27" s="3">
-        <v>245400</v>
+        <v>555800</v>
       </c>
       <c r="F27" s="3">
-        <v>206100</v>
+        <v>224100</v>
       </c>
       <c r="G27" s="3">
-        <v>753200</v>
+        <v>188200</v>
       </c>
       <c r="H27" s="3">
-        <v>573800</v>
+        <v>687900</v>
       </c>
       <c r="I27" s="3">
-        <v>247000</v>
+        <v>524000</v>
       </c>
       <c r="J27" s="3">
+        <v>225500</v>
+      </c>
+      <c r="K27" s="3">
         <v>155000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>529800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>330200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>519800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>65000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>510300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-280100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>77800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>661400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1029700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>50100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>380700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-13200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>529200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>159500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>211300</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2155,8 +2216,8 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -2170,29 +2231,32 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
+      <c r="S29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
         <v>58000</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-7100</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>32600</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>-30200</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>21200</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>18600</v>
       </c>
     </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,150 +2400,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-37600</v>
+        <v>-70400</v>
       </c>
       <c r="E32" s="3">
-        <v>-24400</v>
+        <v>-34300</v>
       </c>
       <c r="F32" s="3">
-        <v>-55700</v>
+        <v>-22300</v>
       </c>
       <c r="G32" s="3">
-        <v>-152700</v>
+        <v>-50900</v>
       </c>
       <c r="H32" s="3">
-        <v>-28200</v>
+        <v>-139400</v>
       </c>
       <c r="I32" s="3">
-        <v>-24600</v>
+        <v>-25700</v>
       </c>
       <c r="J32" s="3">
+        <v>-22400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-38400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-44700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-40000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-72600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-35800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-72600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-35300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-49200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-165400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-244600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-32400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-271100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-30400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-27500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-46900</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-30200</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>608600</v>
+        <v>455000</v>
       </c>
       <c r="E33" s="3">
-        <v>245400</v>
+        <v>555800</v>
       </c>
       <c r="F33" s="3">
-        <v>206100</v>
+        <v>224100</v>
       </c>
       <c r="G33" s="3">
-        <v>753200</v>
+        <v>188200</v>
       </c>
       <c r="H33" s="3">
-        <v>573800</v>
+        <v>687900</v>
       </c>
       <c r="I33" s="3">
-        <v>247000</v>
+        <v>524000</v>
       </c>
       <c r="J33" s="3">
+        <v>225500</v>
+      </c>
+      <c r="K33" s="3">
         <v>155000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>529800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>330200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>519800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>65000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>510300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-280100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>77800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>661400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1029700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>108100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>373600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>19400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>499000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>180700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>229900</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2622,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>608600</v>
+        <v>455000</v>
       </c>
       <c r="E35" s="3">
-        <v>245400</v>
+        <v>555800</v>
       </c>
       <c r="F35" s="3">
-        <v>206100</v>
+        <v>224100</v>
       </c>
       <c r="G35" s="3">
-        <v>753200</v>
+        <v>188200</v>
       </c>
       <c r="H35" s="3">
-        <v>573800</v>
+        <v>687900</v>
       </c>
       <c r="I35" s="3">
-        <v>247000</v>
+        <v>524000</v>
       </c>
       <c r="J35" s="3">
+        <v>225500</v>
+      </c>
+      <c r="K35" s="3">
         <v>155000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>529800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>330200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>519800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>65000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>510300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-280100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>77800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>661400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1029700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>108100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>373600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>19400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>499000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>180700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>229900</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,79 +2833,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3647900</v>
+        <v>3770500</v>
       </c>
       <c r="E41" s="3">
-        <v>4059300</v>
+        <v>3331400</v>
       </c>
       <c r="F41" s="3">
-        <v>4917300</v>
+        <v>3707100</v>
       </c>
       <c r="G41" s="3">
-        <v>4110000</v>
+        <v>4490700</v>
       </c>
       <c r="H41" s="3">
-        <v>3987100</v>
+        <v>3753500</v>
       </c>
       <c r="I41" s="3">
-        <v>4188900</v>
+        <v>3641200</v>
       </c>
       <c r="J41" s="3">
+        <v>3825500</v>
+      </c>
+      <c r="K41" s="3">
         <v>4852800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3980900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4593600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3795500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4251000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4004300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3420000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4022600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4852800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4091100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3514500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>3640500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>3944200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>3376800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>3378700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>2907800</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2889,505 +2979,529 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5198500</v>
+        <v>8235300</v>
       </c>
       <c r="E43" s="3">
-        <v>5212700</v>
+        <v>4747500</v>
       </c>
       <c r="F43" s="3">
-        <v>4575500</v>
+        <v>4760500</v>
       </c>
       <c r="G43" s="3">
-        <v>8620800</v>
+        <v>4178500</v>
       </c>
       <c r="H43" s="3">
-        <v>5620100</v>
+        <v>7872900</v>
       </c>
       <c r="I43" s="3">
-        <v>5529200</v>
+        <v>5132500</v>
       </c>
       <c r="J43" s="3">
+        <v>5049500</v>
+      </c>
+      <c r="K43" s="3">
         <v>5239100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>9402300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>8281200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>8687800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>6009400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>10890900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>8897700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>8539000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>7949100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>9504100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>8140100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>8112800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>7229000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>9456200</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>8723500</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>8133900</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2871600</v>
+        <v>2413600</v>
       </c>
       <c r="E44" s="3">
-        <v>2543700</v>
+        <v>2622500</v>
       </c>
       <c r="F44" s="3">
-        <v>2335700</v>
+        <v>2323100</v>
       </c>
       <c r="G44" s="3">
-        <v>2021700</v>
+        <v>2133000</v>
       </c>
       <c r="H44" s="3">
-        <v>2390800</v>
+        <v>1846300</v>
       </c>
       <c r="I44" s="3">
-        <v>2262300</v>
+        <v>2183400</v>
       </c>
       <c r="J44" s="3">
+        <v>2066100</v>
+      </c>
+      <c r="K44" s="3">
         <v>2129500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2097400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3024800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2673300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2530200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2172300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2782400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2567900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2568900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2184100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>2619100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>2715300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>2696200</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>2600400</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>3205000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>2890300</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3264000</v>
+        <v>707500</v>
       </c>
       <c r="E45" s="3">
-        <v>2935600</v>
+        <v>2980900</v>
       </c>
       <c r="F45" s="3">
-        <v>2651500</v>
+        <v>2681000</v>
       </c>
       <c r="G45" s="3">
-        <v>1225000</v>
+        <v>2421500</v>
       </c>
       <c r="H45" s="3">
-        <v>3064100</v>
+        <v>1118700</v>
       </c>
       <c r="I45" s="3">
-        <v>2788000</v>
+        <v>2798300</v>
       </c>
       <c r="J45" s="3">
+        <v>2546200</v>
+      </c>
+      <c r="K45" s="3">
         <v>2477400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1180300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1108300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1754000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3237300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1761800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2739100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2608500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1638200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1101100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1572900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>2370700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>2509100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>908800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>924000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>838300</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>14982000</v>
+        <v>15126800</v>
       </c>
       <c r="E46" s="3">
-        <v>14751300</v>
+        <v>13682300</v>
       </c>
       <c r="F46" s="3">
-        <v>14479900</v>
+        <v>13471600</v>
       </c>
       <c r="G46" s="3">
-        <v>15977500</v>
+        <v>13223800</v>
       </c>
       <c r="H46" s="3">
-        <v>15062200</v>
+        <v>14591400</v>
       </c>
       <c r="I46" s="3">
-        <v>14768400</v>
+        <v>13755500</v>
       </c>
       <c r="J46" s="3">
+        <v>13487200</v>
+      </c>
+      <c r="K46" s="3">
         <v>14698800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>16660800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>17008000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>16910600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>16027800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>18829300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>17839300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>17738000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>17009000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>16880400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>15846500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>16839400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>16378500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>16342100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>16231300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>14770300</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2834800</v>
+        <v>2619200</v>
       </c>
       <c r="E47" s="3">
-        <v>2852500</v>
+        <v>2588900</v>
       </c>
       <c r="F47" s="3">
-        <v>2929200</v>
+        <v>2605000</v>
       </c>
       <c r="G47" s="3">
-        <v>2825900</v>
+        <v>2675100</v>
       </c>
       <c r="H47" s="3">
-        <v>2763100</v>
+        <v>2580700</v>
       </c>
       <c r="I47" s="3">
-        <v>2607800</v>
+        <v>2523400</v>
       </c>
       <c r="J47" s="3">
+        <v>2381600</v>
+      </c>
+      <c r="K47" s="3">
         <v>2525800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2488700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2723200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2673900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2637700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2859800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2699000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>3077600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>3008500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2818600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>2568300</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>2387000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>2600400</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>2588500</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>2502100</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>2282100</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4912800</v>
+        <v>4449400</v>
       </c>
       <c r="E48" s="3">
-        <v>4960400</v>
+        <v>4486600</v>
       </c>
       <c r="F48" s="3">
-        <v>5017900</v>
+        <v>4530100</v>
       </c>
       <c r="G48" s="3">
-        <v>4858600</v>
+        <v>4582600</v>
       </c>
       <c r="H48" s="3">
-        <v>4774600</v>
+        <v>4437100</v>
       </c>
       <c r="I48" s="3">
-        <v>4736800</v>
+        <v>4360400</v>
       </c>
       <c r="J48" s="3">
+        <v>4325900</v>
+      </c>
+      <c r="K48" s="3">
         <v>4793500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5023200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5304800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5438700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5457000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4219500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4201800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4224000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>4290200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>4751300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>4833700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>4984100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>4980900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>5292300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>5365800</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>5402900</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1458300</v>
+        <v>1412700</v>
       </c>
       <c r="E49" s="3">
-        <v>1428200</v>
+        <v>1331800</v>
       </c>
       <c r="F49" s="3">
-        <v>1396700</v>
+        <v>1304300</v>
       </c>
       <c r="G49" s="3">
-        <v>1379300</v>
+        <v>1275600</v>
       </c>
       <c r="H49" s="3">
-        <v>1345200</v>
+        <v>1259600</v>
       </c>
       <c r="I49" s="3">
-        <v>1301200</v>
+        <v>1228500</v>
       </c>
       <c r="J49" s="3">
+        <v>1188300</v>
+      </c>
+      <c r="K49" s="3">
         <v>1253900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1268000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1348400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1323100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1381900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1492000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1482000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1521000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1508100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1565500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1609100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1638400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1634800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1731500</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1773700</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>1761300</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,79 +3645,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2388200</v>
+        <v>2346600</v>
       </c>
       <c r="E52" s="3">
-        <v>2042800</v>
+        <v>2181000</v>
       </c>
       <c r="F52" s="3">
-        <v>2054900</v>
+        <v>1865600</v>
       </c>
       <c r="G52" s="3">
-        <v>2171200</v>
+        <v>1876600</v>
       </c>
       <c r="H52" s="3">
-        <v>1905600</v>
+        <v>1982800</v>
       </c>
       <c r="I52" s="3">
-        <v>2086100</v>
+        <v>1740300</v>
       </c>
       <c r="J52" s="3">
+        <v>1905100</v>
+      </c>
+      <c r="K52" s="3">
         <v>2190600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2640800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1992500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2260600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2231800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2436900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2024100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2036300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1967800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2202800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>2103500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>2053100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1898900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>2354200</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>2168000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>2425900</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,79 +3793,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>26576100</v>
+        <v>25954800</v>
       </c>
       <c r="E54" s="3">
-        <v>26035100</v>
+        <v>24270500</v>
       </c>
       <c r="F54" s="3">
-        <v>25878700</v>
+        <v>23776500</v>
       </c>
       <c r="G54" s="3">
-        <v>27212500</v>
+        <v>23633600</v>
       </c>
       <c r="H54" s="3">
-        <v>25850700</v>
+        <v>24851700</v>
       </c>
       <c r="I54" s="3">
-        <v>25500400</v>
+        <v>23608000</v>
       </c>
       <c r="J54" s="3">
+        <v>23288200</v>
+      </c>
+      <c r="K54" s="3">
         <v>25462700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>28081400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>28376800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>28606900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>27736200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>29837500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>28246100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>28596900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>27783500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>28218600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>26961200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>27902100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>27493600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>28308600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>28040900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>26642400</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,434 +3925,453 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3762600</v>
+        <v>3663100</v>
       </c>
       <c r="E57" s="3">
-        <v>3669900</v>
+        <v>3436200</v>
       </c>
       <c r="F57" s="3">
-        <v>3316100</v>
+        <v>3351500</v>
       </c>
       <c r="G57" s="3">
-        <v>3951800</v>
+        <v>3028500</v>
       </c>
       <c r="H57" s="3">
-        <v>3725300</v>
+        <v>3609000</v>
       </c>
       <c r="I57" s="3">
-        <v>3521000</v>
+        <v>3402100</v>
       </c>
       <c r="J57" s="3">
+        <v>3215500</v>
+      </c>
+      <c r="K57" s="3">
         <v>3384800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4177500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4421000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4504000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4041700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>5081200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4770900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>4895000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>4925800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>4890100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>4536100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>4442700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>4365700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>5479100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>5278500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>4733500</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1352700</v>
+        <v>1314700</v>
       </c>
       <c r="E58" s="3">
-        <v>1327500</v>
+        <v>1235300</v>
       </c>
       <c r="F58" s="3">
-        <v>1285700</v>
+        <v>1212300</v>
       </c>
       <c r="G58" s="3">
-        <v>1486500</v>
+        <v>1174100</v>
       </c>
       <c r="H58" s="3">
-        <v>1713500</v>
+        <v>1357500</v>
       </c>
       <c r="I58" s="3">
-        <v>1805600</v>
+        <v>1564800</v>
       </c>
       <c r="J58" s="3">
+        <v>1649000</v>
+      </c>
+      <c r="K58" s="3">
         <v>2044000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1757200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2170500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1874100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1445400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1257700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1139500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1370500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1457300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1223900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1843800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1758100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1742400</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1160100</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>2089100</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1598500</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4761900</v>
+        <v>5310700</v>
       </c>
       <c r="E59" s="3">
-        <v>4798500</v>
+        <v>4348800</v>
       </c>
       <c r="F59" s="3">
-        <v>4929600</v>
+        <v>4382200</v>
       </c>
       <c r="G59" s="3">
-        <v>5561100</v>
+        <v>4502000</v>
       </c>
       <c r="H59" s="3">
-        <v>4990900</v>
+        <v>5078700</v>
       </c>
       <c r="I59" s="3">
-        <v>5237400</v>
+        <v>4557900</v>
       </c>
       <c r="J59" s="3">
+        <v>4783000</v>
+      </c>
+      <c r="K59" s="3">
         <v>5037200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>6096400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5430800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>5602200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>5604600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>6777800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>6198400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>5931800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>5503600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>5842700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>5204500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>6069800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>6141100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>6062600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>5314400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>5197200</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9877200</v>
+        <v>10288500</v>
       </c>
       <c r="E60" s="3">
-        <v>9795900</v>
+        <v>9020300</v>
       </c>
       <c r="F60" s="3">
-        <v>9531400</v>
+        <v>8946100</v>
       </c>
       <c r="G60" s="3">
-        <v>10999400</v>
+        <v>8704500</v>
       </c>
       <c r="H60" s="3">
-        <v>10429700</v>
+        <v>10045200</v>
       </c>
       <c r="I60" s="3">
-        <v>10564000</v>
+        <v>9524900</v>
       </c>
       <c r="J60" s="3">
+        <v>9647500</v>
+      </c>
+      <c r="K60" s="3">
         <v>10466000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>12031000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>12022300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>11980300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>11091700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>13116800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>12108900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>12197300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>11886800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>11956700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>11584400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>12270600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>12249300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>12701800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>12682100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>11529200</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1145900</v>
+        <v>907900</v>
       </c>
       <c r="E61" s="3">
-        <v>1167000</v>
+        <v>1046500</v>
       </c>
       <c r="F61" s="3">
-        <v>1384300</v>
+        <v>1065700</v>
       </c>
       <c r="G61" s="3">
-        <v>1211700</v>
+        <v>1264200</v>
       </c>
       <c r="H61" s="3">
-        <v>1233700</v>
+        <v>1106600</v>
       </c>
       <c r="I61" s="3">
-        <v>1311400</v>
+        <v>1126700</v>
       </c>
       <c r="J61" s="3">
+        <v>1197700</v>
+      </c>
+      <c r="K61" s="3">
         <v>1446600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1815900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2113600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2349700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2693000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1781100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2114900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2085900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2071600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2409200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2514000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2845600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2850300</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>3142700</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>3330600</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>3416600</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1543100</v>
+        <v>1392600</v>
       </c>
       <c r="E62" s="3">
-        <v>1582800</v>
+        <v>1409200</v>
       </c>
       <c r="F62" s="3">
-        <v>1659700</v>
+        <v>1445500</v>
       </c>
       <c r="G62" s="3">
-        <v>1806200</v>
+        <v>1515700</v>
       </c>
       <c r="H62" s="3">
-        <v>1977500</v>
+        <v>1649500</v>
       </c>
       <c r="I62" s="3">
-        <v>2060700</v>
+        <v>1806000</v>
       </c>
       <c r="J62" s="3">
+        <v>1882000</v>
+      </c>
+      <c r="K62" s="3">
         <v>2089500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2354800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2252000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2448600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2622000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2892300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2815900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2349600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2433100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2960400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>2738600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>3007700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>3186800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>3423800</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>3635400</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>4100300</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4589,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>13563200</v>
+        <v>13563100</v>
       </c>
       <c r="E66" s="3">
-        <v>13476700</v>
+        <v>12386500</v>
       </c>
       <c r="F66" s="3">
-        <v>13434900</v>
+        <v>12307500</v>
       </c>
       <c r="G66" s="3">
-        <v>14842800</v>
+        <v>12269400</v>
       </c>
       <c r="H66" s="3">
-        <v>14417300</v>
+        <v>13555100</v>
       </c>
       <c r="I66" s="3">
-        <v>14687400</v>
+        <v>13166600</v>
       </c>
       <c r="J66" s="3">
+        <v>13413200</v>
+      </c>
+      <c r="K66" s="3">
         <v>14929300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>17148600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>17363200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>17853700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>17483400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>18958500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>18179000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>17756300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>17466900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>18384900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>17967300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>19395400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>19535600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>20491500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>20859700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>20204800</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +4987,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>8731100</v>
+        <v>8478900</v>
       </c>
       <c r="E72" s="3">
-        <v>8154100</v>
+        <v>7973700</v>
       </c>
       <c r="F72" s="3">
-        <v>7905500</v>
+        <v>7446700</v>
       </c>
       <c r="G72" s="3">
-        <v>7755000</v>
+        <v>7219700</v>
       </c>
       <c r="H72" s="3">
-        <v>6787500</v>
+        <v>7082200</v>
       </c>
       <c r="I72" s="3">
-        <v>6308200</v>
+        <v>6198600</v>
       </c>
       <c r="J72" s="3">
+        <v>5761000</v>
+      </c>
+      <c r="K72" s="3">
         <v>6145800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>6483500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>5905600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>5726800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>5205100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>5543600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>4808000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>5381100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>5046900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>4337200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>3458200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>3040200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>2400300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>2358500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1640600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>1192500</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5283,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>13012900</v>
+        <v>12391700</v>
       </c>
       <c r="E76" s="3">
-        <v>12558500</v>
+        <v>11884000</v>
       </c>
       <c r="F76" s="3">
-        <v>12443700</v>
+        <v>11469000</v>
       </c>
       <c r="G76" s="3">
-        <v>12369700</v>
+        <v>11364200</v>
       </c>
       <c r="H76" s="3">
-        <v>11433300</v>
+        <v>11296600</v>
       </c>
       <c r="I76" s="3">
-        <v>10813000</v>
+        <v>10441500</v>
       </c>
       <c r="J76" s="3">
+        <v>9874900</v>
+      </c>
+      <c r="K76" s="3">
         <v>10533400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>10932800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>11013600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>10753200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>10252800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>10879000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>10067100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>10840600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>10316700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>9833700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>8993900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>8506700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>7958000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>7817100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>7181100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>6437700</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5431,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>608600</v>
+        <v>455000</v>
       </c>
       <c r="E81" s="3">
-        <v>245400</v>
+        <v>555800</v>
       </c>
       <c r="F81" s="3">
-        <v>206100</v>
+        <v>224100</v>
       </c>
       <c r="G81" s="3">
-        <v>753200</v>
+        <v>188200</v>
       </c>
       <c r="H81" s="3">
-        <v>573800</v>
+        <v>687900</v>
       </c>
       <c r="I81" s="3">
-        <v>247000</v>
+        <v>524000</v>
       </c>
       <c r="J81" s="3">
+        <v>225500</v>
+      </c>
+      <c r="K81" s="3">
         <v>155000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>529800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>330200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>519800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>65000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>510300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-280100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>77800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>661400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1029700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>108100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>373600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>19400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>499000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>180700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>229900</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,79 +5614,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>382900</v>
+        <v>404300</v>
       </c>
       <c r="E83" s="3">
-        <v>386400</v>
+        <v>349600</v>
       </c>
       <c r="F83" s="3">
-        <v>377800</v>
+        <v>352900</v>
       </c>
       <c r="G83" s="3">
-        <v>430700</v>
+        <v>345100</v>
       </c>
       <c r="H83" s="3">
-        <v>369200</v>
+        <v>393400</v>
       </c>
       <c r="I83" s="3">
-        <v>352000</v>
+        <v>337100</v>
       </c>
       <c r="J83" s="3">
+        <v>321500</v>
+      </c>
+      <c r="K83" s="3">
         <v>347900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>479800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>467500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>486900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>506400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>399000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>397400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>353700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>331100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>406300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>374200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>382800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>371200</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>510100</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>394600</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>391500</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,79 +6056,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>191400</v>
+        <v>419900</v>
       </c>
       <c r="E89" s="3">
-        <v>-170700</v>
+        <v>174800</v>
       </c>
       <c r="F89" s="3">
-        <v>1637900</v>
+        <v>-155900</v>
       </c>
       <c r="G89" s="3">
-        <v>925700</v>
+        <v>1495800</v>
       </c>
       <c r="H89" s="3">
-        <v>362200</v>
+        <v>845400</v>
       </c>
       <c r="I89" s="3">
-        <v>68800</v>
+        <v>330800</v>
       </c>
       <c r="J89" s="3">
+        <v>62800</v>
+      </c>
+      <c r="K89" s="3">
         <v>1270100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1149600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>925100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-10600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1066000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>798500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-282800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-542300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>951300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1170800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>146100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-243400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>738300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1384900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>462200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-176900</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,79 +6160,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-327200</v>
+        <v>-285200</v>
       </c>
       <c r="E91" s="3">
-        <v>-307200</v>
+        <v>-298900</v>
       </c>
       <c r="F91" s="3">
-        <v>-275300</v>
+        <v>-280500</v>
       </c>
       <c r="G91" s="3">
-        <v>-312900</v>
+        <v>-251400</v>
       </c>
       <c r="H91" s="3">
-        <v>-291200</v>
+        <v>-285800</v>
       </c>
       <c r="I91" s="3">
-        <v>-270600</v>
+        <v>-265900</v>
       </c>
       <c r="J91" s="3">
+        <v>-247200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-223700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-299500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-339000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-327900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-238900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-277100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-280100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-308100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-263300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-328500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-278400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-345300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-268200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>796000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-743100</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-1114100</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,79 +6380,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-145800</v>
+        <v>200800</v>
       </c>
       <c r="E94" s="3">
-        <v>-332000</v>
+        <v>-133200</v>
       </c>
       <c r="F94" s="3">
-        <v>-247600</v>
+        <v>-303200</v>
       </c>
       <c r="G94" s="3">
-        <v>-258500</v>
+        <v>-226100</v>
       </c>
       <c r="H94" s="3">
-        <v>25000</v>
+        <v>-236000</v>
       </c>
       <c r="I94" s="3">
-        <v>-291600</v>
+        <v>22900</v>
       </c>
       <c r="J94" s="3">
+        <v>-266300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-85400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-613900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>30500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-341100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-98500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-124800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>151500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-165200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>171400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>135400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-19800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-35900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-283900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-128400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-312300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-509000</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,79 +6484,83 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-185800</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-169700</v>
       </c>
       <c r="F96" s="3">
-        <v>-169700</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-155000</v>
       </c>
       <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-156000</v>
+      </c>
+      <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-170800</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-170800</v>
-      </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-147700</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-148500</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-135100</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-112300</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-92700</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-92700</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
       <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-73400</v>
       </c>
-      <c r="Y96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,217 +6778,229 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-477500</v>
+        <v>-221800</v>
       </c>
       <c r="E100" s="3">
-        <v>-343200</v>
+        <v>-436100</v>
       </c>
       <c r="F100" s="3">
-        <v>-588500</v>
+        <v>-313500</v>
       </c>
       <c r="G100" s="3">
-        <v>-620400</v>
+        <v>-537500</v>
       </c>
       <c r="H100" s="3">
-        <v>-608200</v>
+        <v>-566600</v>
       </c>
       <c r="I100" s="3">
-        <v>-441500</v>
+        <v>-555500</v>
       </c>
       <c r="J100" s="3">
+        <v>-403200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-203300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-966600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-224700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-31000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-507600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-328900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-456900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-98000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-394900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-724300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-355700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-24600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>87700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-1222900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>222400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-114400</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>17900</v>
+        <v>40200</v>
       </c>
       <c r="E101" s="3">
-        <v>-9700</v>
+        <v>16400</v>
       </c>
       <c r="F101" s="3">
-        <v>5700</v>
+        <v>-8900</v>
       </c>
       <c r="G101" s="3">
-        <v>62700</v>
+        <v>5200</v>
       </c>
       <c r="H101" s="3">
-        <v>15100</v>
+        <v>57300</v>
       </c>
       <c r="I101" s="3">
-        <v>11400</v>
+        <v>13800</v>
       </c>
       <c r="J101" s="3">
+        <v>10400</v>
+      </c>
+      <c r="K101" s="3">
         <v>13500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-28400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>8600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-8100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-4000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-25900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-29900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>15200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>12400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-5500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>12600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>15900</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>7400</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-6500</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>98700</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-16300</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-414000</v>
+        <v>439100</v>
       </c>
       <c r="E102" s="3">
-        <v>-855700</v>
+        <v>-378100</v>
       </c>
       <c r="F102" s="3">
-        <v>807600</v>
+        <v>-781400</v>
       </c>
       <c r="G102" s="3">
-        <v>109500</v>
+        <v>737500</v>
       </c>
       <c r="H102" s="3">
-        <v>-205900</v>
+        <v>100000</v>
       </c>
       <c r="I102" s="3">
-        <v>-653000</v>
+        <v>-188000</v>
       </c>
       <c r="J102" s="3">
+        <v>-596300</v>
+      </c>
+      <c r="K102" s="3">
         <v>995000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-459200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>739400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-390800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>455900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>318800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-618100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-790300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>740200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>576400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-216800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-288000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>549500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>27100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>471000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-816700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FJTSY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FJTSY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
   <si>
     <t>FJTSY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,333 +665,346 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8127300</v>
+        <v>6002300</v>
       </c>
       <c r="E8" s="3">
-        <v>6859300</v>
+        <v>7647400</v>
       </c>
       <c r="F8" s="3">
-        <v>6707400</v>
+        <v>6454300</v>
       </c>
       <c r="G8" s="3">
-        <v>6247400</v>
+        <v>6311400</v>
       </c>
       <c r="H8" s="3">
-        <v>8284700</v>
+        <v>5878500</v>
       </c>
       <c r="I8" s="3">
-        <v>6967100</v>
+        <v>7795500</v>
       </c>
       <c r="J8" s="3">
+        <v>6555700</v>
+      </c>
+      <c r="K8" s="3">
         <v>6458300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6847800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>9741800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>8410900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>9098300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>7682800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>10960900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>9225900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>8982400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>7887000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>10594900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>9068300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>9045400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>8340600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>10682100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>9054700</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>8940200</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5404200</v>
+        <v>4256900</v>
       </c>
       <c r="E9" s="3">
-        <v>4789100</v>
+        <v>5085100</v>
       </c>
       <c r="F9" s="3">
-        <v>4702800</v>
+        <v>4506300</v>
       </c>
       <c r="G9" s="3">
-        <v>4331100</v>
+        <v>4425100</v>
       </c>
       <c r="H9" s="3">
-        <v>5640800</v>
+        <v>4075300</v>
       </c>
       <c r="I9" s="3">
-        <v>4878400</v>
+        <v>5307700</v>
       </c>
       <c r="J9" s="3">
+        <v>4590400</v>
+      </c>
+      <c r="K9" s="3">
         <v>4519500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4938300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>6820000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>5987600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>6467400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>5618400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>7652900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>6814100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>6619700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>5900700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>7434500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>6706300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>6565400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>6111700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>7514400</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>6501100</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>6406200</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2723100</v>
+        <v>1745400</v>
       </c>
       <c r="E10" s="3">
-        <v>2070200</v>
+        <v>2562300</v>
       </c>
       <c r="F10" s="3">
-        <v>2004600</v>
+        <v>1947900</v>
       </c>
       <c r="G10" s="3">
-        <v>1916300</v>
+        <v>1886300</v>
       </c>
       <c r="H10" s="3">
-        <v>2643900</v>
+        <v>1803200</v>
       </c>
       <c r="I10" s="3">
-        <v>2088600</v>
+        <v>2487800</v>
       </c>
       <c r="J10" s="3">
+        <v>1965300</v>
+      </c>
+      <c r="K10" s="3">
         <v>1938700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1909500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2921800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2423400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2630900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2064500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3308000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2411800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2362700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1986300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>3160500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2362000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2480000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>2228900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>3167600</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>2553600</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>2534000</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1018,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1092,8 +1106,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,31 +1183,34 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -1207,14 +1227,14 @@
       <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q14" s="3">
         <v>710200</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>411800</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>8</v>
@@ -1240,8 +1260,11 @@
       <c r="Z14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1314,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,156 +1365,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7562300</v>
+        <v>5814600</v>
       </c>
       <c r="E17" s="3">
-        <v>6351500</v>
+        <v>7115700</v>
       </c>
       <c r="F17" s="3">
-        <v>6335500</v>
+        <v>5976400</v>
       </c>
       <c r="G17" s="3">
-        <v>5984600</v>
+        <v>5961400</v>
       </c>
       <c r="H17" s="3">
-        <v>7423200</v>
+        <v>5631200</v>
       </c>
       <c r="I17" s="3">
-        <v>6238800</v>
+        <v>6984900</v>
       </c>
       <c r="J17" s="3">
+        <v>5870400</v>
+      </c>
+      <c r="K17" s="3">
         <v>6146800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6657800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8948800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7951700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>8476400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7651800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>10348900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>9497100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>8836700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>7163500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>9293500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>8973100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>8837100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>8295900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>10123400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>8749800</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>8640300</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>565000</v>
+        <v>187700</v>
       </c>
       <c r="E18" s="3">
-        <v>507800</v>
+        <v>531700</v>
       </c>
       <c r="F18" s="3">
-        <v>371900</v>
+        <v>477800</v>
       </c>
       <c r="G18" s="3">
-        <v>262800</v>
+        <v>350000</v>
       </c>
       <c r="H18" s="3">
-        <v>861400</v>
+        <v>247300</v>
       </c>
       <c r="I18" s="3">
-        <v>728300</v>
+        <v>810600</v>
       </c>
       <c r="J18" s="3">
+        <v>685300</v>
+      </c>
+      <c r="K18" s="3">
         <v>311400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>190000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>793000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>459300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>621900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>31000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>612000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-271200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>145700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>723500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1301400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>95200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>208400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>44800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>558700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>304900</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>299900</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,378 +1548,394 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>70400</v>
+        <v>99500</v>
       </c>
       <c r="E20" s="3">
-        <v>34300</v>
+        <v>72900</v>
       </c>
       <c r="F20" s="3">
-        <v>22300</v>
+        <v>32300</v>
       </c>
       <c r="G20" s="3">
-        <v>50900</v>
+        <v>21000</v>
       </c>
       <c r="H20" s="3">
-        <v>139400</v>
+        <v>47900</v>
       </c>
       <c r="I20" s="3">
-        <v>25700</v>
+        <v>131200</v>
       </c>
       <c r="J20" s="3">
+        <v>24200</v>
+      </c>
+      <c r="K20" s="3">
         <v>22400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>38400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>44700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>40000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>72600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>35800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>72600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>35300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>49200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>165400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>244600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>32400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>271100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>30400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>27500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>46900</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1039700</v>
+        <v>614700</v>
       </c>
       <c r="E21" s="3">
-        <v>891700</v>
+        <v>985000</v>
       </c>
       <c r="F21" s="3">
-        <v>747100</v>
+        <v>839100</v>
       </c>
       <c r="G21" s="3">
-        <v>658700</v>
+        <v>703000</v>
       </c>
       <c r="H21" s="3">
-        <v>1394200</v>
+        <v>619800</v>
       </c>
       <c r="I21" s="3">
-        <v>1091200</v>
+        <v>1311900</v>
       </c>
       <c r="J21" s="3">
+        <v>1026700</v>
+      </c>
+      <c r="K21" s="3">
         <v>655300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>576300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1317400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>966700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1181400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>573300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1083600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>161400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>548600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1220000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1952300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>501700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>862300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>446500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1096200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>746400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>721600</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>8</v>
+      <c r="D22" s="3">
+        <v>6200</v>
       </c>
       <c r="E22" s="3">
-        <v>5300</v>
+        <v>6700</v>
       </c>
       <c r="F22" s="3">
+        <v>5000</v>
+      </c>
+      <c r="G22" s="3">
+        <v>5000</v>
+      </c>
+      <c r="H22" s="3">
+        <v>4900</v>
+      </c>
+      <c r="I22" s="3">
+        <v>5200</v>
+      </c>
+      <c r="J22" s="3">
         <v>5400</v>
       </c>
-      <c r="G22" s="3">
-        <v>5200</v>
-      </c>
-      <c r="H22" s="3">
-        <v>5500</v>
-      </c>
-      <c r="I22" s="3">
-        <v>5700</v>
-      </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>6100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>7000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>9800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>9200</v>
-      </c>
-      <c r="N22" s="3">
-        <v>9500</v>
       </c>
       <c r="O22" s="3">
         <v>9500</v>
       </c>
       <c r="P22" s="3">
+        <v>9500</v>
+      </c>
+      <c r="Q22" s="3">
         <v>7800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>8100</v>
-      </c>
-      <c r="R22" s="3">
-        <v>7200</v>
       </c>
       <c r="S22" s="3">
         <v>7200</v>
       </c>
       <c r="T22" s="3">
+        <v>7200</v>
+      </c>
+      <c r="U22" s="3">
         <v>8400</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>9500</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>10000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>8300</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>10800</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>8600</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>635400</v>
+        <v>281000</v>
       </c>
       <c r="E23" s="3">
-        <v>536800</v>
+        <v>597900</v>
       </c>
       <c r="F23" s="3">
-        <v>388900</v>
+        <v>505100</v>
       </c>
       <c r="G23" s="3">
-        <v>308400</v>
+        <v>365900</v>
       </c>
       <c r="H23" s="3">
-        <v>995400</v>
+        <v>290200</v>
       </c>
       <c r="I23" s="3">
-        <v>748300</v>
+        <v>936600</v>
       </c>
       <c r="J23" s="3">
+        <v>704100</v>
+      </c>
+      <c r="K23" s="3">
         <v>327700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>221400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>827900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>490000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>685000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>57400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>676800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-244100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>187800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>881700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1537600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>118000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>469500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>66900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>575400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>343200</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>320900</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>122100</v>
+        <v>80700</v>
       </c>
       <c r="E24" s="3">
-        <v>-88000</v>
+        <v>114900</v>
       </c>
       <c r="F24" s="3">
-        <v>96700</v>
+        <v>-82800</v>
       </c>
       <c r="G24" s="3">
-        <v>78300</v>
+        <v>91000</v>
       </c>
       <c r="H24" s="3">
-        <v>277900</v>
+        <v>73700</v>
       </c>
       <c r="I24" s="3">
-        <v>193500</v>
+        <v>261500</v>
       </c>
       <c r="J24" s="3">
+        <v>182100</v>
+      </c>
+      <c r="K24" s="3">
         <v>85900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>58000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>286700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>153400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>166900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>6400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>162000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>29600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>93200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>191300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>502900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>37600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>75200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>57500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>39300</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>149900</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>79400</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>513300</v>
+        <v>200400</v>
       </c>
       <c r="E26" s="3">
-        <v>624800</v>
+        <v>482900</v>
       </c>
       <c r="F26" s="3">
-        <v>292200</v>
+        <v>587900</v>
       </c>
       <c r="G26" s="3">
-        <v>230100</v>
+        <v>274900</v>
       </c>
       <c r="H26" s="3">
-        <v>717500</v>
+        <v>216500</v>
       </c>
       <c r="I26" s="3">
-        <v>554800</v>
+        <v>675100</v>
       </c>
       <c r="J26" s="3">
+        <v>522100</v>
+      </c>
+      <c r="K26" s="3">
         <v>241800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>163400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>541200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>336600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>518200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>51000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>514800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-273600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>94600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>690400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1034700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>80500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>394300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>9400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>536000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>193300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>241500</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>455000</v>
+        <v>126700</v>
       </c>
       <c r="E27" s="3">
-        <v>555800</v>
+        <v>428100</v>
       </c>
       <c r="F27" s="3">
-        <v>224100</v>
+        <v>523000</v>
       </c>
       <c r="G27" s="3">
-        <v>188200</v>
+        <v>210900</v>
       </c>
       <c r="H27" s="3">
-        <v>687900</v>
+        <v>177100</v>
       </c>
       <c r="I27" s="3">
-        <v>524000</v>
+        <v>647300</v>
       </c>
       <c r="J27" s="3">
+        <v>493100</v>
+      </c>
+      <c r="K27" s="3">
         <v>225500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>155000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>529800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>330200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>519800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>65000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>510300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-280100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>77800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>661400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1029700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>50100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>380700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-13200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>529200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>159500</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>211300</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2219,8 +2280,8 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -2234,29 +2295,32 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
+      <c r="T29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
         <v>58000</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-7100</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>32600</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>-30200</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>21200</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>18600</v>
       </c>
     </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,156 +2470,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-70400</v>
+        <v>-99500</v>
       </c>
       <c r="E32" s="3">
-        <v>-34300</v>
+        <v>-72900</v>
       </c>
       <c r="F32" s="3">
-        <v>-22300</v>
+        <v>-32300</v>
       </c>
       <c r="G32" s="3">
-        <v>-50900</v>
+        <v>-21000</v>
       </c>
       <c r="H32" s="3">
-        <v>-139400</v>
+        <v>-47900</v>
       </c>
       <c r="I32" s="3">
-        <v>-25700</v>
+        <v>-131200</v>
       </c>
       <c r="J32" s="3">
+        <v>-24200</v>
+      </c>
+      <c r="K32" s="3">
         <v>-22400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-38400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-44700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-40000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-72600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-35800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-72600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-35300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-49200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-165400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-244600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-32400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-271100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-30400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-27500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-46900</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-30200</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>455000</v>
+        <v>126700</v>
       </c>
       <c r="E33" s="3">
-        <v>555800</v>
+        <v>428100</v>
       </c>
       <c r="F33" s="3">
-        <v>224100</v>
+        <v>523000</v>
       </c>
       <c r="G33" s="3">
-        <v>188200</v>
+        <v>210900</v>
       </c>
       <c r="H33" s="3">
-        <v>687900</v>
+        <v>177100</v>
       </c>
       <c r="I33" s="3">
-        <v>524000</v>
+        <v>647300</v>
       </c>
       <c r="J33" s="3">
+        <v>493100</v>
+      </c>
+      <c r="K33" s="3">
         <v>225500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>155000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>529800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>330200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>519800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>65000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>510300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-280100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>77800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>661400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1029700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>108100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>373600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>19400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>499000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>180700</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>229900</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>455000</v>
+        <v>126700</v>
       </c>
       <c r="E35" s="3">
-        <v>555800</v>
+        <v>428100</v>
       </c>
       <c r="F35" s="3">
-        <v>224100</v>
+        <v>523000</v>
       </c>
       <c r="G35" s="3">
-        <v>188200</v>
+        <v>210900</v>
       </c>
       <c r="H35" s="3">
-        <v>687900</v>
+        <v>177100</v>
       </c>
       <c r="I35" s="3">
-        <v>524000</v>
+        <v>647300</v>
       </c>
       <c r="J35" s="3">
+        <v>493100</v>
+      </c>
+      <c r="K35" s="3">
         <v>225500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>155000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>529800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>330200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>519800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>65000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>510300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-280100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>77800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>661400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1029700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>108100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>373600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>19400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>499000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>180700</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>229900</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,82 +2920,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3770500</v>
+        <v>3465200</v>
       </c>
       <c r="E41" s="3">
-        <v>3331400</v>
+        <v>3547900</v>
       </c>
       <c r="F41" s="3">
-        <v>3707100</v>
+        <v>3134700</v>
       </c>
       <c r="G41" s="3">
-        <v>4490700</v>
+        <v>3488200</v>
       </c>
       <c r="H41" s="3">
-        <v>3753500</v>
+        <v>4225500</v>
       </c>
       <c r="I41" s="3">
-        <v>3641200</v>
+        <v>3531800</v>
       </c>
       <c r="J41" s="3">
+        <v>3426200</v>
+      </c>
+      <c r="K41" s="3">
         <v>3825500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4852800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3980900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4593600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3795500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4251000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4004300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3420000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4022600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4852800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4091100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>3514500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>3640500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>3944200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>3376800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>3378700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>2907800</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2982,526 +3072,550 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>8235300</v>
+        <v>5634800</v>
       </c>
       <c r="E43" s="3">
-        <v>4747500</v>
+        <v>7749000</v>
       </c>
       <c r="F43" s="3">
-        <v>4760500</v>
+        <v>4467200</v>
       </c>
       <c r="G43" s="3">
-        <v>4178500</v>
+        <v>4479400</v>
       </c>
       <c r="H43" s="3">
-        <v>7872900</v>
+        <v>3931800</v>
       </c>
       <c r="I43" s="3">
-        <v>5132500</v>
+        <v>7408000</v>
       </c>
       <c r="J43" s="3">
+        <v>4829500</v>
+      </c>
+      <c r="K43" s="3">
         <v>5049500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5239100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>9402300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>8281200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>8687800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>6009400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>10890900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>8897700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>8539000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>7949100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>9504100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>8140100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>8112800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>7229000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>9456200</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>8723500</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>8133900</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2413600</v>
+        <v>2628700</v>
       </c>
       <c r="E44" s="3">
-        <v>2622500</v>
+        <v>2271000</v>
       </c>
       <c r="F44" s="3">
-        <v>2323100</v>
+        <v>2467600</v>
       </c>
       <c r="G44" s="3">
-        <v>2133000</v>
+        <v>2185900</v>
       </c>
       <c r="H44" s="3">
-        <v>1846300</v>
+        <v>2007100</v>
       </c>
       <c r="I44" s="3">
-        <v>2183400</v>
+        <v>1737300</v>
       </c>
       <c r="J44" s="3">
+        <v>2054500</v>
+      </c>
+      <c r="K44" s="3">
         <v>2066100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2129500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2097400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3024800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2673300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2530200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2172300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2782400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2567900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2568900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>2184100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>2619100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>2715300</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>2696200</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>2600400</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>3205000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>2890300</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>707500</v>
+        <v>1425300</v>
       </c>
       <c r="E45" s="3">
-        <v>2980900</v>
+        <v>665700</v>
       </c>
       <c r="F45" s="3">
-        <v>2681000</v>
+        <v>2804800</v>
       </c>
       <c r="G45" s="3">
-        <v>2421500</v>
+        <v>2522600</v>
       </c>
       <c r="H45" s="3">
-        <v>1118700</v>
+        <v>2278500</v>
       </c>
       <c r="I45" s="3">
-        <v>2798300</v>
+        <v>1052600</v>
       </c>
       <c r="J45" s="3">
+        <v>2633100</v>
+      </c>
+      <c r="K45" s="3">
         <v>2546200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2477400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1180300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1108300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1754000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3237300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1761800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2739100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2608500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1638200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1101100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1572900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>2370700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>2509100</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>908800</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>924000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>838300</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>15126800</v>
+        <v>13154000</v>
       </c>
       <c r="E46" s="3">
-        <v>13682300</v>
+        <v>14233600</v>
       </c>
       <c r="F46" s="3">
-        <v>13471600</v>
+        <v>12874300</v>
       </c>
       <c r="G46" s="3">
-        <v>13223800</v>
+        <v>12676100</v>
       </c>
       <c r="H46" s="3">
-        <v>14591400</v>
+        <v>12442900</v>
       </c>
       <c r="I46" s="3">
-        <v>13755500</v>
+        <v>13729800</v>
       </c>
       <c r="J46" s="3">
+        <v>12943200</v>
+      </c>
+      <c r="K46" s="3">
         <v>13487200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>14698800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>16660800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>17008000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>16910600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>16027800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>18829300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>17839300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>17738000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>17009000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>16880400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>15846500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>16839400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>16378500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>16342100</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>16231300</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>14770300</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2619200</v>
+        <v>2608800</v>
       </c>
       <c r="E47" s="3">
-        <v>2588900</v>
+        <v>2464600</v>
       </c>
       <c r="F47" s="3">
-        <v>2605000</v>
+        <v>2436000</v>
       </c>
       <c r="G47" s="3">
-        <v>2675100</v>
+        <v>2451200</v>
       </c>
       <c r="H47" s="3">
-        <v>2580700</v>
+        <v>2517100</v>
       </c>
       <c r="I47" s="3">
-        <v>2523400</v>
+        <v>2428300</v>
       </c>
       <c r="J47" s="3">
+        <v>2374400</v>
+      </c>
+      <c r="K47" s="3">
         <v>2381600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2525800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2488700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2723200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2673900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2637700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2859800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2699000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>3077600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>3008500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>2818600</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>2568300</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>2387000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>2600400</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>2588500</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>2502100</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>2282100</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4449400</v>
+        <v>4184500</v>
       </c>
       <c r="E48" s="3">
-        <v>4486600</v>
+        <v>4186700</v>
       </c>
       <c r="F48" s="3">
-        <v>4530100</v>
+        <v>4221600</v>
       </c>
       <c r="G48" s="3">
-        <v>4582600</v>
+        <v>4262600</v>
       </c>
       <c r="H48" s="3">
-        <v>4437100</v>
+        <v>4312000</v>
       </c>
       <c r="I48" s="3">
-        <v>4360400</v>
+        <v>4175100</v>
       </c>
       <c r="J48" s="3">
+        <v>4102900</v>
+      </c>
+      <c r="K48" s="3">
         <v>4325900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4793500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5023200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5304800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5438700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5457000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4219500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4201800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>4224000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>4290200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>4751300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>4833700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>4984100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>4980900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>5292300</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>5365800</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>5402900</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1412700</v>
+        <v>1343700</v>
       </c>
       <c r="E49" s="3">
-        <v>1331800</v>
+        <v>1329200</v>
       </c>
       <c r="F49" s="3">
-        <v>1304300</v>
+        <v>1253200</v>
       </c>
       <c r="G49" s="3">
-        <v>1275600</v>
+        <v>1227200</v>
       </c>
       <c r="H49" s="3">
-        <v>1259600</v>
+        <v>1200300</v>
       </c>
       <c r="I49" s="3">
-        <v>1228500</v>
+        <v>1185200</v>
       </c>
       <c r="J49" s="3">
+        <v>1156000</v>
+      </c>
+      <c r="K49" s="3">
         <v>1188300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1253900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1268000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1348400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1323100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1381900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1492000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1482000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1521000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1508100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1565500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1609100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1638400</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1634800</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1731500</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>1773700</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>1761300</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,82 +3765,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2346600</v>
+        <v>2073200</v>
       </c>
       <c r="E52" s="3">
-        <v>2181000</v>
+        <v>2208100</v>
       </c>
       <c r="F52" s="3">
-        <v>1865600</v>
+        <v>2052200</v>
       </c>
       <c r="G52" s="3">
-        <v>1876600</v>
+        <v>1755400</v>
       </c>
       <c r="H52" s="3">
-        <v>1982800</v>
+        <v>1765800</v>
       </c>
       <c r="I52" s="3">
-        <v>1740300</v>
+        <v>1865700</v>
       </c>
       <c r="J52" s="3">
+        <v>1637500</v>
+      </c>
+      <c r="K52" s="3">
         <v>1905100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2190600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2640800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1992500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2260600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2231800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2436900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2024100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2036300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1967800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>2202800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>2103500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>2053100</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1898900</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>2354200</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>2168000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>2425900</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,82 +3919,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>25954800</v>
+        <v>23364200</v>
       </c>
       <c r="E54" s="3">
-        <v>24270500</v>
+        <v>24422200</v>
       </c>
       <c r="F54" s="3">
-        <v>23776500</v>
+        <v>22837300</v>
       </c>
       <c r="G54" s="3">
-        <v>23633600</v>
+        <v>22372500</v>
       </c>
       <c r="H54" s="3">
-        <v>24851700</v>
+        <v>22238100</v>
       </c>
       <c r="I54" s="3">
-        <v>23608000</v>
+        <v>23384200</v>
       </c>
       <c r="J54" s="3">
+        <v>22214000</v>
+      </c>
+      <c r="K54" s="3">
         <v>23288200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>25462700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>28081400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>28376800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>28606900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>27736200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>29837500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>28246100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>28596900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>27783500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>28218600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>26961200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>27902100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>27493600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>28308600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>28040900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>26642400</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,452 +4056,471 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3663100</v>
+        <v>3098800</v>
       </c>
       <c r="E57" s="3">
-        <v>3436200</v>
+        <v>3406900</v>
       </c>
       <c r="F57" s="3">
-        <v>3351500</v>
+        <v>3233200</v>
       </c>
       <c r="G57" s="3">
-        <v>3028500</v>
+        <v>3153600</v>
       </c>
       <c r="H57" s="3">
-        <v>3609000</v>
+        <v>2849600</v>
       </c>
       <c r="I57" s="3">
-        <v>3402100</v>
+        <v>3395900</v>
       </c>
       <c r="J57" s="3">
+        <v>3201200</v>
+      </c>
+      <c r="K57" s="3">
         <v>3215500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3384800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4177500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4421000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4504000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4041700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>5081200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>4770900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>4895000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>4925800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>4890100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>4536100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>4442700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>4365700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>5479100</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>5278500</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>4733500</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1314700</v>
+        <v>999700</v>
       </c>
       <c r="E58" s="3">
-        <v>1235300</v>
+        <v>1237100</v>
       </c>
       <c r="F58" s="3">
-        <v>1212300</v>
+        <v>1162400</v>
       </c>
       <c r="G58" s="3">
-        <v>1174100</v>
+        <v>1140700</v>
       </c>
       <c r="H58" s="3">
-        <v>1357500</v>
+        <v>1104800</v>
       </c>
       <c r="I58" s="3">
-        <v>1564800</v>
+        <v>1277400</v>
       </c>
       <c r="J58" s="3">
+        <v>1472400</v>
+      </c>
+      <c r="K58" s="3">
         <v>1649000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2044000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1757200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2170500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1874100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1445400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1257700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1139500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1370500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1457300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1223900</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1843800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1758100</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1742400</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1160100</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>2089100</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>1598500</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5310700</v>
+        <v>4536600</v>
       </c>
       <c r="E59" s="3">
-        <v>4348800</v>
+        <v>5037000</v>
       </c>
       <c r="F59" s="3">
-        <v>4382200</v>
+        <v>4092000</v>
       </c>
       <c r="G59" s="3">
-        <v>4502000</v>
+        <v>4123500</v>
       </c>
       <c r="H59" s="3">
-        <v>5078700</v>
+        <v>4236100</v>
       </c>
       <c r="I59" s="3">
-        <v>4557900</v>
+        <v>4778800</v>
       </c>
       <c r="J59" s="3">
+        <v>4288800</v>
+      </c>
+      <c r="K59" s="3">
         <v>4783000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5037200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>6096400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>5430800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>5602200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>5604600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>6777800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>6198400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>5931800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>5503600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>5842700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>5204500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>6069800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>6141100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>6062600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>5314400</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>5197200</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>10288500</v>
+        <v>8635100</v>
       </c>
       <c r="E60" s="3">
-        <v>9020300</v>
+        <v>9681000</v>
       </c>
       <c r="F60" s="3">
-        <v>8946100</v>
+        <v>8487600</v>
       </c>
       <c r="G60" s="3">
-        <v>8704500</v>
+        <v>8417800</v>
       </c>
       <c r="H60" s="3">
-        <v>10045200</v>
+        <v>8190500</v>
       </c>
       <c r="I60" s="3">
-        <v>9524900</v>
+        <v>9452000</v>
       </c>
       <c r="J60" s="3">
+        <v>8962400</v>
+      </c>
+      <c r="K60" s="3">
         <v>9647500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>10466000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>12031000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>12022300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>11980300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>11091700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>13116800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>12108900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>12197300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>11886800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>11956700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>11584400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>12270600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>12249300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>12701800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>12682100</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>11529200</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>907900</v>
+        <v>850400</v>
       </c>
       <c r="E61" s="3">
-        <v>1046500</v>
+        <v>854300</v>
       </c>
       <c r="F61" s="3">
-        <v>1065700</v>
+        <v>984700</v>
       </c>
       <c r="G61" s="3">
-        <v>1264200</v>
+        <v>1002800</v>
       </c>
       <c r="H61" s="3">
-        <v>1106600</v>
+        <v>1189600</v>
       </c>
       <c r="I61" s="3">
-        <v>1126700</v>
+        <v>1041300</v>
       </c>
       <c r="J61" s="3">
+        <v>1060200</v>
+      </c>
+      <c r="K61" s="3">
         <v>1197700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1446600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1815900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2113600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2349700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2693000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1781100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2114900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2085900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2071600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2409200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2514000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2845600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2850300</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>3142700</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>3330600</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>3416600</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1392600</v>
+        <v>1140000</v>
       </c>
       <c r="E62" s="3">
-        <v>1409200</v>
+        <v>1310400</v>
       </c>
       <c r="F62" s="3">
-        <v>1445500</v>
+        <v>1326000</v>
       </c>
       <c r="G62" s="3">
-        <v>1515700</v>
+        <v>1360200</v>
       </c>
       <c r="H62" s="3">
-        <v>1649500</v>
+        <v>1426200</v>
       </c>
       <c r="I62" s="3">
-        <v>1806000</v>
+        <v>1552100</v>
       </c>
       <c r="J62" s="3">
+        <v>1699300</v>
+      </c>
+      <c r="K62" s="3">
         <v>1882000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2089500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2354800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2252000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2448600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2622000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2892300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2815900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2349600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2433100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>2960400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>2738600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>3007700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>3186800</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>3423800</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>3635400</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>4100300</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,82 +4747,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>13563100</v>
+        <v>11600800</v>
       </c>
       <c r="E66" s="3">
-        <v>12386500</v>
+        <v>12762200</v>
       </c>
       <c r="F66" s="3">
-        <v>12307500</v>
+        <v>11655100</v>
       </c>
       <c r="G66" s="3">
-        <v>12269400</v>
+        <v>11580800</v>
       </c>
       <c r="H66" s="3">
-        <v>13555100</v>
+        <v>11544900</v>
       </c>
       <c r="I66" s="3">
-        <v>13166600</v>
+        <v>12754700</v>
       </c>
       <c r="J66" s="3">
+        <v>12389100</v>
+      </c>
+      <c r="K66" s="3">
         <v>13413200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>14929300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>17148600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>17363200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>17853700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>17483400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>18958500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>18179000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>17756300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>17466900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>18384900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>17967300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>19395400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>19535600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>20491500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>20859700</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>20204800</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,82 +5161,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>8478900</v>
+        <v>8025200</v>
       </c>
       <c r="E72" s="3">
-        <v>7973700</v>
+        <v>7978200</v>
       </c>
       <c r="F72" s="3">
-        <v>7446700</v>
+        <v>7502800</v>
       </c>
       <c r="G72" s="3">
-        <v>7219700</v>
+        <v>7007000</v>
       </c>
       <c r="H72" s="3">
-        <v>7082200</v>
+        <v>6793300</v>
       </c>
       <c r="I72" s="3">
-        <v>6198600</v>
+        <v>6664000</v>
       </c>
       <c r="J72" s="3">
+        <v>5832600</v>
+      </c>
+      <c r="K72" s="3">
         <v>5761000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>6145800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>6483500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>5905600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>5726800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>5205100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>5543600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>4808000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>5381100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>5046900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>4337200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>3458200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>3040200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>2400300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>2358500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>1640600</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>1192500</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,82 +5469,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>12391700</v>
+        <v>11763400</v>
       </c>
       <c r="E76" s="3">
-        <v>11884000</v>
+        <v>11659900</v>
       </c>
       <c r="F76" s="3">
-        <v>11469000</v>
+        <v>11182200</v>
       </c>
       <c r="G76" s="3">
-        <v>11364200</v>
+        <v>10791700</v>
       </c>
       <c r="H76" s="3">
-        <v>11296600</v>
+        <v>10693200</v>
       </c>
       <c r="I76" s="3">
-        <v>10441500</v>
+        <v>10629500</v>
       </c>
       <c r="J76" s="3">
+        <v>9824900</v>
+      </c>
+      <c r="K76" s="3">
         <v>9874900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>10533400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>10932800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>11013600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>10753200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>10252800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>10879000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>10067100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>10840600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>10316700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>9833700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>8993900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>8506700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>7958000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>7817100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>7181100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>6437700</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>455000</v>
+        <v>126700</v>
       </c>
       <c r="E81" s="3">
-        <v>555800</v>
+        <v>428100</v>
       </c>
       <c r="F81" s="3">
-        <v>224100</v>
+        <v>523000</v>
       </c>
       <c r="G81" s="3">
-        <v>188200</v>
+        <v>210900</v>
       </c>
       <c r="H81" s="3">
-        <v>687900</v>
+        <v>177100</v>
       </c>
       <c r="I81" s="3">
-        <v>524000</v>
+        <v>647300</v>
       </c>
       <c r="J81" s="3">
+        <v>493100</v>
+      </c>
+      <c r="K81" s="3">
         <v>225500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>155000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>529800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>330200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>519800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>65000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>510300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-280100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>77800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>661400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1029700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>108100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>373600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>19400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>499000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>180700</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>229900</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,82 +5813,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>404300</v>
+        <v>327500</v>
       </c>
       <c r="E83" s="3">
-        <v>349600</v>
+        <v>380400</v>
       </c>
       <c r="F83" s="3">
-        <v>352900</v>
+        <v>329000</v>
       </c>
       <c r="G83" s="3">
-        <v>345100</v>
+        <v>332100</v>
       </c>
       <c r="H83" s="3">
-        <v>393400</v>
+        <v>324700</v>
       </c>
       <c r="I83" s="3">
-        <v>337100</v>
+        <v>370100</v>
       </c>
       <c r="J83" s="3">
+        <v>317200</v>
+      </c>
+      <c r="K83" s="3">
         <v>321500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>347900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>479800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>467500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>486900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>506400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>399000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>397400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>353700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>331100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>406300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>374200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>382800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>371200</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>510100</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>394600</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>391500</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,82 +6273,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>419900</v>
+        <v>913600</v>
       </c>
       <c r="E89" s="3">
-        <v>174800</v>
+        <v>395100</v>
       </c>
       <c r="F89" s="3">
-        <v>-155900</v>
+        <v>164500</v>
       </c>
       <c r="G89" s="3">
-        <v>1495800</v>
+        <v>-146700</v>
       </c>
       <c r="H89" s="3">
-        <v>845400</v>
+        <v>1407500</v>
       </c>
       <c r="I89" s="3">
-        <v>330800</v>
+        <v>795400</v>
       </c>
       <c r="J89" s="3">
+        <v>311300</v>
+      </c>
+      <c r="K89" s="3">
         <v>62800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1270100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1149600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>925100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-10600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1066000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>798500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-282800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-542300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>951300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1170800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>146100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-243400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>738300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1384900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>462200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-176900</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,82 +6381,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-285200</v>
+        <v>-299500</v>
       </c>
       <c r="E91" s="3">
-        <v>-298900</v>
+        <v>-268300</v>
       </c>
       <c r="F91" s="3">
-        <v>-280500</v>
+        <v>-281200</v>
       </c>
       <c r="G91" s="3">
-        <v>-251400</v>
+        <v>-264000</v>
       </c>
       <c r="H91" s="3">
-        <v>-285800</v>
+        <v>-236500</v>
       </c>
       <c r="I91" s="3">
-        <v>-265900</v>
+        <v>-268900</v>
       </c>
       <c r="J91" s="3">
+        <v>-250200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-247200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-223700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-299500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-339000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-327900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-238900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-277100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-280100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-308100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-263300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-328500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-278400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-345300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-268200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>796000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-743100</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-1114100</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,82 +6610,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>200800</v>
+        <v>-428500</v>
       </c>
       <c r="E94" s="3">
-        <v>-133200</v>
+        <v>188900</v>
       </c>
       <c r="F94" s="3">
-        <v>-303200</v>
+        <v>-125300</v>
       </c>
       <c r="G94" s="3">
-        <v>-226100</v>
+        <v>-285300</v>
       </c>
       <c r="H94" s="3">
-        <v>-236000</v>
+        <v>-212700</v>
       </c>
       <c r="I94" s="3">
-        <v>22900</v>
+        <v>-222100</v>
       </c>
       <c r="J94" s="3">
+        <v>21500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-266300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-85400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-613900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>30500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-341100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-98500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-124800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>151500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-165200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>171400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>135400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-19800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-35900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-283900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-128400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-312300</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-509000</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,82 +6718,86 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-158400</v>
       </c>
       <c r="E96" s="3">
-        <v>-169700</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-159700</v>
       </c>
       <c r="G96" s="3">
-        <v>-155000</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-145900</v>
       </c>
       <c r="I96" s="3">
-        <v>-156000</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-146800</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-170800</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-147700</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-148500</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-135100</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-112300</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-92700</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-92700</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
       <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-73400</v>
       </c>
-      <c r="Z96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,226 +7024,238 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-221800</v>
+        <v>-503000</v>
       </c>
       <c r="E100" s="3">
-        <v>-436100</v>
+        <v>-208700</v>
       </c>
       <c r="F100" s="3">
-        <v>-313500</v>
+        <v>-410300</v>
       </c>
       <c r="G100" s="3">
-        <v>-537500</v>
+        <v>-295000</v>
       </c>
       <c r="H100" s="3">
-        <v>-566600</v>
+        <v>-505700</v>
       </c>
       <c r="I100" s="3">
-        <v>-555500</v>
+        <v>-533200</v>
       </c>
       <c r="J100" s="3">
+        <v>-522700</v>
+      </c>
+      <c r="K100" s="3">
         <v>-403200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-203300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-966600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-224700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-31000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-507600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-328900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-456900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-98000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-394900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-724300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-355700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-24600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>87700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-1222900</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>222400</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-114400</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>40200</v>
+        <v>65400</v>
       </c>
       <c r="E101" s="3">
-        <v>16400</v>
+        <v>37800</v>
       </c>
       <c r="F101" s="3">
-        <v>-8900</v>
+        <v>15400</v>
       </c>
       <c r="G101" s="3">
-        <v>5200</v>
+        <v>-8400</v>
       </c>
       <c r="H101" s="3">
-        <v>57300</v>
+        <v>4900</v>
       </c>
       <c r="I101" s="3">
-        <v>13800</v>
+        <v>53900</v>
       </c>
       <c r="J101" s="3">
+        <v>13000</v>
+      </c>
+      <c r="K101" s="3">
         <v>10400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>13500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-28400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>8600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-8100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-4000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-25900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-29900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>15200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>12400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-5500</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>12600</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>15900</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>7400</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-6500</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>98700</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-16300</v>
       </c>
     </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>439100</v>
+        <v>47500</v>
       </c>
       <c r="E102" s="3">
-        <v>-378100</v>
+        <v>413200</v>
       </c>
       <c r="F102" s="3">
-        <v>-781400</v>
+        <v>-355800</v>
       </c>
       <c r="G102" s="3">
-        <v>737500</v>
+        <v>-735300</v>
       </c>
       <c r="H102" s="3">
-        <v>100000</v>
+        <v>693900</v>
       </c>
       <c r="I102" s="3">
-        <v>-188000</v>
+        <v>94100</v>
       </c>
       <c r="J102" s="3">
+        <v>-176900</v>
+      </c>
+      <c r="K102" s="3">
         <v>-596300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>995000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-459200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>739400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-390800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>455900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>318800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-618100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-790300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>740200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>576400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-216800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-288000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>549500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>27100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>471000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-816700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FJTSY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FJTSY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
   <si>
     <t>FJTSY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,346 +665,359 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>6002300</v>
+        <v>6284900</v>
       </c>
       <c r="E8" s="3">
-        <v>7647400</v>
+        <v>5805700</v>
       </c>
       <c r="F8" s="3">
-        <v>6454300</v>
+        <v>7397000</v>
       </c>
       <c r="G8" s="3">
-        <v>6311400</v>
+        <v>6242900</v>
       </c>
       <c r="H8" s="3">
-        <v>5878500</v>
+        <v>6104700</v>
       </c>
       <c r="I8" s="3">
-        <v>7795500</v>
+        <v>5686000</v>
       </c>
       <c r="J8" s="3">
+        <v>7540200</v>
+      </c>
+      <c r="K8" s="3">
         <v>6555700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6458300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6847800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>9741800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>8410900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>9098300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>7682800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>10960900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>9225900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>8982400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>7887000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>10594900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>9068300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>9045400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>8340600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>10682100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>9054700</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>8940200</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4256900</v>
+        <v>4433400</v>
       </c>
       <c r="E9" s="3">
-        <v>5085100</v>
+        <v>4117500</v>
       </c>
       <c r="F9" s="3">
-        <v>4506300</v>
+        <v>4918600</v>
       </c>
       <c r="G9" s="3">
-        <v>4425100</v>
+        <v>4358800</v>
       </c>
       <c r="H9" s="3">
-        <v>4075300</v>
+        <v>4280200</v>
       </c>
       <c r="I9" s="3">
-        <v>5307700</v>
+        <v>3941900</v>
       </c>
       <c r="J9" s="3">
+        <v>5133900</v>
+      </c>
+      <c r="K9" s="3">
         <v>4590400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4519500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4938300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>6820000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>5987600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>6467400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>5618400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>7652900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>6814100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>6619700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>5900700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>7434500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>6706300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>6565400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>6111700</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>7514400</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>6501100</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>6406200</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1745400</v>
+        <v>1851500</v>
       </c>
       <c r="E10" s="3">
-        <v>2562300</v>
+        <v>1688200</v>
       </c>
       <c r="F10" s="3">
-        <v>1947900</v>
+        <v>2478400</v>
       </c>
       <c r="G10" s="3">
-        <v>1886300</v>
+        <v>1884200</v>
       </c>
       <c r="H10" s="3">
-        <v>1803200</v>
+        <v>1824500</v>
       </c>
       <c r="I10" s="3">
-        <v>2487800</v>
+        <v>1744100</v>
       </c>
       <c r="J10" s="3">
+        <v>2406300</v>
+      </c>
+      <c r="K10" s="3">
         <v>1965300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1938700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1909500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2921800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2423400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2630900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2064500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>3308000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2411800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2362700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1986300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>3160500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2362000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>2480000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>2228900</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>3167600</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>2553600</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>2534000</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,8 +1203,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1212,8 +1232,8 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
@@ -1230,14 +1250,14 @@
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R14" s="3">
         <v>710200</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>411800</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>8</v>
@@ -1263,8 +1283,11 @@
       <c r="AA14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1392,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5814600</v>
+        <v>5750600</v>
       </c>
       <c r="E17" s="3">
-        <v>7115700</v>
+        <v>5624200</v>
       </c>
       <c r="F17" s="3">
-        <v>5976400</v>
+        <v>6882800</v>
       </c>
       <c r="G17" s="3">
-        <v>5961400</v>
+        <v>5780800</v>
       </c>
       <c r="H17" s="3">
-        <v>5631200</v>
+        <v>5766200</v>
       </c>
       <c r="I17" s="3">
-        <v>6984900</v>
+        <v>5446800</v>
       </c>
       <c r="J17" s="3">
+        <v>6756200</v>
+      </c>
+      <c r="K17" s="3">
         <v>5870400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6146800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6657800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>8948800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7951700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>8476400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>7651800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>10348900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>9497100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>8836700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>7163500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>9293500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>8973100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>8837100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>8295900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>10123400</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>8749800</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>8640300</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>187700</v>
+        <v>534400</v>
       </c>
       <c r="E18" s="3">
-        <v>531700</v>
+        <v>181500</v>
       </c>
       <c r="F18" s="3">
-        <v>477800</v>
+        <v>514300</v>
       </c>
       <c r="G18" s="3">
-        <v>350000</v>
+        <v>462200</v>
       </c>
       <c r="H18" s="3">
-        <v>247300</v>
+        <v>338500</v>
       </c>
       <c r="I18" s="3">
-        <v>810600</v>
+        <v>239200</v>
       </c>
       <c r="J18" s="3">
+        <v>784000</v>
+      </c>
+      <c r="K18" s="3">
         <v>685300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>311400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>190000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>793000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>459300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>621900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>31000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>612000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-271200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>145700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>723500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1301400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>95200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>208400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>44800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>558700</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>304900</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>299900</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,393 +1582,409 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>99500</v>
+        <v>126600</v>
       </c>
       <c r="E20" s="3">
-        <v>72900</v>
+        <v>96300</v>
       </c>
       <c r="F20" s="3">
-        <v>32300</v>
+        <v>70500</v>
       </c>
       <c r="G20" s="3">
-        <v>21000</v>
+        <v>31200</v>
       </c>
       <c r="H20" s="3">
-        <v>47900</v>
+        <v>20300</v>
       </c>
       <c r="I20" s="3">
-        <v>131200</v>
+        <v>46300</v>
       </c>
       <c r="J20" s="3">
+        <v>126900</v>
+      </c>
+      <c r="K20" s="3">
         <v>24200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>22400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>38400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>44700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>40000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>72600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>35800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>72600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>35300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>49200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>165400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>244600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>32400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>271100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>30400</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>27500</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>46900</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>614700</v>
+        <v>963500</v>
       </c>
       <c r="E21" s="3">
-        <v>985000</v>
+        <v>594600</v>
       </c>
       <c r="F21" s="3">
-        <v>839100</v>
+        <v>952700</v>
       </c>
       <c r="G21" s="3">
-        <v>703000</v>
+        <v>811600</v>
       </c>
       <c r="H21" s="3">
-        <v>619800</v>
+        <v>680000</v>
       </c>
       <c r="I21" s="3">
-        <v>1311900</v>
+        <v>599600</v>
       </c>
       <c r="J21" s="3">
+        <v>1268900</v>
+      </c>
+      <c r="K21" s="3">
         <v>1026700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>655300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>576300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1317400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>966700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1181400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>573300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1083600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>161400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>548600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1220000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1952300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>501700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>862300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>446500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1096200</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>746400</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>721600</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>6200</v>
+        <v>6500</v>
       </c>
       <c r="E22" s="3">
-        <v>6700</v>
+        <v>6000</v>
       </c>
       <c r="F22" s="3">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="G22" s="3">
-        <v>5000</v>
+        <v>4800</v>
       </c>
       <c r="H22" s="3">
         <v>4900</v>
       </c>
       <c r="I22" s="3">
-        <v>5200</v>
+        <v>4800</v>
       </c>
       <c r="J22" s="3">
+        <v>5000</v>
+      </c>
+      <c r="K22" s="3">
         <v>5400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>6100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>7000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>9800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>9200</v>
-      </c>
-      <c r="O22" s="3">
-        <v>9500</v>
       </c>
       <c r="P22" s="3">
         <v>9500</v>
       </c>
       <c r="Q22" s="3">
+        <v>9500</v>
+      </c>
+      <c r="R22" s="3">
         <v>7800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>8100</v>
-      </c>
-      <c r="S22" s="3">
-        <v>7200</v>
       </c>
       <c r="T22" s="3">
         <v>7200</v>
       </c>
       <c r="U22" s="3">
+        <v>7200</v>
+      </c>
+      <c r="V22" s="3">
         <v>8400</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>9500</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>10000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>8300</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>10800</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>8600</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>281000</v>
+        <v>654500</v>
       </c>
       <c r="E23" s="3">
-        <v>597900</v>
+        <v>271800</v>
       </c>
       <c r="F23" s="3">
-        <v>505100</v>
+        <v>578300</v>
       </c>
       <c r="G23" s="3">
-        <v>365900</v>
+        <v>488600</v>
       </c>
       <c r="H23" s="3">
-        <v>290200</v>
+        <v>353900</v>
       </c>
       <c r="I23" s="3">
-        <v>936600</v>
+        <v>280700</v>
       </c>
       <c r="J23" s="3">
+        <v>905900</v>
+      </c>
+      <c r="K23" s="3">
         <v>704100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>327700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>221400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>827900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>490000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>685000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>57400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>676800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-244100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>187800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>881700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1537600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>118000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>469500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>66900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>575400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>343200</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>320900</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>80700</v>
+        <v>196200</v>
       </c>
       <c r="E24" s="3">
-        <v>114900</v>
+        <v>78000</v>
       </c>
       <c r="F24" s="3">
-        <v>-82800</v>
+        <v>111200</v>
       </c>
       <c r="G24" s="3">
-        <v>91000</v>
+        <v>-80100</v>
       </c>
       <c r="H24" s="3">
-        <v>73700</v>
+        <v>88000</v>
       </c>
       <c r="I24" s="3">
-        <v>261500</v>
+        <v>71300</v>
       </c>
       <c r="J24" s="3">
+        <v>252900</v>
+      </c>
+      <c r="K24" s="3">
         <v>182100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>85900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>58000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>286700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>153400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>166900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>6400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>162000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>29600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>93200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>191300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>502900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>37600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>75200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>57500</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>39300</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>149900</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>79400</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>200400</v>
+        <v>458300</v>
       </c>
       <c r="E26" s="3">
-        <v>482900</v>
+        <v>193800</v>
       </c>
       <c r="F26" s="3">
-        <v>587900</v>
+        <v>467100</v>
       </c>
       <c r="G26" s="3">
-        <v>274900</v>
+        <v>568700</v>
       </c>
       <c r="H26" s="3">
-        <v>216500</v>
+        <v>265900</v>
       </c>
       <c r="I26" s="3">
-        <v>675100</v>
+        <v>209400</v>
       </c>
       <c r="J26" s="3">
+        <v>653000</v>
+      </c>
+      <c r="K26" s="3">
         <v>522100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>241800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>163400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>541200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>336600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>518200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>51000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>514800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-273600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>94600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>690400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1034700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>80500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>394300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>9400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>536000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>193300</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>241500</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>126700</v>
+        <v>387800</v>
       </c>
       <c r="E27" s="3">
-        <v>428100</v>
+        <v>122500</v>
       </c>
       <c r="F27" s="3">
-        <v>523000</v>
+        <v>414100</v>
       </c>
       <c r="G27" s="3">
-        <v>210900</v>
+        <v>505800</v>
       </c>
       <c r="H27" s="3">
-        <v>177100</v>
+        <v>204000</v>
       </c>
       <c r="I27" s="3">
-        <v>647300</v>
+        <v>171300</v>
       </c>
       <c r="J27" s="3">
+        <v>626100</v>
+      </c>
+      <c r="K27" s="3">
         <v>493100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>225500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>155000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>529800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>330200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>519800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>65000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>510300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-280100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>77800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>661400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1029700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>50100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>380700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-13200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>529200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>159500</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>211300</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2283,8 +2344,8 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -2298,29 +2359,32 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
+      <c r="U29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
         <v>58000</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>-7100</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>32600</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>-30200</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>21200</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AB29" s="3">
         <v>18600</v>
       </c>
     </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,162 +2540,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-99500</v>
+        <v>-126600</v>
       </c>
       <c r="E32" s="3">
-        <v>-72900</v>
+        <v>-96300</v>
       </c>
       <c r="F32" s="3">
-        <v>-32300</v>
+        <v>-70500</v>
       </c>
       <c r="G32" s="3">
-        <v>-21000</v>
+        <v>-31200</v>
       </c>
       <c r="H32" s="3">
-        <v>-47900</v>
+        <v>-20300</v>
       </c>
       <c r="I32" s="3">
-        <v>-131200</v>
+        <v>-46300</v>
       </c>
       <c r="J32" s="3">
+        <v>-126900</v>
+      </c>
+      <c r="K32" s="3">
         <v>-24200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-22400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-38400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-44700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-40000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-72600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-35800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-72600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-35300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-49200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-165400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-244600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-32400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-271100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-30400</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-27500</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-46900</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-30200</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>126700</v>
+        <v>387800</v>
       </c>
       <c r="E33" s="3">
-        <v>428100</v>
+        <v>122500</v>
       </c>
       <c r="F33" s="3">
-        <v>523000</v>
+        <v>414100</v>
       </c>
       <c r="G33" s="3">
-        <v>210900</v>
+        <v>505800</v>
       </c>
       <c r="H33" s="3">
-        <v>177100</v>
+        <v>204000</v>
       </c>
       <c r="I33" s="3">
-        <v>647300</v>
+        <v>171300</v>
       </c>
       <c r="J33" s="3">
+        <v>626100</v>
+      </c>
+      <c r="K33" s="3">
         <v>493100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>225500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>155000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>529800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>330200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>519800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>65000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>510300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-280100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>77800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>661400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1029700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>108100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>373600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>19400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>499000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>180700</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>229900</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>126700</v>
+        <v>387800</v>
       </c>
       <c r="E35" s="3">
-        <v>428100</v>
+        <v>122500</v>
       </c>
       <c r="F35" s="3">
-        <v>523000</v>
+        <v>414100</v>
       </c>
       <c r="G35" s="3">
-        <v>210900</v>
+        <v>505800</v>
       </c>
       <c r="H35" s="3">
-        <v>177100</v>
+        <v>204000</v>
       </c>
       <c r="I35" s="3">
-        <v>647300</v>
+        <v>171300</v>
       </c>
       <c r="J35" s="3">
+        <v>626100</v>
+      </c>
+      <c r="K35" s="3">
         <v>493100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>225500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>155000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>529800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>330200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>519800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>65000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>510300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-280100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>77800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>661400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1029700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>108100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>373600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>19400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>499000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>180700</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>229900</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,85 +3007,89 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3465200</v>
+        <v>3244200</v>
       </c>
       <c r="E41" s="3">
-        <v>3547900</v>
+        <v>3351700</v>
       </c>
       <c r="F41" s="3">
-        <v>3134700</v>
+        <v>3431700</v>
       </c>
       <c r="G41" s="3">
-        <v>3488200</v>
+        <v>3032100</v>
       </c>
       <c r="H41" s="3">
-        <v>4225500</v>
+        <v>3374000</v>
       </c>
       <c r="I41" s="3">
-        <v>3531800</v>
+        <v>4087100</v>
       </c>
       <c r="J41" s="3">
+        <v>3416200</v>
+      </c>
+      <c r="K41" s="3">
         <v>3426200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3825500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4852800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3980900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4593600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3795500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4251000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4004300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3420000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4022600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4852800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4091100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>3514500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>3640500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>3944200</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>3376800</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>3378700</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>2907800</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,547 +3165,571 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5634800</v>
+        <v>6187900</v>
       </c>
       <c r="E43" s="3">
-        <v>7749000</v>
+        <v>5450400</v>
       </c>
       <c r="F43" s="3">
-        <v>4467200</v>
+        <v>7495200</v>
       </c>
       <c r="G43" s="3">
-        <v>4479400</v>
+        <v>4320900</v>
       </c>
       <c r="H43" s="3">
-        <v>3931800</v>
+        <v>4332700</v>
       </c>
       <c r="I43" s="3">
-        <v>7408000</v>
+        <v>3803000</v>
       </c>
       <c r="J43" s="3">
+        <v>7165400</v>
+      </c>
+      <c r="K43" s="3">
         <v>4829500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5049500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5239100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>9402300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>8281200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>8687800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>6009400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>10890900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>8897700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>8539000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>7949100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>9504100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>8140100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>8112800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>7229000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>9456200</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>8723500</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>8133900</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2628700</v>
+        <v>2781000</v>
       </c>
       <c r="E44" s="3">
-        <v>2271000</v>
+        <v>2542700</v>
       </c>
       <c r="F44" s="3">
-        <v>2467600</v>
+        <v>2196700</v>
       </c>
       <c r="G44" s="3">
-        <v>2185900</v>
+        <v>2386800</v>
       </c>
       <c r="H44" s="3">
-        <v>2007100</v>
+        <v>2114300</v>
       </c>
       <c r="I44" s="3">
-        <v>1737300</v>
+        <v>1941400</v>
       </c>
       <c r="J44" s="3">
+        <v>1680400</v>
+      </c>
+      <c r="K44" s="3">
         <v>2054500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2066100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2129500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2097400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3024800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2673300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2530200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2172300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2782400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2567900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>2568900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>2184100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>2619100</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>2715300</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>2696200</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>2600400</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>3205000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>2890300</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1425300</v>
+        <v>904800</v>
       </c>
       <c r="E45" s="3">
-        <v>665700</v>
+        <v>1378600</v>
       </c>
       <c r="F45" s="3">
-        <v>2804800</v>
+        <v>643900</v>
       </c>
       <c r="G45" s="3">
-        <v>2522600</v>
+        <v>2713000</v>
       </c>
       <c r="H45" s="3">
-        <v>2278500</v>
+        <v>2440000</v>
       </c>
       <c r="I45" s="3">
-        <v>1052600</v>
+        <v>2203900</v>
       </c>
       <c r="J45" s="3">
+        <v>1018200</v>
+      </c>
+      <c r="K45" s="3">
         <v>2633100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2546200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2477400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1180300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1108300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1754000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3237300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1761800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2739100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2608500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1638200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1101100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1572900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>2370700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>2509100</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>908800</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>924000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>838300</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>13154000</v>
+        <v>13117900</v>
       </c>
       <c r="E46" s="3">
-        <v>14233600</v>
+        <v>12723300</v>
       </c>
       <c r="F46" s="3">
-        <v>12874300</v>
+        <v>13767600</v>
       </c>
       <c r="G46" s="3">
-        <v>12676100</v>
+        <v>12452800</v>
       </c>
       <c r="H46" s="3">
-        <v>12442900</v>
+        <v>12261100</v>
       </c>
       <c r="I46" s="3">
-        <v>13729800</v>
+        <v>12035500</v>
       </c>
       <c r="J46" s="3">
+        <v>13280200</v>
+      </c>
+      <c r="K46" s="3">
         <v>12943200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>13487200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>14698800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>16660800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>17008000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>16910600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>16027800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>18829300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>17839300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>17738000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>17009000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>16880400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>15846500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>16839400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>16378500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>16342100</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>16231300</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>14770300</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2608800</v>
+        <v>2435200</v>
       </c>
       <c r="E47" s="3">
-        <v>2464600</v>
+        <v>2523400</v>
       </c>
       <c r="F47" s="3">
-        <v>2436000</v>
+        <v>2383900</v>
       </c>
       <c r="G47" s="3">
-        <v>2451200</v>
+        <v>2356200</v>
       </c>
       <c r="H47" s="3">
-        <v>2517100</v>
+        <v>2370900</v>
       </c>
       <c r="I47" s="3">
-        <v>2428300</v>
+        <v>2434700</v>
       </c>
       <c r="J47" s="3">
+        <v>2348800</v>
+      </c>
+      <c r="K47" s="3">
         <v>2374400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2381600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2525800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2488700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2723200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2673900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2637700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2859800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2699000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>3077600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>3008500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>2818600</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>2568300</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>2387000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>2600400</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>2588500</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>2502100</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>2282100</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4184500</v>
+        <v>4004700</v>
       </c>
       <c r="E48" s="3">
-        <v>4186700</v>
+        <v>4047500</v>
       </c>
       <c r="F48" s="3">
-        <v>4221600</v>
+        <v>4049600</v>
       </c>
       <c r="G48" s="3">
-        <v>4262600</v>
+        <v>4083400</v>
       </c>
       <c r="H48" s="3">
-        <v>4312000</v>
+        <v>4123000</v>
       </c>
       <c r="I48" s="3">
-        <v>4175100</v>
+        <v>4170800</v>
       </c>
       <c r="J48" s="3">
+        <v>4038400</v>
+      </c>
+      <c r="K48" s="3">
         <v>4102900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4325900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4793500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5023200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5304800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5438700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5457000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4219500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>4201800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>4224000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>4290200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>4751300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>4833700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>4984100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>4980900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>5292300</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>5365800</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>5402900</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1343700</v>
+        <v>1348800</v>
       </c>
       <c r="E49" s="3">
-        <v>1329200</v>
+        <v>1299700</v>
       </c>
       <c r="F49" s="3">
-        <v>1253200</v>
+        <v>1285700</v>
       </c>
       <c r="G49" s="3">
-        <v>1227200</v>
+        <v>1212100</v>
       </c>
       <c r="H49" s="3">
-        <v>1200300</v>
+        <v>1187100</v>
       </c>
       <c r="I49" s="3">
-        <v>1185200</v>
+        <v>1161000</v>
       </c>
       <c r="J49" s="3">
+        <v>1146400</v>
+      </c>
+      <c r="K49" s="3">
         <v>1156000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1188300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1253900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1268000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1348400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1323100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1381900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1492000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1482000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1521000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1508100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1565500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1609100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1638400</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1634800</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>1731500</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>1773700</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>1761300</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,85 +3885,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2073200</v>
+        <v>1951500</v>
       </c>
       <c r="E52" s="3">
-        <v>2208100</v>
+        <v>2005300</v>
       </c>
       <c r="F52" s="3">
-        <v>2052200</v>
+        <v>2135800</v>
       </c>
       <c r="G52" s="3">
-        <v>1755400</v>
+        <v>1985000</v>
       </c>
       <c r="H52" s="3">
-        <v>1765800</v>
+        <v>1697900</v>
       </c>
       <c r="I52" s="3">
-        <v>1865700</v>
+        <v>1708000</v>
       </c>
       <c r="J52" s="3">
+        <v>1804700</v>
+      </c>
+      <c r="K52" s="3">
         <v>1637500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1905100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2190600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2640800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1992500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2260600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2231800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2436900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2024100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2036300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1967800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>2202800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>2103500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>2053100</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1898900</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>2354200</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>2168000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>2425900</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4045,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>23364200</v>
+        <v>22858000</v>
       </c>
       <c r="E54" s="3">
-        <v>24422200</v>
+        <v>22599200</v>
       </c>
       <c r="F54" s="3">
-        <v>22837300</v>
+        <v>23622500</v>
       </c>
       <c r="G54" s="3">
-        <v>22372500</v>
+        <v>22089600</v>
       </c>
       <c r="H54" s="3">
-        <v>22238100</v>
+        <v>21640000</v>
       </c>
       <c r="I54" s="3">
-        <v>23384200</v>
+        <v>21510000</v>
       </c>
       <c r="J54" s="3">
+        <v>22618600</v>
+      </c>
+      <c r="K54" s="3">
         <v>22214000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>23288200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>25462700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>28081400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>28376800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>28606900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>27736200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>29837500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>28246100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>28596900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>27783500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>28218600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>26961200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>27902100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>27493600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>28308600</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>28040900</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>26642400</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,470 +4187,489 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3098800</v>
+        <v>3050500</v>
       </c>
       <c r="E57" s="3">
-        <v>3406900</v>
+        <v>2997300</v>
       </c>
       <c r="F57" s="3">
-        <v>3233200</v>
+        <v>3295400</v>
       </c>
       <c r="G57" s="3">
-        <v>3153600</v>
+        <v>3127400</v>
       </c>
       <c r="H57" s="3">
-        <v>2849600</v>
+        <v>3050400</v>
       </c>
       <c r="I57" s="3">
-        <v>3395900</v>
+        <v>2756300</v>
       </c>
       <c r="J57" s="3">
+        <v>3284700</v>
+      </c>
+      <c r="K57" s="3">
         <v>3201200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3215500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3384800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4177500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4421000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4504000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4041700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>5081200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>4770900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>4895000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>4925800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>4890100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>4536100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>4442700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>4365700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>5479100</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>5278500</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>4733500</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>999700</v>
+        <v>953100</v>
       </c>
       <c r="E58" s="3">
-        <v>1237100</v>
+        <v>967000</v>
       </c>
       <c r="F58" s="3">
-        <v>1162400</v>
+        <v>1196600</v>
       </c>
       <c r="G58" s="3">
-        <v>1140700</v>
+        <v>1124300</v>
       </c>
       <c r="H58" s="3">
-        <v>1104800</v>
+        <v>1103400</v>
       </c>
       <c r="I58" s="3">
-        <v>1277400</v>
+        <v>1068600</v>
       </c>
       <c r="J58" s="3">
+        <v>1235600</v>
+      </c>
+      <c r="K58" s="3">
         <v>1472400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1649000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2044000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1757200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2170500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1874100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1445400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1257700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1139500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1370500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1457300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1223900</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1843800</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1758100</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1742400</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1160100</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>2089100</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>1598500</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4536600</v>
+        <v>4301300</v>
       </c>
       <c r="E59" s="3">
-        <v>5037000</v>
+        <v>4388100</v>
       </c>
       <c r="F59" s="3">
-        <v>4092000</v>
+        <v>4872100</v>
       </c>
       <c r="G59" s="3">
-        <v>4123500</v>
+        <v>3958000</v>
       </c>
       <c r="H59" s="3">
-        <v>4236100</v>
+        <v>3988400</v>
       </c>
       <c r="I59" s="3">
-        <v>4778800</v>
+        <v>4097400</v>
       </c>
       <c r="J59" s="3">
+        <v>4622300</v>
+      </c>
+      <c r="K59" s="3">
         <v>4288800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4783000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5037200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>6096400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>5430800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>5602200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>5604600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>6777800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>6198400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>5931800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>5503600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>5842700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>5204500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>6069800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>6141100</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>6062600</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>5314400</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>5197200</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>8635100</v>
+        <v>8305000</v>
       </c>
       <c r="E60" s="3">
-        <v>9681000</v>
+        <v>8352400</v>
       </c>
       <c r="F60" s="3">
-        <v>8487600</v>
+        <v>9364000</v>
       </c>
       <c r="G60" s="3">
-        <v>8417800</v>
+        <v>8209700</v>
       </c>
       <c r="H60" s="3">
-        <v>8190500</v>
+        <v>8142200</v>
       </c>
       <c r="I60" s="3">
-        <v>9452000</v>
+        <v>7922400</v>
       </c>
       <c r="J60" s="3">
+        <v>9142500</v>
+      </c>
+      <c r="K60" s="3">
         <v>8962400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>9647500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>10466000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>12031000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>12022300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>11980300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>11091700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>13116800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>12108900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>12197300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>11886800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>11956700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>11584400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>12270600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>12249300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>12701800</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>12682100</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>11529200</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>850400</v>
+        <v>774700</v>
       </c>
       <c r="E61" s="3">
-        <v>854300</v>
+        <v>822600</v>
       </c>
       <c r="F61" s="3">
-        <v>984700</v>
+        <v>826400</v>
       </c>
       <c r="G61" s="3">
-        <v>1002800</v>
+        <v>952500</v>
       </c>
       <c r="H61" s="3">
-        <v>1189600</v>
+        <v>970000</v>
       </c>
       <c r="I61" s="3">
-        <v>1041300</v>
+        <v>1150600</v>
       </c>
       <c r="J61" s="3">
+        <v>1007200</v>
+      </c>
+      <c r="K61" s="3">
         <v>1060200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1197700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1446600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1815900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2113600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2349700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2693000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1781100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2114900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2085900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2071600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2409200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2514000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2845600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>2850300</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>3142700</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>3330600</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>3416600</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1140000</v>
+        <v>1062700</v>
       </c>
       <c r="E62" s="3">
-        <v>1310400</v>
+        <v>1102700</v>
       </c>
       <c r="F62" s="3">
-        <v>1326000</v>
+        <v>1267500</v>
       </c>
       <c r="G62" s="3">
-        <v>1360200</v>
+        <v>1282600</v>
       </c>
       <c r="H62" s="3">
-        <v>1426200</v>
+        <v>1315600</v>
       </c>
       <c r="I62" s="3">
-        <v>1552100</v>
+        <v>1379500</v>
       </c>
       <c r="J62" s="3">
+        <v>1501300</v>
+      </c>
+      <c r="K62" s="3">
         <v>1699300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1882000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2089500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2354800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2252000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2448600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2622000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2892300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2815900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2349600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>2433100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>2960400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>2738600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>3007700</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>3186800</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>3423800</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>3635400</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>4100300</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>11600800</v>
+        <v>11156800</v>
       </c>
       <c r="E66" s="3">
-        <v>12762200</v>
+        <v>11221000</v>
       </c>
       <c r="F66" s="3">
-        <v>11655100</v>
+        <v>12344400</v>
       </c>
       <c r="G66" s="3">
-        <v>11580800</v>
+        <v>11273500</v>
       </c>
       <c r="H66" s="3">
-        <v>11544900</v>
+        <v>11201600</v>
       </c>
       <c r="I66" s="3">
-        <v>12754700</v>
+        <v>11166900</v>
       </c>
       <c r="J66" s="3">
+        <v>12337100</v>
+      </c>
+      <c r="K66" s="3">
         <v>12389100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>13413200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>14929300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>17148600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>17363200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>17853700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>17483400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>18958500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>18179000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>17756300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>17466900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>18384900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>17967300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>19395400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>19535600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>20491500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>20859700</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>20204800</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>8025200</v>
+        <v>8159900</v>
       </c>
       <c r="E72" s="3">
-        <v>7978200</v>
+        <v>7762400</v>
       </c>
       <c r="F72" s="3">
-        <v>7502800</v>
+        <v>7717000</v>
       </c>
       <c r="G72" s="3">
-        <v>7007000</v>
+        <v>7257200</v>
       </c>
       <c r="H72" s="3">
-        <v>6793300</v>
+        <v>6777600</v>
       </c>
       <c r="I72" s="3">
-        <v>6664000</v>
+        <v>6570900</v>
       </c>
       <c r="J72" s="3">
+        <v>6445800</v>
+      </c>
+      <c r="K72" s="3">
         <v>5832600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>5761000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>6145800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>6483500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>5905600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>5726800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>5205100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>5543600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>4808000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>5381100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>5046900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>4337200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>3458200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>3040200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>2400300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>2358500</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>1640600</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>1192500</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>11763400</v>
+        <v>11701200</v>
       </c>
       <c r="E76" s="3">
-        <v>11659900</v>
+        <v>11378300</v>
       </c>
       <c r="F76" s="3">
-        <v>11182200</v>
+        <v>11278200</v>
       </c>
       <c r="G76" s="3">
-        <v>10791700</v>
+        <v>10816100</v>
       </c>
       <c r="H76" s="3">
-        <v>10693200</v>
+        <v>10438400</v>
       </c>
       <c r="I76" s="3">
-        <v>10629500</v>
+        <v>10343000</v>
       </c>
       <c r="J76" s="3">
+        <v>10281500</v>
+      </c>
+      <c r="K76" s="3">
         <v>9824900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>9874900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>10533400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>10932800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>11013600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>10753200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>10252800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>10879000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>10067100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>10840600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>10316700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>9833700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>8993900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>8506700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>7958000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>7817100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>7181100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>6437700</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>126700</v>
+        <v>387800</v>
       </c>
       <c r="E81" s="3">
-        <v>428100</v>
+        <v>122500</v>
       </c>
       <c r="F81" s="3">
-        <v>523000</v>
+        <v>414100</v>
       </c>
       <c r="G81" s="3">
-        <v>210900</v>
+        <v>505800</v>
       </c>
       <c r="H81" s="3">
-        <v>177100</v>
+        <v>204000</v>
       </c>
       <c r="I81" s="3">
-        <v>647300</v>
+        <v>171300</v>
       </c>
       <c r="J81" s="3">
+        <v>626100</v>
+      </c>
+      <c r="K81" s="3">
         <v>493100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>225500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>155000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>529800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>330200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>519800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>65000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>510300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-280100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>77800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>661400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1029700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>108100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>373600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>19400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>499000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>180700</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>229900</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,85 +6012,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>327500</v>
+        <v>302500</v>
       </c>
       <c r="E83" s="3">
-        <v>380400</v>
+        <v>316800</v>
       </c>
       <c r="F83" s="3">
-        <v>329000</v>
+        <v>367900</v>
       </c>
       <c r="G83" s="3">
-        <v>332100</v>
+        <v>318200</v>
       </c>
       <c r="H83" s="3">
-        <v>324700</v>
+        <v>321200</v>
       </c>
       <c r="I83" s="3">
-        <v>370100</v>
+        <v>314100</v>
       </c>
       <c r="J83" s="3">
+        <v>358000</v>
+      </c>
+      <c r="K83" s="3">
         <v>317200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>321500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>347900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>479800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>467500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>486900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>506400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>399000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>397400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>353700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>331100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>406300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>374200</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>382800</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>371200</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>510100</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>394600</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>391500</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6490,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>913600</v>
+        <v>-261300</v>
       </c>
       <c r="E89" s="3">
-        <v>395100</v>
+        <v>883700</v>
       </c>
       <c r="F89" s="3">
-        <v>164500</v>
+        <v>382200</v>
       </c>
       <c r="G89" s="3">
-        <v>-146700</v>
+        <v>159100</v>
       </c>
       <c r="H89" s="3">
-        <v>1407500</v>
+        <v>-141900</v>
       </c>
       <c r="I89" s="3">
-        <v>795400</v>
+        <v>1361400</v>
       </c>
       <c r="J89" s="3">
+        <v>769400</v>
+      </c>
+      <c r="K89" s="3">
         <v>311300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>62800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1270100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1149600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>925100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-10600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1066000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>798500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-282800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-542300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>951300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1170800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>146100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-243400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>738300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1384900</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>462200</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-176900</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,85 +6602,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-246700</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-289700</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-259500</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-272000</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-255300</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-228800</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-260100</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-250200</v>
+      </c>
+      <c r="L91" s="3">
+        <v>-247200</v>
+      </c>
+      <c r="M91" s="3">
+        <v>-223700</v>
+      </c>
+      <c r="N91" s="3">
         <v>-299500</v>
       </c>
-      <c r="E91" s="3">
-        <v>-268300</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-281200</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-264000</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-236500</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-268900</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-250200</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-247200</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-223700</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-299500</v>
-      </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-339000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-327900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-238900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-277100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-280100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-308100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-263300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-328500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-278400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-345300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-268200</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>796000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-743100</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-1114100</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,85 +6840,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-428500</v>
+        <v>127400</v>
       </c>
       <c r="E94" s="3">
-        <v>188900</v>
+        <v>-414500</v>
       </c>
       <c r="F94" s="3">
-        <v>-125300</v>
+        <v>182700</v>
       </c>
       <c r="G94" s="3">
-        <v>-285300</v>
+        <v>-121200</v>
       </c>
       <c r="H94" s="3">
-        <v>-212700</v>
+        <v>-275900</v>
       </c>
       <c r="I94" s="3">
-        <v>-222100</v>
+        <v>-205800</v>
       </c>
       <c r="J94" s="3">
+        <v>-214800</v>
+      </c>
+      <c r="K94" s="3">
         <v>21500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-266300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-85400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-613900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>30500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-341100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-98500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-124800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>151500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-165200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>171400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>135400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-19800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-35900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-283900</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-128400</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-312300</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-509000</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,85 +6952,89 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-158400</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-153300</v>
       </c>
       <c r="F96" s="3">
-        <v>-159700</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-154400</v>
       </c>
       <c r="H96" s="3">
-        <v>-145900</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-141100</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-146800</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-170800</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-147700</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-148500</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-135100</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-112300</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-92700</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
       <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-92700</v>
       </c>
-      <c r="Y96" s="3">
-        <v>0</v>
-      </c>
       <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-73400</v>
       </c>
-      <c r="AA96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,235 +7270,247 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-503000</v>
+        <v>-105100</v>
       </c>
       <c r="E100" s="3">
-        <v>-208700</v>
+        <v>-486600</v>
       </c>
       <c r="F100" s="3">
-        <v>-410300</v>
+        <v>-201900</v>
       </c>
       <c r="G100" s="3">
-        <v>-295000</v>
+        <v>-396900</v>
       </c>
       <c r="H100" s="3">
-        <v>-505700</v>
+        <v>-285300</v>
       </c>
       <c r="I100" s="3">
-        <v>-533200</v>
+        <v>-489200</v>
       </c>
       <c r="J100" s="3">
+        <v>-515700</v>
+      </c>
+      <c r="K100" s="3">
         <v>-522700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-403200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-203300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-966600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-224700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-31000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-507600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-328900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-456900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-98000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-394900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-724300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-355700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-24600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>87700</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-1222900</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>222400</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-114400</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>65400</v>
+        <v>5500</v>
       </c>
       <c r="E101" s="3">
-        <v>37800</v>
+        <v>63300</v>
       </c>
       <c r="F101" s="3">
-        <v>15400</v>
+        <v>36600</v>
       </c>
       <c r="G101" s="3">
-        <v>-8400</v>
+        <v>14900</v>
       </c>
       <c r="H101" s="3">
-        <v>4900</v>
+        <v>-8100</v>
       </c>
       <c r="I101" s="3">
-        <v>53900</v>
+        <v>4800</v>
       </c>
       <c r="J101" s="3">
+        <v>52100</v>
+      </c>
+      <c r="K101" s="3">
         <v>13000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>10400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>13500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-28400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>8600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-8100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-25900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-29900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>15200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>12400</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-5500</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>12600</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>15900</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>7400</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-6500</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>98700</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-16300</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>47500</v>
+        <v>-233400</v>
       </c>
       <c r="E102" s="3">
-        <v>413200</v>
+        <v>45900</v>
       </c>
       <c r="F102" s="3">
-        <v>-355800</v>
+        <v>399600</v>
       </c>
       <c r="G102" s="3">
-        <v>-735300</v>
+        <v>-344100</v>
       </c>
       <c r="H102" s="3">
-        <v>693900</v>
+        <v>-711200</v>
       </c>
       <c r="I102" s="3">
-        <v>94100</v>
+        <v>671200</v>
       </c>
       <c r="J102" s="3">
+        <v>91000</v>
+      </c>
+      <c r="K102" s="3">
         <v>-176900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-596300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>995000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-459200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>739400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-390800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>455900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>318800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-618100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-790300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>740200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>576400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-216800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-288000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>549500</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>27100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>471000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-816700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FJTSY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FJTSY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
   <si>
     <t>FJTSY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,359 +665,371 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>6284900</v>
+        <v>6846000</v>
       </c>
       <c r="E8" s="3">
-        <v>5805700</v>
+        <v>6515400</v>
       </c>
       <c r="F8" s="3">
-        <v>7397000</v>
+        <v>6018600</v>
       </c>
       <c r="G8" s="3">
-        <v>6242900</v>
+        <v>7668300</v>
       </c>
       <c r="H8" s="3">
-        <v>6104700</v>
+        <v>6471900</v>
       </c>
       <c r="I8" s="3">
-        <v>5686000</v>
+        <v>6328600</v>
       </c>
       <c r="J8" s="3">
+        <v>5894600</v>
+      </c>
+      <c r="K8" s="3">
         <v>7540200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6555700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6458300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6847800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>9741800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>8410900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>9098300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>7682800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>10960900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>9225900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>8982400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>7887000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>10594900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>9068300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>9045400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>8340600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>10682100</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>9054700</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>8940200</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4433400</v>
+        <v>4797700</v>
       </c>
       <c r="E9" s="3">
-        <v>4117500</v>
+        <v>4596000</v>
       </c>
       <c r="F9" s="3">
-        <v>4918600</v>
+        <v>4268500</v>
       </c>
       <c r="G9" s="3">
-        <v>4358800</v>
+        <v>5099000</v>
       </c>
       <c r="H9" s="3">
-        <v>4280200</v>
+        <v>4518600</v>
       </c>
       <c r="I9" s="3">
-        <v>3941900</v>
+        <v>4437200</v>
       </c>
       <c r="J9" s="3">
+        <v>4086400</v>
+      </c>
+      <c r="K9" s="3">
         <v>5133900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4590400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4519500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4938300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>6820000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>5987600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>6467400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>5618400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>7652900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>6814100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>6619700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>5900700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>7434500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>6706300</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>6565400</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>6111700</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>7514400</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>6501100</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>6406200</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1851500</v>
+        <v>2048200</v>
       </c>
       <c r="E10" s="3">
-        <v>1688200</v>
+        <v>1919400</v>
       </c>
       <c r="F10" s="3">
-        <v>2478400</v>
+        <v>1750100</v>
       </c>
       <c r="G10" s="3">
-        <v>1884200</v>
+        <v>2569300</v>
       </c>
       <c r="H10" s="3">
-        <v>1824500</v>
+        <v>1953300</v>
       </c>
       <c r="I10" s="3">
-        <v>1744100</v>
+        <v>1891400</v>
       </c>
       <c r="J10" s="3">
+        <v>1808100</v>
+      </c>
+      <c r="K10" s="3">
         <v>2406300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1965300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1938700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1909500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2921800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2423400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2630900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2064500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>3308000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2411800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2362700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1986300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>3160500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>2362000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>2480000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>2228900</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>3167600</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>2553600</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>2534000</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1046,8 +1058,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1126,8 +1139,11 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,37 +1222,40 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>-1400</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>-225200</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
@@ -1253,14 +1272,14 @@
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S14" s="3">
         <v>710200</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>411800</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>8</v>
@@ -1286,8 +1305,11 @@
       <c r="AB14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1366,8 +1388,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,168 +1418,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5750600</v>
+        <v>6314400</v>
       </c>
       <c r="E17" s="3">
-        <v>5624200</v>
+        <v>5961500</v>
       </c>
       <c r="F17" s="3">
-        <v>6882800</v>
+        <v>5830500</v>
       </c>
       <c r="G17" s="3">
-        <v>5780800</v>
+        <v>7135200</v>
       </c>
       <c r="H17" s="3">
-        <v>5766200</v>
+        <v>5992800</v>
       </c>
       <c r="I17" s="3">
-        <v>5446800</v>
+        <v>5977700</v>
       </c>
       <c r="J17" s="3">
+        <v>5646600</v>
+      </c>
+      <c r="K17" s="3">
         <v>6756200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5870400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6146800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6657800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>8948800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7951700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>8476400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>7651800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>10348900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>9497100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>8836700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>7163500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>9293500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>8973100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>8837100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>8295900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>10123400</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>8749800</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>8640300</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>534400</v>
+        <v>531500</v>
       </c>
       <c r="E18" s="3">
-        <v>181500</v>
+        <v>553900</v>
       </c>
       <c r="F18" s="3">
-        <v>514300</v>
+        <v>188200</v>
       </c>
       <c r="G18" s="3">
-        <v>462200</v>
+        <v>533100</v>
       </c>
       <c r="H18" s="3">
-        <v>338500</v>
+        <v>479100</v>
       </c>
       <c r="I18" s="3">
-        <v>239200</v>
+        <v>350900</v>
       </c>
       <c r="J18" s="3">
+        <v>248000</v>
+      </c>
+      <c r="K18" s="3">
         <v>784000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>685300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>311400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>190000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>793000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>459300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>621900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>31000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>612000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-271200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>145700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>723500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1301400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>95200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>208400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>44800</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>558700</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>304900</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>299900</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,408 +1615,424 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>126600</v>
+        <v>20400</v>
       </c>
       <c r="E20" s="3">
-        <v>96300</v>
+        <v>131300</v>
       </c>
       <c r="F20" s="3">
-        <v>70500</v>
+        <v>99800</v>
       </c>
       <c r="G20" s="3">
-        <v>31200</v>
+        <v>73100</v>
       </c>
       <c r="H20" s="3">
-        <v>20300</v>
+        <v>32400</v>
       </c>
       <c r="I20" s="3">
-        <v>46300</v>
+        <v>21000</v>
       </c>
       <c r="J20" s="3">
+        <v>48000</v>
+      </c>
+      <c r="K20" s="3">
         <v>126900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>24200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>22400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>38400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>44700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>40000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>72600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>35800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>72600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>35300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>49200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>165400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>244600</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>32400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>271100</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>30400</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>27500</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>46900</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>963500</v>
+        <v>867600</v>
       </c>
       <c r="E21" s="3">
-        <v>594600</v>
+        <v>998900</v>
       </c>
       <c r="F21" s="3">
-        <v>952700</v>
+        <v>616400</v>
       </c>
       <c r="G21" s="3">
-        <v>811600</v>
+        <v>987700</v>
       </c>
       <c r="H21" s="3">
-        <v>680000</v>
+        <v>841400</v>
       </c>
       <c r="I21" s="3">
-        <v>599600</v>
+        <v>704900</v>
       </c>
       <c r="J21" s="3">
+        <v>621500</v>
+      </c>
+      <c r="K21" s="3">
         <v>1268900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1026700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>655300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>576300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1317400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>966700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1181400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>573300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1083600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>161400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>548600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1220000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1952300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>501700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>862300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>446500</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1096200</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>746400</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>721600</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>6500</v>
+        <v>8200</v>
       </c>
       <c r="E22" s="3">
-        <v>6000</v>
+        <v>6700</v>
       </c>
       <c r="F22" s="3">
-        <v>6500</v>
+        <v>6200</v>
       </c>
       <c r="G22" s="3">
-        <v>4800</v>
+        <v>6700</v>
       </c>
       <c r="H22" s="3">
+        <v>5000</v>
+      </c>
+      <c r="I22" s="3">
+        <v>5100</v>
+      </c>
+      <c r="J22" s="3">
         <v>4900</v>
       </c>
-      <c r="I22" s="3">
-        <v>4800</v>
-      </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>5000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>5400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>6100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>7000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>9800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>9200</v>
-      </c>
-      <c r="P22" s="3">
-        <v>9500</v>
       </c>
       <c r="Q22" s="3">
         <v>9500</v>
       </c>
       <c r="R22" s="3">
+        <v>9500</v>
+      </c>
+      <c r="S22" s="3">
         <v>7800</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>8100</v>
-      </c>
-      <c r="T22" s="3">
-        <v>7200</v>
       </c>
       <c r="U22" s="3">
         <v>7200</v>
       </c>
       <c r="V22" s="3">
+        <v>7200</v>
+      </c>
+      <c r="W22" s="3">
         <v>8400</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>9500</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>10000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>8300</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>10800</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>8600</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>654500</v>
+        <v>543800</v>
       </c>
       <c r="E23" s="3">
-        <v>271800</v>
+        <v>678500</v>
       </c>
       <c r="F23" s="3">
-        <v>578300</v>
+        <v>281800</v>
       </c>
       <c r="G23" s="3">
-        <v>488600</v>
+        <v>599500</v>
       </c>
       <c r="H23" s="3">
-        <v>353900</v>
+        <v>506500</v>
       </c>
       <c r="I23" s="3">
-        <v>280700</v>
+        <v>366900</v>
       </c>
       <c r="J23" s="3">
+        <v>291000</v>
+      </c>
+      <c r="K23" s="3">
         <v>905900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>704100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>327700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>221400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>827900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>490000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>685000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>57400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>676800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-244100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>187800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>881700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1537600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>118000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>469500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>66900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>575400</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>343200</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>320900</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>196200</v>
+        <v>194000</v>
       </c>
       <c r="E24" s="3">
-        <v>78000</v>
+        <v>203400</v>
       </c>
       <c r="F24" s="3">
-        <v>111200</v>
+        <v>80900</v>
       </c>
       <c r="G24" s="3">
-        <v>-80100</v>
+        <v>115200</v>
       </c>
       <c r="H24" s="3">
-        <v>88000</v>
+        <v>-83100</v>
       </c>
       <c r="I24" s="3">
-        <v>71300</v>
+        <v>91200</v>
       </c>
       <c r="J24" s="3">
+        <v>73900</v>
+      </c>
+      <c r="K24" s="3">
         <v>252900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>182100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>85900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>58000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>286700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>153400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>166900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>6400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>162000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>29600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>93200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>191300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>502900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>37600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>75200</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>57500</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>39300</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>149900</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>79400</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2111,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>458300</v>
+        <v>349700</v>
       </c>
       <c r="E26" s="3">
-        <v>193800</v>
+        <v>475100</v>
       </c>
       <c r="F26" s="3">
-        <v>467100</v>
+        <v>200900</v>
       </c>
       <c r="G26" s="3">
-        <v>568700</v>
+        <v>484300</v>
       </c>
       <c r="H26" s="3">
-        <v>265900</v>
+        <v>589600</v>
       </c>
       <c r="I26" s="3">
-        <v>209400</v>
+        <v>275700</v>
       </c>
       <c r="J26" s="3">
+        <v>217100</v>
+      </c>
+      <c r="K26" s="3">
         <v>653000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>522100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>241800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>163400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>541200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>336600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>518200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>51000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>514800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-273600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>94600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>690400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1034700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>80500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>394300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>9400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>536000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>193300</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>241500</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>387800</v>
+        <v>299600</v>
       </c>
       <c r="E27" s="3">
-        <v>122500</v>
+        <v>402000</v>
       </c>
       <c r="F27" s="3">
-        <v>414100</v>
+        <v>127000</v>
       </c>
       <c r="G27" s="3">
-        <v>505800</v>
+        <v>429300</v>
       </c>
       <c r="H27" s="3">
-        <v>204000</v>
+        <v>524400</v>
       </c>
       <c r="I27" s="3">
-        <v>171300</v>
+        <v>211500</v>
       </c>
       <c r="J27" s="3">
+        <v>177600</v>
+      </c>
+      <c r="K27" s="3">
         <v>626100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>493100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>225500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>155000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>529800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>330200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>519800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>65000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>510300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-280100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>77800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>661400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1029700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>50100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>380700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-13200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>529200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>159500</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>211300</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2360,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2347,8 +2407,8 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
@@ -2362,29 +2422,32 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V29" s="3">
-        <v>0</v>
+      <c r="V29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
         <v>58000</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>-7100</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>32600</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>-30200</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AB29" s="3">
         <v>21200</v>
       </c>
-      <c r="AB29" s="3">
+      <c r="AC29" s="3">
         <v>18600</v>
       </c>
     </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2526,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,168 +2609,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-126600</v>
+        <v>-20400</v>
       </c>
       <c r="E32" s="3">
-        <v>-96300</v>
+        <v>-131300</v>
       </c>
       <c r="F32" s="3">
-        <v>-70500</v>
+        <v>-99800</v>
       </c>
       <c r="G32" s="3">
-        <v>-31200</v>
+        <v>-73100</v>
       </c>
       <c r="H32" s="3">
-        <v>-20300</v>
+        <v>-32400</v>
       </c>
       <c r="I32" s="3">
-        <v>-46300</v>
+        <v>-21000</v>
       </c>
       <c r="J32" s="3">
+        <v>-48000</v>
+      </c>
+      <c r="K32" s="3">
         <v>-126900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-24200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-22400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-38400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-44700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-40000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-72600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-35800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-72600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-35300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-49200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-165400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-244600</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-32400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-271100</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-30400</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-27500</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-46900</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-30200</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>387800</v>
+        <v>299600</v>
       </c>
       <c r="E33" s="3">
-        <v>122500</v>
+        <v>402000</v>
       </c>
       <c r="F33" s="3">
-        <v>414100</v>
+        <v>127000</v>
       </c>
       <c r="G33" s="3">
-        <v>505800</v>
+        <v>429300</v>
       </c>
       <c r="H33" s="3">
-        <v>204000</v>
+        <v>524400</v>
       </c>
       <c r="I33" s="3">
-        <v>171300</v>
+        <v>211500</v>
       </c>
       <c r="J33" s="3">
+        <v>177600</v>
+      </c>
+      <c r="K33" s="3">
         <v>626100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>493100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>225500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>155000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>529800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>330200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>519800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>65000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>510300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-280100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>77800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>661400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1029700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>108100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>373600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>19400</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>499000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>180700</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>229900</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2858,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>387800</v>
+        <v>299600</v>
       </c>
       <c r="E35" s="3">
-        <v>122500</v>
+        <v>402000</v>
       </c>
       <c r="F35" s="3">
-        <v>414100</v>
+        <v>127000</v>
       </c>
       <c r="G35" s="3">
-        <v>505800</v>
+        <v>429300</v>
       </c>
       <c r="H35" s="3">
-        <v>204000</v>
+        <v>524400</v>
       </c>
       <c r="I35" s="3">
-        <v>171300</v>
+        <v>211500</v>
       </c>
       <c r="J35" s="3">
+        <v>177600</v>
+      </c>
+      <c r="K35" s="3">
         <v>626100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>493100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>225500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>155000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>529800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>330200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>519800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>65000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>510300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-280100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>77800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>661400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1029700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>108100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>373600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>19400</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>499000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>180700</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>229900</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3062,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,88 +3093,92 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3244200</v>
+        <v>2710200</v>
       </c>
       <c r="E41" s="3">
-        <v>3351700</v>
+        <v>3363200</v>
       </c>
       <c r="F41" s="3">
-        <v>3431700</v>
+        <v>3474600</v>
       </c>
       <c r="G41" s="3">
-        <v>3032100</v>
+        <v>3557500</v>
       </c>
       <c r="H41" s="3">
-        <v>3374000</v>
+        <v>3143300</v>
       </c>
       <c r="I41" s="3">
-        <v>4087100</v>
+        <v>3497700</v>
       </c>
       <c r="J41" s="3">
+        <v>4237000</v>
+      </c>
+      <c r="K41" s="3">
         <v>3416200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3426200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3825500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4852800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3980900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4593600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3795500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4251000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4004300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3420000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4022600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4852800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>4091100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>3514500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>3640500</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>3944200</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>3376800</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>3378700</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>2907800</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3168,568 +3257,592 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>6187900</v>
+        <v>6930700</v>
       </c>
       <c r="E43" s="3">
-        <v>5450400</v>
+        <v>6414900</v>
       </c>
       <c r="F43" s="3">
-        <v>7495200</v>
+        <v>5650200</v>
       </c>
       <c r="G43" s="3">
-        <v>4320900</v>
+        <v>7770100</v>
       </c>
       <c r="H43" s="3">
-        <v>4332700</v>
+        <v>4479400</v>
       </c>
       <c r="I43" s="3">
-        <v>3803000</v>
+        <v>4491600</v>
       </c>
       <c r="J43" s="3">
+        <v>3942500</v>
+      </c>
+      <c r="K43" s="3">
         <v>7165400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4829500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5049500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>5239100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>9402300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>8281200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>8687800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>6009400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>10890900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>8897700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>8539000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>7949100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>9504100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>8140100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>8112800</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>7229000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>9456200</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>8723500</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>8133900</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2781000</v>
+        <v>2960600</v>
       </c>
       <c r="E44" s="3">
-        <v>2542700</v>
+        <v>2882900</v>
       </c>
       <c r="F44" s="3">
-        <v>2196700</v>
+        <v>2635900</v>
       </c>
       <c r="G44" s="3">
-        <v>2386800</v>
+        <v>2277200</v>
       </c>
       <c r="H44" s="3">
-        <v>2114300</v>
+        <v>2474400</v>
       </c>
       <c r="I44" s="3">
-        <v>1941400</v>
+        <v>2191900</v>
       </c>
       <c r="J44" s="3">
+        <v>2012600</v>
+      </c>
+      <c r="K44" s="3">
         <v>1680400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2054500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2066100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2129500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2097400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3024800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2673300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2530200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2172300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2782400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>2567900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>2568900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>2184100</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>2619100</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>2715300</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>2696200</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>2600400</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>3205000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>2890300</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>904800</v>
+        <v>744300</v>
       </c>
       <c r="E45" s="3">
-        <v>1378600</v>
+        <v>938000</v>
       </c>
       <c r="F45" s="3">
-        <v>643900</v>
+        <v>1429200</v>
       </c>
       <c r="G45" s="3">
-        <v>2713000</v>
+        <v>667500</v>
       </c>
       <c r="H45" s="3">
-        <v>2440000</v>
+        <v>2812500</v>
       </c>
       <c r="I45" s="3">
-        <v>2203900</v>
+        <v>2529500</v>
       </c>
       <c r="J45" s="3">
+        <v>2284700</v>
+      </c>
+      <c r="K45" s="3">
         <v>1018200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2633100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2546200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2477400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1180300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1108300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1754000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3237300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1761800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2739100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2608500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1638200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1101100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1572900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>2370700</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>2509100</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>908800</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>924000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>838300</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>13117900</v>
+        <v>13345700</v>
       </c>
       <c r="E46" s="3">
-        <v>12723300</v>
+        <v>13598900</v>
       </c>
       <c r="F46" s="3">
-        <v>13767600</v>
+        <v>13189900</v>
       </c>
       <c r="G46" s="3">
-        <v>12452800</v>
+        <v>14272400</v>
       </c>
       <c r="H46" s="3">
-        <v>12261100</v>
+        <v>12909500</v>
       </c>
       <c r="I46" s="3">
-        <v>12035500</v>
+        <v>12710700</v>
       </c>
       <c r="J46" s="3">
+        <v>12476800</v>
+      </c>
+      <c r="K46" s="3">
         <v>13280200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>12943200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>13487200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>14698800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>16660800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>17008000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>16910600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>16027800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>18829300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>17839300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>17738000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>17009000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>16880400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>15846500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>16839400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>16378500</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>16342100</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>16231300</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>14770300</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2435200</v>
+        <v>2414900</v>
       </c>
       <c r="E47" s="3">
-        <v>2523400</v>
+        <v>2524500</v>
       </c>
       <c r="F47" s="3">
-        <v>2383900</v>
+        <v>2615900</v>
       </c>
       <c r="G47" s="3">
-        <v>2356200</v>
+        <v>2471300</v>
       </c>
       <c r="H47" s="3">
-        <v>2370900</v>
+        <v>2442600</v>
       </c>
       <c r="I47" s="3">
-        <v>2434700</v>
+        <v>2457900</v>
       </c>
       <c r="J47" s="3">
+        <v>2524000</v>
+      </c>
+      <c r="K47" s="3">
         <v>2348800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2374400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2381600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2525800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2488700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2723200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2673900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2637700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2859800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2699000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>3077600</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>3008500</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>2818600</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>2568300</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>2387000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>2600400</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>2588500</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>2502100</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>2282100</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4004700</v>
+        <v>4080000</v>
       </c>
       <c r="E48" s="3">
-        <v>4047500</v>
+        <v>4151500</v>
       </c>
       <c r="F48" s="3">
-        <v>4049600</v>
+        <v>4195900</v>
       </c>
       <c r="G48" s="3">
-        <v>4083400</v>
+        <v>4198100</v>
       </c>
       <c r="H48" s="3">
-        <v>4123000</v>
+        <v>4233200</v>
       </c>
       <c r="I48" s="3">
-        <v>4170800</v>
+        <v>4274200</v>
       </c>
       <c r="J48" s="3">
+        <v>4323800</v>
+      </c>
+      <c r="K48" s="3">
         <v>4038400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4102900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4325900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4793500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5023200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5304800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5438700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5457000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>4219500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>4201800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>4224000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>4290200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>4751300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>4833700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>4984100</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>4980900</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>5292300</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>5365800</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>5402900</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1348800</v>
+        <v>1435900</v>
       </c>
       <c r="E49" s="3">
-        <v>1299700</v>
+        <v>1398300</v>
       </c>
       <c r="F49" s="3">
-        <v>1285700</v>
+        <v>1347400</v>
       </c>
       <c r="G49" s="3">
-        <v>1212100</v>
+        <v>1332900</v>
       </c>
       <c r="H49" s="3">
-        <v>1187100</v>
+        <v>1256600</v>
       </c>
       <c r="I49" s="3">
-        <v>1161000</v>
+        <v>1230600</v>
       </c>
       <c r="J49" s="3">
+        <v>1203500</v>
+      </c>
+      <c r="K49" s="3">
         <v>1146400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1156000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1188300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1253900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1268000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1348400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1323100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1381900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1492000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1482000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1521000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1508100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1565500</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1609100</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1638400</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>1634800</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>1731500</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>1773700</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>1761300</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3921,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,88 +4004,94 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1951500</v>
+        <v>1752000</v>
       </c>
       <c r="E52" s="3">
-        <v>2005300</v>
+        <v>2023100</v>
       </c>
       <c r="F52" s="3">
-        <v>2135800</v>
+        <v>2078900</v>
       </c>
       <c r="G52" s="3">
-        <v>1985000</v>
+        <v>2214100</v>
       </c>
       <c r="H52" s="3">
-        <v>1697900</v>
+        <v>2057800</v>
       </c>
       <c r="I52" s="3">
-        <v>1708000</v>
+        <v>1760200</v>
       </c>
       <c r="J52" s="3">
+        <v>1770700</v>
+      </c>
+      <c r="K52" s="3">
         <v>1804700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1637500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1905100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2190600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2640800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1992500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2260600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2231800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2436900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2024100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>2036300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1967800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>2202800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>2103500</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>2053100</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>1898900</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>2354200</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>2168000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>2425900</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4170,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>22858000</v>
+        <v>23028600</v>
       </c>
       <c r="E54" s="3">
-        <v>22599200</v>
+        <v>23696200</v>
       </c>
       <c r="F54" s="3">
-        <v>23622500</v>
+        <v>23428000</v>
       </c>
       <c r="G54" s="3">
-        <v>22089600</v>
+        <v>24488800</v>
       </c>
       <c r="H54" s="3">
-        <v>21640000</v>
+        <v>22899700</v>
       </c>
       <c r="I54" s="3">
-        <v>21510000</v>
+        <v>22433600</v>
       </c>
       <c r="J54" s="3">
+        <v>22298800</v>
+      </c>
+      <c r="K54" s="3">
         <v>22618600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>22214000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>23288200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>25462700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>28081400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>28376800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>28606900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>27736200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>29837500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>28246100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>28596900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>27783500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>28218600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>26961200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>27902100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>27493600</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>28308600</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>28040900</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>26642400</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4286,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,488 +4317,507 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3050500</v>
+        <v>3209000</v>
       </c>
       <c r="E57" s="3">
-        <v>2997300</v>
+        <v>3162400</v>
       </c>
       <c r="F57" s="3">
-        <v>3295400</v>
+        <v>3107200</v>
       </c>
       <c r="G57" s="3">
-        <v>3127400</v>
+        <v>3416200</v>
       </c>
       <c r="H57" s="3">
-        <v>3050400</v>
+        <v>3242100</v>
       </c>
       <c r="I57" s="3">
-        <v>2756300</v>
+        <v>3162200</v>
       </c>
       <c r="J57" s="3">
+        <v>2857400</v>
+      </c>
+      <c r="K57" s="3">
         <v>3284700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3201200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3215500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3384800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4177500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4421000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4504000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>4041700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>5081200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>4770900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>4895000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>4925800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>4890100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>4536100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>4442700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>4365700</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>5479100</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>5278500</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>4733500</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>953100</v>
+        <v>1123600</v>
       </c>
       <c r="E58" s="3">
-        <v>967000</v>
+        <v>988000</v>
       </c>
       <c r="F58" s="3">
-        <v>1196600</v>
+        <v>1002400</v>
       </c>
       <c r="G58" s="3">
-        <v>1124300</v>
+        <v>1240400</v>
       </c>
       <c r="H58" s="3">
-        <v>1103400</v>
+        <v>1165500</v>
       </c>
       <c r="I58" s="3">
-        <v>1068600</v>
+        <v>1143900</v>
       </c>
       <c r="J58" s="3">
+        <v>1107800</v>
+      </c>
+      <c r="K58" s="3">
         <v>1235600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1472400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1649000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2044000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1757200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2170500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1874100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1445400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1257700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1139500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1370500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1457300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1223900</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1843800</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1758100</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1742400</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>1160100</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>2089100</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>1598500</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4301300</v>
+        <v>4236700</v>
       </c>
       <c r="E59" s="3">
-        <v>4388100</v>
+        <v>4459100</v>
       </c>
       <c r="F59" s="3">
-        <v>4872100</v>
+        <v>4549000</v>
       </c>
       <c r="G59" s="3">
-        <v>3958000</v>
+        <v>5050700</v>
       </c>
       <c r="H59" s="3">
-        <v>3988400</v>
+        <v>4103200</v>
       </c>
       <c r="I59" s="3">
-        <v>4097400</v>
+        <v>4134700</v>
       </c>
       <c r="J59" s="3">
+        <v>4247700</v>
+      </c>
+      <c r="K59" s="3">
         <v>4622300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4288800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4783000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>5037200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>6096400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>5430800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>5602200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>5604600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>6777800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>6198400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>5931800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>5503600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>5842700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>5204500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>6069800</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>6141100</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>6062600</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>5314400</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>5197200</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>8305000</v>
+        <v>8569200</v>
       </c>
       <c r="E60" s="3">
-        <v>8352400</v>
+        <v>8609500</v>
       </c>
       <c r="F60" s="3">
-        <v>9364000</v>
+        <v>8658700</v>
       </c>
       <c r="G60" s="3">
-        <v>8209700</v>
+        <v>9707400</v>
       </c>
       <c r="H60" s="3">
-        <v>8142200</v>
+        <v>8510800</v>
       </c>
       <c r="I60" s="3">
-        <v>7922400</v>
+        <v>8440800</v>
       </c>
       <c r="J60" s="3">
+        <v>8212900</v>
+      </c>
+      <c r="K60" s="3">
         <v>9142500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>8962400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>9647500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>10466000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>12031000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>12022300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>11980300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>11091700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>13116800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>12108900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>12197300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>11886800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>11956700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>11584400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>12270600</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>12249300</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>12701800</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>12682100</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>11529200</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>774700</v>
+        <v>797200</v>
       </c>
       <c r="E61" s="3">
-        <v>822600</v>
+        <v>803100</v>
       </c>
       <c r="F61" s="3">
-        <v>826400</v>
+        <v>852700</v>
       </c>
       <c r="G61" s="3">
-        <v>952500</v>
+        <v>856700</v>
       </c>
       <c r="H61" s="3">
-        <v>970000</v>
+        <v>987400</v>
       </c>
       <c r="I61" s="3">
-        <v>1150600</v>
+        <v>1005600</v>
       </c>
       <c r="J61" s="3">
+        <v>1192800</v>
+      </c>
+      <c r="K61" s="3">
         <v>1007200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1060200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1197700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1446600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1815900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2113600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2349700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2693000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1781100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2114900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2085900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2071600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2409200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2514000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>2845600</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>2850300</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>3142700</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>3330600</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>3416600</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1062700</v>
+        <v>1040700</v>
       </c>
       <c r="E62" s="3">
-        <v>1102700</v>
+        <v>1101600</v>
       </c>
       <c r="F62" s="3">
-        <v>1267500</v>
+        <v>1143100</v>
       </c>
       <c r="G62" s="3">
-        <v>1282600</v>
+        <v>1314000</v>
       </c>
       <c r="H62" s="3">
-        <v>1315600</v>
+        <v>1329600</v>
       </c>
       <c r="I62" s="3">
-        <v>1379500</v>
+        <v>1363900</v>
       </c>
       <c r="J62" s="3">
+        <v>1430100</v>
+      </c>
+      <c r="K62" s="3">
         <v>1501300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1699300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1882000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2089500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2354800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2252000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2448600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2622000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2892300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2815900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>2349600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>2433100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>2960400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>2738600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>3007700</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>3186800</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>3423800</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>3635400</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>4100300</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4896,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4979,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5062,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>11156800</v>
+        <v>11488700</v>
       </c>
       <c r="E66" s="3">
-        <v>11221000</v>
+        <v>11566000</v>
       </c>
       <c r="F66" s="3">
-        <v>12344400</v>
+        <v>11632500</v>
       </c>
       <c r="G66" s="3">
-        <v>11273500</v>
+        <v>12797100</v>
       </c>
       <c r="H66" s="3">
-        <v>11201600</v>
+        <v>11686900</v>
       </c>
       <c r="I66" s="3">
-        <v>11166900</v>
+        <v>11612400</v>
       </c>
       <c r="J66" s="3">
+        <v>11576400</v>
+      </c>
+      <c r="K66" s="3">
         <v>12337100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>12389100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>13413200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>14929300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>17148600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>17363200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>17853700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>17483400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>18958500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>18179000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>17756300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>17466900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>18384900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>17967300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>19395400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>19535600</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>20491500</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>20859700</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>20204800</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5178,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5259,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5342,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5425,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5508,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>8159900</v>
+        <v>8474800</v>
       </c>
       <c r="E72" s="3">
-        <v>7762400</v>
+        <v>8459200</v>
       </c>
       <c r="F72" s="3">
-        <v>7717000</v>
+        <v>8047100</v>
       </c>
       <c r="G72" s="3">
-        <v>7257200</v>
+        <v>8000000</v>
       </c>
       <c r="H72" s="3">
-        <v>6777600</v>
+        <v>7523300</v>
       </c>
       <c r="I72" s="3">
-        <v>6570900</v>
+        <v>7026100</v>
       </c>
       <c r="J72" s="3">
+        <v>6811900</v>
+      </c>
+      <c r="K72" s="3">
         <v>6445800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>5832600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>5761000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>6145800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>6483500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>5905600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>5726800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>5205100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>5543600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>4808000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>5381100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>5046900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>4337200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>3458200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>3040200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>2400300</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>2358500</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>1640600</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>1192500</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5674,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5757,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +5840,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>11701200</v>
+        <v>11539900</v>
       </c>
       <c r="E76" s="3">
-        <v>11378300</v>
+        <v>12130200</v>
       </c>
       <c r="F76" s="3">
-        <v>11278200</v>
+        <v>11795500</v>
       </c>
       <c r="G76" s="3">
-        <v>10816100</v>
+        <v>11691700</v>
       </c>
       <c r="H76" s="3">
-        <v>10438400</v>
+        <v>11212800</v>
       </c>
       <c r="I76" s="3">
-        <v>10343000</v>
+        <v>10821200</v>
       </c>
       <c r="J76" s="3">
+        <v>10722300</v>
+      </c>
+      <c r="K76" s="3">
         <v>10281500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>9824900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>9874900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>10533400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>10932800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>11013600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>10753200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>10252800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>10879000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>10067100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>10840600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>10316700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>9833700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>8993900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>8506700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>7958000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>7817100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>7181100</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>6437700</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6006,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>387800</v>
+        <v>299600</v>
       </c>
       <c r="E81" s="3">
-        <v>122500</v>
+        <v>402000</v>
       </c>
       <c r="F81" s="3">
-        <v>414100</v>
+        <v>127000</v>
       </c>
       <c r="G81" s="3">
-        <v>505800</v>
+        <v>429300</v>
       </c>
       <c r="H81" s="3">
-        <v>204000</v>
+        <v>524400</v>
       </c>
       <c r="I81" s="3">
-        <v>171300</v>
+        <v>211500</v>
       </c>
       <c r="J81" s="3">
+        <v>177600</v>
+      </c>
+      <c r="K81" s="3">
         <v>626100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>493100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>225500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>155000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>529800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>330200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>519800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>65000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>510300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-280100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>77800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>661400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1029700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>108100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>373600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>19400</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>499000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>180700</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>229900</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,88 +6210,92 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>302500</v>
+        <v>315600</v>
       </c>
       <c r="E83" s="3">
-        <v>316800</v>
+        <v>313600</v>
       </c>
       <c r="F83" s="3">
-        <v>367900</v>
+        <v>328400</v>
       </c>
       <c r="G83" s="3">
-        <v>318200</v>
+        <v>381400</v>
       </c>
       <c r="H83" s="3">
-        <v>321200</v>
+        <v>329900</v>
       </c>
       <c r="I83" s="3">
-        <v>314100</v>
+        <v>333000</v>
       </c>
       <c r="J83" s="3">
+        <v>325600</v>
+      </c>
+      <c r="K83" s="3">
         <v>358000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>317200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>321500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>347900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>479800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>467500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>486900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>506400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>399000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>397400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>353700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>331100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>406300</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>374200</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>382800</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>371200</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>510100</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>394600</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>391500</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6374,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6457,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6540,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6623,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,88 +6706,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-261300</v>
+        <v>-79700</v>
       </c>
       <c r="E89" s="3">
-        <v>883700</v>
+        <v>-270900</v>
       </c>
       <c r="F89" s="3">
-        <v>382200</v>
+        <v>916100</v>
       </c>
       <c r="G89" s="3">
-        <v>159100</v>
+        <v>396200</v>
       </c>
       <c r="H89" s="3">
-        <v>-141900</v>
+        <v>164900</v>
       </c>
       <c r="I89" s="3">
-        <v>1361400</v>
+        <v>-147100</v>
       </c>
       <c r="J89" s="3">
+        <v>1411300</v>
+      </c>
+      <c r="K89" s="3">
         <v>769400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>311300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>62800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1270100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1149600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>925100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-10600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1066000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>798500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-282800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-542300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>951300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1170800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>146100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-243400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>738300</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>1384900</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>462200</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-176900</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,88 +6822,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-246700</v>
+        <v>-294300</v>
       </c>
       <c r="E91" s="3">
-        <v>-289700</v>
+        <v>-255700</v>
       </c>
       <c r="F91" s="3">
-        <v>-259500</v>
+        <v>-300300</v>
       </c>
       <c r="G91" s="3">
-        <v>-272000</v>
+        <v>-269100</v>
       </c>
       <c r="H91" s="3">
-        <v>-255300</v>
+        <v>-282000</v>
       </c>
       <c r="I91" s="3">
-        <v>-228800</v>
+        <v>-264700</v>
       </c>
       <c r="J91" s="3">
+        <v>-237200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-260100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-250200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-247200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-223700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-299500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-339000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-327900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-238900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-277100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-280100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-308100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-263300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-328500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-278400</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-345300</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-268200</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>796000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-743100</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-1114100</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6986,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,88 +7069,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>127400</v>
+        <v>97200</v>
       </c>
       <c r="E94" s="3">
-        <v>-414500</v>
+        <v>132100</v>
       </c>
       <c r="F94" s="3">
-        <v>182700</v>
+        <v>-429700</v>
       </c>
       <c r="G94" s="3">
-        <v>-121200</v>
+        <v>189400</v>
       </c>
       <c r="H94" s="3">
-        <v>-275900</v>
+        <v>-125700</v>
       </c>
       <c r="I94" s="3">
-        <v>-205800</v>
+        <v>-286100</v>
       </c>
       <c r="J94" s="3">
+        <v>-213300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-214800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>21500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-266300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-85400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-613900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>30500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-341100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-98500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-124800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>151500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-165200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>171400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>135400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-19800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-35900</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-283900</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-128400</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-312300</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-509000</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,88 +7185,92 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-173400</v>
       </c>
       <c r="E96" s="3">
-        <v>-153300</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-158900</v>
       </c>
       <c r="G96" s="3">
-        <v>-154400</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-160100</v>
       </c>
       <c r="I96" s="3">
-        <v>-141100</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-146300</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-146800</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-170800</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-147700</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-148500</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-135100</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-112300</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-92700</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
       <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-92700</v>
       </c>
-      <c r="Z96" s="3">
-        <v>0</v>
-      </c>
       <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="3">
         <v>-73400</v>
       </c>
-      <c r="AB96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7349,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7432,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,244 +7515,256 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-105100</v>
+        <v>-637300</v>
       </c>
       <c r="E100" s="3">
-        <v>-486600</v>
+        <v>-108900</v>
       </c>
       <c r="F100" s="3">
-        <v>-201900</v>
+        <v>-504400</v>
       </c>
       <c r="G100" s="3">
-        <v>-396900</v>
+        <v>-209300</v>
       </c>
       <c r="H100" s="3">
-        <v>-285300</v>
+        <v>-411400</v>
       </c>
       <c r="I100" s="3">
-        <v>-489200</v>
+        <v>-295800</v>
       </c>
       <c r="J100" s="3">
+        <v>-507100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-515700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-522700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-403200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-203300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-966600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-224700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-31000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-507600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-328900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-456900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-98000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-394900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-724300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-355700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-24600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>87700</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-1222900</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>222400</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-114400</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>5500</v>
+        <v>-33200</v>
       </c>
       <c r="E101" s="3">
-        <v>63300</v>
+        <v>5700</v>
       </c>
       <c r="F101" s="3">
-        <v>36600</v>
+        <v>65600</v>
       </c>
       <c r="G101" s="3">
-        <v>14900</v>
+        <v>37900</v>
       </c>
       <c r="H101" s="3">
+        <v>15500</v>
+      </c>
+      <c r="I101" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="J101" s="3">
+        <v>4900</v>
+      </c>
+      <c r="K101" s="3">
+        <v>52100</v>
+      </c>
+      <c r="L101" s="3">
+        <v>13000</v>
+      </c>
+      <c r="M101" s="3">
+        <v>10400</v>
+      </c>
+      <c r="N101" s="3">
+        <v>13500</v>
+      </c>
+      <c r="O101" s="3">
+        <v>-28400</v>
+      </c>
+      <c r="P101" s="3">
+        <v>8600</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-8100</v>
       </c>
-      <c r="I101" s="3">
-        <v>4800</v>
-      </c>
-      <c r="J101" s="3">
-        <v>52100</v>
-      </c>
-      <c r="K101" s="3">
-        <v>13000</v>
-      </c>
-      <c r="L101" s="3">
-        <v>10400</v>
-      </c>
-      <c r="M101" s="3">
-        <v>13500</v>
-      </c>
-      <c r="N101" s="3">
-        <v>-28400</v>
-      </c>
-      <c r="O101" s="3">
-        <v>8600</v>
-      </c>
-      <c r="P101" s="3">
-        <v>-8100</v>
-      </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-4000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-25900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-29900</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>15200</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>12400</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-5500</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>12600</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>15900</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>7400</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-6500</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>98700</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-16300</v>
       </c>
     </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-233400</v>
+        <v>-653000</v>
       </c>
       <c r="E102" s="3">
-        <v>45900</v>
+        <v>-242000</v>
       </c>
       <c r="F102" s="3">
-        <v>399600</v>
+        <v>47600</v>
       </c>
       <c r="G102" s="3">
-        <v>-344100</v>
+        <v>414300</v>
       </c>
       <c r="H102" s="3">
-        <v>-711200</v>
+        <v>-356700</v>
       </c>
       <c r="I102" s="3">
-        <v>671200</v>
+        <v>-737300</v>
       </c>
       <c r="J102" s="3">
+        <v>695800</v>
+      </c>
+      <c r="K102" s="3">
         <v>91000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-176900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-596300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>995000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-459200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>739400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-390800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>455900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>318800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-618100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-790300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>740200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>576400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-216800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-288000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>549500</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>27100</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>471000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-816700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FJTSY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FJTSY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
   <si>
     <t>FJTSY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,371 +665,380 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="10" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>6846000</v>
+        <v>7765400</v>
       </c>
       <c r="E8" s="3">
-        <v>6515400</v>
+        <v>6715600</v>
       </c>
       <c r="F8" s="3">
-        <v>6018600</v>
+        <v>6391300</v>
       </c>
       <c r="G8" s="3">
-        <v>7668300</v>
+        <v>5904000</v>
       </c>
       <c r="H8" s="3">
-        <v>6471900</v>
+        <v>7522200</v>
       </c>
       <c r="I8" s="3">
-        <v>6328600</v>
+        <v>6348600</v>
       </c>
       <c r="J8" s="3">
+        <v>6208000</v>
+      </c>
+      <c r="K8" s="3">
         <v>5894600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7540200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6555700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6458300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6847800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>9741800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>8410900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>9098300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>7682800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>10960900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>9225900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>8982400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>7887000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>10594900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>9068300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>9045400</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>8340600</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>10682100</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>9054700</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>8940200</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4797700</v>
+        <v>5125500</v>
       </c>
       <c r="E9" s="3">
-        <v>4596000</v>
+        <v>4706300</v>
       </c>
       <c r="F9" s="3">
-        <v>4268500</v>
+        <v>4508400</v>
       </c>
       <c r="G9" s="3">
-        <v>5099000</v>
+        <v>4187200</v>
       </c>
       <c r="H9" s="3">
-        <v>4518600</v>
+        <v>5001800</v>
       </c>
       <c r="I9" s="3">
-        <v>4437200</v>
+        <v>4432500</v>
       </c>
       <c r="J9" s="3">
+        <v>4352600</v>
+      </c>
+      <c r="K9" s="3">
         <v>4086400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>5133900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4590400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4519500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4938300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>6820000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>5987600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>6467400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>5618400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>7652900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>6814100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>6619700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>5900700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>7434500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>6706300</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>6565400</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>6111700</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>7514400</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>6501100</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>6406200</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2048200</v>
+        <v>2639900</v>
       </c>
       <c r="E10" s="3">
-        <v>1919400</v>
+        <v>2009200</v>
       </c>
       <c r="F10" s="3">
-        <v>1750100</v>
+        <v>1882900</v>
       </c>
       <c r="G10" s="3">
-        <v>2569300</v>
+        <v>1716800</v>
       </c>
       <c r="H10" s="3">
-        <v>1953300</v>
+        <v>2520400</v>
       </c>
       <c r="I10" s="3">
-        <v>1891400</v>
+        <v>1916100</v>
       </c>
       <c r="J10" s="3">
+        <v>1855400</v>
+      </c>
+      <c r="K10" s="3">
         <v>1808100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2406300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1965300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1938700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1909500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2921800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2423400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2630900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2064500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>3308000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2411800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2362700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1986300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>3160500</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>2362000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>2480000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>2228900</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>3167600</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>2553600</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>2534000</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1059,8 +1068,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1142,8 +1152,11 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1225,19 +1238,22 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>-1400</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E14" s="3">
-        <v>-225200</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
+        <v>-1300</v>
+      </c>
+      <c r="F14" s="3">
+        <v>-220900</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -1251,14 +1267,14 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
@@ -1275,14 +1291,14 @@
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
+      <c r="S14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T14" s="3">
         <v>710200</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>411800</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>8</v>
@@ -1308,8 +1324,11 @@
       <c r="AC14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1391,8 +1410,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1419,174 +1441,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6314400</v>
+        <v>6595000</v>
       </c>
       <c r="E17" s="3">
-        <v>5961500</v>
+        <v>6194200</v>
       </c>
       <c r="F17" s="3">
-        <v>5830500</v>
+        <v>5847900</v>
       </c>
       <c r="G17" s="3">
-        <v>7135200</v>
+        <v>5719400</v>
       </c>
       <c r="H17" s="3">
-        <v>5992800</v>
+        <v>6999200</v>
       </c>
       <c r="I17" s="3">
-        <v>5977700</v>
+        <v>5878600</v>
       </c>
       <c r="J17" s="3">
+        <v>5863800</v>
+      </c>
+      <c r="K17" s="3">
         <v>5646600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6756200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5870400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6146800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6657800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>8948800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>7951700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>8476400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>7651800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>10348900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>9497100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>8836700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>7163500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>9293500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>8973100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>8837100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>8295900</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>10123400</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>8749800</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>8640300</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>531500</v>
+        <v>1170400</v>
       </c>
       <c r="E18" s="3">
-        <v>553900</v>
+        <v>521400</v>
       </c>
       <c r="F18" s="3">
-        <v>188200</v>
+        <v>543400</v>
       </c>
       <c r="G18" s="3">
-        <v>533100</v>
+        <v>184600</v>
       </c>
       <c r="H18" s="3">
-        <v>479100</v>
+        <v>523000</v>
       </c>
       <c r="I18" s="3">
-        <v>350900</v>
+        <v>470000</v>
       </c>
       <c r="J18" s="3">
+        <v>344200</v>
+      </c>
+      <c r="K18" s="3">
         <v>248000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>784000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>685300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>311400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>190000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>793000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>459300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>621900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>31000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>612000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-271200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>145700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>723500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1301400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>95200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>208400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>44800</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>558700</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>304900</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>299900</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1616,423 +1645,439 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>20400</v>
+        <v>35400</v>
       </c>
       <c r="E20" s="3">
-        <v>131300</v>
+        <v>20100</v>
       </c>
       <c r="F20" s="3">
-        <v>99800</v>
+        <v>128800</v>
       </c>
       <c r="G20" s="3">
-        <v>73100</v>
+        <v>97900</v>
       </c>
       <c r="H20" s="3">
+        <v>71700</v>
+      </c>
+      <c r="I20" s="3">
+        <v>31700</v>
+      </c>
+      <c r="J20" s="3">
+        <v>20600</v>
+      </c>
+      <c r="K20" s="3">
+        <v>48000</v>
+      </c>
+      <c r="L20" s="3">
+        <v>126900</v>
+      </c>
+      <c r="M20" s="3">
+        <v>24200</v>
+      </c>
+      <c r="N20" s="3">
+        <v>22400</v>
+      </c>
+      <c r="O20" s="3">
+        <v>38400</v>
+      </c>
+      <c r="P20" s="3">
+        <v>44700</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>40000</v>
+      </c>
+      <c r="R20" s="3">
+        <v>72600</v>
+      </c>
+      <c r="S20" s="3">
+        <v>35800</v>
+      </c>
+      <c r="T20" s="3">
+        <v>72600</v>
+      </c>
+      <c r="U20" s="3">
+        <v>35300</v>
+      </c>
+      <c r="V20" s="3">
+        <v>49200</v>
+      </c>
+      <c r="W20" s="3">
+        <v>165400</v>
+      </c>
+      <c r="X20" s="3">
+        <v>244600</v>
+      </c>
+      <c r="Y20" s="3">
         <v>32400</v>
       </c>
-      <c r="I20" s="3">
-        <v>21000</v>
-      </c>
-      <c r="J20" s="3">
-        <v>48000</v>
-      </c>
-      <c r="K20" s="3">
-        <v>126900</v>
-      </c>
-      <c r="L20" s="3">
-        <v>24200</v>
-      </c>
-      <c r="M20" s="3">
-        <v>22400</v>
-      </c>
-      <c r="N20" s="3">
-        <v>38400</v>
-      </c>
-      <c r="O20" s="3">
-        <v>44700</v>
-      </c>
-      <c r="P20" s="3">
-        <v>40000</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>72600</v>
-      </c>
-      <c r="R20" s="3">
-        <v>35800</v>
-      </c>
-      <c r="S20" s="3">
-        <v>72600</v>
-      </c>
-      <c r="T20" s="3">
-        <v>35300</v>
-      </c>
-      <c r="U20" s="3">
-        <v>49200</v>
-      </c>
-      <c r="V20" s="3">
-        <v>165400</v>
-      </c>
-      <c r="W20" s="3">
-        <v>244600</v>
-      </c>
-      <c r="X20" s="3">
-        <v>32400</v>
-      </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>271100</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>30400</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>27500</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>46900</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>867600</v>
+        <v>1558600</v>
       </c>
       <c r="E21" s="3">
-        <v>998900</v>
+        <v>851100</v>
       </c>
       <c r="F21" s="3">
-        <v>616400</v>
+        <v>979800</v>
       </c>
       <c r="G21" s="3">
-        <v>987700</v>
+        <v>604700</v>
       </c>
       <c r="H21" s="3">
-        <v>841400</v>
+        <v>968900</v>
       </c>
       <c r="I21" s="3">
-        <v>704900</v>
+        <v>825300</v>
       </c>
       <c r="J21" s="3">
+        <v>691500</v>
+      </c>
+      <c r="K21" s="3">
         <v>621500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1268900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1026700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>655300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>576300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1317400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>966700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1181400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>573300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1083600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>161400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>548600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1220000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1952300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>501700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>862300</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>446500</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1096200</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>746400</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>721600</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>8200</v>
+      <c r="D22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E22" s="3">
-        <v>6700</v>
+        <v>8000</v>
       </c>
       <c r="F22" s="3">
-        <v>6200</v>
+        <v>6600</v>
       </c>
       <c r="G22" s="3">
-        <v>6700</v>
+        <v>6100</v>
       </c>
       <c r="H22" s="3">
+        <v>6600</v>
+      </c>
+      <c r="I22" s="3">
+        <v>4900</v>
+      </c>
+      <c r="J22" s="3">
         <v>5000</v>
       </c>
-      <c r="I22" s="3">
-        <v>5100</v>
-      </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>4900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>5000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>5400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>6100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>7000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>9800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>9200</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>9500</v>
       </c>
       <c r="R22" s="3">
         <v>9500</v>
       </c>
       <c r="S22" s="3">
+        <v>9500</v>
+      </c>
+      <c r="T22" s="3">
         <v>7800</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>8100</v>
-      </c>
-      <c r="U22" s="3">
-        <v>7200</v>
       </c>
       <c r="V22" s="3">
         <v>7200</v>
       </c>
       <c r="W22" s="3">
+        <v>7200</v>
+      </c>
+      <c r="X22" s="3">
         <v>8400</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>9500</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>10000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>8300</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>10800</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>8600</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>543800</v>
+        <v>1205800</v>
       </c>
       <c r="E23" s="3">
-        <v>678500</v>
+        <v>533400</v>
       </c>
       <c r="F23" s="3">
-        <v>281800</v>
+        <v>665600</v>
       </c>
       <c r="G23" s="3">
-        <v>599500</v>
+        <v>276400</v>
       </c>
       <c r="H23" s="3">
-        <v>506500</v>
+        <v>588100</v>
       </c>
       <c r="I23" s="3">
-        <v>366900</v>
+        <v>496800</v>
       </c>
       <c r="J23" s="3">
+        <v>359900</v>
+      </c>
+      <c r="K23" s="3">
         <v>291000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>905900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>704100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>327700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>221400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>827900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>490000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>685000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>57400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>676800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-244100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>187800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>881700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1537600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>118000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>469500</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>66900</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>575400</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>343200</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>320900</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>194000</v>
+        <v>446600</v>
       </c>
       <c r="E24" s="3">
-        <v>203400</v>
+        <v>190400</v>
       </c>
       <c r="F24" s="3">
-        <v>80900</v>
+        <v>199500</v>
       </c>
       <c r="G24" s="3">
-        <v>115200</v>
+        <v>79300</v>
       </c>
       <c r="H24" s="3">
-        <v>-83100</v>
+        <v>113000</v>
       </c>
       <c r="I24" s="3">
-        <v>91200</v>
+        <v>-81500</v>
       </c>
       <c r="J24" s="3">
+        <v>89500</v>
+      </c>
+      <c r="K24" s="3">
         <v>73900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>252900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>182100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>85900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>58000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>286700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>153400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>166900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>6400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>162000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>29600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>93200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>191300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>502900</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>37600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>75200</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>57500</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>39300</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>149900</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>79400</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2114,174 +2159,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>349700</v>
+        <v>759200</v>
       </c>
       <c r="E26" s="3">
-        <v>475100</v>
+        <v>343100</v>
       </c>
       <c r="F26" s="3">
-        <v>200900</v>
+        <v>466100</v>
       </c>
       <c r="G26" s="3">
-        <v>484300</v>
+        <v>197100</v>
       </c>
       <c r="H26" s="3">
-        <v>589600</v>
+        <v>475000</v>
       </c>
       <c r="I26" s="3">
-        <v>275700</v>
+        <v>578300</v>
       </c>
       <c r="J26" s="3">
+        <v>270400</v>
+      </c>
+      <c r="K26" s="3">
         <v>217100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>653000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>522100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>241800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>163400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>541200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>336600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>518200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>51000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>514800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-273600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>94600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>690400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>1034700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>80500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>394300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>9400</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>536000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>193300</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>241500</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>299600</v>
+        <v>738500</v>
       </c>
       <c r="E27" s="3">
-        <v>402000</v>
+        <v>293900</v>
       </c>
       <c r="F27" s="3">
-        <v>127000</v>
+        <v>394400</v>
       </c>
       <c r="G27" s="3">
-        <v>429300</v>
+        <v>124600</v>
       </c>
       <c r="H27" s="3">
-        <v>524400</v>
+        <v>421100</v>
       </c>
       <c r="I27" s="3">
-        <v>211500</v>
+        <v>514400</v>
       </c>
       <c r="J27" s="3">
+        <v>207500</v>
+      </c>
+      <c r="K27" s="3">
         <v>177600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>626100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>493100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>225500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>155000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>529800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>330200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>519800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>65000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>510300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-280100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>77800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>661400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1029700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>50100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>380700</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-13200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>529200</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>159500</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>211300</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2363,8 +2417,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2410,8 +2467,8 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -2425,29 +2482,32 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W29" s="3">
-        <v>0</v>
+      <c r="W29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
         <v>58000</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>-7100</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>32600</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AB29" s="3">
         <v>-30200</v>
       </c>
-      <c r="AB29" s="3">
+      <c r="AC29" s="3">
         <v>21200</v>
       </c>
-      <c r="AC29" s="3">
+      <c r="AD29" s="3">
         <v>18600</v>
       </c>
     </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2529,8 +2589,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2612,174 +2675,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-20400</v>
+        <v>-35400</v>
       </c>
       <c r="E32" s="3">
-        <v>-131300</v>
+        <v>-20100</v>
       </c>
       <c r="F32" s="3">
-        <v>-99800</v>
+        <v>-128800</v>
       </c>
       <c r="G32" s="3">
-        <v>-73100</v>
+        <v>-97900</v>
       </c>
       <c r="H32" s="3">
+        <v>-71700</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-31700</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-20600</v>
+      </c>
+      <c r="K32" s="3">
+        <v>-48000</v>
+      </c>
+      <c r="L32" s="3">
+        <v>-126900</v>
+      </c>
+      <c r="M32" s="3">
+        <v>-24200</v>
+      </c>
+      <c r="N32" s="3">
+        <v>-22400</v>
+      </c>
+      <c r="O32" s="3">
+        <v>-38400</v>
+      </c>
+      <c r="P32" s="3">
+        <v>-44700</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>-40000</v>
+      </c>
+      <c r="R32" s="3">
+        <v>-72600</v>
+      </c>
+      <c r="S32" s="3">
+        <v>-35800</v>
+      </c>
+      <c r="T32" s="3">
+        <v>-72600</v>
+      </c>
+      <c r="U32" s="3">
+        <v>-35300</v>
+      </c>
+      <c r="V32" s="3">
+        <v>-49200</v>
+      </c>
+      <c r="W32" s="3">
+        <v>-165400</v>
+      </c>
+      <c r="X32" s="3">
+        <v>-244600</v>
+      </c>
+      <c r="Y32" s="3">
         <v>-32400</v>
       </c>
-      <c r="I32" s="3">
-        <v>-21000</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-48000</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-126900</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-24200</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-22400</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-38400</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-44700</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-40000</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-72600</v>
-      </c>
-      <c r="R32" s="3">
-        <v>-35800</v>
-      </c>
-      <c r="S32" s="3">
-        <v>-72600</v>
-      </c>
-      <c r="T32" s="3">
-        <v>-35300</v>
-      </c>
-      <c r="U32" s="3">
-        <v>-49200</v>
-      </c>
-      <c r="V32" s="3">
-        <v>-165400</v>
-      </c>
-      <c r="W32" s="3">
-        <v>-244600</v>
-      </c>
-      <c r="X32" s="3">
-        <v>-32400</v>
-      </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-271100</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-30400</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-27500</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-46900</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-30200</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>299600</v>
+        <v>738500</v>
       </c>
       <c r="E33" s="3">
-        <v>402000</v>
+        <v>293900</v>
       </c>
       <c r="F33" s="3">
-        <v>127000</v>
+        <v>394400</v>
       </c>
       <c r="G33" s="3">
-        <v>429300</v>
+        <v>124600</v>
       </c>
       <c r="H33" s="3">
-        <v>524400</v>
+        <v>421100</v>
       </c>
       <c r="I33" s="3">
-        <v>211500</v>
+        <v>514400</v>
       </c>
       <c r="J33" s="3">
+        <v>207500</v>
+      </c>
+      <c r="K33" s="3">
         <v>177600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>626100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>493100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>225500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>155000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>529800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>330200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>519800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>65000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>510300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-280100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>77800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>661400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>1029700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>108100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>373600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>19400</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>499000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>180700</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>229900</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2861,179 +2933,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>299600</v>
+        <v>738500</v>
       </c>
       <c r="E35" s="3">
-        <v>402000</v>
+        <v>293900</v>
       </c>
       <c r="F35" s="3">
-        <v>127000</v>
+        <v>394400</v>
       </c>
       <c r="G35" s="3">
-        <v>429300</v>
+        <v>124600</v>
       </c>
       <c r="H35" s="3">
-        <v>524400</v>
+        <v>421100</v>
       </c>
       <c r="I35" s="3">
-        <v>211500</v>
+        <v>514400</v>
       </c>
       <c r="J35" s="3">
+        <v>207500</v>
+      </c>
+      <c r="K35" s="3">
         <v>177600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>626100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>493100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>225500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>155000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>529800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>330200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>519800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>65000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>510300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-280100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>77800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>661400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>1029700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>108100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>373600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>19400</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>499000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>180700</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>229900</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3063,8 +3144,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3094,91 +3176,95 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2710200</v>
+        <v>2566000</v>
       </c>
       <c r="E41" s="3">
-        <v>3363200</v>
+        <v>2658500</v>
       </c>
       <c r="F41" s="3">
-        <v>3474600</v>
+        <v>3299100</v>
       </c>
       <c r="G41" s="3">
-        <v>3557500</v>
+        <v>3408400</v>
       </c>
       <c r="H41" s="3">
-        <v>3143300</v>
+        <v>3489800</v>
       </c>
       <c r="I41" s="3">
-        <v>3497700</v>
+        <v>3083400</v>
       </c>
       <c r="J41" s="3">
+        <v>3431100</v>
+      </c>
+      <c r="K41" s="3">
         <v>4237000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3416200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3426200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3825500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4852800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3980900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4593600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3795500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4251000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4004300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3420000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4022600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>4852800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>4091100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>3514500</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>3640500</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>3944200</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>3376800</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>3378700</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>2907800</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3260,589 +3346,613 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>6930700</v>
+        <v>8205400</v>
       </c>
       <c r="E43" s="3">
-        <v>6414900</v>
+        <v>6798700</v>
       </c>
       <c r="F43" s="3">
-        <v>5650200</v>
+        <v>6292700</v>
       </c>
       <c r="G43" s="3">
-        <v>7770100</v>
+        <v>5542600</v>
       </c>
       <c r="H43" s="3">
-        <v>4479400</v>
+        <v>7622100</v>
       </c>
       <c r="I43" s="3">
-        <v>4491600</v>
+        <v>4394000</v>
       </c>
       <c r="J43" s="3">
+        <v>4406000</v>
+      </c>
+      <c r="K43" s="3">
         <v>3942500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>7165400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4829500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>5049500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>5239100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>9402300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>8281200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>8687800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>6009400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>10890900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>8897700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>8539000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>7949100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>9504100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>8140100</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>8112800</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>7229000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>9456200</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>8723500</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>8133900</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2960600</v>
+        <v>2429800</v>
       </c>
       <c r="E44" s="3">
-        <v>2882900</v>
+        <v>2904200</v>
       </c>
       <c r="F44" s="3">
-        <v>2635900</v>
+        <v>2828000</v>
       </c>
       <c r="G44" s="3">
-        <v>2277200</v>
+        <v>2585700</v>
       </c>
       <c r="H44" s="3">
-        <v>2474400</v>
+        <v>2233900</v>
       </c>
       <c r="I44" s="3">
-        <v>2191900</v>
+        <v>2427200</v>
       </c>
       <c r="J44" s="3">
+        <v>2150100</v>
+      </c>
+      <c r="K44" s="3">
         <v>2012600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1680400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2054500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2066100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2129500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2097400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3024800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2673300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2530200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2172300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>2782400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>2567900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>2568900</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>2184100</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>2619100</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>2715300</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>2696200</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>2600400</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>3205000</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>2890300</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>744300</v>
+        <v>626200</v>
       </c>
       <c r="E45" s="3">
-        <v>938000</v>
+        <v>730100</v>
       </c>
       <c r="F45" s="3">
-        <v>1429200</v>
+        <v>920100</v>
       </c>
       <c r="G45" s="3">
-        <v>667500</v>
+        <v>1401900</v>
       </c>
       <c r="H45" s="3">
-        <v>2812500</v>
+        <v>654800</v>
       </c>
       <c r="I45" s="3">
-        <v>2529500</v>
+        <v>2758900</v>
       </c>
       <c r="J45" s="3">
+        <v>2481300</v>
+      </c>
+      <c r="K45" s="3">
         <v>2284700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1018200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2633100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2546200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2477400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1180300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1108300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1754000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3237300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1761800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2739100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>2608500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1638200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1101100</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1572900</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>2370700</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>2509100</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>908800</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>924000</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>838300</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>13345700</v>
+        <v>13827500</v>
       </c>
       <c r="E46" s="3">
-        <v>13598900</v>
+        <v>13091500</v>
       </c>
       <c r="F46" s="3">
-        <v>13189900</v>
+        <v>13339900</v>
       </c>
       <c r="G46" s="3">
-        <v>14272400</v>
+        <v>12938700</v>
       </c>
       <c r="H46" s="3">
-        <v>12909500</v>
+        <v>14000600</v>
       </c>
       <c r="I46" s="3">
-        <v>12710700</v>
+        <v>12663600</v>
       </c>
       <c r="J46" s="3">
+        <v>12468600</v>
+      </c>
+      <c r="K46" s="3">
         <v>12476800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>13280200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>12943200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>13487200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>14698800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>16660800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>17008000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>16910600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>16027800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>18829300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>17839300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>17738000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>17009000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>16880400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>15846500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>16839400</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>16378500</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>16342100</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>16231300</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>14770300</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2414900</v>
+        <v>2531100</v>
       </c>
       <c r="E47" s="3">
-        <v>2524500</v>
+        <v>2368900</v>
       </c>
       <c r="F47" s="3">
-        <v>2615900</v>
+        <v>2476400</v>
       </c>
       <c r="G47" s="3">
-        <v>2471300</v>
+        <v>2566100</v>
       </c>
       <c r="H47" s="3">
-        <v>2442600</v>
+        <v>2424200</v>
       </c>
       <c r="I47" s="3">
-        <v>2457900</v>
+        <v>2396100</v>
       </c>
       <c r="J47" s="3">
+        <v>2411100</v>
+      </c>
+      <c r="K47" s="3">
         <v>2524000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2348800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2374400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2381600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2525800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2488700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2723200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2673900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2637700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2859800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>2699000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>3077600</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>3008500</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>2818600</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>2568300</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>2387000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>2600400</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>2588500</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>2502100</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>2282100</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4080000</v>
+        <v>4125400</v>
       </c>
       <c r="E48" s="3">
-        <v>4151500</v>
+        <v>4002300</v>
       </c>
       <c r="F48" s="3">
-        <v>4195900</v>
+        <v>4072500</v>
       </c>
       <c r="G48" s="3">
-        <v>4198100</v>
+        <v>4116000</v>
       </c>
       <c r="H48" s="3">
-        <v>4233200</v>
+        <v>4118100</v>
       </c>
       <c r="I48" s="3">
-        <v>4274200</v>
+        <v>4152500</v>
       </c>
       <c r="J48" s="3">
+        <v>4192800</v>
+      </c>
+      <c r="K48" s="3">
         <v>4323800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4038400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4102900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4325900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4793500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5023200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5304800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5438700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5457000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>4219500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>4201800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>4224000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>4290200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>4751300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>4833700</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>4984100</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>4980900</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>5292300</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>5365800</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>5402900</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1435900</v>
+        <v>1452100</v>
       </c>
       <c r="E49" s="3">
-        <v>1398300</v>
+        <v>1408600</v>
       </c>
       <c r="F49" s="3">
-        <v>1347400</v>
+        <v>1371600</v>
       </c>
       <c r="G49" s="3">
-        <v>1332900</v>
+        <v>1321700</v>
       </c>
       <c r="H49" s="3">
-        <v>1256600</v>
+        <v>1307500</v>
       </c>
       <c r="I49" s="3">
-        <v>1230600</v>
+        <v>1232600</v>
       </c>
       <c r="J49" s="3">
+        <v>1207100</v>
+      </c>
+      <c r="K49" s="3">
         <v>1203500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1146400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1156000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1188300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1253900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1268000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1348400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1323100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1381900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1492000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1482000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1521000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1508100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1565500</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1609100</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>1638400</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>1634800</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>1731500</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>1773700</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>1761300</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3924,8 +4034,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4007,91 +4120,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1752000</v>
+        <v>1608800</v>
       </c>
       <c r="E52" s="3">
-        <v>2023100</v>
+        <v>1718700</v>
       </c>
       <c r="F52" s="3">
-        <v>2078900</v>
+        <v>1984500</v>
       </c>
       <c r="G52" s="3">
-        <v>2214100</v>
+        <v>2039300</v>
       </c>
       <c r="H52" s="3">
-        <v>2057800</v>
+        <v>2171900</v>
       </c>
       <c r="I52" s="3">
-        <v>1760200</v>
+        <v>2018600</v>
       </c>
       <c r="J52" s="3">
+        <v>1726700</v>
+      </c>
+      <c r="K52" s="3">
         <v>1770700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1804700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1637500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1905100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2190600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2640800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1992500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2260600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2231800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2436900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>2024100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>2036300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1967800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>2202800</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>2103500</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>2053100</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>1898900</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>2354200</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>2168000</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>2425900</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4173,91 +4292,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>23028600</v>
+        <v>23544800</v>
       </c>
       <c r="E54" s="3">
-        <v>23696200</v>
+        <v>22590000</v>
       </c>
       <c r="F54" s="3">
-        <v>23428000</v>
+        <v>23244900</v>
       </c>
       <c r="G54" s="3">
-        <v>24488800</v>
+        <v>22981700</v>
       </c>
       <c r="H54" s="3">
-        <v>22899700</v>
+        <v>24022300</v>
       </c>
       <c r="I54" s="3">
-        <v>22433600</v>
+        <v>22463500</v>
       </c>
       <c r="J54" s="3">
+        <v>22006300</v>
+      </c>
+      <c r="K54" s="3">
         <v>22298800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>22618600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>22214000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>23288200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>25462700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>28081400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>28376800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>28606900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>27736200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>29837500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>28246100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>28596900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>27783500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>28218600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>26961200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>27902100</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>27493600</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>28308600</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>28040900</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>26642400</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4287,8 +4412,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4318,506 +4444,525 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3209000</v>
+        <v>3343500</v>
       </c>
       <c r="E57" s="3">
-        <v>3162400</v>
+        <v>3147800</v>
       </c>
       <c r="F57" s="3">
-        <v>3107200</v>
+        <v>3102200</v>
       </c>
       <c r="G57" s="3">
-        <v>3416200</v>
+        <v>3048000</v>
       </c>
       <c r="H57" s="3">
-        <v>3242100</v>
+        <v>3351200</v>
       </c>
       <c r="I57" s="3">
-        <v>3162200</v>
+        <v>3180300</v>
       </c>
       <c r="J57" s="3">
+        <v>3102000</v>
+      </c>
+      <c r="K57" s="3">
         <v>2857400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3284700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3201200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3215500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3384800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4177500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4421000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>4504000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>4041700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>5081200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>4770900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>4895000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>4925800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>4890100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>4536100</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>4442700</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>4365700</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>5479100</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>5278500</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>4733500</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1123600</v>
+        <v>746800</v>
       </c>
       <c r="E58" s="3">
-        <v>988000</v>
+        <v>1102200</v>
       </c>
       <c r="F58" s="3">
-        <v>1002400</v>
+        <v>969200</v>
       </c>
       <c r="G58" s="3">
-        <v>1240400</v>
+        <v>983300</v>
       </c>
       <c r="H58" s="3">
-        <v>1165500</v>
+        <v>1216800</v>
       </c>
       <c r="I58" s="3">
-        <v>1143900</v>
+        <v>1143300</v>
       </c>
       <c r="J58" s="3">
+        <v>1122100</v>
+      </c>
+      <c r="K58" s="3">
         <v>1107800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1235600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1472400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1649000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2044000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1757200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2170500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1874100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1445400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1257700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1139500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1370500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1457300</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1223900</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1843800</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1758100</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>1742400</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>1160100</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>2089100</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>1598500</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4236700</v>
+        <v>5113000</v>
       </c>
       <c r="E59" s="3">
-        <v>4459100</v>
+        <v>4156000</v>
       </c>
       <c r="F59" s="3">
-        <v>4549000</v>
+        <v>4374100</v>
       </c>
       <c r="G59" s="3">
-        <v>5050700</v>
+        <v>4462400</v>
       </c>
       <c r="H59" s="3">
-        <v>4103200</v>
+        <v>4954500</v>
       </c>
       <c r="I59" s="3">
-        <v>4134700</v>
+        <v>4025000</v>
       </c>
       <c r="J59" s="3">
+        <v>4055900</v>
+      </c>
+      <c r="K59" s="3">
         <v>4247700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4622300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4288800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4783000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>5037200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>6096400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>5430800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>5602200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>5604600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>6777800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>6198400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>5931800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>5503600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>5842700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>5204500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>6069800</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>6141100</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>6062600</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>5314400</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>5197200</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>8569200</v>
+        <v>9203200</v>
       </c>
       <c r="E60" s="3">
-        <v>8609500</v>
+        <v>8406000</v>
       </c>
       <c r="F60" s="3">
-        <v>8658700</v>
+        <v>8445500</v>
       </c>
       <c r="G60" s="3">
-        <v>9707400</v>
+        <v>8493700</v>
       </c>
       <c r="H60" s="3">
-        <v>8510800</v>
+        <v>9522500</v>
       </c>
       <c r="I60" s="3">
-        <v>8440800</v>
+        <v>8348700</v>
       </c>
       <c r="J60" s="3">
+        <v>8280000</v>
+      </c>
+      <c r="K60" s="3">
         <v>8212900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>9142500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>8962400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>9647500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>10466000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>12031000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>12022300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>11980300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>11091700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>13116800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>12108900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>12197300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>11886800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>11956700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>11584400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>12270600</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>12249300</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>12701800</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>12682100</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>11529200</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>797200</v>
+        <v>775800</v>
       </c>
       <c r="E61" s="3">
-        <v>803100</v>
+        <v>782100</v>
       </c>
       <c r="F61" s="3">
-        <v>852700</v>
+        <v>787800</v>
       </c>
       <c r="G61" s="3">
-        <v>856700</v>
+        <v>836500</v>
       </c>
       <c r="H61" s="3">
-        <v>987400</v>
+        <v>840300</v>
       </c>
       <c r="I61" s="3">
-        <v>1005600</v>
+        <v>968600</v>
       </c>
       <c r="J61" s="3">
+        <v>986400</v>
+      </c>
+      <c r="K61" s="3">
         <v>1192800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1007200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1060200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1197700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1446600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1815900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2113600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2349700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2693000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1781100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2114900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2085900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2071600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2409200</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>2514000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>2845600</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>2850300</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>3142700</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>3330600</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>3416600</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1040700</v>
+        <v>1043300</v>
       </c>
       <c r="E62" s="3">
-        <v>1101600</v>
+        <v>1020900</v>
       </c>
       <c r="F62" s="3">
-        <v>1143100</v>
+        <v>1080700</v>
       </c>
       <c r="G62" s="3">
-        <v>1314000</v>
+        <v>1121300</v>
       </c>
       <c r="H62" s="3">
-        <v>1329600</v>
+        <v>1288900</v>
       </c>
       <c r="I62" s="3">
-        <v>1363900</v>
+        <v>1304300</v>
       </c>
       <c r="J62" s="3">
+        <v>1337900</v>
+      </c>
+      <c r="K62" s="3">
         <v>1430100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1501300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1699300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1882000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2089500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2354800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2252000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2448600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2622000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2892300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>2815900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>2349600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>2433100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>2960400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>2738600</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>3007700</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>3186800</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>3423800</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>3635400</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>4100300</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4899,8 +5044,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4982,8 +5130,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5065,91 +5216,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>11488700</v>
+        <v>12103700</v>
       </c>
       <c r="E66" s="3">
-        <v>11566000</v>
+        <v>11269900</v>
       </c>
       <c r="F66" s="3">
-        <v>11632500</v>
+        <v>11345700</v>
       </c>
       <c r="G66" s="3">
-        <v>12797100</v>
+        <v>11410900</v>
       </c>
       <c r="H66" s="3">
-        <v>11686900</v>
+        <v>12553300</v>
       </c>
       <c r="I66" s="3">
-        <v>11612400</v>
+        <v>11464300</v>
       </c>
       <c r="J66" s="3">
+        <v>11391200</v>
+      </c>
+      <c r="K66" s="3">
         <v>11576400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>12337100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>12389100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>13413200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>14929300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>17148600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>17363200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>17853700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>17483400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>18958500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>18179000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>17756300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>17466900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>18384900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>17967300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>19395400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>19535600</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>20491500</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>20859700</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>20204800</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5179,8 +5336,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5262,8 +5420,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5345,8 +5506,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5428,8 +5592,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5511,91 +5678,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>8474800</v>
+        <v>8843700</v>
       </c>
       <c r="E72" s="3">
-        <v>8459200</v>
+        <v>8313400</v>
       </c>
       <c r="F72" s="3">
-        <v>8047100</v>
+        <v>8298100</v>
       </c>
       <c r="G72" s="3">
-        <v>8000000</v>
+        <v>7893800</v>
       </c>
       <c r="H72" s="3">
-        <v>7523300</v>
+        <v>7847600</v>
       </c>
       <c r="I72" s="3">
-        <v>7026100</v>
+        <v>7380000</v>
       </c>
       <c r="J72" s="3">
+        <v>6892300</v>
+      </c>
+      <c r="K72" s="3">
         <v>6811900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>6445800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>5832600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>5761000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>6145800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>6483500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>5905600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>5726800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>5205100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>5543600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>4808000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>5381100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>5046900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>4337200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>3458200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>3040200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>2400300</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>2358500</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>1640600</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>1192500</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5677,8 +5850,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5760,8 +5936,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5843,91 +6022,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>11539900</v>
+        <v>11441100</v>
       </c>
       <c r="E76" s="3">
-        <v>12130200</v>
+        <v>11320100</v>
       </c>
       <c r="F76" s="3">
-        <v>11795500</v>
+        <v>11899200</v>
       </c>
       <c r="G76" s="3">
-        <v>11691700</v>
+        <v>11570900</v>
       </c>
       <c r="H76" s="3">
-        <v>11212800</v>
+        <v>11469000</v>
       </c>
       <c r="I76" s="3">
-        <v>10821200</v>
+        <v>10999200</v>
       </c>
       <c r="J76" s="3">
+        <v>10615100</v>
+      </c>
+      <c r="K76" s="3">
         <v>10722300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>10281500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>9824900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>9874900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>10533400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>10932800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>11013600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>10753200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>10252800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>10879000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>10067100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>10840600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>10316700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>9833700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>8993900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>8506700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>7958000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>7817100</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>7181100</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>6437700</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6009,179 +6194,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>299600</v>
+        <v>738500</v>
       </c>
       <c r="E81" s="3">
-        <v>402000</v>
+        <v>293900</v>
       </c>
       <c r="F81" s="3">
-        <v>127000</v>
+        <v>394400</v>
       </c>
       <c r="G81" s="3">
-        <v>429300</v>
+        <v>124600</v>
       </c>
       <c r="H81" s="3">
-        <v>524400</v>
+        <v>421100</v>
       </c>
       <c r="I81" s="3">
-        <v>211500</v>
+        <v>514400</v>
       </c>
       <c r="J81" s="3">
+        <v>207500</v>
+      </c>
+      <c r="K81" s="3">
         <v>177600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>626100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>493100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>225500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>155000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>529800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>330200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>519800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>65000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>510300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-280100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>77800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>661400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>1029700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>108100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>373600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>19400</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>499000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>180700</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>229900</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6211,91 +6405,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>315600</v>
+        <v>352800</v>
       </c>
       <c r="E83" s="3">
-        <v>313600</v>
+        <v>309600</v>
       </c>
       <c r="F83" s="3">
-        <v>328400</v>
+        <v>307700</v>
       </c>
       <c r="G83" s="3">
-        <v>381400</v>
+        <v>322200</v>
       </c>
       <c r="H83" s="3">
-        <v>329900</v>
+        <v>374200</v>
       </c>
       <c r="I83" s="3">
-        <v>333000</v>
+        <v>323600</v>
       </c>
       <c r="J83" s="3">
+        <v>326600</v>
+      </c>
+      <c r="K83" s="3">
         <v>325600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>358000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>317200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>321500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>347900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>479800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>467500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>486900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>506400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>399000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>397400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>353700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>331100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>406300</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>374200</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>382800</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>371200</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>510100</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>394600</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>391500</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6377,8 +6575,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6460,8 +6661,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6543,8 +6747,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6626,8 +6833,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6709,91 +6919,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-79700</v>
+        <v>1033800</v>
       </c>
       <c r="E89" s="3">
-        <v>-270900</v>
+        <v>-78200</v>
       </c>
       <c r="F89" s="3">
-        <v>916100</v>
+        <v>-265700</v>
       </c>
       <c r="G89" s="3">
-        <v>396200</v>
+        <v>898700</v>
       </c>
       <c r="H89" s="3">
-        <v>164900</v>
+        <v>388700</v>
       </c>
       <c r="I89" s="3">
-        <v>-147100</v>
+        <v>161800</v>
       </c>
       <c r="J89" s="3">
+        <v>-144300</v>
+      </c>
+      <c r="K89" s="3">
         <v>1411300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>769400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>311300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>62800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1270100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1149600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>925100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-10600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1066000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>798500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-282800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-542300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>951300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1170800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>146100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-243400</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>738300</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>1384900</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>462200</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-176900</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6823,91 +7039,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-294300</v>
+        <v>-52404000</v>
       </c>
       <c r="E91" s="3">
-        <v>-255700</v>
+        <v>-40044000</v>
       </c>
       <c r="F91" s="3">
-        <v>-300300</v>
+        <v>-34795000</v>
       </c>
       <c r="G91" s="3">
-        <v>-269100</v>
+        <v>-40855000</v>
       </c>
       <c r="H91" s="3">
-        <v>-282000</v>
+        <v>-36607000</v>
       </c>
       <c r="I91" s="3">
-        <v>-264700</v>
+        <v>-38364000</v>
       </c>
       <c r="J91" s="3">
+        <v>-36011000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-237200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-260100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-250200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-247200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-223700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-299500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-339000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-327900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-238900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-277100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-280100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-308100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-263300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-328500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-278400</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-345300</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-268200</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>796000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-743100</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-1114100</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6989,8 +7209,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7072,91 +7295,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>97200</v>
+        <v>-112000</v>
       </c>
       <c r="E94" s="3">
-        <v>132100</v>
+        <v>95300</v>
       </c>
       <c r="F94" s="3">
-        <v>-429700</v>
+        <v>129600</v>
       </c>
       <c r="G94" s="3">
-        <v>189400</v>
+        <v>-421500</v>
       </c>
       <c r="H94" s="3">
-        <v>-125700</v>
+        <v>185800</v>
       </c>
       <c r="I94" s="3">
-        <v>-286100</v>
+        <v>-123300</v>
       </c>
       <c r="J94" s="3">
+        <v>-280600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-213300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-214800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>21500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-266300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-85400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-613900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>30500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-341100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-98500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-124800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>151500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-165200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>171400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>135400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-19800</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-35900</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-283900</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-128400</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-312300</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-509000</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7186,91 +7415,95 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-173400</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-170100</v>
       </c>
       <c r="F96" s="3">
-        <v>-158900</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-155900</v>
       </c>
       <c r="H96" s="3">
-        <v>-160100</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-157000</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-146300</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-146800</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-170800</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-147700</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-148500</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-135100</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-112300</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
       <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-92700</v>
       </c>
-      <c r="Y96" s="3">
-        <v>0</v>
-      </c>
       <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-92700</v>
       </c>
-      <c r="AA96" s="3">
-        <v>0</v>
-      </c>
       <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
         <v>-73400</v>
       </c>
-      <c r="AC96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7352,8 +7585,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7435,8 +7671,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7518,253 +7757,265 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-637300</v>
+        <v>-1034200</v>
       </c>
       <c r="E100" s="3">
-        <v>-108900</v>
+        <v>-625200</v>
       </c>
       <c r="F100" s="3">
-        <v>-504400</v>
+        <v>-106800</v>
       </c>
       <c r="G100" s="3">
-        <v>-209300</v>
+        <v>-494800</v>
       </c>
       <c r="H100" s="3">
-        <v>-411400</v>
+        <v>-205300</v>
       </c>
       <c r="I100" s="3">
-        <v>-295800</v>
+        <v>-403600</v>
       </c>
       <c r="J100" s="3">
+        <v>-290100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-507100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-515700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-522700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-403200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-203300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-966600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-224700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-31000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-507600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-328900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-456900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-98000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-394900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-724300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-355700</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-24600</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>87700</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-1222900</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>222400</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-114400</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-33200</v>
+        <v>19900</v>
       </c>
       <c r="E101" s="3">
-        <v>5700</v>
+        <v>-32500</v>
       </c>
       <c r="F101" s="3">
-        <v>65600</v>
+        <v>5600</v>
       </c>
       <c r="G101" s="3">
-        <v>37900</v>
+        <v>64300</v>
       </c>
       <c r="H101" s="3">
-        <v>15500</v>
+        <v>37200</v>
       </c>
       <c r="I101" s="3">
-        <v>-8400</v>
+        <v>15200</v>
       </c>
       <c r="J101" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="K101" s="3">
         <v>4900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>52100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>13000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>10400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>13500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-28400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>8600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-8100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-4000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-25900</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-29900</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>15200</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>12400</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-5500</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>12600</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>15900</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>7400</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-6500</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>98700</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-16300</v>
       </c>
     </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-653000</v>
+        <v>-92500</v>
       </c>
       <c r="E102" s="3">
-        <v>-242000</v>
+        <v>-640600</v>
       </c>
       <c r="F102" s="3">
-        <v>47600</v>
+        <v>-237400</v>
       </c>
       <c r="G102" s="3">
-        <v>414300</v>
+        <v>46700</v>
       </c>
       <c r="H102" s="3">
-        <v>-356700</v>
+        <v>406400</v>
       </c>
       <c r="I102" s="3">
-        <v>-737300</v>
+        <v>-350000</v>
       </c>
       <c r="J102" s="3">
+        <v>-723300</v>
+      </c>
+      <c r="K102" s="3">
         <v>695800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>91000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-176900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-596300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>995000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-459200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>739400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-390800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>455900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>318800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-618100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-790300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>740200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>576400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-216800</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-288000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>549500</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>27100</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>471000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-816700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FJTSY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FJTSY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
   <si>
     <t>FJTSY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,380 +665,392 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="11" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7765400</v>
+        <v>5493500</v>
       </c>
       <c r="E8" s="3">
-        <v>6715600</v>
+        <v>7399200</v>
       </c>
       <c r="F8" s="3">
-        <v>6391300</v>
+        <v>6398900</v>
       </c>
       <c r="G8" s="3">
-        <v>5904000</v>
+        <v>6089900</v>
       </c>
       <c r="H8" s="3">
-        <v>7522200</v>
+        <v>5625600</v>
       </c>
       <c r="I8" s="3">
-        <v>6348600</v>
+        <v>7167500</v>
       </c>
       <c r="J8" s="3">
+        <v>6049200</v>
+      </c>
+      <c r="K8" s="3">
         <v>6208000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5894600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>7540200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6555700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6458300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6847800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>9741800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>8410900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>9098300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>7682800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>10960900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>9225900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>8982400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>7887000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>10594900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>9068300</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>9045400</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>8340600</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>10682100</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>9054700</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>8940200</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5125500</v>
+        <v>3970700</v>
       </c>
       <c r="E9" s="3">
-        <v>4706300</v>
+        <v>4883800</v>
       </c>
       <c r="F9" s="3">
-        <v>4508400</v>
+        <v>4484400</v>
       </c>
       <c r="G9" s="3">
-        <v>4187200</v>
+        <v>4295800</v>
       </c>
       <c r="H9" s="3">
-        <v>5001800</v>
+        <v>3989700</v>
       </c>
       <c r="I9" s="3">
-        <v>4432500</v>
+        <v>4766000</v>
       </c>
       <c r="J9" s="3">
+        <v>4223500</v>
+      </c>
+      <c r="K9" s="3">
         <v>4352600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4086400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>5133900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4590400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4519500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4938300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>6820000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>5987600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>6467400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>5618400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>7652900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>6814100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>6619700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>5900700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>7434500</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>6706300</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>6565400</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>6111700</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>7514400</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>6501100</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>6406200</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2639900</v>
+        <v>1522900</v>
       </c>
       <c r="E10" s="3">
-        <v>2009200</v>
+        <v>2515500</v>
       </c>
       <c r="F10" s="3">
-        <v>1882900</v>
+        <v>1914500</v>
       </c>
       <c r="G10" s="3">
-        <v>1716800</v>
+        <v>1794100</v>
       </c>
       <c r="H10" s="3">
-        <v>2520400</v>
+        <v>1635900</v>
       </c>
       <c r="I10" s="3">
-        <v>1916100</v>
+        <v>2401500</v>
       </c>
       <c r="J10" s="3">
+        <v>1825700</v>
+      </c>
+      <c r="K10" s="3">
         <v>1855400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1808100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2406300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1965300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1938700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1909500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2921800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2423400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2630900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2064500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>3308000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2411800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2362700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1986300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>3160500</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>2362000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>2480000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>2228900</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>3167600</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>2553600</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>2534000</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1069,8 +1081,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1155,8 +1168,11 @@
       <c r="AD12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1241,22 +1257,25 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>9000</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>-1300</v>
       </c>
-      <c r="F14" s="3">
-        <v>-220900</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
+      <c r="G14" s="3">
+        <v>-210500</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -1270,14 +1289,14 @@
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
@@ -1294,14 +1313,14 @@
       <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T14" s="3">
+      <c r="T14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U14" s="3">
         <v>710200</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>411800</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>8</v>
@@ -1327,8 +1346,11 @@
       <c r="AD14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1413,8 +1435,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1442,180 +1467,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6595000</v>
+        <v>5505000</v>
       </c>
       <c r="E17" s="3">
-        <v>6194200</v>
+        <v>6284000</v>
       </c>
       <c r="F17" s="3">
-        <v>5847900</v>
+        <v>5902100</v>
       </c>
       <c r="G17" s="3">
-        <v>5719400</v>
+        <v>5572100</v>
       </c>
       <c r="H17" s="3">
-        <v>6999200</v>
+        <v>5449700</v>
       </c>
       <c r="I17" s="3">
-        <v>5878600</v>
+        <v>6669200</v>
       </c>
       <c r="J17" s="3">
+        <v>5601400</v>
+      </c>
+      <c r="K17" s="3">
         <v>5863800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5646600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6756200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5870400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6146800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>6657800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>8948800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>7951700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>8476400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>7651800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>10348900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>9497100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>8836700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>7163500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>9293500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>8973100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>8837100</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>8295900</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>10123400</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>8749800</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>8640300</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1170400</v>
+        <v>-11400</v>
       </c>
       <c r="E18" s="3">
-        <v>521400</v>
+        <v>1115200</v>
       </c>
       <c r="F18" s="3">
-        <v>543400</v>
+        <v>496800</v>
       </c>
       <c r="G18" s="3">
-        <v>184600</v>
+        <v>517800</v>
       </c>
       <c r="H18" s="3">
-        <v>523000</v>
+        <v>175900</v>
       </c>
       <c r="I18" s="3">
-        <v>470000</v>
+        <v>498300</v>
       </c>
       <c r="J18" s="3">
+        <v>447800</v>
+      </c>
+      <c r="K18" s="3">
         <v>344200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>248000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>784000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>685300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>311400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>190000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>793000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>459300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>621900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>31000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>612000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-271200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>145700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>723500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1301400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>95200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>208400</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>44800</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>558700</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>304900</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>299900</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1646,438 +1678,454 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>35400</v>
+        <v>77200</v>
       </c>
       <c r="E20" s="3">
-        <v>20100</v>
+        <v>41200</v>
       </c>
       <c r="F20" s="3">
-        <v>128800</v>
+        <v>19100</v>
       </c>
       <c r="G20" s="3">
-        <v>97900</v>
+        <v>122700</v>
       </c>
       <c r="H20" s="3">
-        <v>71700</v>
+        <v>93300</v>
       </c>
       <c r="I20" s="3">
-        <v>31700</v>
+        <v>68300</v>
       </c>
       <c r="J20" s="3">
+        <v>30200</v>
+      </c>
+      <c r="K20" s="3">
         <v>20600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>48000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>126900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>24200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>22400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>38400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>44700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>40000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>72600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>35800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>72600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>35300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>49200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>165400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>244600</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>32400</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>271100</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>30400</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>27500</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>46900</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1558600</v>
+        <v>336100</v>
       </c>
       <c r="E21" s="3">
-        <v>851100</v>
+        <v>1492600</v>
       </c>
       <c r="F21" s="3">
-        <v>979800</v>
+        <v>810900</v>
       </c>
       <c r="G21" s="3">
-        <v>604700</v>
+        <v>933600</v>
       </c>
       <c r="H21" s="3">
-        <v>968900</v>
+        <v>576100</v>
       </c>
       <c r="I21" s="3">
-        <v>825300</v>
+        <v>923200</v>
       </c>
       <c r="J21" s="3">
+        <v>786400</v>
+      </c>
+      <c r="K21" s="3">
         <v>691500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>621500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1268900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1026700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>655300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>576300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1317400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>966700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1181400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>573300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1083600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>161400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>548600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1220000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1952300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>501700</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>862300</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>446500</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>1096200</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>746400</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>721600</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>8</v>
+      <c r="D22" s="3">
+        <v>6900</v>
       </c>
       <c r="E22" s="3">
-        <v>8000</v>
+        <v>7400</v>
       </c>
       <c r="F22" s="3">
-        <v>6600</v>
+        <v>7700</v>
       </c>
       <c r="G22" s="3">
+        <v>6300</v>
+      </c>
+      <c r="H22" s="3">
+        <v>5800</v>
+      </c>
+      <c r="I22" s="3">
+        <v>6300</v>
+      </c>
+      <c r="J22" s="3">
+        <v>4700</v>
+      </c>
+      <c r="K22" s="3">
+        <v>5000</v>
+      </c>
+      <c r="L22" s="3">
+        <v>4900</v>
+      </c>
+      <c r="M22" s="3">
+        <v>5000</v>
+      </c>
+      <c r="N22" s="3">
+        <v>5400</v>
+      </c>
+      <c r="O22" s="3">
         <v>6100</v>
       </c>
-      <c r="H22" s="3">
-        <v>6600</v>
-      </c>
-      <c r="I22" s="3">
-        <v>4900</v>
-      </c>
-      <c r="J22" s="3">
-        <v>5000</v>
-      </c>
-      <c r="K22" s="3">
-        <v>4900</v>
-      </c>
-      <c r="L22" s="3">
-        <v>5000</v>
-      </c>
-      <c r="M22" s="3">
-        <v>5400</v>
-      </c>
-      <c r="N22" s="3">
-        <v>6100</v>
-      </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>7000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>9800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>9200</v>
-      </c>
-      <c r="R22" s="3">
-        <v>9500</v>
       </c>
       <c r="S22" s="3">
         <v>9500</v>
       </c>
       <c r="T22" s="3">
+        <v>9500</v>
+      </c>
+      <c r="U22" s="3">
         <v>7800</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>8100</v>
-      </c>
-      <c r="V22" s="3">
-        <v>7200</v>
       </c>
       <c r="W22" s="3">
         <v>7200</v>
       </c>
       <c r="X22" s="3">
+        <v>7200</v>
+      </c>
+      <c r="Y22" s="3">
         <v>8400</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>9500</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>10000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>8300</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>10800</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>8600</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1205800</v>
+        <v>58900</v>
       </c>
       <c r="E23" s="3">
-        <v>533400</v>
+        <v>1149000</v>
       </c>
       <c r="F23" s="3">
-        <v>665600</v>
+        <v>508300</v>
       </c>
       <c r="G23" s="3">
-        <v>276400</v>
+        <v>634200</v>
       </c>
       <c r="H23" s="3">
-        <v>588100</v>
+        <v>263400</v>
       </c>
       <c r="I23" s="3">
-        <v>496800</v>
+        <v>560300</v>
       </c>
       <c r="J23" s="3">
+        <v>473400</v>
+      </c>
+      <c r="K23" s="3">
         <v>359900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>291000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>905900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>704100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>327700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>221400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>827900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>490000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>685000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>57400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>676800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-244100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>187800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>881700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1537600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>118000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>469500</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>66900</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>575400</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>343200</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>320900</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>446600</v>
+        <v>16000</v>
       </c>
       <c r="E24" s="3">
-        <v>190400</v>
+        <v>425500</v>
       </c>
       <c r="F24" s="3">
-        <v>199500</v>
+        <v>181400</v>
       </c>
       <c r="G24" s="3">
-        <v>79300</v>
+        <v>190100</v>
       </c>
       <c r="H24" s="3">
-        <v>113000</v>
+        <v>75600</v>
       </c>
       <c r="I24" s="3">
-        <v>-81500</v>
+        <v>107700</v>
       </c>
       <c r="J24" s="3">
+        <v>-77600</v>
+      </c>
+      <c r="K24" s="3">
         <v>89500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>73900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>252900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>182100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>85900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>58000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>286700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>153400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>166900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>6400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>162000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>29600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>93200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>191300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>502900</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>37600</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>75200</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>57500</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>39300</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>149900</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>79400</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2162,180 +2210,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>759200</v>
+        <v>42900</v>
       </c>
       <c r="E26" s="3">
-        <v>343100</v>
+        <v>723400</v>
       </c>
       <c r="F26" s="3">
-        <v>466100</v>
+        <v>326900</v>
       </c>
       <c r="G26" s="3">
-        <v>197100</v>
+        <v>444100</v>
       </c>
       <c r="H26" s="3">
-        <v>475000</v>
+        <v>187800</v>
       </c>
       <c r="I26" s="3">
-        <v>578300</v>
+        <v>452600</v>
       </c>
       <c r="J26" s="3">
+        <v>551000</v>
+      </c>
+      <c r="K26" s="3">
         <v>270400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>217100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>653000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>522100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>241800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>163400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>541200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>336600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>518200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>51000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>514800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-273600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>94600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>690400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>1034700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>80500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>394300</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>9400</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>536000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>193300</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>241500</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>738500</v>
+        <v>29900</v>
       </c>
       <c r="E27" s="3">
-        <v>293900</v>
+        <v>703700</v>
       </c>
       <c r="F27" s="3">
-        <v>394400</v>
+        <v>280100</v>
       </c>
       <c r="G27" s="3">
-        <v>124600</v>
+        <v>375800</v>
       </c>
       <c r="H27" s="3">
-        <v>421100</v>
+        <v>118700</v>
       </c>
       <c r="I27" s="3">
-        <v>514400</v>
+        <v>401300</v>
       </c>
       <c r="J27" s="3">
+        <v>490100</v>
+      </c>
+      <c r="K27" s="3">
         <v>207500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>177600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>626100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>493100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>225500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>155000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>529800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>330200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>519800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>65000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>510300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-280100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>77800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>661400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>1029700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>50100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>380700</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-13200</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>529200</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>159500</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>211300</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2420,8 +2477,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2470,8 +2530,8 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
@@ -2485,29 +2545,32 @@
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X29" s="3">
-        <v>0</v>
+      <c r="X29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
         <v>58000</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>-7100</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AB29" s="3">
         <v>32600</v>
       </c>
-      <c r="AB29" s="3">
+      <c r="AC29" s="3">
         <v>-30200</v>
       </c>
-      <c r="AC29" s="3">
+      <c r="AD29" s="3">
         <v>21200</v>
       </c>
-      <c r="AD29" s="3">
+      <c r="AE29" s="3">
         <v>18600</v>
       </c>
     </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2592,8 +2655,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2678,180 +2744,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-35400</v>
+        <v>-77200</v>
       </c>
       <c r="E32" s="3">
-        <v>-20100</v>
+        <v>-41200</v>
       </c>
       <c r="F32" s="3">
-        <v>-128800</v>
+        <v>-19100</v>
       </c>
       <c r="G32" s="3">
-        <v>-97900</v>
+        <v>-122700</v>
       </c>
       <c r="H32" s="3">
-        <v>-71700</v>
+        <v>-93300</v>
       </c>
       <c r="I32" s="3">
-        <v>-31700</v>
+        <v>-68300</v>
       </c>
       <c r="J32" s="3">
+        <v>-30200</v>
+      </c>
+      <c r="K32" s="3">
         <v>-20600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-48000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-126900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-24200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-22400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-38400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-44700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-40000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-72600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-35800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-72600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-35300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-49200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-165400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-244600</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-32400</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-271100</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-30400</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-27500</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-46900</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-30200</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>738500</v>
+        <v>29900</v>
       </c>
       <c r="E33" s="3">
-        <v>293900</v>
+        <v>703700</v>
       </c>
       <c r="F33" s="3">
-        <v>394400</v>
+        <v>280100</v>
       </c>
       <c r="G33" s="3">
-        <v>124600</v>
+        <v>375800</v>
       </c>
       <c r="H33" s="3">
-        <v>421100</v>
+        <v>118700</v>
       </c>
       <c r="I33" s="3">
-        <v>514400</v>
+        <v>401300</v>
       </c>
       <c r="J33" s="3">
+        <v>490100</v>
+      </c>
+      <c r="K33" s="3">
         <v>207500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>177600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>626100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>493100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>225500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>155000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>529800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>330200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>519800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>65000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>510300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-280100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>77800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>661400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>1029700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>108100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>373600</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>19400</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>499000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>180700</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>229900</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2936,185 +3011,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>738500</v>
+        <v>29900</v>
       </c>
       <c r="E35" s="3">
-        <v>293900</v>
+        <v>703700</v>
       </c>
       <c r="F35" s="3">
-        <v>394400</v>
+        <v>280100</v>
       </c>
       <c r="G35" s="3">
-        <v>124600</v>
+        <v>375800</v>
       </c>
       <c r="H35" s="3">
-        <v>421100</v>
+        <v>118700</v>
       </c>
       <c r="I35" s="3">
-        <v>514400</v>
+        <v>401300</v>
       </c>
       <c r="J35" s="3">
+        <v>490100</v>
+      </c>
+      <c r="K35" s="3">
         <v>207500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>177600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>626100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>493100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>225500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>155000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>529800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>330200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>519800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>65000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>510300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-280100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>77800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>661400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>1029700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>108100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>373600</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>19400</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>499000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>180700</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>229900</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3145,8 +3229,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3177,94 +3262,98 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2566000</v>
+        <v>3201100</v>
       </c>
       <c r="E41" s="3">
-        <v>2658500</v>
+        <v>2445000</v>
       </c>
       <c r="F41" s="3">
-        <v>3299100</v>
+        <v>2533200</v>
       </c>
       <c r="G41" s="3">
-        <v>3408400</v>
+        <v>3143500</v>
       </c>
       <c r="H41" s="3">
-        <v>3489800</v>
+        <v>3247700</v>
       </c>
       <c r="I41" s="3">
-        <v>3083400</v>
+        <v>3325200</v>
       </c>
       <c r="J41" s="3">
+        <v>2938000</v>
+      </c>
+      <c r="K41" s="3">
         <v>3431100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4237000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3416200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3426200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3825500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4852800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3980900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4593600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3795500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4251000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4004300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>3420000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>4022600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>4852800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>4091100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>3514500</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>3640500</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>3944200</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>3376800</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>3378700</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>2907800</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3349,610 +3438,634 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>8205400</v>
+        <v>5519800</v>
       </c>
       <c r="E43" s="3">
-        <v>6798700</v>
+        <v>7818500</v>
       </c>
       <c r="F43" s="3">
-        <v>6292700</v>
+        <v>6478100</v>
       </c>
       <c r="G43" s="3">
-        <v>5542600</v>
+        <v>5995900</v>
       </c>
       <c r="H43" s="3">
-        <v>7622100</v>
+        <v>5281200</v>
       </c>
       <c r="I43" s="3">
-        <v>4394000</v>
+        <v>7262700</v>
       </c>
       <c r="J43" s="3">
+        <v>4186800</v>
+      </c>
+      <c r="K43" s="3">
         <v>4406000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3942500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>7165400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4829500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>5049500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>5239100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>9402300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>8281200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>8687800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>6009400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>10890900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>8897700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>8539000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>7949100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>9504100</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>8140100</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>8112800</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>7229000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>9456200</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>8723500</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>8133900</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2429800</v>
+        <v>2669800</v>
       </c>
       <c r="E44" s="3">
-        <v>2904200</v>
+        <v>2315200</v>
       </c>
       <c r="F44" s="3">
-        <v>2828000</v>
+        <v>2767200</v>
       </c>
       <c r="G44" s="3">
-        <v>2585700</v>
+        <v>2694700</v>
       </c>
       <c r="H44" s="3">
-        <v>2233900</v>
+        <v>2463800</v>
       </c>
       <c r="I44" s="3">
-        <v>2427200</v>
+        <v>2128500</v>
       </c>
       <c r="J44" s="3">
+        <v>2312800</v>
+      </c>
+      <c r="K44" s="3">
         <v>2150100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2012600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1680400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2054500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2066100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2129500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2097400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3024800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2673300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2530200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>2172300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>2782400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>2567900</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>2568900</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>2184100</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>2619100</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>2715300</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>2696200</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>2600400</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>3205000</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>2890300</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>626200</v>
+        <v>790600</v>
       </c>
       <c r="E45" s="3">
-        <v>730100</v>
+        <v>596700</v>
       </c>
       <c r="F45" s="3">
-        <v>920100</v>
+        <v>695600</v>
       </c>
       <c r="G45" s="3">
-        <v>1401900</v>
+        <v>876700</v>
       </c>
       <c r="H45" s="3">
-        <v>654800</v>
+        <v>1335800</v>
       </c>
       <c r="I45" s="3">
-        <v>2758900</v>
+        <v>624000</v>
       </c>
       <c r="J45" s="3">
+        <v>2628800</v>
+      </c>
+      <c r="K45" s="3">
         <v>2481300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2284700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1018200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2633100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2546200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2477400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1180300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1108300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1754000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>3237300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1761800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>2739100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>2608500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1638200</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1101100</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1572900</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>2370700</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>2509100</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>908800</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>924000</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>838300</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>13827500</v>
+        <v>12181300</v>
       </c>
       <c r="E46" s="3">
-        <v>13091500</v>
+        <v>13175500</v>
       </c>
       <c r="F46" s="3">
-        <v>13339900</v>
+        <v>12474100</v>
       </c>
       <c r="G46" s="3">
-        <v>12938700</v>
+        <v>12710800</v>
       </c>
       <c r="H46" s="3">
-        <v>14000600</v>
+        <v>12328500</v>
       </c>
       <c r="I46" s="3">
-        <v>12663600</v>
+        <v>13340400</v>
       </c>
       <c r="J46" s="3">
+        <v>12066400</v>
+      </c>
+      <c r="K46" s="3">
         <v>12468600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>12476800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>13280200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>12943200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>13487200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>14698800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>16660800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>17008000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>16910600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>16027800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>18829300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>17839300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>17738000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>17009000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>16880400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>15846500</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>16839400</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>16378500</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>16342100</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>16231300</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>14770300</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2531100</v>
+        <v>2803700</v>
       </c>
       <c r="E47" s="3">
-        <v>2368900</v>
+        <v>2411800</v>
       </c>
       <c r="F47" s="3">
-        <v>2476400</v>
+        <v>2257200</v>
       </c>
       <c r="G47" s="3">
-        <v>2566100</v>
+        <v>2359600</v>
       </c>
       <c r="H47" s="3">
-        <v>2424200</v>
+        <v>2445100</v>
       </c>
       <c r="I47" s="3">
-        <v>2396100</v>
+        <v>2309900</v>
       </c>
       <c r="J47" s="3">
+        <v>2283100</v>
+      </c>
+      <c r="K47" s="3">
         <v>2411100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2524000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2348800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2374400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2381600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2525800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2488700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2723200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2673900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2637700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>2859800</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>2699000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>3077600</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>3008500</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>2818600</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>2568300</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>2387000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>2600400</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>2588500</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>2502100</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>2282100</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4125400</v>
+        <v>4045300</v>
       </c>
       <c r="E48" s="3">
-        <v>4002300</v>
+        <v>3930800</v>
       </c>
       <c r="F48" s="3">
-        <v>4072500</v>
+        <v>3813500</v>
       </c>
       <c r="G48" s="3">
-        <v>4116000</v>
+        <v>3880400</v>
       </c>
       <c r="H48" s="3">
-        <v>4118100</v>
+        <v>3921900</v>
       </c>
       <c r="I48" s="3">
-        <v>4152500</v>
+        <v>3923900</v>
       </c>
       <c r="J48" s="3">
+        <v>3956700</v>
+      </c>
+      <c r="K48" s="3">
         <v>4192800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4323800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4038400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4102900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4325900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4793500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5023200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5304800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5438700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>5457000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>4219500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>4201800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>4224000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>4290200</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>4751300</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>4833700</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>4984100</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>4980900</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>5292300</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>5365800</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>5402900</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1452100</v>
+        <v>1732900</v>
       </c>
       <c r="E49" s="3">
-        <v>1408600</v>
+        <v>1383600</v>
       </c>
       <c r="F49" s="3">
-        <v>1371600</v>
+        <v>1342200</v>
       </c>
       <c r="G49" s="3">
-        <v>1321700</v>
+        <v>1306900</v>
       </c>
       <c r="H49" s="3">
-        <v>1307500</v>
+        <v>1259400</v>
       </c>
       <c r="I49" s="3">
-        <v>1232600</v>
+        <v>1245800</v>
       </c>
       <c r="J49" s="3">
+        <v>1174500</v>
+      </c>
+      <c r="K49" s="3">
         <v>1207100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1203500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1146400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1156000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1188300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1253900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1268000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1348400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1323100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1381900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1492000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1482000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1521000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1508100</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1565500</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>1609100</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>1638400</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>1634800</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>1731500</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>1773700</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>1761300</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4037,8 +4150,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4123,94 +4239,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1608800</v>
+        <v>1495800</v>
       </c>
       <c r="E52" s="3">
-        <v>1718700</v>
+        <v>1532900</v>
       </c>
       <c r="F52" s="3">
-        <v>1984500</v>
+        <v>1637600</v>
       </c>
       <c r="G52" s="3">
-        <v>2039300</v>
+        <v>1890900</v>
       </c>
       <c r="H52" s="3">
-        <v>2171900</v>
+        <v>1943100</v>
       </c>
       <c r="I52" s="3">
-        <v>2018600</v>
+        <v>2069500</v>
       </c>
       <c r="J52" s="3">
+        <v>1923400</v>
+      </c>
+      <c r="K52" s="3">
         <v>1726700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1770700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1804700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1637500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1905100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2190600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2640800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1992500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2260600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2231800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>2436900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>2024100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>2036300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1967800</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>2202800</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>2103500</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>2053100</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>1898900</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>2354200</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>2168000</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>2425900</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4295,94 +4417,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>23544800</v>
+        <v>22258900</v>
       </c>
       <c r="E54" s="3">
-        <v>22590000</v>
+        <v>22434500</v>
       </c>
       <c r="F54" s="3">
-        <v>23244900</v>
+        <v>21524700</v>
       </c>
       <c r="G54" s="3">
-        <v>22981700</v>
+        <v>22148700</v>
       </c>
       <c r="H54" s="3">
-        <v>24022300</v>
+        <v>21898000</v>
       </c>
       <c r="I54" s="3">
-        <v>22463500</v>
+        <v>22889500</v>
       </c>
       <c r="J54" s="3">
+        <v>21404200</v>
+      </c>
+      <c r="K54" s="3">
         <v>22006300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>22298800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>22618600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>22214000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>23288200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>25462700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>28081400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>28376800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>28606900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>27736200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>29837500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>28246100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>28596900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>27783500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>28218600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>26961200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>27902100</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>27493600</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>28308600</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>28040900</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>26642400</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4413,8 +4541,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4445,524 +4574,543 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3343500</v>
+        <v>2838700</v>
       </c>
       <c r="E57" s="3">
-        <v>3147800</v>
+        <v>3148400</v>
       </c>
       <c r="F57" s="3">
-        <v>3102200</v>
+        <v>2999400</v>
       </c>
       <c r="G57" s="3">
-        <v>3048000</v>
+        <v>2955900</v>
       </c>
       <c r="H57" s="3">
-        <v>3351200</v>
+        <v>2904300</v>
       </c>
       <c r="I57" s="3">
-        <v>3180300</v>
+        <v>3193100</v>
       </c>
       <c r="J57" s="3">
+        <v>3030300</v>
+      </c>
+      <c r="K57" s="3">
         <v>3102000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2857400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3284700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3201200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3215500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3384800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4177500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>4421000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>4504000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>4041700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>5081200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>4770900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>4895000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>4925800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>4890100</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>4536100</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>4442700</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>4365700</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>5479100</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>5278500</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>4733500</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>746800</v>
+        <v>845600</v>
       </c>
       <c r="E58" s="3">
-        <v>1102200</v>
+        <v>711600</v>
       </c>
       <c r="F58" s="3">
-        <v>969200</v>
+        <v>1050200</v>
       </c>
       <c r="G58" s="3">
-        <v>983300</v>
+        <v>923500</v>
       </c>
       <c r="H58" s="3">
-        <v>1216800</v>
+        <v>937000</v>
       </c>
       <c r="I58" s="3">
-        <v>1143300</v>
+        <v>1159400</v>
       </c>
       <c r="J58" s="3">
+        <v>1089400</v>
+      </c>
+      <c r="K58" s="3">
         <v>1122100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1107800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1235600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1472400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1649000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2044000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1757200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2170500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1874100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1445400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1257700</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1139500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1370500</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1457300</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1223900</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1843800</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>1758100</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>1742400</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>1160100</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>2089100</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>1598500</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5113000</v>
+        <v>4436000</v>
       </c>
       <c r="E59" s="3">
-        <v>4156000</v>
+        <v>4909300</v>
       </c>
       <c r="F59" s="3">
-        <v>4374100</v>
+        <v>3960000</v>
       </c>
       <c r="G59" s="3">
-        <v>4462400</v>
+        <v>4167900</v>
       </c>
       <c r="H59" s="3">
-        <v>4954500</v>
+        <v>4251900</v>
       </c>
       <c r="I59" s="3">
-        <v>4025000</v>
+        <v>4720900</v>
       </c>
       <c r="J59" s="3">
+        <v>3835200</v>
+      </c>
+      <c r="K59" s="3">
         <v>4055900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4247700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4622300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4288800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4783000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>5037200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>6096400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>5430800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>5602200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>5604600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>6777800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>6198400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>5931800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>5503600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>5842700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>5204500</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>6069800</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>6141100</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>6062600</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>5314400</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>5197200</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9203200</v>
+        <v>8120400</v>
       </c>
       <c r="E60" s="3">
-        <v>8406000</v>
+        <v>8769300</v>
       </c>
       <c r="F60" s="3">
-        <v>8445500</v>
+        <v>8009600</v>
       </c>
       <c r="G60" s="3">
-        <v>8493700</v>
+        <v>8047300</v>
       </c>
       <c r="H60" s="3">
-        <v>9522500</v>
+        <v>8093200</v>
       </c>
       <c r="I60" s="3">
-        <v>8348700</v>
+        <v>9073400</v>
       </c>
       <c r="J60" s="3">
+        <v>7955000</v>
+      </c>
+      <c r="K60" s="3">
         <v>8280000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>8212900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>9142500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>8962400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>9647500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>10466000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>12031000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>12022300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>11980300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>11091700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>13116800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>12108900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>12197300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>11886800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>11956700</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>11584400</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>12270600</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>12249300</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>12701800</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>12682100</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>11529200</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>775800</v>
+        <v>760900</v>
       </c>
       <c r="E61" s="3">
-        <v>782100</v>
+        <v>739200</v>
       </c>
       <c r="F61" s="3">
-        <v>787800</v>
+        <v>745200</v>
       </c>
       <c r="G61" s="3">
-        <v>836500</v>
+        <v>750700</v>
       </c>
       <c r="H61" s="3">
-        <v>840300</v>
+        <v>797000</v>
       </c>
       <c r="I61" s="3">
-        <v>968600</v>
+        <v>800700</v>
       </c>
       <c r="J61" s="3">
+        <v>922900</v>
+      </c>
+      <c r="K61" s="3">
         <v>986400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1192800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1007200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1060200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1197700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1446600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1815900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2113600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2349700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2693000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1781100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2114900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2085900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2071600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>2409200</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>2514000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>2845600</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>2850300</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>3142700</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>3330600</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>3416600</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1043300</v>
+        <v>1040600</v>
       </c>
       <c r="E62" s="3">
-        <v>1020900</v>
+        <v>994100</v>
       </c>
       <c r="F62" s="3">
-        <v>1080700</v>
+        <v>972800</v>
       </c>
       <c r="G62" s="3">
-        <v>1121300</v>
+        <v>1029700</v>
       </c>
       <c r="H62" s="3">
-        <v>1288900</v>
+        <v>1068400</v>
       </c>
       <c r="I62" s="3">
-        <v>1304300</v>
+        <v>1228200</v>
       </c>
       <c r="J62" s="3">
+        <v>1242800</v>
+      </c>
+      <c r="K62" s="3">
         <v>1337900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1430100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1501300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1699300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1882000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2089500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2354800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2252000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2448600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2622000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>2892300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>2815900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>2349600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>2433100</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>2960400</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>2738600</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>3007700</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>3186800</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>3423800</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>3635400</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>4100300</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5047,8 +5195,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5133,8 +5284,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5219,94 +5373,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>12103700</v>
+        <v>10977900</v>
       </c>
       <c r="E66" s="3">
-        <v>11269900</v>
+        <v>11533000</v>
       </c>
       <c r="F66" s="3">
-        <v>11345700</v>
+        <v>10738400</v>
       </c>
       <c r="G66" s="3">
-        <v>11410900</v>
+        <v>10810600</v>
       </c>
       <c r="H66" s="3">
-        <v>12553300</v>
+        <v>10872800</v>
       </c>
       <c r="I66" s="3">
-        <v>11464300</v>
+        <v>11961300</v>
       </c>
       <c r="J66" s="3">
+        <v>10923700</v>
+      </c>
+      <c r="K66" s="3">
         <v>11391200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>11576400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>12337100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>12389100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>13413200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>14929300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>17148600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>17363200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>17853700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>17483400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>18958500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>18179000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>17756300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>17466900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>18384900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>17967300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>19395400</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>19535600</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>20491500</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>20859700</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>20204800</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5337,8 +5497,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5423,8 +5584,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5509,8 +5673,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5595,8 +5762,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5681,94 +5851,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>8843700</v>
+        <v>8434100</v>
       </c>
       <c r="E72" s="3">
-        <v>8313400</v>
+        <v>8426700</v>
       </c>
       <c r="F72" s="3">
-        <v>8298100</v>
+        <v>7921400</v>
       </c>
       <c r="G72" s="3">
-        <v>7893800</v>
+        <v>7906700</v>
       </c>
       <c r="H72" s="3">
-        <v>7847600</v>
+        <v>7521500</v>
       </c>
       <c r="I72" s="3">
-        <v>7380000</v>
+        <v>7477500</v>
       </c>
       <c r="J72" s="3">
+        <v>7032000</v>
+      </c>
+      <c r="K72" s="3">
         <v>6892300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>6811900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>6445800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>5832600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>5761000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>6145800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>6483500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>5905600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>5726800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>5205100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>5543600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>4808000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>5381100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>5046900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>4337200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>3458200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>3040200</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>2400300</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>2358500</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>1640600</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>1192500</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5853,8 +6029,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5939,8 +6118,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6025,94 +6207,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>11441100</v>
+        <v>11281000</v>
       </c>
       <c r="E76" s="3">
-        <v>11320100</v>
+        <v>10901600</v>
       </c>
       <c r="F76" s="3">
-        <v>11899200</v>
+        <v>10786200</v>
       </c>
       <c r="G76" s="3">
-        <v>11570900</v>
+        <v>11338100</v>
       </c>
       <c r="H76" s="3">
-        <v>11469000</v>
+        <v>11025200</v>
       </c>
       <c r="I76" s="3">
-        <v>10999200</v>
+        <v>10928200</v>
       </c>
       <c r="J76" s="3">
+        <v>10480500</v>
+      </c>
+      <c r="K76" s="3">
         <v>10615100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>10722300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>10281500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>9824900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>9874900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>10533400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>10932800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>11013600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>10753200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>10252800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>10879000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>10067100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>10840600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>10316700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>9833700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>8993900</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>8506700</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>7958000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>7817100</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>7181100</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>6437700</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6197,185 +6385,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>738500</v>
+        <v>29900</v>
       </c>
       <c r="E81" s="3">
-        <v>293900</v>
+        <v>703700</v>
       </c>
       <c r="F81" s="3">
-        <v>394400</v>
+        <v>280100</v>
       </c>
       <c r="G81" s="3">
-        <v>124600</v>
+        <v>375800</v>
       </c>
       <c r="H81" s="3">
-        <v>421100</v>
+        <v>118700</v>
       </c>
       <c r="I81" s="3">
-        <v>514400</v>
+        <v>401300</v>
       </c>
       <c r="J81" s="3">
+        <v>490100</v>
+      </c>
+      <c r="K81" s="3">
         <v>207500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>177600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>626100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>493100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>225500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>155000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>529800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>330200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>519800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>65000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>510300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-280100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>77800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>661400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>1029700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>108100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>373600</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>19400</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>499000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>180700</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>229900</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6406,94 +6603,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>352800</v>
+        <v>270300</v>
       </c>
       <c r="E83" s="3">
-        <v>309600</v>
+        <v>336100</v>
       </c>
       <c r="F83" s="3">
-        <v>307700</v>
+        <v>295000</v>
       </c>
       <c r="G83" s="3">
-        <v>322200</v>
+        <v>293100</v>
       </c>
       <c r="H83" s="3">
+        <v>307000</v>
+      </c>
+      <c r="I83" s="3">
+        <v>356500</v>
+      </c>
+      <c r="J83" s="3">
+        <v>308300</v>
+      </c>
+      <c r="K83" s="3">
+        <v>326600</v>
+      </c>
+      <c r="L83" s="3">
+        <v>325600</v>
+      </c>
+      <c r="M83" s="3">
+        <v>358000</v>
+      </c>
+      <c r="N83" s="3">
+        <v>317200</v>
+      </c>
+      <c r="O83" s="3">
+        <v>321500</v>
+      </c>
+      <c r="P83" s="3">
+        <v>347900</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>479800</v>
+      </c>
+      <c r="R83" s="3">
+        <v>467500</v>
+      </c>
+      <c r="S83" s="3">
+        <v>486900</v>
+      </c>
+      <c r="T83" s="3">
+        <v>506400</v>
+      </c>
+      <c r="U83" s="3">
+        <v>399000</v>
+      </c>
+      <c r="V83" s="3">
+        <v>397400</v>
+      </c>
+      <c r="W83" s="3">
+        <v>353700</v>
+      </c>
+      <c r="X83" s="3">
+        <v>331100</v>
+      </c>
+      <c r="Y83" s="3">
+        <v>406300</v>
+      </c>
+      <c r="Z83" s="3">
         <v>374200</v>
       </c>
-      <c r="I83" s="3">
-        <v>323600</v>
-      </c>
-      <c r="J83" s="3">
-        <v>326600</v>
-      </c>
-      <c r="K83" s="3">
-        <v>325600</v>
-      </c>
-      <c r="L83" s="3">
-        <v>358000</v>
-      </c>
-      <c r="M83" s="3">
-        <v>317200</v>
-      </c>
-      <c r="N83" s="3">
-        <v>321500</v>
-      </c>
-      <c r="O83" s="3">
-        <v>347900</v>
-      </c>
-      <c r="P83" s="3">
-        <v>479800</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>467500</v>
-      </c>
-      <c r="R83" s="3">
-        <v>486900</v>
-      </c>
-      <c r="S83" s="3">
-        <v>506400</v>
-      </c>
-      <c r="T83" s="3">
-        <v>399000</v>
-      </c>
-      <c r="U83" s="3">
-        <v>397400</v>
-      </c>
-      <c r="V83" s="3">
-        <v>353700</v>
-      </c>
-      <c r="W83" s="3">
-        <v>331100</v>
-      </c>
-      <c r="X83" s="3">
-        <v>406300</v>
-      </c>
-      <c r="Y83" s="3">
-        <v>374200</v>
-      </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>382800</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>371200</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>510100</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>394600</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>391500</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6578,8 +6779,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6664,8 +6868,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6750,8 +6957,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6836,8 +7046,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6922,94 +7135,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1033800</v>
+        <v>1156000</v>
       </c>
       <c r="E89" s="3">
-        <v>-78200</v>
+        <v>985100</v>
       </c>
       <c r="F89" s="3">
-        <v>-265700</v>
+        <v>-74500</v>
       </c>
       <c r="G89" s="3">
-        <v>898700</v>
+        <v>-253200</v>
       </c>
       <c r="H89" s="3">
-        <v>388700</v>
+        <v>856300</v>
       </c>
       <c r="I89" s="3">
-        <v>161800</v>
+        <v>370300</v>
       </c>
       <c r="J89" s="3">
+        <v>154100</v>
+      </c>
+      <c r="K89" s="3">
         <v>-144300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1411300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>769400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>311300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>62800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1270100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1149600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>925100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-10600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1066000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>798500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-282800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-542300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>951300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1170800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>146100</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-243400</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>738300</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>1384900</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>462200</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>-176900</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7040,94 +7259,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-32721000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-52404000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-40044000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-34795000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-40855000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-36607000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-38364000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-36011000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-237200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-260100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-250200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-247200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-223700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-299500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-339000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-327900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-238900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-277100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-280100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-308100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-263300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-328500</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-278400</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-345300</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-268200</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>796000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-743100</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-1114100</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7212,8 +7435,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7298,94 +7524,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-112000</v>
+        <v>-292500</v>
       </c>
       <c r="E94" s="3">
-        <v>95300</v>
+        <v>-106800</v>
       </c>
       <c r="F94" s="3">
-        <v>129600</v>
+        <v>90800</v>
       </c>
       <c r="G94" s="3">
-        <v>-421500</v>
+        <v>123500</v>
       </c>
       <c r="H94" s="3">
-        <v>185800</v>
+        <v>-401600</v>
       </c>
       <c r="I94" s="3">
-        <v>-123300</v>
+        <v>177100</v>
       </c>
       <c r="J94" s="3">
+        <v>-117500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-280600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-213300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-214800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>21500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-266300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-85400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-613900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>30500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-341100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-98500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-124800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>151500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-165200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>171400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>135400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-19800</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-35900</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-283900</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-128400</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-312300</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-509000</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7416,94 +7648,98 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-155300</v>
       </c>
       <c r="E96" s="3">
-        <v>-170100</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-162100</v>
       </c>
       <c r="G96" s="3">
-        <v>-155900</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-148500</v>
       </c>
       <c r="I96" s="3">
-        <v>-157000</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-149600</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-146300</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-146800</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-170800</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-147700</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-148500</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-135100</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-112300</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
       <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-92700</v>
       </c>
-      <c r="Z96" s="3">
-        <v>0</v>
-      </c>
       <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="3">
         <v>-92700</v>
       </c>
-      <c r="AB96" s="3">
-        <v>0</v>
-      </c>
       <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="3">
         <v>-73400</v>
       </c>
-      <c r="AD96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7588,8 +7824,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7674,8 +7913,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7760,262 +8002,274 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1034200</v>
+        <v>-170700</v>
       </c>
       <c r="E100" s="3">
-        <v>-625200</v>
+        <v>-985400</v>
       </c>
       <c r="F100" s="3">
-        <v>-106800</v>
+        <v>-595700</v>
       </c>
       <c r="G100" s="3">
-        <v>-494800</v>
+        <v>-101800</v>
       </c>
       <c r="H100" s="3">
-        <v>-205300</v>
+        <v>-471500</v>
       </c>
       <c r="I100" s="3">
-        <v>-403600</v>
+        <v>-195600</v>
       </c>
       <c r="J100" s="3">
+        <v>-384600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-290100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-507100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-515700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-522700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-403200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-203300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-966600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-224700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-31000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-507600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-328900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-456900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-98000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-394900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-724300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-355700</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-24600</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>87700</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-1222900</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>222400</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-114400</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>19900</v>
+        <v>63300</v>
       </c>
       <c r="E101" s="3">
-        <v>-32500</v>
+        <v>19000</v>
       </c>
       <c r="F101" s="3">
-        <v>5600</v>
+        <v>-31000</v>
       </c>
       <c r="G101" s="3">
-        <v>64300</v>
+        <v>5300</v>
       </c>
       <c r="H101" s="3">
-        <v>37200</v>
+        <v>61300</v>
       </c>
       <c r="I101" s="3">
+        <v>35400</v>
+      </c>
+      <c r="J101" s="3">
+        <v>14500</v>
+      </c>
+      <c r="K101" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="L101" s="3">
+        <v>4900</v>
+      </c>
+      <c r="M101" s="3">
+        <v>52100</v>
+      </c>
+      <c r="N101" s="3">
+        <v>13000</v>
+      </c>
+      <c r="O101" s="3">
+        <v>10400</v>
+      </c>
+      <c r="P101" s="3">
+        <v>13500</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>-28400</v>
+      </c>
+      <c r="R101" s="3">
+        <v>8600</v>
+      </c>
+      <c r="S101" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="T101" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="U101" s="3">
+        <v>-25900</v>
+      </c>
+      <c r="V101" s="3">
+        <v>-29900</v>
+      </c>
+      <c r="W101" s="3">
         <v>15200</v>
       </c>
-      <c r="J101" s="3">
-        <v>-8200</v>
-      </c>
-      <c r="K101" s="3">
-        <v>4900</v>
-      </c>
-      <c r="L101" s="3">
-        <v>52100</v>
-      </c>
-      <c r="M101" s="3">
-        <v>13000</v>
-      </c>
-      <c r="N101" s="3">
-        <v>10400</v>
-      </c>
-      <c r="O101" s="3">
-        <v>13500</v>
-      </c>
-      <c r="P101" s="3">
-        <v>-28400</v>
-      </c>
-      <c r="Q101" s="3">
-        <v>8600</v>
-      </c>
-      <c r="R101" s="3">
-        <v>-8100</v>
-      </c>
-      <c r="S101" s="3">
-        <v>-4000</v>
-      </c>
-      <c r="T101" s="3">
-        <v>-25900</v>
-      </c>
-      <c r="U101" s="3">
-        <v>-29900</v>
-      </c>
-      <c r="V101" s="3">
-        <v>15200</v>
-      </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>12400</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-5500</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>12600</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>15900</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>7400</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-6500</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>98700</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>-16300</v>
       </c>
     </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-92500</v>
+        <v>756000</v>
       </c>
       <c r="E102" s="3">
-        <v>-640600</v>
+        <v>-88100</v>
       </c>
       <c r="F102" s="3">
-        <v>-237400</v>
+        <v>-610400</v>
       </c>
       <c r="G102" s="3">
-        <v>46700</v>
+        <v>-226200</v>
       </c>
       <c r="H102" s="3">
-        <v>406400</v>
+        <v>44500</v>
       </c>
       <c r="I102" s="3">
-        <v>-350000</v>
+        <v>387200</v>
       </c>
       <c r="J102" s="3">
+        <v>-333400</v>
+      </c>
+      <c r="K102" s="3">
         <v>-723300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>695800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>91000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-176900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-596300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>995000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-459200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>739400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-390800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>455900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>318800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-618100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-790300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>740200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>576400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-216800</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-288000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>549500</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>27100</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>471000</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-816700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FJTSY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FJTSY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
   <si>
     <t>FJTSY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,392 +665,404 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5493500</v>
+        <v>6057400</v>
       </c>
       <c r="E8" s="3">
-        <v>7399200</v>
+        <v>5309600</v>
       </c>
       <c r="F8" s="3">
-        <v>6398900</v>
+        <v>7151500</v>
       </c>
       <c r="G8" s="3">
-        <v>6089900</v>
+        <v>6184700</v>
       </c>
       <c r="H8" s="3">
-        <v>5625600</v>
+        <v>5886000</v>
       </c>
       <c r="I8" s="3">
-        <v>7167500</v>
+        <v>5437200</v>
       </c>
       <c r="J8" s="3">
+        <v>6927500</v>
+      </c>
+      <c r="K8" s="3">
         <v>6049200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6208000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5894600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>7540200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6555700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6458300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>6847800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>9741800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>8410900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>9098300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>7682800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>10960900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>9225900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>8982400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>7887000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>10594900</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>9068300</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>9045400</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>8340600</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>10682100</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>9054700</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>8940200</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3970700</v>
+        <v>4246500</v>
       </c>
       <c r="E9" s="3">
-        <v>4883800</v>
+        <v>3837700</v>
       </c>
       <c r="F9" s="3">
-        <v>4484400</v>
+        <v>4720200</v>
       </c>
       <c r="G9" s="3">
-        <v>4295800</v>
+        <v>4334300</v>
       </c>
       <c r="H9" s="3">
-        <v>3989700</v>
+        <v>4152000</v>
       </c>
       <c r="I9" s="3">
-        <v>4766000</v>
+        <v>3856200</v>
       </c>
       <c r="J9" s="3">
+        <v>4606400</v>
+      </c>
+      <c r="K9" s="3">
         <v>4223500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4352600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4086400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>5133900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4590400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4519500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4938300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>6820000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>5987600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>6467400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>5618400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>7652900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>6814100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>6619700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>5900700</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>7434500</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>6706300</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>6565400</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>6111700</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>7514400</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>6501100</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>6406200</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1522900</v>
+        <v>1810900</v>
       </c>
       <c r="E10" s="3">
-        <v>2515500</v>
+        <v>1471900</v>
       </c>
       <c r="F10" s="3">
-        <v>1914500</v>
+        <v>2431200</v>
       </c>
       <c r="G10" s="3">
-        <v>1794100</v>
+        <v>1850400</v>
       </c>
       <c r="H10" s="3">
-        <v>1635900</v>
+        <v>1734000</v>
       </c>
       <c r="I10" s="3">
-        <v>2401500</v>
+        <v>1581100</v>
       </c>
       <c r="J10" s="3">
+        <v>2321100</v>
+      </c>
+      <c r="K10" s="3">
         <v>1825700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1855400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1808100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2406300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1965300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1938700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1909500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2921800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2423400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2630900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2064500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>3308000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2411800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>2362700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1986300</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>3160500</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>2362000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>2480000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>2228900</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>3167600</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>2553600</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>2534000</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1082,8 +1094,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1171,8 +1184,11 @@
       <c r="AE12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1260,25 +1276,28 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>9000</v>
+        <v>600</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>8700</v>
       </c>
       <c r="F14" s="3">
-        <v>-1300</v>
+        <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>-210500</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
+        <v>-1200</v>
+      </c>
+      <c r="H14" s="3">
+        <v>-203400</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
@@ -1292,14 +1311,14 @@
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
@@ -1316,14 +1335,14 @@
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="3">
+      <c r="U14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V14" s="3">
         <v>710200</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>411800</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>8</v>
@@ -1349,8 +1368,11 @@
       <c r="AE14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1438,8 +1460,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1468,186 +1493,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5505000</v>
+        <v>5749000</v>
       </c>
       <c r="E17" s="3">
-        <v>6284000</v>
+        <v>5320700</v>
       </c>
       <c r="F17" s="3">
-        <v>5902100</v>
+        <v>6073600</v>
       </c>
       <c r="G17" s="3">
-        <v>5572100</v>
+        <v>5704500</v>
       </c>
       <c r="H17" s="3">
-        <v>5449700</v>
+        <v>5385600</v>
       </c>
       <c r="I17" s="3">
-        <v>6669200</v>
+        <v>5267200</v>
       </c>
       <c r="J17" s="3">
+        <v>6445900</v>
+      </c>
+      <c r="K17" s="3">
         <v>5601400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5863800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5646600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6756200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5870400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>6146800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>6657800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>8948800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>7951700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>8476400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>7651800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>10348900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>9497100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>8836700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>7163500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>9293500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>8973100</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>8837100</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>8295900</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>10123400</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>8749800</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>8640300</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-11400</v>
+        <v>308400</v>
       </c>
       <c r="E18" s="3">
-        <v>1115200</v>
+        <v>-11100</v>
       </c>
       <c r="F18" s="3">
-        <v>496800</v>
+        <v>1077900</v>
       </c>
       <c r="G18" s="3">
-        <v>517800</v>
+        <v>480200</v>
       </c>
       <c r="H18" s="3">
-        <v>175900</v>
+        <v>500400</v>
       </c>
       <c r="I18" s="3">
-        <v>498300</v>
+        <v>170000</v>
       </c>
       <c r="J18" s="3">
+        <v>481600</v>
+      </c>
+      <c r="K18" s="3">
         <v>447800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>344200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>248000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>784000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>685300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>311400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>190000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>793000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>459300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>621900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>31000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>612000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-271200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>145700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>723500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>1301400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>95200</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>208400</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>44800</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>558700</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>304900</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>299900</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1679,453 +1711,469 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>77200</v>
+        <v>43400</v>
       </c>
       <c r="E20" s="3">
-        <v>41200</v>
+        <v>74600</v>
       </c>
       <c r="F20" s="3">
-        <v>19100</v>
+        <v>39800</v>
       </c>
       <c r="G20" s="3">
-        <v>122700</v>
+        <v>18500</v>
       </c>
       <c r="H20" s="3">
-        <v>93300</v>
+        <v>118600</v>
       </c>
       <c r="I20" s="3">
-        <v>68300</v>
+        <v>90200</v>
       </c>
       <c r="J20" s="3">
+        <v>66000</v>
+      </c>
+      <c r="K20" s="3">
         <v>30200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>20600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>48000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>126900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>24200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>22400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>38400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>44700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>40000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>72600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>35800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>72600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>35300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>49200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>165400</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>244600</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>32400</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>271100</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>30400</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>27500</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>46900</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>336100</v>
+        <v>624600</v>
       </c>
       <c r="E21" s="3">
-        <v>1492600</v>
+        <v>324900</v>
       </c>
       <c r="F21" s="3">
-        <v>810900</v>
+        <v>1442600</v>
       </c>
       <c r="G21" s="3">
-        <v>933600</v>
+        <v>783800</v>
       </c>
       <c r="H21" s="3">
-        <v>576100</v>
+        <v>902400</v>
       </c>
       <c r="I21" s="3">
-        <v>923200</v>
+        <v>556900</v>
       </c>
       <c r="J21" s="3">
+        <v>892300</v>
+      </c>
+      <c r="K21" s="3">
         <v>786400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>691500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>621500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1268900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1026700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>655300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>576300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1317400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>966700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1181400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>573300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1083600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>161400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>548600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1220000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1952300</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>501700</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>862300</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>446500</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>1096200</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>746400</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>721600</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>6900</v>
+        <v>9000</v>
       </c>
       <c r="E22" s="3">
+        <v>6700</v>
+      </c>
+      <c r="F22" s="3">
+        <v>7200</v>
+      </c>
+      <c r="G22" s="3">
         <v>7400</v>
       </c>
-      <c r="F22" s="3">
-        <v>7700</v>
-      </c>
-      <c r="G22" s="3">
-        <v>6300</v>
-      </c>
       <c r="H22" s="3">
-        <v>5800</v>
+        <v>6100</v>
       </c>
       <c r="I22" s="3">
-        <v>6300</v>
+        <v>5600</v>
       </c>
       <c r="J22" s="3">
+        <v>6100</v>
+      </c>
+      <c r="K22" s="3">
         <v>4700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>5000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>4900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>5000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>5400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>6100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>7000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>9800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>9200</v>
-      </c>
-      <c r="S22" s="3">
-        <v>9500</v>
       </c>
       <c r="T22" s="3">
         <v>9500</v>
       </c>
       <c r="U22" s="3">
+        <v>9500</v>
+      </c>
+      <c r="V22" s="3">
         <v>7800</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>8100</v>
-      </c>
-      <c r="W22" s="3">
-        <v>7200</v>
       </c>
       <c r="X22" s="3">
         <v>7200</v>
       </c>
       <c r="Y22" s="3">
+        <v>7200</v>
+      </c>
+      <c r="Z22" s="3">
         <v>8400</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>9500</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>10000</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>8300</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>10800</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>8600</v>
       </c>
-      <c r="AE22" s="3">
+      <c r="AF22" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>58900</v>
+        <v>342800</v>
       </c>
       <c r="E23" s="3">
-        <v>1149000</v>
+        <v>56900</v>
       </c>
       <c r="F23" s="3">
-        <v>508300</v>
+        <v>1110500</v>
       </c>
       <c r="G23" s="3">
-        <v>634200</v>
+        <v>491200</v>
       </c>
       <c r="H23" s="3">
-        <v>263400</v>
+        <v>612900</v>
       </c>
       <c r="I23" s="3">
-        <v>560300</v>
+        <v>254600</v>
       </c>
       <c r="J23" s="3">
+        <v>541600</v>
+      </c>
+      <c r="K23" s="3">
         <v>473400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>359900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>291000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>905900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>704100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>327700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>221400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>827900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>490000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>685000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>57400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>676800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-244100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>187800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>881700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>1537600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>118000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>469500</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>66900</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>575400</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>343200</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>320900</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>16000</v>
+        <v>92400</v>
       </c>
       <c r="E24" s="3">
-        <v>425500</v>
+        <v>15500</v>
       </c>
       <c r="F24" s="3">
-        <v>181400</v>
+        <v>411300</v>
       </c>
       <c r="G24" s="3">
-        <v>190100</v>
+        <v>175300</v>
       </c>
       <c r="H24" s="3">
-        <v>75600</v>
+        <v>183700</v>
       </c>
       <c r="I24" s="3">
-        <v>107700</v>
+        <v>73100</v>
       </c>
       <c r="J24" s="3">
+        <v>104100</v>
+      </c>
+      <c r="K24" s="3">
         <v>-77600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>89500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>73900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>252900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>182100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>85900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>58000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>286700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>153400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>166900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>6400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>162000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>29600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>93200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>191300</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>502900</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>37600</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>75200</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>57500</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>39300</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>149900</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>79400</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2213,186 +2261,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>42900</v>
+        <v>250300</v>
       </c>
       <c r="E26" s="3">
-        <v>723400</v>
+        <v>41400</v>
       </c>
       <c r="F26" s="3">
-        <v>326900</v>
+        <v>699200</v>
       </c>
       <c r="G26" s="3">
-        <v>444100</v>
+        <v>315900</v>
       </c>
       <c r="H26" s="3">
-        <v>187800</v>
+        <v>429200</v>
       </c>
       <c r="I26" s="3">
-        <v>452600</v>
+        <v>181500</v>
       </c>
       <c r="J26" s="3">
+        <v>437500</v>
+      </c>
+      <c r="K26" s="3">
         <v>551000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>270400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>217100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>653000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>522100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>241800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>163400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>541200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>336600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>518200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>51000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>514800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-273600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>94600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>690400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>1034700</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>80500</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>394300</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>9400</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>536000</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>193300</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>241500</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>29900</v>
+        <v>222200</v>
       </c>
       <c r="E27" s="3">
-        <v>703700</v>
+        <v>28900</v>
       </c>
       <c r="F27" s="3">
-        <v>280100</v>
+        <v>680200</v>
       </c>
       <c r="G27" s="3">
-        <v>375800</v>
+        <v>270700</v>
       </c>
       <c r="H27" s="3">
-        <v>118700</v>
+        <v>363200</v>
       </c>
       <c r="I27" s="3">
-        <v>401300</v>
+        <v>114800</v>
       </c>
       <c r="J27" s="3">
+        <v>387800</v>
+      </c>
+      <c r="K27" s="3">
         <v>490100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>207500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>177600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>626100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>493100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>225500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>155000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>529800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>330200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>519800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>65000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>510300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-280100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>77800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>661400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>1029700</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>50100</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>380700</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-13200</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>529200</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>159500</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>211300</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2480,8 +2537,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2533,8 +2593,8 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
+      <c r="T29" s="3">
+        <v>0</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
@@ -2548,29 +2608,32 @@
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y29" s="3">
-        <v>0</v>
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
         <v>58000</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AB29" s="3">
         <v>-7100</v>
       </c>
-      <c r="AB29" s="3">
+      <c r="AC29" s="3">
         <v>32600</v>
       </c>
-      <c r="AC29" s="3">
+      <c r="AD29" s="3">
         <v>-30200</v>
       </c>
-      <c r="AD29" s="3">
+      <c r="AE29" s="3">
         <v>21200</v>
       </c>
-      <c r="AE29" s="3">
+      <c r="AF29" s="3">
         <v>18600</v>
       </c>
     </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2658,8 +2721,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2747,186 +2813,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-77200</v>
+        <v>-43400</v>
       </c>
       <c r="E32" s="3">
-        <v>-41200</v>
+        <v>-74600</v>
       </c>
       <c r="F32" s="3">
-        <v>-19100</v>
+        <v>-39800</v>
       </c>
       <c r="G32" s="3">
-        <v>-122700</v>
+        <v>-18500</v>
       </c>
       <c r="H32" s="3">
-        <v>-93300</v>
+        <v>-118600</v>
       </c>
       <c r="I32" s="3">
-        <v>-68300</v>
+        <v>-90200</v>
       </c>
       <c r="J32" s="3">
+        <v>-66000</v>
+      </c>
+      <c r="K32" s="3">
         <v>-30200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-20600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-48000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-126900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-24200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-22400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-38400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-44700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-40000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-72600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-35800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-72600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-35300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-49200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-165400</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-244600</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-32400</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-271100</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-30400</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-27500</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-46900</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>-30200</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>29900</v>
+        <v>222200</v>
       </c>
       <c r="E33" s="3">
-        <v>703700</v>
+        <v>28900</v>
       </c>
       <c r="F33" s="3">
-        <v>280100</v>
+        <v>680200</v>
       </c>
       <c r="G33" s="3">
-        <v>375800</v>
+        <v>270700</v>
       </c>
       <c r="H33" s="3">
-        <v>118700</v>
+        <v>363200</v>
       </c>
       <c r="I33" s="3">
-        <v>401300</v>
+        <v>114800</v>
       </c>
       <c r="J33" s="3">
+        <v>387800</v>
+      </c>
+      <c r="K33" s="3">
         <v>490100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>207500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>177600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>626100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>493100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>225500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>155000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>529800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>330200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>519800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>65000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>510300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-280100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>77800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>661400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>1029700</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>108100</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>373600</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>19400</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>499000</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>180700</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>229900</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3014,191 +3089,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>29900</v>
+        <v>222200</v>
       </c>
       <c r="E35" s="3">
-        <v>703700</v>
+        <v>28900</v>
       </c>
       <c r="F35" s="3">
-        <v>280100</v>
+        <v>680200</v>
       </c>
       <c r="G35" s="3">
-        <v>375800</v>
+        <v>270700</v>
       </c>
       <c r="H35" s="3">
-        <v>118700</v>
+        <v>363200</v>
       </c>
       <c r="I35" s="3">
-        <v>401300</v>
+        <v>114800</v>
       </c>
       <c r="J35" s="3">
+        <v>387800</v>
+      </c>
+      <c r="K35" s="3">
         <v>490100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>207500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>177600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>626100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>493100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>225500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>155000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>529800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>330200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>519800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>65000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>510300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-280100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>77800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>661400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>1029700</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>108100</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>373600</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>19400</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>499000</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>180700</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>229900</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3230,8 +3314,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3263,97 +3348,101 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3201100</v>
+        <v>2395700</v>
       </c>
       <c r="E41" s="3">
-        <v>2445000</v>
+        <v>3093900</v>
       </c>
       <c r="F41" s="3">
-        <v>2533200</v>
+        <v>2363200</v>
       </c>
       <c r="G41" s="3">
-        <v>3143500</v>
+        <v>2448400</v>
       </c>
       <c r="H41" s="3">
-        <v>3247700</v>
+        <v>3038300</v>
       </c>
       <c r="I41" s="3">
-        <v>3325200</v>
+        <v>3139000</v>
       </c>
       <c r="J41" s="3">
+        <v>3213900</v>
+      </c>
+      <c r="K41" s="3">
         <v>2938000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3431100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4237000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3416200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3426200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3825500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4852800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3980900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4593600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3795500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4251000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4004300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>3420000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>4022600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>4852800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>4091100</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>3514500</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>3640500</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>3944200</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>3376800</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>3378700</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>2907800</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3441,631 +3530,655 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5519800</v>
+        <v>6142500</v>
       </c>
       <c r="E43" s="3">
-        <v>7818500</v>
+        <v>5335000</v>
       </c>
       <c r="F43" s="3">
-        <v>6478100</v>
+        <v>7556700</v>
       </c>
       <c r="G43" s="3">
-        <v>5995900</v>
+        <v>6261200</v>
       </c>
       <c r="H43" s="3">
-        <v>5281200</v>
+        <v>5795200</v>
       </c>
       <c r="I43" s="3">
-        <v>7262700</v>
+        <v>5104400</v>
       </c>
       <c r="J43" s="3">
+        <v>7019500</v>
+      </c>
+      <c r="K43" s="3">
         <v>4186800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4406000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3942500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>7165400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4829500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>5049500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>5239100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>9402300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>8281200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>8687800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>6009400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>10890900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>8897700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>8539000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>7949100</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>9504100</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>8140100</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>8112800</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>7229000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>9456200</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>8723500</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>8133900</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2669800</v>
+        <v>2511500</v>
       </c>
       <c r="E44" s="3">
-        <v>2315200</v>
+        <v>2580400</v>
       </c>
       <c r="F44" s="3">
-        <v>2767200</v>
+        <v>2237700</v>
       </c>
       <c r="G44" s="3">
-        <v>2694700</v>
+        <v>2674600</v>
       </c>
       <c r="H44" s="3">
-        <v>2463800</v>
+        <v>2604400</v>
       </c>
       <c r="I44" s="3">
-        <v>2128500</v>
+        <v>2381300</v>
       </c>
       <c r="J44" s="3">
+        <v>2057300</v>
+      </c>
+      <c r="K44" s="3">
         <v>2312800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2150100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2012600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1680400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2054500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2066100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2129500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2097400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3024800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2673300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>2530200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>2172300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>2782400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>2567900</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>2568900</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>2184100</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>2619100</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>2715300</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>2696200</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>2600400</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>3205000</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AF44" s="3">
         <v>2890300</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>790600</v>
+        <v>1164300</v>
       </c>
       <c r="E45" s="3">
-        <v>596700</v>
+        <v>764100</v>
       </c>
       <c r="F45" s="3">
-        <v>695600</v>
+        <v>576700</v>
       </c>
       <c r="G45" s="3">
-        <v>876700</v>
+        <v>672400</v>
       </c>
       <c r="H45" s="3">
-        <v>1335800</v>
+        <v>847400</v>
       </c>
       <c r="I45" s="3">
-        <v>624000</v>
+        <v>1291100</v>
       </c>
       <c r="J45" s="3">
+        <v>603100</v>
+      </c>
+      <c r="K45" s="3">
         <v>2628800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2481300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2284700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1018200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2633100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2546200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2477400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1180300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1108300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1754000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>3237300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1761800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>2739100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>2608500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1638200</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1101100</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>1572900</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>2370700</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>2509100</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>908800</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>924000</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>838300</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>12181300</v>
+        <v>12214000</v>
       </c>
       <c r="E46" s="3">
-        <v>13175500</v>
+        <v>11773500</v>
       </c>
       <c r="F46" s="3">
-        <v>12474100</v>
+        <v>12734400</v>
       </c>
       <c r="G46" s="3">
-        <v>12710800</v>
+        <v>12056500</v>
       </c>
       <c r="H46" s="3">
-        <v>12328500</v>
+        <v>12285300</v>
       </c>
       <c r="I46" s="3">
-        <v>13340400</v>
+        <v>11915800</v>
       </c>
       <c r="J46" s="3">
+        <v>12893700</v>
+      </c>
+      <c r="K46" s="3">
         <v>12066400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>12468600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>12476800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>13280200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>12943200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>13487200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>14698800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>16660800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>17008000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>16910600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>16027800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>18829300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>17839300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>17738000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>17009000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>16880400</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>15846500</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>16839400</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>16378500</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>16342100</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>16231300</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>14770300</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2803700</v>
+        <v>2059800</v>
       </c>
       <c r="E47" s="3">
-        <v>2411800</v>
+        <v>2709800</v>
       </c>
       <c r="F47" s="3">
-        <v>2257200</v>
+        <v>2331000</v>
       </c>
       <c r="G47" s="3">
-        <v>2359600</v>
+        <v>2181700</v>
       </c>
       <c r="H47" s="3">
-        <v>2445100</v>
+        <v>2280600</v>
       </c>
       <c r="I47" s="3">
-        <v>2309900</v>
+        <v>2363200</v>
       </c>
       <c r="J47" s="3">
+        <v>2232600</v>
+      </c>
+      <c r="K47" s="3">
         <v>2283100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2411100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2524000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2348800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2374400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2381600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2525800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2488700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2723200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2673900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>2637700</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>2859800</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>2699000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>3077600</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>3008500</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>2818600</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>2568300</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>2387000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>2600400</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>2588500</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>2502100</v>
       </c>
-      <c r="AE47" s="3">
+      <c r="AF47" s="3">
         <v>2282100</v>
       </c>
     </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4045300</v>
+        <v>3952600</v>
       </c>
       <c r="E48" s="3">
-        <v>3930800</v>
+        <v>3909900</v>
       </c>
       <c r="F48" s="3">
-        <v>3813500</v>
+        <v>3799200</v>
       </c>
       <c r="G48" s="3">
-        <v>3880400</v>
+        <v>3685900</v>
       </c>
       <c r="H48" s="3">
-        <v>3921900</v>
+        <v>3750500</v>
       </c>
       <c r="I48" s="3">
-        <v>3923900</v>
+        <v>3790600</v>
       </c>
       <c r="J48" s="3">
+        <v>3792600</v>
+      </c>
+      <c r="K48" s="3">
         <v>3956700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4192800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4323800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4038400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4102900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4325900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4793500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5023200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5304800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>5438700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>5457000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>4219500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>4201800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>4224000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>4290200</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>4751300</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>4833700</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>4984100</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>4980900</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>5292300</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>5365800</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>5402900</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1732900</v>
+        <v>1738800</v>
       </c>
       <c r="E49" s="3">
-        <v>1383600</v>
+        <v>1674800</v>
       </c>
       <c r="F49" s="3">
-        <v>1342200</v>
+        <v>1337300</v>
       </c>
       <c r="G49" s="3">
-        <v>1306900</v>
+        <v>1297200</v>
       </c>
       <c r="H49" s="3">
-        <v>1259400</v>
+        <v>1263200</v>
       </c>
       <c r="I49" s="3">
-        <v>1245800</v>
+        <v>1217200</v>
       </c>
       <c r="J49" s="3">
+        <v>1204100</v>
+      </c>
+      <c r="K49" s="3">
         <v>1174500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1207100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1203500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1146400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1156000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1188300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1253900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1268000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1348400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1323100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1381900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1492000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1482000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1521000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1508100</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>1565500</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>1609100</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>1638400</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>1634800</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>1731500</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>1773700</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>1761300</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4153,8 +4266,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4242,97 +4358,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1495800</v>
+        <v>1697500</v>
       </c>
       <c r="E52" s="3">
-        <v>1532900</v>
+        <v>1445700</v>
       </c>
       <c r="F52" s="3">
-        <v>1637600</v>
+        <v>1481600</v>
       </c>
       <c r="G52" s="3">
-        <v>1890900</v>
+        <v>1582800</v>
       </c>
       <c r="H52" s="3">
-        <v>1943100</v>
+        <v>1827600</v>
       </c>
       <c r="I52" s="3">
-        <v>2069500</v>
+        <v>1878000</v>
       </c>
       <c r="J52" s="3">
+        <v>2000200</v>
+      </c>
+      <c r="K52" s="3">
         <v>1923400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1726700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1770700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1804700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1637500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1905100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2190600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2640800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1992500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2260600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>2231800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>2436900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>2024100</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>2036300</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1967800</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>2202800</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>2103500</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>2053100</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>1898900</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>2354200</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>2168000</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>2425900</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4420,97 +4542,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>22258900</v>
+        <v>21662600</v>
       </c>
       <c r="E54" s="3">
-        <v>22434500</v>
+        <v>21513700</v>
       </c>
       <c r="F54" s="3">
-        <v>21524700</v>
+        <v>21683400</v>
       </c>
       <c r="G54" s="3">
-        <v>22148700</v>
+        <v>20804100</v>
       </c>
       <c r="H54" s="3">
-        <v>21898000</v>
+        <v>21407200</v>
       </c>
       <c r="I54" s="3">
-        <v>22889500</v>
+        <v>21164900</v>
       </c>
       <c r="J54" s="3">
+        <v>22123200</v>
+      </c>
+      <c r="K54" s="3">
         <v>21404200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>22006300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>22298800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>22618600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>22214000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>23288200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>25462700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>28081400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>28376800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>28606900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>27736200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>29837500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>28246100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>28596900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>27783500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>28218600</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>26961200</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>27902100</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>27493600</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>28308600</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>28040900</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>26642400</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4542,8 +4670,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4575,542 +4704,561 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2838700</v>
+        <v>2678700</v>
       </c>
       <c r="E57" s="3">
-        <v>3148400</v>
+        <v>2743700</v>
       </c>
       <c r="F57" s="3">
-        <v>2999400</v>
+        <v>3043000</v>
       </c>
       <c r="G57" s="3">
-        <v>2955900</v>
+        <v>2899000</v>
       </c>
       <c r="H57" s="3">
-        <v>2904300</v>
+        <v>2856900</v>
       </c>
       <c r="I57" s="3">
-        <v>3193100</v>
+        <v>2807100</v>
       </c>
       <c r="J57" s="3">
+        <v>3086200</v>
+      </c>
+      <c r="K57" s="3">
         <v>3030300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3102000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2857400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3284700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3201200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3215500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3384800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>4177500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>4421000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>4504000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>4041700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>5081200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>4770900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>4895000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>4925800</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>4890100</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>4536100</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>4442700</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>4365700</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>5479100</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>5278500</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>4733500</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>845600</v>
+        <v>776700</v>
       </c>
       <c r="E58" s="3">
-        <v>711600</v>
+        <v>817300</v>
       </c>
       <c r="F58" s="3">
-        <v>1050200</v>
+        <v>687800</v>
       </c>
       <c r="G58" s="3">
-        <v>923500</v>
+        <v>1015000</v>
       </c>
       <c r="H58" s="3">
-        <v>937000</v>
+        <v>892600</v>
       </c>
       <c r="I58" s="3">
-        <v>1159400</v>
+        <v>905600</v>
       </c>
       <c r="J58" s="3">
+        <v>1120600</v>
+      </c>
+      <c r="K58" s="3">
         <v>1089400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1122100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1107800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1235600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1472400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1649000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2044000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1757200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2170500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1874100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1445400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1257700</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1139500</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1370500</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1457300</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1223900</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>1843800</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>1758100</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>1742400</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>1160100</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>2089100</v>
       </c>
-      <c r="AE58" s="3">
+      <c r="AF58" s="3">
         <v>1598500</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4436000</v>
+        <v>4431600</v>
       </c>
       <c r="E59" s="3">
-        <v>4909300</v>
+        <v>4287500</v>
       </c>
       <c r="F59" s="3">
-        <v>3960000</v>
+        <v>4744900</v>
       </c>
       <c r="G59" s="3">
-        <v>4167900</v>
+        <v>3827400</v>
       </c>
       <c r="H59" s="3">
-        <v>4251900</v>
+        <v>4028300</v>
       </c>
       <c r="I59" s="3">
-        <v>4720900</v>
+        <v>4109600</v>
       </c>
       <c r="J59" s="3">
+        <v>4562800</v>
+      </c>
+      <c r="K59" s="3">
         <v>3835200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4055900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4247700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4622300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4288800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4783000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>5037200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>6096400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>5430800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>5602200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>5604600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>6777800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>6198400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>5931800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>5503600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>5842700</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>5204500</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>6069800</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>6141100</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>6062600</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>5314400</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>5197200</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>8120400</v>
+        <v>7887000</v>
       </c>
       <c r="E60" s="3">
-        <v>8769300</v>
+        <v>7848500</v>
       </c>
       <c r="F60" s="3">
-        <v>8009600</v>
+        <v>8475700</v>
       </c>
       <c r="G60" s="3">
-        <v>8047300</v>
+        <v>7741400</v>
       </c>
       <c r="H60" s="3">
-        <v>8093200</v>
+        <v>7777900</v>
       </c>
       <c r="I60" s="3">
-        <v>9073400</v>
+        <v>7822200</v>
       </c>
       <c r="J60" s="3">
+        <v>8769700</v>
+      </c>
+      <c r="K60" s="3">
         <v>7955000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>8280000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>8212900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>9142500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>8962400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>9647500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>10466000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>12031000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>12022300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>11980300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>11091700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>13116800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>12108900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>12197300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>11886800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>11956700</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>11584400</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>12270600</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>12249300</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>12701800</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>12682100</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>11529200</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>760900</v>
+        <v>696800</v>
       </c>
       <c r="E61" s="3">
-        <v>739200</v>
+        <v>735400</v>
       </c>
       <c r="F61" s="3">
-        <v>745200</v>
+        <v>714500</v>
       </c>
       <c r="G61" s="3">
-        <v>750700</v>
+        <v>720200</v>
       </c>
       <c r="H61" s="3">
-        <v>797000</v>
+        <v>725500</v>
       </c>
       <c r="I61" s="3">
-        <v>800700</v>
+        <v>770400</v>
       </c>
       <c r="J61" s="3">
+        <v>773900</v>
+      </c>
+      <c r="K61" s="3">
         <v>922900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>986400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1192800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1007200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1060200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1197700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1446600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1815900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2113600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2349700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2693000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1781100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2114900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2085900</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>2071600</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>2409200</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>2514000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>2845600</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>2850300</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>3142700</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>3330600</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>3416600</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1040600</v>
+        <v>964300</v>
       </c>
       <c r="E62" s="3">
-        <v>994100</v>
+        <v>1005700</v>
       </c>
       <c r="F62" s="3">
-        <v>972800</v>
+        <v>960800</v>
       </c>
       <c r="G62" s="3">
-        <v>1029700</v>
+        <v>940200</v>
       </c>
       <c r="H62" s="3">
-        <v>1068400</v>
+        <v>995200</v>
       </c>
       <c r="I62" s="3">
-        <v>1228200</v>
+        <v>1032700</v>
       </c>
       <c r="J62" s="3">
+        <v>1187000</v>
+      </c>
+      <c r="K62" s="3">
         <v>1242800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1337900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1430100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1501300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1699300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1882000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2089500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2354800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2252000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2448600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>2622000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>2892300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>2815900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>2349600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>2433100</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>2960400</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>2738600</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>3007700</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>3186800</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>3423800</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>3635400</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>4100300</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5198,8 +5346,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5287,8 +5438,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5376,97 +5530,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>10977900</v>
+        <v>10602100</v>
       </c>
       <c r="E66" s="3">
-        <v>11533000</v>
+        <v>10610400</v>
       </c>
       <c r="F66" s="3">
-        <v>10738400</v>
+        <v>11146900</v>
       </c>
       <c r="G66" s="3">
-        <v>10810600</v>
+        <v>10378900</v>
       </c>
       <c r="H66" s="3">
-        <v>10872800</v>
+        <v>10448700</v>
       </c>
       <c r="I66" s="3">
-        <v>11961300</v>
+        <v>10508800</v>
       </c>
       <c r="J66" s="3">
+        <v>11560900</v>
+      </c>
+      <c r="K66" s="3">
         <v>10923700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>11391200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>11576400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>12337100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>12389100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>13413200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>14929300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>17148600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>17363200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>17853700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>17483400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>18958500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>18179000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>17756300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>17466900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>18384900</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>17967300</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>19395400</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>19535600</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>20491500</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>20859700</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>20204800</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5498,8 +5658,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5587,8 +5748,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5676,8 +5840,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5765,8 +5932,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5854,97 +6024,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>8434100</v>
+        <v>8650600</v>
       </c>
       <c r="E72" s="3">
-        <v>8426700</v>
+        <v>8151700</v>
       </c>
       <c r="F72" s="3">
-        <v>7921400</v>
+        <v>8144600</v>
       </c>
       <c r="G72" s="3">
-        <v>7906700</v>
+        <v>7656200</v>
       </c>
       <c r="H72" s="3">
-        <v>7521500</v>
+        <v>7642000</v>
       </c>
       <c r="I72" s="3">
-        <v>7477500</v>
+        <v>7269700</v>
       </c>
       <c r="J72" s="3">
+        <v>7227200</v>
+      </c>
+      <c r="K72" s="3">
         <v>7032000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>6892300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>6811900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>6445800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>5832600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>5761000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>6145800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>6483500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>5905600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>5726800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>5205100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>5543600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>4808000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>5381100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>5046900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>4337200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>3458200</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>3040200</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>2400300</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>2358500</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>1640600</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>1192500</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6032,8 +6208,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6121,8 +6300,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6210,97 +6392,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>11281000</v>
+        <v>11060500</v>
       </c>
       <c r="E76" s="3">
-        <v>10901600</v>
+        <v>10903300</v>
       </c>
       <c r="F76" s="3">
-        <v>10786200</v>
+        <v>10536600</v>
       </c>
       <c r="G76" s="3">
-        <v>11338100</v>
+        <v>10425100</v>
       </c>
       <c r="H76" s="3">
-        <v>11025200</v>
+        <v>10958500</v>
       </c>
       <c r="I76" s="3">
-        <v>10928200</v>
+        <v>10656100</v>
       </c>
       <c r="J76" s="3">
+        <v>10562300</v>
+      </c>
+      <c r="K76" s="3">
         <v>10480500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>10615100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>10722300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>10281500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>9824900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>9874900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>10533400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>10932800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>11013600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>10753200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>10252800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>10879000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>10067100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>10840600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>10316700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>9833700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>8993900</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>8506700</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>7958000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>7817100</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>7181100</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>6437700</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6388,191 +6576,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>29900</v>
+        <v>222200</v>
       </c>
       <c r="E81" s="3">
-        <v>703700</v>
+        <v>28900</v>
       </c>
       <c r="F81" s="3">
-        <v>280100</v>
+        <v>680200</v>
       </c>
       <c r="G81" s="3">
-        <v>375800</v>
+        <v>270700</v>
       </c>
       <c r="H81" s="3">
-        <v>118700</v>
+        <v>363200</v>
       </c>
       <c r="I81" s="3">
-        <v>401300</v>
+        <v>114800</v>
       </c>
       <c r="J81" s="3">
+        <v>387800</v>
+      </c>
+      <c r="K81" s="3">
         <v>490100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>207500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>177600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>626100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>493100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>225500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>155000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>529800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>330200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>519800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>65000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>510300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-280100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>77800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>661400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>1029700</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>108100</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>373600</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>19400</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>499000</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>180700</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>229900</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6604,97 +6801,101 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>270300</v>
+        <v>272800</v>
       </c>
       <c r="E83" s="3">
-        <v>336100</v>
+        <v>261300</v>
       </c>
       <c r="F83" s="3">
-        <v>295000</v>
+        <v>324900</v>
       </c>
       <c r="G83" s="3">
-        <v>293100</v>
+        <v>285100</v>
       </c>
       <c r="H83" s="3">
-        <v>307000</v>
+        <v>283300</v>
       </c>
       <c r="I83" s="3">
-        <v>356500</v>
+        <v>296700</v>
       </c>
       <c r="J83" s="3">
+        <v>344600</v>
+      </c>
+      <c r="K83" s="3">
         <v>308300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>326600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>325600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>358000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>317200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>321500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>347900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>479800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>467500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>486900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>506400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>399000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>397400</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>353700</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>331100</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>406300</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>374200</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>382800</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>371200</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>510100</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>394600</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>391500</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6782,8 +6983,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6871,8 +7075,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6960,8 +7167,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7049,8 +7259,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7138,97 +7351,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1156000</v>
+        <v>-211200</v>
       </c>
       <c r="E89" s="3">
-        <v>985100</v>
+        <v>1117300</v>
       </c>
       <c r="F89" s="3">
-        <v>-74500</v>
+        <v>952100</v>
       </c>
       <c r="G89" s="3">
-        <v>-253200</v>
+        <v>-72000</v>
       </c>
       <c r="H89" s="3">
-        <v>856300</v>
+        <v>-244700</v>
       </c>
       <c r="I89" s="3">
-        <v>370300</v>
+        <v>827600</v>
       </c>
       <c r="J89" s="3">
+        <v>357900</v>
+      </c>
+      <c r="K89" s="3">
         <v>154100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-144300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1411300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>769400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>311300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>62800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1270100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1149600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>925100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-10600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1066000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>798500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-282800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-542300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>951300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1170800</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>146100</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-243400</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>738300</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>1384900</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>462200</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>-176900</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7260,97 +7479,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-61302000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-32721000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-52404000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-40044000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-34795000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-40855000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-36607000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-38364000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-36011000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-237200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-260100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-250200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-247200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-223700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-299500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-339000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-327900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-238900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-277100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-280100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-308100</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-263300</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-328500</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-278400</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-345300</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-268200</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>796000</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-743100</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-1114100</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7438,8 +7661,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7527,97 +7753,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-292500</v>
+        <v>-393500</v>
       </c>
       <c r="E94" s="3">
-        <v>-106800</v>
+        <v>-282700</v>
       </c>
       <c r="F94" s="3">
-        <v>90800</v>
+        <v>-103200</v>
       </c>
       <c r="G94" s="3">
-        <v>123500</v>
+        <v>87800</v>
       </c>
       <c r="H94" s="3">
-        <v>-401600</v>
+        <v>119300</v>
       </c>
       <c r="I94" s="3">
-        <v>177100</v>
+        <v>-388200</v>
       </c>
       <c r="J94" s="3">
+        <v>171100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-117500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-280600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-213300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-214800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>21500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-266300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-85400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-613900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>30500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-341100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-98500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-124800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>151500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-165200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>171400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>135400</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-19800</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-35900</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-283900</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-128400</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-312300</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-509000</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7649,97 +7881,101 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-155300</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-150100</v>
       </c>
       <c r="F96" s="3">
-        <v>-162100</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-156700</v>
       </c>
       <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-143500</v>
+      </c>
+      <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
+        <v>-149600</v>
+      </c>
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>-146300</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>-146800</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>-170800</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>-147700</v>
+      </c>
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-148500</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-149600</v>
-      </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-146300</v>
-      </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-146800</v>
-      </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-170800</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-147700</v>
-      </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
-      <c r="T96" s="3">
-        <v>-148500</v>
-      </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-135100</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
       <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-112300</v>
       </c>
-      <c r="Y96" s="3">
-        <v>0</v>
-      </c>
       <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-92700</v>
       </c>
-      <c r="AA96" s="3">
-        <v>0</v>
-      </c>
       <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
         <v>-92700</v>
       </c>
-      <c r="AC96" s="3">
-        <v>0</v>
-      </c>
       <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE96" s="3">
         <v>-73400</v>
       </c>
-      <c r="AE96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7827,8 +8063,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7916,8 +8155,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8005,271 +8247,283 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-170700</v>
+        <v>-122200</v>
       </c>
       <c r="E100" s="3">
-        <v>-985400</v>
+        <v>-165000</v>
       </c>
       <c r="F100" s="3">
-        <v>-595700</v>
+        <v>-952400</v>
       </c>
       <c r="G100" s="3">
-        <v>-101800</v>
+        <v>-575700</v>
       </c>
       <c r="H100" s="3">
-        <v>-471500</v>
+        <v>-98400</v>
       </c>
       <c r="I100" s="3">
-        <v>-195600</v>
+        <v>-455700</v>
       </c>
       <c r="J100" s="3">
+        <v>-189100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-384600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-290100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-507100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-515700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-522700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-403200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-203300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-966600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-224700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-31000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-507600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-328900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-456900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-98000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-394900</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-724300</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-355700</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-24600</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>87700</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-1222900</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>222400</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>-114400</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>63300</v>
+        <v>28700</v>
       </c>
       <c r="E101" s="3">
-        <v>19000</v>
+        <v>61200</v>
       </c>
       <c r="F101" s="3">
-        <v>-31000</v>
+        <v>18300</v>
       </c>
       <c r="G101" s="3">
-        <v>5300</v>
+        <v>-30000</v>
       </c>
       <c r="H101" s="3">
-        <v>61300</v>
+        <v>5200</v>
       </c>
       <c r="I101" s="3">
-        <v>35400</v>
+        <v>59200</v>
       </c>
       <c r="J101" s="3">
+        <v>34200</v>
+      </c>
+      <c r="K101" s="3">
         <v>14500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-8200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>4900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>52100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>13000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>10400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>13500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-28400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>8600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-8100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-4000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-25900</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-29900</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>15200</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>12400</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-5500</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>12600</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>15900</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>7400</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-6500</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>98700</v>
       </c>
-      <c r="AE101" s="3">
+      <c r="AF101" s="3">
         <v>-16300</v>
       </c>
     </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>756000</v>
+        <v>-698100</v>
       </c>
       <c r="E102" s="3">
-        <v>-88100</v>
+        <v>730700</v>
       </c>
       <c r="F102" s="3">
-        <v>-610400</v>
+        <v>-85200</v>
       </c>
       <c r="G102" s="3">
-        <v>-226200</v>
+        <v>-589900</v>
       </c>
       <c r="H102" s="3">
-        <v>44500</v>
+        <v>-218600</v>
       </c>
       <c r="I102" s="3">
-        <v>387200</v>
+        <v>43000</v>
       </c>
       <c r="J102" s="3">
+        <v>374300</v>
+      </c>
+      <c r="K102" s="3">
         <v>-333400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-723300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>695800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>91000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-176900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-596300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>995000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-459200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>739400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-390800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>455900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>318800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-618100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-790300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>740200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>576400</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-216800</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-288000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>549500</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>27100</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>471000</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>-816700</v>
       </c>
     </row>
